--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="567">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chawathil First Nation  ("Shi-Wa-Thill")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chawathil First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Rhoda Peters, next election July 14, 2022</t>
@@ -249,6 +252,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Chiyom Agassiz (Cheam) First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Andrew Victor, next election November 29, 2021. Councillors; Bruce (BJ), Douglas, Darwin Jason Douglas, John Lincoln Douglas, Stephanie Fredette, Fredick (Rick) Quipp, </t>
   </si>
   <si>
@@ -268,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coldwater First Nation (Nc/etko - the people of the creeks)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coldwater First Nation</t>
   </si>
   <si>
     <r>
@@ -337,7 +346,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Cook's Ferry Indian Band                                   </t>
+      <t xml:space="preserve">Cook's Ferry Indian Band </t>
     </r>
     <r>
       <rPr>
@@ -346,8 +355,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</t>
+      <t xml:space="preserve">Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook's Ferry Indian Band</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Christine Minnabarriet, next election December 5, 2022</t>
@@ -400,7 +412,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ditidaht First Nation                   </t>
+      <t xml:space="preserve">Ditidaht First Nation </t>
     </r>
     <r>
       <rPr>
@@ -409,8 +421,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Formerly Nitinaht (Pre-1984) (Variation Nitinat)</t>
+      <t xml:space="preserve">Formerly Nitinaht (Pre-1984) (Variation Nitinat)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ditidaht First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Councillor Brian Tate, next election July 15, 2023. Councillors; Anne Pettet, Paul Sieber, Kelly Sport, Darryl Tate, </t>
@@ -433,6 +448,9 @@
   </si>
   <si>
     <t xml:space="preserve">Esquimalt Nation (Xwsepsum or Kosapsum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquimalt Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Andrew Thomas, Hereditary Chief (appointed January 14, 2019)  Elected Chief Thomas Robert - 4 year term, next election October 1, 2023</t>
@@ -2624,8 +2642,8 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2877,1000 +2895,1059 @@
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5" t="str">
-        <f aca="false">A9</f>
-        <v>Chawathil First Nation  ("Shi-Wa-Thill")</v>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>49.283272</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>-121.291263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="134.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f aca="false">A10</f>
-        <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>49.540481</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>-121.7239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f aca="false">A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>50.027994</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>-120.41473</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f aca="false">A12</f>
-        <v>Cook's Ferry Indian Band                                    Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>50.032193</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>-120.617392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f aca="false">A13</f>
-        <v>Cowichan Tribes</v>
+        <v>84</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>48.888822</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>-123.752153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f aca="false">A14</f>
-        <v>Ditidaht First Nation                    Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>48.890317</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>-124.592686</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f aca="false">A15</f>
-        <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
+        <v>99</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>48.688573</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>-123.453132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>48.929783</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>-124.479846</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>52.337794</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>-127.826237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="str">
         <f aca="false">A18</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>48.833479</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>-124.929585</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="165.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H19" s="11"/>
+      <c r="I19" s="0" t="n">
+        <v>49.557619</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>-122.607872</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="str">
         <f aca="false">A20</f>
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B21" s="5" t="str">
         <f aca="false">A21</f>
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B23" s="5" t="str">
         <f aca="false">A23</f>
         <v>Leq' a: mel First Nation</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="str">
         <f aca="false">A24</f>
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B25" s="5" t="str">
         <f aca="false">A25</f>
         <v>Lheidli T'enneh First Nation</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="174.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B26" s="5" t="str">
         <f aca="false">A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B27" s="5" t="str">
         <f aca="false">A27</f>
         <v>Lower Nicola Indian Band -</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="str">
         <f aca="false">A28</f>
         <v>Lower Similkameen #598</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B30" s="5" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B31" s="5" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="str">
         <f aca="false">A32</f>
         <v>Musqeam Indian Band</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B33" s="5" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B34" s="5" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="32" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B35" s="5" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B37" s="5" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B38" s="5" t="str">
         <f aca="false">A38</f>
         <v>Penticton Indian Band</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B39" s="5" t="str">
         <f aca="false">A39</f>
         <v>Peters Band (Peters First Nation)</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B40" s="5" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B41" s="5" t="str">
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B42" s="5" t="str">
         <f aca="false">A42</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B43" s="5" t="str">
         <f aca="false">A43</f>
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B44" s="5" t="str">
         <f aca="false">A44</f>
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B45" s="5" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="36" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="37" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>51.527017</v>
@@ -3881,32 +3958,32 @@
     </row>
     <row r="47" customFormat="false" ht="286.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B47" s="5" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="38" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B48" s="5" t="str">
         <f aca="false">A48</f>
@@ -3919,7 +3996,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>16</v>
@@ -3928,984 +4005,984 @@
         <v>17</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B49" s="5" t="str">
         <f aca="false">A49</f>
         <v>Shackan Indian Band</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="183" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="39" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B50" s="5" t="str">
         <f aca="false">A50</f>
         <v>Shxw'owhamel First Nation pronounced "Shwoh-hamel"</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="42" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B51" s="5" t="str">
         <f aca="false">A51</f>
         <v>Shxwha:y Villiage</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="44" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="34" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B52" s="5" t="str">
         <f aca="false">A52</f>
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B53" s="5" t="str">
         <f aca="false">A53</f>
         <v>Siska Indian Band</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B54" s="5" t="str">
         <f aca="false">A54</f>
         <v>Skuppah Indian Band</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B55" s="5" t="str">
         <f aca="false">A55</f>
         <v>Skowkale First Nation</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B56" s="5" t="str">
         <f aca="false">A56</f>
         <v>Shuswap Indian Band</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B57" s="5" t="str">
         <f aca="false">A57</f>
         <v>Skawahlook First Nation</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="46" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B58" s="5" t="str">
         <f aca="false">A58</f>
         <v>Skwah First Nation</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B59" s="5" t="str">
         <f aca="false">A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B60" s="5" t="str">
         <f aca="false">A60</f>
         <v>Soowahlie First Nation</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="46" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B61" s="5" t="str">
         <f aca="false">A61</f>
         <v>Spuzzum First Nation</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="192" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="47" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B62" s="5" t="str">
         <f aca="false">A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="47" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B63" s="5" t="str">
         <f aca="false">A63</f>
         <v>Squiala First Nation</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B64" s="5" t="str">
         <f aca="false">A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B65" s="5" t="str">
         <f aca="false">A65</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B66" s="5" t="str">
         <f aca="false">A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="38" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B67" s="5" t="str">
         <f aca="false">A67</f>
         <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="34" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B68" s="5" t="str">
         <f aca="false">A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="19" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B69" s="5" t="str">
         <f aca="false">A69</f>
         <v>Sumas First Nation</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="46" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B70" s="5" t="str">
         <f aca="false">A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B71" s="5" t="str">
         <f aca="false">A71</f>
         <v>Tsartlip First Nation</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="47" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B72" s="5" t="str">
         <f aca="false">A72</f>
         <v>Tsawout First Nation</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B73" s="5" t="str">
         <f aca="false">A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="258" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="34" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B74" s="5" t="str">
         <f aca="false">A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="19" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B75" s="5" t="str">
         <f aca="false">A75</f>
         <v>Tseycum First Nation</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="46" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B76" s="5" t="str">
         <f aca="false">A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B77" s="5" t="str">
         <f aca="false">A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B78" s="5" t="str">
         <f aca="false">A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="19" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B79" s="5" t="str">
         <f aca="false">A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B80" s="5" t="str">
         <f aca="false">A80</f>
         <v>Tzeachten First Nation</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B81" s="5" t="str">
         <f aca="false">A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="19" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B82" s="5" t="str">
         <f aca="false">A82</f>
         <v>Union Bar First Nations</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="19" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B83" s="5" t="str">
         <f aca="false">A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="46" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B84" s="5" t="str">
         <f aca="false">A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B85" s="5" t="str">
         <f aca="false">A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="51" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B86" s="5" t="str">
         <f aca="false">A86</f>
@@ -4919,106 +4996,106 @@
     </row>
     <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B87" s="5" t="str">
         <f aca="false">A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B88" s="5" t="str">
         <f aca="false">A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="19" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B89" s="5" t="str">
         <f aca="false">A89</f>
         <v>Yale First Nation</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B90" s="5" t="str">
         <f aca="false">A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E90" s="52" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5033,7 +5110,7 @@
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B92" s="19"/>
       <c r="E92" s="57"/>
@@ -5042,7 +5119,7 @@
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B93" s="10"/>
       <c r="E93" s="57"/>
@@ -5050,7 +5127,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B94" s="10"/>
       <c r="E94" s="57"/>
@@ -5058,7 +5135,7 @@
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B95" s="10"/>
       <c r="E95" s="57"/>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="580">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aitchelitz Band (a-che-leetz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shxwháy Village</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Angie Bailey (June 4, 2010) Election: Hereditary - Custom</t>
@@ -540,6 +543,9 @@
     <t xml:space="preserve">Kwantlen First Nation (tireless Runner)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kwantlen First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Marilyn Gabriel (November 30, 1993) Councillors; Leslie Antone, Tumia Knott</t>
   </si>
   <si>
@@ -561,6 +567,9 @@
     <t xml:space="preserve">Kwaw -Kwaw-Aplit First Nations </t>
   </si>
   <si>
+    <t xml:space="preserve">Kwaw-Kwaw-Aplit First Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Randy Leon - next election August 24, 2022</t>
   </si>
   <si>
@@ -598,6 +607,9 @@
   </si>
   <si>
     <t xml:space="preserve">Leq' a: mel First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leq'amel First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Alice Thompson - next election March 2025 </t>
@@ -621,6 +633,9 @@
     <t xml:space="preserve">Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</t>
   </si>
   <si>
+    <t xml:space="preserve">Little Shuswap Lake Indian Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Oliver Arnouse - next election October 23, 2021</t>
   </si>
   <si>
@@ -642,6 +657,9 @@
     <t xml:space="preserve">Lheidli T'enneh First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Lheidli Tenneh First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Dolleen Logan - next election April 09, 2023</t>
   </si>
   <si>
@@ -682,6 +700,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lower Nicola Indian Band -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nicola Indian Band</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Stuart Jackson - next election September 30, 2022</t>
@@ -706,6 +727,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lower Similkameen #598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowerSimilkameen598</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Keith Crow - next election December 6, 2021. Councillor Janet Terbasket December 6, 2021, Councillors; Ira Edward, John Louie November 04, 2023</t>
@@ -791,6 +815,9 @@
     <t xml:space="preserve">Musqeam Indian Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Musqueam Indian Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Wayne Sparrow - next election Nov 30, 2024</t>
   </si>
   <si>
@@ -933,6 +960,9 @@
     <t xml:space="preserve">Peters Band (Peters First Nation)</t>
   </si>
   <si>
+    <t xml:space="preserve">Peters Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Norma Jean Webb - next election December 22, 2021</t>
   </si>
   <si>
@@ -1005,6 +1035,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scia'new First Nation (Beecher Bay First Nation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sc'ia'new First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Russ Chipps - next election: October 8, 2023</t>
@@ -1133,6 +1166,9 @@
     <t xml:space="preserve">Shxw'owhamel First Nation pronounced "Shwoh-hamel"</t>
   </si>
   <si>
+    <t xml:space="preserve">Shxw'owhamel First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaders are called Si:yá:m. The Si:yá:m government/council system provides all families equal representation at the Council table level.  June 18, 2010,   Si:yam  Melody Andrews, Lucille Casimir, Lenora Fraser, Alfred James, Dean Jones, Lenona Kelly, Sonny Mchalsie, , Louise Mussell, Brenda Peters, Shawna Peters, Irene Smith</t>
   </si>
   <si>
@@ -1176,6 +1212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Simpcw First Nation "People of the Rivers"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpcw First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Shelly Ann Loring - next election May 31, 2024. Councillors; Edward (Eddie) Celesta, Christine (Tina) Donald, Lori Eustache, Alison Eustache (Green), George Lampreau, Ronald (Ron Jr.)  Lampreau, </t>
@@ -1972,7 +2011,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2011,12 +2050,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -2046,11 +2079,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF4D415C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2321,11 +2367,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2350,10 +2396,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2370,7 +2412,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2378,119 +2420,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2498,15 +2548,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2522,11 +2572,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2550,7 +2600,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2642,8 +2692,8 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2697,29 +2747,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="2" t="n">
@@ -2729,64 +2779,63 @@
         <v>-120.076953</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="140.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="str">
-        <f aca="false">A4</f>
-        <v>Aitchelitz Band (a-che-leetz)</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="0" t="n">
-        <v>49.065977</v>
+        <v>49.087557</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>-121.888063</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>-121.829723</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="str">
         <f aca="false">A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>50.404267</v>
@@ -2795,31 +2844,31 @@
         <v>-120.678195</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="str">
         <f aca="false">A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>49.963059</v>
@@ -2828,30 +2877,30 @@
         <v>-121.484624</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="str">
         <f aca="false">A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="G7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="14"/>
       <c r="I7" s="0" t="n">
         <v>49.621761</v>
       </c>
@@ -2859,30 +2908,30 @@
         <v>-120.95154</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="165" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>46</v>
+    <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>53</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>51.770937</v>
@@ -2892,29 +2941,29 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>54</v>
+      <c r="A9" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>49.283272</v>
@@ -2925,28 +2974,28 @@
     </row>
     <row r="10" customFormat="false" ht="134.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>68</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>49.540481</v>
@@ -2956,29 +3005,29 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>69</v>
+      <c r="A11" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>75</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>50.027994</v>
@@ -2988,29 +3037,29 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>76</v>
+      <c r="A12" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>50.032193</v>
@@ -3020,29 +3069,29 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>84</v>
+      <c r="A13" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>48.888822</v>
@@ -3052,29 +3101,29 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>91</v>
+      <c r="A14" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="9" t="s">
         <v>98</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>48.890317</v>
@@ -3084,29 +3133,29 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>99</v>
+      <c r="A15" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="F15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>48.688573</v>
@@ -3116,30 +3165,30 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>106</v>
+      <c r="A16" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>48.929783</v>
@@ -3149,26 +3198,26 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>113</v>
+      <c r="A17" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="B17" s="5" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="10" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>52.337794</v>
@@ -3178,30 +3227,30 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>118</v>
+      <c r="A18" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="str">
         <f aca="false">A18</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>123</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>48.833479</v>
@@ -3212,28 +3261,28 @@
     </row>
     <row r="19" customFormat="false" ht="165.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="F19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="0" t="n">
         <v>49.557619</v>
       </c>
@@ -3242,712 +3291,850 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f aca="false">A20</f>
-        <v>Kwantlen First Nation (tireless Runner)</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>135</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>49.476845</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>-122.296959</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f aca="false">A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations</v>
+        <v>138</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="E21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="0" t="n">
+        <v>49.516226</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>-121.756432</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>148</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>49.451741</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>-122.657791</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f aca="false">A23</f>
-        <v>Leq' a: mel First Nation</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>49.348358</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>-122.106774</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f aca="false">A24</f>
-        <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
+        <v>159</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="15" t="s">
         <v>161</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>51.287872</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>-118.990533</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f aca="false">A25</f>
-        <v>Lheidli T'enneh First Nation</v>
+        <v>167</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>53.944696</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>-121.694171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="174.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>169</v>
+      <c r="A26" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="5" t="str">
         <f aca="false">A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>175</v>
+      <c r="C26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>52.953049</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>-122.449172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f aca="false">A27</f>
-        <v>Lower Nicola Indian Band -</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="A27" s="18" t="s">
         <v>182</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>50.006984</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>-121.261538</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="5" t="str">
-        <f aca="false">A28</f>
-        <v>Lower Similkameen #598</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" s="15"/>
+        <v>190</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="0" t="n">
+        <v>49.845148</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>-118.987733</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>195</v>
+      <c r="C29" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>48.941803</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>-123.490134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>196</v>
+      <c r="A30" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="B30" s="5" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>201</v>
+      <c r="C30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>48.655944</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>-124.000524</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B31" s="5" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" s="15"/>
+      <c r="C31" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="0" t="n">
+        <v>49.290611</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>-122.361868</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="5" t="str">
-        <f aca="false">A32</f>
-        <v>Musqeam Indian Band</v>
+      <c r="A32" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>49.353225</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>-123.012956</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>215</v>
+      <c r="A33" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="B33" s="5" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>220</v>
+      <c r="C33" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>51.21274</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>-118.846623</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>221</v>
+      <c r="A34" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>227</v>
+      <c r="C34" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>49.690318</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>-120.648292</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="32" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B35" s="5" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>231</v>
+      <c r="C35" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>233</v>
+      <c r="G35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>49.114526</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>-118.489264</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>234</v>
+      <c r="A36" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="B36" s="5" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>239</v>
+      <c r="C36" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>48.572918</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>-124.39459</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>240</v>
+      <c r="A37" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="B37" s="5" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="15"/>
+      <c r="C37" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="0" t="n">
+        <v>48.724102</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>-123.324246</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>246</v>
+      <c r="A38" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="B38" s="5" t="str">
         <f aca="false">A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>251</v>
+      <c r="C38" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>49.732366</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>-119.25376</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="5" t="str">
-        <f aca="false">A39</f>
-        <v>Peters Band (Peters First Nation)</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>257</v>
+      <c r="A39" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>49.505163</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>-121.482617</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
-        <v>258</v>
+      <c r="A40" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="B40" s="5" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>263</v>
+      <c r="C40" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>48.892388</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>-123.675652</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>264</v>
+      <c r="A41" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="B41" s="5" t="str">
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H41" s="15"/>
+      <c r="C41" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="0" t="n">
+        <v>49.57071</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>-121.506875</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>269</v>
+      <c r="A42" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="B42" s="5" t="str">
         <f aca="false">A42</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="15"/>
+      <c r="C42" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="5" t="str">
-        <f aca="false">A43</f>
-        <v>Scia'new First Nation (Beecher Bay First Nation)</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>48.440888</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>-123.676887</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="5" t="str">
-        <f aca="false">A44</f>
-        <v>Sq'ewlets (Scowlitz) First Nation</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>287</v>
+        <v>292</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>49.25517</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>-121.964821</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B45" s="5" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" s="15"/>
+      <c r="C45" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="0" t="n">
+        <v>49.262475</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>-121.724003</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
-        <v>293</v>
+      <c r="A46" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="13"/>
+      <c r="C46" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="12"/>
       <c r="E46" s="36" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>297</v>
+        <v>307</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>51.527017</v>
@@ -3957,1195 +4144,1249 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="286.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
-        <v>298</v>
+      <c r="A47" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="B47" s="5" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H47" s="15"/>
+      <c r="C47" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="0" t="n">
+        <v>49.012447</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>-122.767315</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="38" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B48" s="5" t="str">
         <f aca="false">A48</f>
         <v>Sexqeltqin (Adams Lake Indian Band)</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>305</v>
+      <c r="H48" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="5" t="str">
-        <f aca="false">A49</f>
-        <v>Shackan Indian Band</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>309</v>
+        <v>317</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="F49" s="36"/>
-      <c r="G49" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>311</v>
+      <c r="G49" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>-121.484624</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="183" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="5" t="str">
-        <f aca="false">A50</f>
-        <v>Shxw'owhamel First Nation pronounced "Shwoh-hamel"</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>318</v>
+      <c r="A50" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>49.339668</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>-121.60638</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="5" t="str">
-        <f aca="false">A51</f>
-        <v>Shxwha:y Villiage</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>322</v>
+      <c r="A51" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="F51" s="36"/>
-      <c r="G51" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>324</v>
+      <c r="G51" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>-121.829723</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B52" s="5" t="str">
-        <f aca="false">A52</f>
-        <v>Simpcw First Nation "People of the Rivers"</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>330</v>
+        <v>337</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>52.634393</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>-119.699777</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>331</v>
+      <c r="A53" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="B53" s="5" t="str">
         <f aca="false">A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="H53" s="15"/>
+      <c r="C53" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="0" t="n">
+        <v>50.117565</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>-120.838519</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="B54" s="5" t="str">
-        <f aca="false">A54</f>
-        <v>Skuppah Indian Band</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H54" s="15"/>
+      <c r="A54" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>-121.484624</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="B55" s="5" t="str">
-        <f aca="false">A55</f>
-        <v>Skowkale First Nation</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>348</v>
+      <c r="A55" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>-121.829723</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>349</v>
+      <c r="A56" s="18" t="s">
+        <v>362</v>
       </c>
       <c r="B56" s="5" t="str">
         <f aca="false">A56</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>355</v>
+      <c r="C56" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>50.367907</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>-116.89554</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>356</v>
+      <c r="A57" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="B57" s="5" t="str">
         <f aca="false">A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>361</v>
+      <c r="C57" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>49.227586</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>-122.174045</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
-        <v>362</v>
+      <c r="A58" s="47" t="s">
+        <v>375</v>
       </c>
       <c r="B58" s="5" t="str">
         <f aca="false">A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>367</v>
+      <c r="C58" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
-        <v>368</v>
+      <c r="A59" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="B59" s="5" t="str">
         <f aca="false">A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>373</v>
+      <c r="C59" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>374</v>
+      <c r="A60" s="18" t="s">
+        <v>387</v>
       </c>
       <c r="B60" s="5" t="str">
         <f aca="false">A60</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>379</v>
+      <c r="C60" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
-        <v>380</v>
+      <c r="A61" s="47" t="s">
+        <v>393</v>
       </c>
       <c r="B61" s="5" t="str">
         <f aca="false">A61</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>386</v>
+      <c r="C61" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="192" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47" t="s">
-        <v>387</v>
+      <c r="A62" s="48" t="s">
+        <v>400</v>
       </c>
       <c r="B62" s="5" t="str">
         <f aca="false">A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>392</v>
+      <c r="C62" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47" t="s">
-        <v>393</v>
+      <c r="A63" s="48" t="s">
+        <v>406</v>
       </c>
       <c r="B63" s="5" t="str">
         <f aca="false">A63</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>398</v>
+      <c r="C63" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>399</v>
+      <c r="A64" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="B64" s="5" t="str">
         <f aca="false">A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>404</v>
+      <c r="C64" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19" t="s">
-        <v>405</v>
+      <c r="A65" s="18" t="s">
+        <v>418</v>
       </c>
       <c r="B65" s="5" t="str">
         <f aca="false">A65</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>410</v>
+      <c r="C65" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>411</v>
+      <c r="A66" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="B66" s="5" t="str">
         <f aca="false">A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>417</v>
+      <c r="C66" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="38" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B67" s="5" t="str">
         <f aca="false">A67</f>
         <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>423</v>
+      <c r="C67" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="34" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B68" s="5" t="str">
         <f aca="false">A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>429</v>
+      <c r="C68" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19" t="s">
-        <v>430</v>
+      <c r="A69" s="18" t="s">
+        <v>443</v>
       </c>
       <c r="B69" s="5" t="str">
         <f aca="false">A69</f>
         <v>Sumas First Nation</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>435</v>
+        <v>444</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
-        <v>436</v>
+      <c r="A70" s="47" t="s">
+        <v>449</v>
       </c>
       <c r="B70" s="5" t="str">
         <f aca="false">A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="H70" s="15"/>
+      <c r="C70" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
-        <v>441</v>
+      <c r="A71" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="B71" s="5" t="str">
         <f aca="false">A71</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>446</v>
+      <c r="C71" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="47" t="s">
-        <v>447</v>
+      <c r="A72" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="B72" s="5" t="str">
         <f aca="false">A72</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>452</v>
+      <c r="C72" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
-        <v>453</v>
+      <c r="A73" s="13" t="s">
+        <v>466</v>
       </c>
       <c r="B73" s="5" t="str">
         <f aca="false">A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>459</v>
+      <c r="C73" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="258" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="34" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B74" s="5" t="str">
         <f aca="false">A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F74" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="H74" s="11"/>
+      <c r="C74" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
-        <v>466</v>
+      <c r="A75" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="B75" s="5" t="str">
         <f aca="false">A75</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>472</v>
+      <c r="C75" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="46" t="s">
-        <v>473</v>
+      <c r="A76" s="47" t="s">
+        <v>486</v>
       </c>
       <c r="B76" s="5" t="str">
         <f aca="false">A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10" t="s">
-        <v>477</v>
+      <c r="C76" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>478</v>
+      <c r="A77" s="13" t="s">
+        <v>491</v>
       </c>
       <c r="B77" s="5" t="str">
         <f aca="false">A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>483</v>
+      <c r="C77" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>484</v>
+      <c r="A78" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="B78" s="5" t="str">
         <f aca="false">A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>490</v>
+      <c r="C78" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
-        <v>491</v>
+      <c r="A79" s="18" t="s">
+        <v>504</v>
       </c>
       <c r="B79" s="5" t="str">
         <f aca="false">A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>494</v>
-      </c>
-      <c r="F79" s="49" t="s">
-        <v>495</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>497</v>
+      <c r="C79" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
-        <v>498</v>
+      <c r="A80" s="18" t="s">
+        <v>511</v>
       </c>
       <c r="B80" s="5" t="str">
         <f aca="false">A80</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>504</v>
+      <c r="C80" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19" t="s">
-        <v>505</v>
+      <c r="A81" s="18" t="s">
+        <v>518</v>
       </c>
       <c r="B81" s="5" t="str">
         <f aca="false">A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D81" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>511</v>
+      <c r="C81" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19" t="s">
-        <v>512</v>
+      <c r="A82" s="18" t="s">
+        <v>525</v>
       </c>
       <c r="B82" s="5" t="str">
         <f aca="false">A82</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="H82" s="15"/>
+      <c r="C82" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19" t="s">
-        <v>518</v>
+      <c r="A83" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="B83" s="5" t="str">
         <f aca="false">A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>523</v>
+      <c r="C83" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="46" t="s">
-        <v>524</v>
+      <c r="A84" s="47" t="s">
+        <v>537</v>
       </c>
       <c r="B84" s="5" t="str">
         <f aca="false">A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>529</v>
+      <c r="C84" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
-        <v>530</v>
+      <c r="A85" s="13" t="s">
+        <v>543</v>
       </c>
       <c r="B85" s="5" t="str">
         <f aca="false">A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>535</v>
+      <c r="C85" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="51" t="s">
-        <v>536</v>
+      <c r="A86" s="52" t="s">
+        <v>549</v>
       </c>
       <c r="B86" s="5" t="str">
         <f aca="false">A86</f>
         <v>Whispering Pines/Clinton Indian Bands  - Continued</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="H86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
-        <v>537</v>
+      <c r="A87" s="13" t="s">
+        <v>550</v>
       </c>
       <c r="B87" s="5" t="str">
         <f aca="false">A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>541</v>
+      <c r="C87" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19" t="s">
-        <v>542</v>
+      <c r="A88" s="18" t="s">
+        <v>555</v>
       </c>
       <c r="B88" s="5" t="str">
         <f aca="false">A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>548</v>
+      <c r="C88" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19" t="s">
-        <v>549</v>
+      <c r="A89" s="18" t="s">
+        <v>562</v>
       </c>
       <c r="B89" s="5" t="str">
         <f aca="false">A89</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>555</v>
+      <c r="C89" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19" t="s">
-        <v>556</v>
+      <c r="A90" s="18" t="s">
+        <v>569</v>
       </c>
       <c r="B90" s="5" t="str">
         <f aca="false">A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E90" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>562</v>
+      <c r="C90" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="56"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="57"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="H92" s="10"/>
+      <c r="A92" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
+      <c r="A93" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
+      <c r="A95" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
     </row>
     <row r="96" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="610">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -58,16 +58,19 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
+    <t xml:space="preserve">Project Spreads</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adams Lake Indian Band</t>
   </si>
   <si>
     <t xml:space="preserve">Secwepmc of the Secwepmc Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Lynn Kenoras - next election June 21, 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence Lewis - Executive Director Main # (250) 679-8841</t>
+    <t xml:space="preserve">Chief LynnKenoras (Duck Chief) election June 26, 2024 every 3 yrs _ Councillors; Jules Brandi, Howard Nordqist, Cory Sampson, Shelley Witzky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence Lewis - Executive Director Main # (250) 679-8841   6453 Hillcrest Road, Chase, BC  V0E 1M0</t>
   </si>
   <si>
     <t xml:space="preserve">cnord@alib.ca</t>
@@ -82,19 +85,22 @@
     <t xml:space="preserve">https://www.adamslakeband.org</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 4 (KP 610 to 764)     </t>
+  </si>
+  <si>
     <t xml:space="preserve">Aitchelitz Band (a-che-leetz)</t>
   </si>
   <si>
     <t xml:space="preserve">Shxwháy Village</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Angie Bailey (June 4, 2010) Election: Hereditary - Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic Development contact: Chief angiebailey2010@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keri Ardell, Operations and Projects Manager TTML   (604) 792-2404</t>
+    <t xml:space="preserve">Chief Angie Bailey (June 4, 2010) Councillors; John Alphonse George (05/05/1976)  Gordon George (04/11/1994), Leona Sam (02/17/2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic Development contact: Chief angiebailey2010@hotmail.com    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keri Ardell, Operations and Projects Manager TTML   (604) 792-2404    8150 Aitken Road R.R.1 Sardis, BC  V2R 1A9</t>
   </si>
   <si>
     <t xml:space="preserve">Keri Ardell - keri.ardell@ttml.ca</t>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">https://www.stolonation.bc.ca/bands</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 6 (KP 1075 to 1144)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ashcroft Indian Band</t>
   </si>
   <si>
@@ -127,16 +136,19 @@
     <t xml:space="preserve">http://www.ashcroftband.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Thompson Country Spread 4 (KP 610 to 764) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Boothroyd Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Mike Campbell - next election September 30, 2021</t>
+    <t xml:space="preserve">Chief Mike Campbell, next election September 30, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Mike Campbell</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone: 604-867-9211   Email: boothroydband@gmail.com</t>
+    <t xml:space="preserve">Phone: 604-867-9211   Email: boothroydband@gmail.com    PO Box 295, Boston Bar, BC V0K 1C0 (250) 867-9211</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Mike Campbell </t>
@@ -151,13 +163,13 @@
     <t xml:space="preserve">Boston Bar First Nations</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Pamela Robertson, next election July 17, 2023.   Councillors; Yvonne Andrew, Jeremy Campbell, Darren Florence.</t>
+    <t xml:space="preserve">Chief Pamela O'Donaghey, next election July 17, 2023.   Councillors; Yvonne Andrew, Jeremy Campbell, Darren Florence</t>
   </si>
   <si>
     <t xml:space="preserve">Terry Raymond, Referrals </t>
   </si>
   <si>
-    <t xml:space="preserve">Phone: 604-867-9317  Email: bbarbandd@uniserve.com</t>
+    <t xml:space="preserve">Phone: 604-867-9317  Email: bbarbandd@uniserve.com     S.S. 1 Boston Bar, BC V0K 1C0</t>
   </si>
   <si>
     <t xml:space="preserve">Terry Raymond  tray69770@msn.com</t>
@@ -190,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://canimlakeband.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson Country - Spread 4 (KP 610 to 764) </t>
   </si>
   <si>
     <t xml:space="preserve">Chawathil First Nation  ("Shi-Wa-Thill")</t>
@@ -218,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">www.chawathil.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mainland  - Spread 7 </t>
   </si>
   <si>
     <r>
@@ -258,7 +276,7 @@
     <t xml:space="preserve">Chiyom Agassiz (Cheam) First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Andrew Victor, next election November 29, 2021. Councillors; Bruce (BJ), Douglas, Darwin Jason Douglas, John Lincoln Douglas, Stephanie Fredette, Fredick (Rick) Quipp, </t>
+    <t xml:space="preserve">Chief Andrew Victor, Councillors; Bruce (BJ), Douglas, Darwin Jason Douglas, John Lincoln Douglas, Stephanie Fredette, Fredick (Rick) Quipp, election November 29, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Tammy McLaren, Executive Assistant for Chief and Council   councilexecassist@cheamband.com               Mahyar Niroumand
@@ -274,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://cheam.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mainland SW - Spread 7 </t>
   </si>
   <si>
     <t xml:space="preserve">Coldwater First Nation (Nc/etko - the people of the creeks)      </t>
@@ -368,7 +389,7 @@
     <t xml:space="preserve">Chief Christine Minnabarriet, next election December 5, 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Christine Minnabarriet  Christine.Minnabarriet@cooksferry.ca</t>
+    <t xml:space="preserve">Chief Christine Minnabarriet  Christine.Minnabarriet@cooksferry.ca   PO Box 130, Spences Bridge, BC V0K 2L0</t>
   </si>
   <si>
     <t xml:space="preserve">tel: 250.458.2224
@@ -389,7 +410,7 @@
     <t xml:space="preserve">Cowichan Tribes</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief William "Chip" Seymour - Squtxulenuhw, next election: December 6, 2021. Councillors; Howie George, Stuart Pagaduan, Graig George, Stephanie Atleo, Calvin Swustus, Jen Charlie, Albie Charlei, Debra Toporowski, Francine Alphonse, Calvin Sr. Swustus, Dora Wilson, Cindy Jane Daniels</t>
+    <t xml:space="preserve">Chief William "Chip" Seymour - Squtxulenuhw    (next election: December 6, 2021) Councillors; Howie George, Stuart Pagaduan, Graig George, Stephanie Atleo, Calvin Swustus, Jen Charlie, Albie Charlei, Debra Toporowski, Francine Alphonse, Calvin Sr. Swustus, Dora Wilson, Cindy Jane Daniels</t>
   </si>
   <si>
     <t xml:space="preserve">contactus@cowichantribes.com</t>
@@ -405,6 +426,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.cowichantribes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vancouver Island - Southeastern </t>
   </si>
   <si>
     <r>
@@ -431,7 +455,7 @@
     <t xml:space="preserve">Ditidaht First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Councillor Brian Tate, next election July 15, 2023. Councillors; Anne Pettet, Paul Sieber, Kelly Sport, Darryl Tate, </t>
+    <t xml:space="preserve">Chief Councillor, Brian Tate, Councillors; Anne Pettet, Paul Sieber, Kelly Sport, Darryl Tate, election July 15, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Paul M Sieber, Natural Resource Manager  psieber@ditidaht.ca</t>
@@ -450,6 +474,9 @@
     <t xml:space="preserve">https://www.nitinaht.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Vancouver Island</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esquimalt Nation (Xwsepsum or Kosapsum)</t>
   </si>
   <si>
@@ -477,7 +504,7 @@
     <t xml:space="preserve">James Thomas - next election September 16, 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief James Thomas chief@halalt.org</t>
+    <t xml:space="preserve">Chief James Thomas chief@halalt.org      7973 Chemainus Rd, Chermainus, BC  V0R 1K5</t>
   </si>
   <si>
     <t xml:space="preserve">250-246-4736</t>
@@ -495,7 +522,7 @@
     <t xml:space="preserve">Heiltsuk First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Marilyn Slett - next election March 11, 2025.  Councillors; Denise Carpenter, Travis Hall, Jamie Harris, Jess Housty, Howard Hunt (August 9, 2022) Alya Brown, Louisa Housty Jones, Leona Humchitt, Megan Humhitt, Reginald Moody-Humchitt, Lorena White</t>
+    <t xml:space="preserve">Marilyn Slett (August 9, 2022 every 4 yrs) Councillors; Denise Carpenter, Travis Hall, Jamie Harris, Jess Housty, Howard Hunt (August 9, 2022) Alya Brown, Louisa Housty Jones, Leona Humchitt, Megan Humhitt, Reginald Moody-Humchitt, Lorena White</t>
   </si>
   <si>
     <t xml:space="preserve">250-957-2381</t>
@@ -510,7 +537,7 @@
     <t xml:space="preserve">Huu-ay-aht First Nation </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Councillor Robert Dennis SR - next election June 17, 2023</t>
+    <t xml:space="preserve">Chief Councillor Robert Dennis SR, next election June 17, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Mark Stephens - Chief Administrative Officer cao@maanulth.ca</t>
@@ -525,21 +552,27 @@
     <t xml:space="preserve">https://huuayaht.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">Vancouver Island </t>
+  </si>
+  <si>
     <t xml:space="preserve">Katzie First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Grace George - next election March 31, 2022</t>
+    <t xml:space="preserve">Chief Grace George (next election March 31, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Kimberly Armour - Referrals Manager  landopsreferrals@katzie.ca</t>
   </si>
   <si>
-    <t xml:space="preserve">604-445-2564</t>
+    <t xml:space="preserve">604-445-2564     10946 Katzie Road, Pitt Meadows, BC  V3Y 2G6</t>
   </si>
   <si>
     <t xml:space="preserve">Katzie First Nation provides the band government for those living in the Pitt and Alouette watersheds. These people were historically linked with the Musqueam, the Kwantlen and the Nicomekl, so it was a large family of nations covering a good-sized portion of south-western B.C.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 6 (KP 1075.1 to 1144.480)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kwantlen First Nation (tireless Runner)</t>
   </si>
   <si>
@@ -564,13 +597,16 @@
     <t xml:space="preserve">https://www.kwantlenfn.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Mainland - Spread 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kwaw -Kwaw-Aplit First Nations </t>
   </si>
   <si>
     <t xml:space="preserve">Kwaw-Kwaw-Aplit First Nations</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Randy Leon - next election August 24, 2022</t>
+    <t xml:space="preserve">Chief Randy Leon August 24, 2022</t>
   </si>
   <si>
     <t xml:space="preserve">manager@skowkalefn.com</t>
@@ -588,7 +624,7 @@
     <t xml:space="preserve">Kwikwetlem First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Councillor Ed Hall - next election April 29, 2023</t>
+    <t xml:space="preserve">Chief Councillor Ed Hall (Next election: April 29, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Sarah Prien - Referrals Coordinator referrals@kwikwetlem.com</t>
@@ -606,13 +642,16 @@
     <t xml:space="preserve">https://kwikwetlem.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Mainland - Spread 7 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Leq' a: mel First Nation</t>
   </si>
   <si>
     <t xml:space="preserve">Leq'amel First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Alice Thompson - next election March 2025 </t>
+    <t xml:space="preserve">Chief Alice Thompson (next election: March 31, 2024) </t>
   </si>
   <si>
     <t xml:space="preserve">Tannis Tommy - Natural Resources Manager tannis@leqamel.ca</t>
@@ -636,7 +675,7 @@
     <t xml:space="preserve">Little Shuswap Lake Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Oliver Arnouse - next election October 23, 2021</t>
+    <t xml:space="preserve">Chief Oliver Arnouse (next election: July 2, 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial Resource Stewardship Department (TRS)  Consultation Officer</t>
@@ -660,13 +699,13 @@
     <t xml:space="preserve">Lheidli Tenneh First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Dolleen Logan - next election April 09, 2023</t>
+    <t xml:space="preserve">Chief Clayton Pountney (next election April 11, 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">Chus Natlo Sam is the Lheidli T'enneh Natural Resource Referrals Manager </t>
   </si>
   <si>
-    <t xml:space="preserve">250-562-0847 ext.201  csam@lheidli.ca</t>
+    <t xml:space="preserve">250-562-0847 ext.201  csam@lheidli.ca     150 Brunswick St., Prince George BC, V2L 3B5 </t>
   </si>
   <si>
     <t xml:space="preserve">Chus Natlo Sam - Natural Resource Referrals Manager </t>
@@ -678,16 +717,19 @@
     <t xml:space="preserve">https://www.lheidli.ca/index.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 3 (KP 489 to 610) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Lhtako Dene Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Cliff Lebrun - March 22, 2022. Councillors: Wanda Aldred, Ray Alfred, Tim Michell</t>
+    <t xml:space="preserve">Chief Cliff Lebrun, councillors; Wanda Aldred, Ray Alfred, Tim Michell, March 22, 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Jean Christier, Lands and Natural Resources Manager   </t>
   </si>
   <si>
-    <t xml:space="preserve">250-747-2900 Ext. 306  jean@lhtako.com        reception@lhtako.ca</t>
+    <t xml:space="preserve">250-747-2900 Ext. 306  jean@lhtako.com        reception@lhtako.ca        1515 Arbutus Rd. Quesnel, BC  V2J 5H8</t>
   </si>
   <si>
     <t xml:space="preserve">Jean Christie jean@lhtako.com</t>
@@ -705,7 +747,7 @@
     <t xml:space="preserve">Lower Nicola Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Stuart Jackson - next election September 30, 2022</t>
+    <t xml:space="preserve">Chief Stuart Jackson (next election: September 30, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Monica Charters - Administrative Assistant fileclerk@lnib.net</t>
@@ -732,7 +774,7 @@
     <t xml:space="preserve">LowerSimilkameen598</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Keith Crow - next election December 6, 2021. Councillor Janet Terbasket December 6, 2021, Councillors; Ira Edward, John Louie November 04, 2023</t>
+    <t xml:space="preserve">Chief Keith Crow next election December 6, 2021, Councillor Janet Terbasket December 6, 2021, Councillors; Ira Edward, John Louie November 04, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Greg Gabriel, Interim Band Manager</t>
@@ -777,7 +819,7 @@
     <t xml:space="preserve">Malahat First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief George Harry - next election June 12, 2023</t>
+    <t xml:space="preserve">Chief George Harry - 4 year term - next election June 12, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Josh Handysides - Chief Administrative Officer josh.Handysides@malahatnation.com</t>
@@ -792,10 +834,13 @@
     <t xml:space="preserve">https://malahatnation.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Island Community South</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matsqui First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Alice McKay - next election June 30, 2022</t>
+    <t xml:space="preserve">Chief Alice McKay (Next election June 30, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Band Office - matsquiband@shaw.ca  </t>
@@ -818,7 +863,7 @@
     <t xml:space="preserve">Musqueam Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Wayne Sparrow - next election Nov 30, 2024</t>
+    <t xml:space="preserve">Chief Wayne Sparrow (Next election Nov 30, 2024)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Wayne Sparrow chief.wsparrow@musqueam.bc.ca</t>
@@ -841,7 +886,7 @@
     <t xml:space="preserve">Neskonlith Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Judy Wilson - next election January 23, 2023</t>
+    <t xml:space="preserve">Chief Judy Wilson (Next election January 23, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Andrea Blackwater - Referrals Coordinator referrals@neskonlith.net</t>
@@ -861,7 +906,7 @@
     <t xml:space="preserve">Nooaitch Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Marcel Shackelly - next election April 9, 2025</t>
+    <t xml:space="preserve">Chief Marcel Shackkelly</t>
   </si>
   <si>
     <t xml:space="preserve">Larry Jordan, Band Administator (250) 378-6141</t>
@@ -879,10 +924,13 @@
     <t xml:space="preserve">https://www.scwexmxtribal.com/member-bands/44-nooaitch-indian-band.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Thompson Okanagan - Spread 4 (KP 710 to 764)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osoyoos</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Clarence Louie - next election February 21, 2023</t>
+    <t xml:space="preserve">Chief Clarence Louie (Next election February 21, 2023 -every 2 yrs)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Clarence Louie      chief@oib.ca</t>
@@ -900,7 +948,7 @@
     <t xml:space="preserve">Pacheedaht First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Jeff Jones - next election January 25, 2022</t>
+    <t xml:space="preserve">Chief Jeff Jones (next election January 25, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">April Roper - Band Manager bandmanager@pacheedaht.ca</t>
@@ -920,7 +968,7 @@
     <t xml:space="preserve">Pauquachin Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Tom Allan - next election October 23, 2022</t>
+    <t xml:space="preserve">Chief Tom Allan (Next election October 23, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Bonnie Seward - Executive Assistant Bonnie@pauquachin.com</t>
@@ -940,7 +988,7 @@
     <t xml:space="preserve">Penticton Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Greg Gabriel - next election October 20, 2024.   Councillors; December 11, 2020 - Clint George, Suzzane Johnson, Elliot Tonasket, Carlene George, Fred Kruger, Vivian Lezard, Inez Pierre, Charlene Roberds</t>
+    <t xml:space="preserve">Chief Greg Cabriel (October 20, 2024)   Councillors; December 11, 2020 - Clint George, Suzzane Johnson, Elliot Tonasket, Carlene George, Fred Kruger, Vivian Lezard, Inez Pierre, Charlene Roberds</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Greg Gabriel chief.greg.gabriel@pib.ca</t>
@@ -963,7 +1011,7 @@
     <t xml:space="preserve">Peters Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Norma Jean Webb - next election December 22, 2021</t>
+    <t xml:space="preserve">Chief Norma Jean Webb (next election December 22, 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">Victoria Peters - Councilor/Manager vpeters.petersband@gmail.com </t>
@@ -980,10 +1028,13 @@
     <t xml:space="preserve">http://petersfn.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 5 (KP 806 to 1075)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Penelakut Tribe</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Joan Brown - Next election February 19, 2024</t>
+    <t xml:space="preserve">Chief Joan Brown (Next election February 19, 2024)</t>
   </si>
   <si>
     <t xml:space="preserve">Sharon Cross - Councilor/Economic Development Portfolio sharon@penelakut.ca (250-246-2321)</t>
@@ -1000,6 +1051,9 @@
     <t xml:space="preserve">https://penelakut.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Island community </t>
+  </si>
+  <si>
     <t xml:space="preserve">Popkum First Nation</t>
   </si>
   <si>
@@ -1034,13 +1088,16 @@
     <t xml:space="preserve">The Qayqayt First Nation (qiqéyt), also known as the New Westminster Indian Band, is located at New Westminster. The qiqéyt historically spoke the Downriver Dialect of Halkomelem called hən̓q̓əmin̓əm̓, a Coast Salish language. In the 19th century, a village alongside of what is now Front Street in New Westminster was called Qayqayt (pronounced Ka-kite). In 1859, New Westminster City Council sought to remove the First Peoples from the city core, creating three reserves in the surrounding area. </t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Mainland Spread 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scia'new First Nation (Beecher Bay First Nation)</t>
   </si>
   <si>
     <t xml:space="preserve">Sc'ia'new First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Russ Chipps - next election: October 8, 2023</t>
+    <t xml:space="preserve">Chief Russ Chipps (next election: October 8, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Russ Chipps (250) 478-3535 bb.fn@telus.net</t>
@@ -1063,7 +1120,7 @@
     <t xml:space="preserve">Sq'ewlets (Scowlitz) First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Johnny Williams - next election June 9, 2023</t>
+    <t xml:space="preserve">Chief Johnny Edward Williams (next election: June 9, 2023 every 2 yrs)</t>
   </si>
   <si>
     <t xml:space="preserve">reception@sqewlets.ca  (604) 826-5813</t>
@@ -1086,7 +1143,7 @@
     <t xml:space="preserve">Seabird Island Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief James (Jim) Harris - next election April 22, 2023</t>
+    <t xml:space="preserve">Chief James (Jim) Harris  (next election April 22, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Fern Angus - Executive Assistant referrals@seabirdisland.ca</t>
@@ -1116,7 +1173,7 @@
     <t xml:space="preserve">Semiahmoo First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Harley Chappell - next election December 28, 2022</t>
+    <t xml:space="preserve">Chief Harley Chappell (next election December 28, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Harley Chappell hchappell@semiahmoofirstnation.org</t>
@@ -1130,7 +1187,16 @@
     <t xml:space="preserve">Semiahmoo is the band government of the Semiahmoo people, a Coast Salish subgroup. The main community is located on the 312 acres (1.3 km2) Semiahmoo Indian Reserve which is sandwiched between the boundary of White Rock, British Columbia and the Canada–United States boundary and Peace Arch Provincial Park.</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 6 (KP 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sexqeltqin (Adams Lake Indian Band)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Arnouse Cliff. Next election March 8, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence Lewis - Executive Director Main # (250) 679-8841</t>
   </si>
   <si>
     <t xml:space="preserve">PO BOX 588, CHASE, BC
@@ -1145,7 +1211,7 @@
     <t xml:space="preserve">Shackan Indian Band </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Jordan Joe - next election March 19, 2024. Councillors; Mary Angus, Joan Seymour </t>
+    <t xml:space="preserve">Chief Jordan Joe,    Councillors; Mary Angus, Joan Seymour (next election March 19, 2024 - every 3 yrs)</t>
   </si>
   <si>
     <t xml:space="preserve">sibchief@shackan.ca</t>
@@ -1169,7 +1235,7 @@
     <t xml:space="preserve">Shxw'owhamel First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Leaders are called Si:yá:m. The Si:yá:m government/council system provides all families equal representation at the Council table level.  June 18, 2010,   Si:yam  Melody Andrews, Lucille Casimir, Lenora Fraser, Alfred James, Dean Jones, Lenona Kelly, Sonny Mchalsie, , Louise Mussell, Brenda Peters, Shawna Peters, Irene Smith</t>
+    <t xml:space="preserve">June 18, 2010      Si:yam  Melody Andrews, Lucille Casimir, Lenora Fraser, Alfred James, Dean Jones, Lenona Kelly, Sonny Mchalsie, , Louise Mussell, Brenda Peters, Shawna Peters, Irene Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Shane James - Chief Administrative Officer shane.james@shxwowhamel.ca</t>
@@ -1193,7 +1259,7 @@
     <t xml:space="preserve">Shxwha:y Villiage</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Councillor Robert Gladstone - next election April 16, 2024</t>
+    <t xml:space="preserve">Chief Councillor, Robert Gladstone (next election: March 31, 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">recept@skway.com</t>
@@ -1217,7 +1283,7 @@
     <t xml:space="preserve">Simpcw First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Shelly Ann Loring - next election May 31, 2024. Councillors; Edward (Eddie) Celesta, Christine (Tina) Donald, Lori Eustache, Alison Eustache (Green), George Lampreau, Ronald (Ron Jr.)  Lampreau, </t>
+    <t xml:space="preserve">Chief Shelly Ann Loring  (next election May 31, 2021)    Councillors; Edward (Eddie) Celesta, Christine (Tina) Donald, Lori Eustache, Alison Eustache (Green), George Lampreau, Ronald (Ron Jr.)  Lampreau, </t>
   </si>
   <si>
     <t xml:space="preserve">Kerri Jo Fortier - Manager of Natural Resources Kfortier@simpcw.com</t>
@@ -1238,7 +1304,7 @@
     <t xml:space="preserve">Siska Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Fred Sampson - next election January 23, 2023</t>
+    <t xml:space="preserve">Chief Fred Sampson (next election January 23, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Sampson siskaib@lytton.bc;  Loretta Edzerza - Band manager/Referrals administrator@siskaband.ca</t>
@@ -1259,7 +1325,7 @@
     <t xml:space="preserve">Skuppah Indian Band </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Doug McIntyre (appointed March 15, 1994)   Email: dougmc707@yahoo.com</t>
+    <t xml:space="preserve">Chief Doug McIntyre   Email: dougmc707@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Doug McIntyre dougmc707@yahoo.com</t>
@@ -1279,9 +1345,10 @@
     <t xml:space="preserve">Skowkale First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Mark Point - next election March 31, 2025
+    <t xml:space="preserve">Election: March 2025, custom, every 4 yrs
+Chief Mark Point
 Councillor Willy Hall
-Councillor Teressa Galis
+Councillor Teresa Galis
 Councillor Darcy Paul
 Councillor Tiffany Silver</t>
   </si>
@@ -1307,7 +1374,7 @@
     <t xml:space="preserve">Shuswap Indian Band </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Barbara Cote - next election November 1, 2022</t>
+    <t xml:space="preserve">Chief Barbara Cote (next election: November 1, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Stewardship Office - Clarine Capilo, Office Administration clarine@shuswapband.ca  250-341-3678 ext 200</t>
@@ -1331,7 +1398,7 @@
     <t xml:space="preserve">Skawahlook First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Maureen Chapman (Hereditary).  Governance consists of one Chief and one Councillor who are appointed using traditional matrilineal methods.</t>
+    <t xml:space="preserve">Chief Maureen Chapman (Hereditary)     Governance consists of one Chief and one Councillor who are appointed using traditional matrilineal methods.</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Maureen Chapman  maureen@skawahlook.com</t>
@@ -1349,7 +1416,7 @@
     <t xml:space="preserve">Skwah First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Lara Mussell - next election November 25, 2023</t>
+    <t xml:space="preserve">Chief Lara Mussell (Next election: November 25, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Lara Mussell  lara.mussell@skwah.org</t>
@@ -1370,7 +1437,7 @@
     <t xml:space="preserve">Snuneymuxw First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Wyse Mike - next election Feb 1, 2022. Councillors; Chris Good, Emmy (Emily) Manson, Erralyn Thomas, Joe Jr. White, Paul Wyse-Seward, Darren Good (Feb 2, 2024), Kate Good, Regan Seward, Isaac Matthew Thomas, William (Bill) Yoachim</t>
+    <t xml:space="preserve">Chief Wyse Mike (Feb 1, 2022), Councillors; Chris Good, Emmy (Emily) Manson, Erralyn Thomas, Joe Jr. White, Paul Wyse-Seward, Darren Good (Feb 2, 2024), Kate Good, Regan Seward, Isaac Matthew Thomas, William (Bill) Yoachim</t>
   </si>
   <si>
     <t xml:space="preserve">Joan Brown - Chief Administrative Officer joanb@snuneymuxw.ca</t>
@@ -1388,7 +1455,7 @@
     <t xml:space="preserve">Soowahlie First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Brenda Wallace - next election April 25, 2023</t>
+    <t xml:space="preserve">Chief Brenda Wallace (Next election April 25, 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">bandmanager@soowahlie.ca</t>
@@ -1406,7 +1473,7 @@
     <t xml:space="preserve">Spuzzum First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief James Hobart - next election May 4, 2022</t>
+    <t xml:space="preserve">Chief James Hobart (Next election May 4, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief James Hobart xaytembear@gmail.com</t>
@@ -1431,7 +1498,7 @@
     <t xml:space="preserve">Squamish First Nation (Squ-Ho-0-meesh)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Councillor  Ian Campbell - next election December 11, 2021 </t>
+    <t xml:space="preserve">Chief Councillor,  Ian Campbell (Next election: December 11, 2021), Councillors; </t>
   </si>
   <si>
     <t xml:space="preserve">Consultation_RightsandTitle@Squamish.net</t>
@@ -1446,10 +1513,13 @@
     <t xml:space="preserve">https://www.squamish.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Mainland Spread I (KP 1180.1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Squiala First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief David Jimmie - next election March 31, 2022. Councillors Allen Jimmie (Next election: March 31, 2021)- Alvin Jimmie (Next election: March 31, 2023)</t>
+    <t xml:space="preserve">Chief David Jimmie (Next election: March 31, 2022) - Councillors Allen Jimmie (Next election: March 31, 2021)- Alvin Jimmie (Next election: March 31, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief David Jimmie davidjimmie@squiala.com </t>
@@ -1476,6 +1546,9 @@
     <t xml:space="preserve">Debra Stokes - TMEP Coordinator/Community Liaison debra@stkemlupsemc.ca</t>
   </si>
   <si>
+    <t xml:space="preserve">334 Chief Alex Thomas Way, Kamloops, BC 1H1   (250) 373-0023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Travis Marr - Information and Referral Manager  Travis@stkemlupsemc.ca</t>
   </si>
   <si>
@@ -1488,7 +1561,7 @@
     <t xml:space="preserve">Sts'ailes Band (Chehalls Indian Band) </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Ralph Jr. Leon - next election March 20, 2022</t>
+    <t xml:space="preserve">Chief Ralph Jr. Leon (next election: March 20, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">William Charlie - Chief Administrative Officer william.charlie@stsailes.com</t>
@@ -1508,7 +1581,7 @@
     <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Hillary Adam - next election June 7, 2024</t>
+    <t xml:space="preserve">Chief Hillary Adam (next election: June 7, 2024)</t>
   </si>
   <si>
     <t xml:space="preserve">Clayton Harry - GM Economic Development clayton@sxdcltd.ca</t>
@@ -1532,10 +1605,10 @@
     <t xml:space="preserve">St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Frank Antoine - next election March 5, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Frank Antoine 250-457-1025 kukpi7@bonaparteindianband.com</t>
+    <t xml:space="preserve">Chief Randy Porter (next election: March 5, 2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Randy Porter 250-457-1025 kukpi7@bonaparteindianband.com</t>
   </si>
   <si>
     <t xml:space="preserve">PO BOX 669, CACHE CREEK, BC
@@ -1552,7 +1625,7 @@
     <t xml:space="preserve">Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Roxanne Harris - next election April 6, 2023</t>
+    <t xml:space="preserve">Chief Roxanne Harris (Next election April 6, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Ronda Jordan - Director of Administration ronda.jordan@stzuminus.com</t>
@@ -1572,7 +1645,7 @@
     <t xml:space="preserve">Sumas First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Dalton Silver - April 30, 2022</t>
+    <t xml:space="preserve">Chief Dalton Silver (April 30, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Dalton Silver - dalton.silver@sumasfirstnation.com</t>
@@ -1609,7 +1682,7 @@
     <t xml:space="preserve">Tsartlip First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Don Tom - next election December 7, 2021</t>
+    <t xml:space="preserve">Chief Don Tom - election December 7, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Victor Rumbolt - Administrator admin@tsartlip.com</t>
@@ -1629,7 +1702,7 @@
     <t xml:space="preserve">Tsawout First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Harvey Underwood - next election July 6, 2023</t>
+    <t xml:space="preserve">Chief Harvey Underwood- next election July 6, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Cathy Webster - Governance/Support Manager cwebster@tsawout.ca</t>
@@ -1646,10 +1719,13 @@
     <t xml:space="preserve">https://tsawout.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Island Community </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tsawwassen First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Ken Baird - next election April  20, 2022</t>
+    <t xml:space="preserve">Chief Ken Baird (next election: April  20, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Lisa McCoy - Executive Assistant lmccoy@tsawwassenfirstnation.com</t>
@@ -1669,6 +1745,9 @@
     <t xml:space="preserve">http://tsawwassenfirstnation.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lower Mainland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ts'elxweyeqw Tribe Management Limited</t>
   </si>
   <si>
@@ -1728,7 +1807,7 @@
     <t xml:space="preserve">Tsleil Waututh Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Jennifer Thomas - next election June 30, 2025</t>
+    <t xml:space="preserve">Chief Jennifer Thomas,July 1, 2021 to June 30, 2025.  Councillors; Deanna (Missy) George, Curtis Thomas, Dennis Thomas, Kevin O'Neil, Deanna George, Liana Martin, Charlene Aleck</t>
   </si>
   <si>
     <t xml:space="preserve">Ernie George - Chief Administrative Officer cao@twnation.ca</t>
@@ -1743,10 +1822,13 @@
     <t xml:space="preserve">https://twnation.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 7 Lower Mainland (KP 1180.1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">T'Sou-ke Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Gordan Planes - next election February 11, 2024</t>
+    <t xml:space="preserve">Chief Gordan Planes - next election February 11, 2024 every 4 yrs                Councillors, Bonnie Arden, Rose Dumont</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Gordon Planes – gordonplanes@icloud.com      Michelle Thut, Administrator  administrator@tsoukenation.com</t>
@@ -1767,7 +1849,7 @@
     <t xml:space="preserve">Tk'emlups te Secwepemc</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief/Kukpi7  Rosanne Casimir - next election: November 11, 2021  kukpi7.rosanne@kib.ca   250-819-2255</t>
+    <t xml:space="preserve">Chief/Kukpi7  Rosanne Casimir (next election: November 11, 2021)     kukpi7.rosanne@kib.ca   250-819-2255</t>
   </si>
   <si>
     <t xml:space="preserve">Councillor Thomas Blank (Natural Resources) </t>
@@ -1789,7 +1871,7 @@
     <t xml:space="preserve">Tzeachten First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Derek Epp - next election March 31, 2023</t>
+    <t xml:space="preserve">Chief Derek Epp (next election: March 31, 2023) every 3 yrs.</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Derek Epp  derek@tzeachten.ca</t>
@@ -1810,8 +1892,7 @@
     <t xml:space="preserve">Ulkatcho (Anahim) First Nation</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Lynda Price - next election June 22, 2023       
-</t>
+    <t xml:space="preserve">Chief Lynda Price (Next election: June 22, 2023)       Councillors;  Corrine Cahoose ccahoose@ulkatcho.ca, Rhonda Cahoose, rcahoose@ulkatcho.ca -Mabelene Leon, mleon@ulkatcho.ca Anthony Sims - santhony@ulkatcho.ca - Laurie Vaughan - lvaughan@ulkatcho.ca</t>
   </si>
   <si>
     <t xml:space="preserve">chief@ulkatcho.ca</t>
@@ -1850,7 +1931,7 @@
     <t xml:space="preserve">Upper Nicola Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Harvey McLeod - next election March 22, 2023</t>
+    <t xml:space="preserve">Chief Harvey McLeod (Next election: March 22, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Harvey McLeod chief@uppernicola.com</t>
@@ -1868,7 +1949,7 @@
     <t xml:space="preserve">Upper Similkameen Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Bonnie Jacobsen - next election March 2, 2022</t>
+    <t xml:space="preserve">Chief Bonnie Jacobsen (Next election: March 2, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">referrals@usib.ca</t>
@@ -1888,31 +1969,40 @@
     <t xml:space="preserve">https://usib.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">Thompson Okanagan - Spread F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whispering Pines/Clinton Indian Bands</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Michael LeBourdais - next election February 4, 2022 </t>
+    <t xml:space="preserve">Chief Michael LeBourdais (Next election: February 4, 2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed LeBourdais - Councilor ed.lebourdais@wpcib.com   45855 Promontory Road, Chilliwack, BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone: 250-579-5772</t>
   </si>
   <si>
     <t xml:space="preserve">Ed LeBourdais - Councilor ed.lebourdais@wpcib.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone: 250-579-5772</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Whispering Pines / Clinton Indian Band was formerly known as the Clinton Band. The WP/CIB are known as the Pelltiq't People and are part of the Shuswap Nation Tribal Council. Our Logo is a great representation of the Pelltiq't People, our great ancestors who held animal powers inherited from generation to generation from the great creator. We defended our Traditional Territory from outside invaders. Our Coyote Rock stands as a Sentry Guardian and Protecting our Territory.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.wpcib.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Spread 6 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Whispering Pines/Clinton Indian Bands  - Continued </t>
   </si>
   <si>
     <t xml:space="preserve">Williams Lake Indian Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Willie Sellars - next election August 25, 2022</t>
+    <t xml:space="preserve">Chief Willie Sellars (Next election: August 25, 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">Phone: 250-296-3507</t>
@@ -1948,7 +2038,7 @@
     <t xml:space="preserve">Yale First Nation </t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Ken Hansen - next election September 6, 2023</t>
+    <t xml:space="preserve">Chief Ken Hansen (Next election: September 6, 2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Ken Hansen khansen@yalefirstnation.ca
@@ -1970,7 +2060,7 @@
     <t xml:space="preserve">Xat'sull First Nation (Soda Creek)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief Sherri Sellars - next election March 25, 2023
+    <t xml:space="preserve">Chief Sherri Sellars - term every 4 yrs, next election March 25, 2023
 Council Kelly Sellars
 Council Crystal Harry
 Council Mike Stinson
@@ -2011,7 +2101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2079,28 +2169,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF4D415C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F2F30"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2113,18 +2183,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF2F2F30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2139,7 +2222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2167,19 +2250,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color rgb="FFAFABAB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFAFABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFAFABAB"/>
-      </left>
       <right style="thin">
         <color rgb="FFAFABAB"/>
       </right>
@@ -2371,7 +2441,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2392,20 +2462,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2416,7 +2494,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2424,155 +2506,223 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2580,27 +2730,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2682,7 +2836,45 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>497160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>588600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Picture 4" descr="http://lyackson.bc.ca/wp-content/uploads/2014/10/Valdes_Island_Modern-land-use-e1412621912214.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38842560" y="42183360"/>
+          <a:ext cx="450360" cy="1612440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,10 +2882,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2746,31 +2938,34 @@
       <c r="J2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>51.527017</v>
@@ -2778,31 +2973,34 @@
       <c r="J3" s="0" t="n">
         <v>-120.076953</v>
       </c>
+      <c r="K3" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>49.087557</v>
@@ -2810,32 +3008,35 @@
       <c r="J4" s="0" t="n">
         <v>-121.829723</v>
       </c>
+      <c r="K4" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="str">
+      <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="str">
         <f aca="false">A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="20" t="s">
         <v>33</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>50.404267</v>
@@ -2843,32 +3044,35 @@
       <c r="J5" s="0" t="n">
         <v>-120.678195</v>
       </c>
+      <c r="K5" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="str">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="str">
         <f aca="false">A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>49.963059</v>
@@ -2876,62 +3080,68 @@
       <c r="J6" s="0" t="n">
         <v>-121.484624</v>
       </c>
+      <c r="K6" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="str">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="str">
         <f aca="false">A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="21"/>
       <c r="I7" s="0" t="n">
         <v>49.621761</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>-120.95154</v>
       </c>
+      <c r="K7" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>51.770937</v>
@@ -2939,31 +3149,34 @@
       <c r="J8" s="0" t="n">
         <v>-120.993827</v>
       </c>
+      <c r="K8" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="A9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>49.283272</v>
@@ -2971,31 +3184,34 @@
       <c r="J9" s="0" t="n">
         <v>-121.291263</v>
       </c>
+      <c r="K9" s="27" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="134.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="10" t="s">
         <v>69</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>49.540481</v>
@@ -3003,31 +3219,34 @@
       <c r="J10" s="0" t="n">
         <v>-121.7239</v>
       </c>
+      <c r="K10" s="29" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>76</v>
+      <c r="A11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>50.027994</v>
@@ -3035,31 +3254,34 @@
       <c r="J11" s="0" t="n">
         <v>-120.41473</v>
       </c>
+      <c r="K11" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="A12" s="23" t="s">
         <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>50.032193</v>
@@ -3067,31 +3289,34 @@
       <c r="J12" s="0" t="n">
         <v>-120.617392</v>
       </c>
+      <c r="K12" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>91</v>
+      <c r="A13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>48.888822</v>
@@ -3099,31 +3324,34 @@
       <c r="J13" s="0" t="n">
         <v>-123.752153</v>
       </c>
+      <c r="K13" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>99</v>
+      <c r="A14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>48.890317</v>
@@ -3131,31 +3359,34 @@
       <c r="J14" s="0" t="n">
         <v>-124.592686</v>
       </c>
+      <c r="K14" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>106</v>
+      <c r="A15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>48.688573</v>
@@ -3163,32 +3394,35 @@
       <c r="J15" s="0" t="n">
         <v>-123.453132</v>
       </c>
+      <c r="K15" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="5" t="str">
+      <c r="A16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="6" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>113</v>
+      <c r="C16" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>48.929783</v>
@@ -3196,28 +3430,31 @@
       <c r="J16" s="0" t="n">
         <v>-124.479846</v>
       </c>
+      <c r="K16" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="5" t="str">
+      <c r="A17" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="6" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>118</v>
+      <c r="C17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>52.337794</v>
@@ -3225,32 +3462,35 @@
       <c r="J17" s="0" t="n">
         <v>-127.826237</v>
       </c>
+      <c r="K17" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="5" t="str">
+      <c r="A18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="6" t="str">
         <f aca="false">A18</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>124</v>
+      <c r="C18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>48.833479</v>
@@ -3258,62 +3498,68 @@
       <c r="J18" s="0" t="n">
         <v>-124.929585</v>
       </c>
+      <c r="K18" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="165.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="5" t="str">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="C19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="0" t="n">
         <v>49.557619</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>-122.607872</v>
       </c>
+      <c r="K19" s="17" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>137</v>
+      <c r="A20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>49.476845</v>
@@ -3321,62 +3567,68 @@
       <c r="J20" s="0" t="n">
         <v>-122.296959</v>
       </c>
+      <c r="K20" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="14"/>
+      <c r="A21" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="0" t="n">
         <v>49.516226</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>-121.756432</v>
       </c>
+      <c r="K21" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="5" t="str">
+      <c r="A22" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>151</v>
+      <c r="C22" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>49.451741</v>
@@ -3384,63 +3636,69 @@
       <c r="J22" s="0" t="n">
         <v>-122.657791</v>
       </c>
+      <c r="K22" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="9" t="n">
+      <c r="A23" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="11" t="n">
         <v>49.348358</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>-122.106774</v>
       </c>
+      <c r="K23" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>166</v>
+      <c r="A24" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>51.287872</v>
@@ -3448,31 +3706,34 @@
       <c r="J24" s="0" t="n">
         <v>-118.990533</v>
       </c>
+      <c r="K24" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>174</v>
+      <c r="A25" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>53.944696</v>
@@ -3480,32 +3741,35 @@
       <c r="J25" s="0" t="n">
         <v>-121.694171</v>
       </c>
+      <c r="K25" s="17" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="174.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="5" t="str">
+      <c r="A26" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="6" t="str">
         <f aca="false">A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>181</v>
+      <c r="C26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>52.953049</v>
@@ -3513,31 +3777,34 @@
       <c r="J26" s="0" t="n">
         <v>-122.449172</v>
       </c>
+      <c r="K26" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>189</v>
+      <c r="A27" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>50.006984</v>
@@ -3545,62 +3812,68 @@
       <c r="J27" s="0" t="n">
         <v>-121.261538</v>
       </c>
+      <c r="K27" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="14"/>
+        <v>204</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="0" t="n">
         <v>49.845148</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>-118.987733</v>
       </c>
+      <c r="K28" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="5" t="str">
+      <c r="A29" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="6" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>203</v>
+      <c r="C29" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>48.941803</v>
@@ -3608,32 +3881,33 @@
       <c r="J29" s="0" t="n">
         <v>-123.490134</v>
       </c>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="5" t="str">
+      <c r="A30" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="6" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>209</v>
+      <c r="C30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>48.655944</v>
@@ -3641,62 +3915,68 @@
       <c r="J30" s="0" t="n">
         <v>-124.000524</v>
       </c>
+      <c r="K30" s="42" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="5" t="str">
+      <c r="A31" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="6" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="14"/>
+      <c r="C31" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="21"/>
       <c r="I31" s="0" t="n">
         <v>49.290611</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>-122.361868</v>
       </c>
+      <c r="K31" s="42" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>223</v>
+      <c r="A32" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>49.353225</v>
@@ -3704,32 +3984,35 @@
       <c r="J32" s="0" t="n">
         <v>-123.012956</v>
       </c>
+      <c r="K32" s="42" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="5" t="str">
+      <c r="A33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="6" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>229</v>
+      <c r="C33" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>51.21274</v>
@@ -3737,32 +4020,35 @@
       <c r="J33" s="0" t="n">
         <v>-118.846623</v>
       </c>
+      <c r="K33" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" s="5" t="str">
+      <c r="A34" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="6" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>236</v>
+      <c r="C34" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>49.690318</v>
@@ -3770,30 +4056,33 @@
       <c r="J34" s="0" t="n">
         <v>-120.648292</v>
       </c>
+      <c r="K34" s="17" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="5" t="str">
+      <c r="A35" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="6" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>242</v>
+      <c r="C35" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>49.114526</v>
@@ -3801,32 +4090,35 @@
       <c r="J35" s="0" t="n">
         <v>-118.489264</v>
       </c>
+      <c r="K35" s="17" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="6" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>248</v>
+      <c r="C36" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>48.572918</v>
@@ -3834,63 +4126,69 @@
       <c r="J36" s="0" t="n">
         <v>-124.39459</v>
       </c>
+      <c r="K36" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B37" s="5" t="str">
+      <c r="A37" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="6" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="14"/>
+      <c r="C37" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" s="21"/>
       <c r="I37" s="0" t="n">
         <v>48.724102</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>-123.324246</v>
       </c>
+      <c r="K37" s="17" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="6" t="str">
         <f aca="false">A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>260</v>
+      <c r="C38" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>49.732366</v>
@@ -3898,31 +4196,34 @@
       <c r="J38" s="0" t="n">
         <v>-119.25376</v>
       </c>
+      <c r="K38" s="17" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>267</v>
+      <c r="A39" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>49.505163</v>
@@ -3930,32 +4231,35 @@
       <c r="J39" s="0" t="n">
         <v>-121.482617</v>
       </c>
+      <c r="K39" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="5" t="str">
+      <c r="A40" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="6" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>273</v>
+      <c r="C40" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>48.892388</v>
@@ -3963,87 +4267,96 @@
       <c r="J40" s="0" t="n">
         <v>-123.675652</v>
       </c>
+      <c r="K40" s="13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="6" t="str">
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" s="14"/>
+      <c r="C41" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="21"/>
       <c r="I41" s="0" t="n">
         <v>49.57071</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>-121.506875</v>
       </c>
+      <c r="K41" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="6" t="str">
         <f aca="false">A42</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H42" s="14"/>
+      <c r="C42" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="K42" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>291</v>
+      <c r="A43" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>48.440888</v>
@@ -4051,31 +4364,34 @@
       <c r="J43" s="0" t="n">
         <v>-123.676887</v>
       </c>
+      <c r="K43" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>298</v>
+      <c r="A44" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>49.25517</v>
@@ -4083,58 +4399,64 @@
       <c r="J44" s="0" t="n">
         <v>-121.964821</v>
       </c>
+      <c r="K44" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="B45" s="5" t="str">
+      <c r="A45" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H45" s="14"/>
+      <c r="C45" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="21"/>
       <c r="I45" s="0" t="n">
         <v>49.262475</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>-121.724003</v>
       </c>
+      <c r="K45" s="50" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>308</v>
+      <c r="A46" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>51.527017</v>
@@ -4142,87 +4464,96 @@
       <c r="J46" s="0" t="n">
         <v>-120.076953</v>
       </c>
+      <c r="K46" s="54" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="286.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="5" t="str">
+      <c r="A47" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="H47" s="14"/>
+      <c r="C47" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H47" s="21"/>
       <c r="I47" s="0" t="n">
         <v>49.012447</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>-122.767315</v>
       </c>
+      <c r="K47" s="13" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B48" s="5" t="str">
+      <c r="A48" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" s="6" t="str">
         <f aca="false">A48</f>
         <v>Sexqeltqin (Adams Lake Indian Band)</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="C48" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>316</v>
+      <c r="G48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>322</v>
+      <c r="A49" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>49.963059</v>
@@ -4230,31 +4561,34 @@
       <c r="J49" s="0" t="n">
         <v>-121.484624</v>
       </c>
+      <c r="K49" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="183" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>330</v>
+      <c r="A50" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>49.339668</v>
@@ -4262,29 +4596,32 @@
       <c r="J50" s="0" t="n">
         <v>-121.60638</v>
       </c>
+      <c r="K50" s="50" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>336</v>
+      <c r="A51" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>49.087557</v>
@@ -4292,31 +4629,34 @@
       <c r="J51" s="0" t="n">
         <v>-121.829723</v>
       </c>
+      <c r="K51" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>343</v>
+      <c r="A52" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>52.634393</v>
@@ -4324,92 +4664,101 @@
       <c r="J52" s="0" t="n">
         <v>-119.699777</v>
       </c>
+      <c r="K52" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B53" s="5" t="str">
+      <c r="A53" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="6" t="str">
         <f aca="false">A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="H53" s="14"/>
+      <c r="C53" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="21"/>
       <c r="I53" s="0" t="n">
         <v>50.117565</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>-120.838519</v>
       </c>
+      <c r="K53" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H54" s="14"/>
+      <c r="A54" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H54" s="21"/>
       <c r="I54" s="0" t="n">
         <v>49.963059</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>-121.484624</v>
       </c>
+      <c r="K54" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>361</v>
+      <c r="A55" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>49.087557</v>
@@ -4417,32 +4766,35 @@
       <c r="J55" s="0" t="n">
         <v>-121.829723</v>
       </c>
+      <c r="K55" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="5" t="str">
+      <c r="A56" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>368</v>
+      <c r="C56" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>50.367907</v>
@@ -4450,32 +4802,35 @@
       <c r="J56" s="0" t="n">
         <v>-116.89554</v>
       </c>
+      <c r="K56" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="B57" s="5" t="str">
+      <c r="A57" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>374</v>
+      <c r="C57" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>49.227586</v>
@@ -4483,910 +4838,1010 @@
       <c r="J57" s="0" t="n">
         <v>-122.174045</v>
       </c>
+      <c r="K57" s="13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="B58" s="5" t="str">
+      <c r="A58" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>380</v>
+      <c r="C58" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B59" s="5" t="str">
+      <c r="A59" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" s="6" t="str">
         <f aca="false">A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>386</v>
+      <c r="C59" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="K59" s="65" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B60" s="5" t="str">
+      <c r="A60" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B60" s="6" t="str">
         <f aca="false">A60</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="B61" s="5" t="str">
+      <c r="C60" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="B61" s="6" t="str">
         <f aca="false">A61</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>399</v>
+      <c r="C61" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="192" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="B62" s="5" t="str">
+      <c r="A62" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="B62" s="6" t="str">
         <f aca="false">A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>405</v>
+      <c r="C62" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="B63" s="5" t="str">
+      <c r="A63" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="B63" s="6" t="str">
         <f aca="false">A63</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>411</v>
+      <c r="C63" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="B64" s="5" t="str">
+      <c r="A64" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="6" t="str">
         <f aca="false">A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>417</v>
+      <c r="C64" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B65" s="5" t="str">
+      <c r="A65" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="6" t="str">
         <f aca="false">A65</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>423</v>
+      <c r="C65" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B66" s="5" t="str">
+      <c r="A66" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66" s="6" t="str">
         <f aca="false">A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>430</v>
+      <c r="C66" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="B67" s="5" t="str">
+      <c r="A67" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67" s="6" t="str">
         <f aca="false">A67</f>
         <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>436</v>
+      <c r="C67" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" s="5" t="str">
+      <c r="A68" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>442</v>
+      <c r="C68" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="K68" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="B69" s="5" t="str">
+      <c r="A69" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
         <v>Sumas First Nation</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>448</v>
+        <v>468</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="B70" s="5" t="str">
+      <c r="A70" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="B70" s="6" t="str">
         <f aca="false">A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="H70" s="14"/>
+      <c r="C70" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="K70" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B71" s="5" t="str">
+      <c r="A71" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71" s="6" t="str">
         <f aca="false">A71</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>459</v>
+      <c r="C71" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="5" t="str">
+      <c r="A72" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>465</v>
+      <c r="C72" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="K72" s="50" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B73" s="5" t="str">
+      <c r="A73" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B73" s="6" t="str">
         <f aca="false">A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>472</v>
+      <c r="C73" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="258" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="B74" s="5" t="str">
+      <c r="A74" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="6" t="str">
         <f aca="false">A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="H74" s="10"/>
+      <c r="C74" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="K74" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B75" s="5" t="str">
+      <c r="A75" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B75" s="6" t="str">
         <f aca="false">A75</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>485</v>
+      <c r="C75" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="K75" s="50" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="B76" s="5" t="str">
+      <c r="A76" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>490</v>
+      <c r="C76" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="K76" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B77" s="5" t="str">
+      <c r="A77" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>496</v>
+      <c r="C77" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B78" s="5" t="str">
+      <c r="A78" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>503</v>
+      <c r="C78" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="K78" s="50" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="B79" s="5" t="str">
+      <c r="A79" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="6" t="str">
         <f aca="false">A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>510</v>
+      <c r="C79" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="F79" s="70" t="s">
+        <v>535</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="K79" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="B80" s="5" t="str">
+      <c r="A80" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>517</v>
+      <c r="C80" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B81" s="5" t="str">
+      <c r="A81" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="B81" s="6" t="str">
         <f aca="false">A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>520</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>524</v>
+      <c r="C81" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>547</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="K81" s="50" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B82" s="5" t="str">
+      <c r="A82" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="H82" s="14"/>
+      <c r="C82" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="B83" s="5" t="str">
+      <c r="A83" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>536</v>
+      <c r="C83" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="47" t="s">
-        <v>537</v>
-      </c>
-      <c r="B84" s="5" t="str">
+      <c r="A84" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="B84" s="6" t="str">
         <f aca="false">A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>542</v>
+      <c r="C84" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F84" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="B85" s="5" t="str">
+      <c r="A85" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>548</v>
+      <c r="C85" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B86" s="5" t="str">
+      <c r="A86" s="73" t="s">
+        <v>579</v>
+      </c>
+      <c r="B86" s="6" t="str">
         <f aca="false">A86</f>
         <v>Whispering Pines/Clinton Indian Bands  - Continued</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="H86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="17"/>
+      <c r="H86" s="12"/>
+      <c r="K86" s="13" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="B87" s="5" t="str">
+      <c r="A87" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>554</v>
-      </c>
+      <c r="C87" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="K87" s="74"/>
     </row>
     <row r="88" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B88" s="5" t="str">
+      <c r="A88" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="B89" s="5" t="str">
+      <c r="C88" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="6" t="str">
         <f aca="false">A89</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>568</v>
+      <c r="C89" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="B90" s="5" t="str">
+      <c r="A90" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="B90" s="6" t="str">
         <f aca="false">A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="E90" s="53" t="s">
-        <v>572</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>575</v>
+      <c r="C90" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="57"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="78"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="H92" s="9"/>
+      <c r="A92" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="A93" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
+      <c r="A94" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B95" s="9"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
+      <c r="A95" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
     </row>
     <row r="96" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="618">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -1473,6 +1473,9 @@
     <t xml:space="preserve">Spuzzum First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Boothroyd Band </t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief James Hobart (Next election May 4, 2022)</t>
   </si>
   <si>
@@ -1498,6 +1501,9 @@
     <t xml:space="preserve">Squamish First Nation (Squ-Ho-0-meesh)</t>
   </si>
   <si>
+    <t xml:space="preserve">Squamish First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor,  Ian Campbell (Next election: December 11, 2021), Councillors; </t>
   </si>
   <si>
@@ -1561,6 +1567,9 @@
     <t xml:space="preserve">Sts'ailes Band (Chehalls Indian Band) </t>
   </si>
   <si>
+    <t xml:space="preserve">Sts'ailes Band</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Ralph Jr. Leon (next election: March 20, 2022)</t>
   </si>
   <si>
@@ -1579,6 +1588,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek)</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Hillary Adam (next election: June 7, 2024)</t>
@@ -1605,6 +1617,9 @@
     <t xml:space="preserve">St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</t>
   </si>
   <si>
+    <t xml:space="preserve">St'uxwtews (Bonaparte Indian Band)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Randy Porter (next election: March 5, 2021)</t>
   </si>
   <si>
@@ -1625,6 +1640,9 @@
     <t xml:space="preserve">Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</t>
   </si>
   <si>
+    <t xml:space="preserve">Stz'uminus First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Roxanne Harris (Next election April 6, 2023)</t>
   </si>
   <si>
@@ -1788,6 +1806,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ts'kwaylaxw (Pavillion Indian Band)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts'kwaylaxw(Pavillion Indian Band</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Justin Kane - election August 14, 2023</t>
@@ -1973,6 +1994,9 @@
   </si>
   <si>
     <t xml:space="preserve">Whispering Pines/Clinton Indian Bands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whispering Pines(Clinton) Indian Band</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Michael LeBourdais (Next election: February 4, 2022) </t>
@@ -2101,7 +2125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2188,6 +2212,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2441,7 +2471,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2714,15 +2744,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2840,15 +2874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>497160</xdr:colOff>
+      <xdr:colOff>497520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>588600</xdr:rowOff>
+      <xdr:rowOff>588960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2861,7 +2895,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38842560" y="42183360"/>
+          <a:off x="38842920" y="42183720"/>
           <a:ext cx="450360" cy="1612440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2884,8 +2918,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4842,7 +4876,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="64" t="s">
         <v>397</v>
       </c>
@@ -4868,11 +4902,17 @@
       <c r="H58" s="12" t="s">
         <v>402</v>
       </c>
+      <c r="I58" s="0" t="n">
+        <v>49.175281</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>-121.977269</v>
+      </c>
       <c r="K58" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
         <v>403</v>
       </c>
@@ -4898,17 +4938,22 @@
       <c r="H59" s="12" t="s">
         <v>408</v>
       </c>
+      <c r="I59" s="0" t="n">
+        <v>49.107871</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>-124.120584</v>
+      </c>
       <c r="K59" s="65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="B60" s="6" t="str">
-        <f aca="false">A60</f>
-        <v>Soowahlie First Nation</v>
+      <c r="B60" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>410</v>
@@ -4927,6 +4972,12 @@
       </c>
       <c r="H60" s="12" t="s">
         <v>414</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>-121.829723</v>
       </c>
       <c r="K60" s="17" t="s">
         <v>29</v>
@@ -4936,85 +4987,100 @@
       <c r="A61" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="B61" s="6" t="str">
-        <f aca="false">A61</f>
-        <v>Spuzzum First Nation</v>
+      <c r="B61" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>-121.484624</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="192" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="B62" s="6" t="str">
-        <f aca="false">A62</f>
-        <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
+        <v>423</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>427</v>
+        <v>429</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>49.807197</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>-123.200082</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="B63" s="6" t="str">
-        <f aca="false">A63</f>
-        <v>Squiala First Nation</v>
+        <v>431</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>434</v>
+        <v>436</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>-121.829723</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>29</v>
@@ -5022,29 +5088,35 @@
     </row>
     <row r="64" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B64" s="6" t="str">
         <f aca="false">A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>51.341443</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>-121.166411</v>
       </c>
       <c r="K64" s="50" t="s">
         <v>20</v>
@@ -5052,29 +5124,34 @@
     </row>
     <row r="65" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="B65" s="6" t="str">
-        <f aca="false">A65</f>
-        <v>Sts'ailes Band (Chehalls Indian Band)</v>
+        <v>444</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>49.293578</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>-121.910722</v>
       </c>
       <c r="K65" s="17" t="s">
         <v>29</v>
@@ -5082,87 +5159,102 @@
     </row>
     <row r="66" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="6" t="str">
-        <f aca="false">A66</f>
-        <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
+        <v>451</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>454</v>
+        <v>458</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>51.586232</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>-122.204957</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="6" t="str">
-        <f aca="false">A67</f>
-        <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
+        <v>459</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>460</v>
+        <v>465</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>50.839863</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>-121.372183</v>
       </c>
       <c r="K67" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="B68" s="6" t="str">
-        <f aca="false">A68</f>
-        <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
+        <v>466</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>466</v>
+        <v>472</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>48.846385</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>-123.630268</v>
       </c>
       <c r="K68" s="50" t="s">
         <v>20</v>
@@ -5170,29 +5262,35 @@
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
         <v>Sumas First Nation</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>49.052587</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>-122.193538</v>
       </c>
       <c r="K69" s="17" t="s">
         <v>29</v>
@@ -5200,404 +5298,476 @@
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="64" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B70" s="6" t="str">
         <f aca="false">A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H70" s="21"/>
+      <c r="I70" s="0" t="n">
+        <v>52.195501</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>-123.798415</v>
+      </c>
       <c r="K70" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="211.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B71" s="6" t="str">
-        <f aca="false">A71</f>
-        <v>Tsartlip First Nation</v>
+        <v>484</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>265</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>483</v>
+        <v>489</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>48.724102</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>-123.324246</v>
       </c>
       <c r="K71" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="66" t="s">
-        <v>484</v>
-      </c>
-      <c r="B72" s="6" t="str">
-        <f aca="false">A72</f>
-        <v>Tsawout First Nation</v>
+        <v>490</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>265</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>489</v>
+        <v>495</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>48.724102</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>-123.324246</v>
       </c>
       <c r="K72" s="50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="18" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B73" s="6" t="str">
         <f aca="false">A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>497</v>
+        <v>503</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>49.042909</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>-123.094409</v>
       </c>
       <c r="K73" s="50" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="258" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="B74" s="6" t="str">
-        <f aca="false">A74</f>
-        <v>Ts'elxweyeqw Tribe Management Limited</v>
+        <v>505</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="F74" s="68" t="s">
-        <v>503</v>
+        <v>508</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>509</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H74" s="12"/>
+      <c r="I74" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
       <c r="K74" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B75" s="6" t="str">
-        <f aca="false">A75</f>
-        <v>Tseycum First Nation</v>
+        <v>511</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>265</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>511</v>
+        <v>517</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>48.724102</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>-123.324246</v>
       </c>
       <c r="K75" s="50" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="64" t="s">
-        <v>512</v>
-      </c>
-      <c r="B76" s="6" t="str">
-        <f aca="false">A76</f>
-        <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
+        <v>518</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="11" t="s">
-        <v>516</v>
+        <v>523</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>50.883097</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>-121.842308</v>
       </c>
       <c r="K76" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>522</v>
+        <v>529</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>49.309839</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>-122.980478</v>
       </c>
       <c r="K77" s="50" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="18" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>530</v>
+        <v>537</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>48.385518</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>-123.696567</v>
       </c>
       <c r="K78" s="50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B79" s="6" t="str">
         <f aca="false">A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E79" s="69" t="s">
-        <v>534</v>
-      </c>
-      <c r="F79" s="70" t="s">
-        <v>535</v>
+        <v>540</v>
+      </c>
+      <c r="E79" s="70" t="s">
+        <v>541</v>
+      </c>
+      <c r="F79" s="71" t="s">
+        <v>542</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="K79" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B80" s="6" t="str">
-        <f aca="false">A80</f>
-        <v>Tzeachten First Nation</v>
+        <v>545</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>544</v>
+        <v>551</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>-121.829723</v>
       </c>
       <c r="K80" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B81" s="6" t="str">
         <f aca="false">A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="D81" s="71" t="s">
-        <v>547</v>
+        <v>553</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>554</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>551</v>
+        <v>558</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>52.475488</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>-125.301018</v>
       </c>
       <c r="K81" s="50" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
         <v>Union Bar First Nations</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="H82" s="21"/>
+      <c r="I82" s="0" t="n">
+        <v>49.210913</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>-121.240262</v>
+      </c>
       <c r="K82" s="50"/>
     </row>
-    <row r="83" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="11" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>563</v>
+        <v>570</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>50.167239</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>-120.283533</v>
       </c>
       <c r="K83" s="17" t="s">
         <v>20</v>
@@ -5605,67 +5775,78 @@
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="64" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B84" s="6" t="str">
         <f aca="false">A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="F84" s="72" t="s">
-        <v>566</v>
+        <v>574</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>573</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>569</v>
+        <v>576</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>49.462883</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>-120.50172</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="B85" s="6" t="str">
-        <f aca="false">A85</f>
-        <v>Whispering Pines/Clinton Indian Bands</v>
+        <v>578</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>577</v>
+        <v>585</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>51.194286</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>-121.613314</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="341.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="73" t="s">
-        <v>579</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="74" t="s">
+        <v>587</v>
       </c>
       <c r="B86" s="6" t="str">
         <f aca="false">A86</f>
@@ -5677,171 +5858,194 @@
       <c r="F86" s="17"/>
       <c r="H86" s="12"/>
       <c r="K86" s="13" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="18" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="11" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="K87" s="74"/>
-    </row>
-    <row r="88" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>592</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>52.10532</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>-121.9905</v>
+      </c>
+      <c r="K87" s="75"/>
+    </row>
+    <row r="88" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="B88" s="6" t="str">
-        <f aca="false">A88</f>
-        <v>Yakweakwioose First Nation</v>
+        <v>593</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C88" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K88" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B89" s="6" t="str">
         <f aca="false">A89</f>
         <v>Yale First Nation</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>598</v>
+        <v>606</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>49.492718</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>-121.423097</v>
       </c>
       <c r="K89" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B90" s="6" t="str">
         <f aca="false">A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="E90" s="67" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>605</v>
+        <v>613</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>52.854978</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>-121.585666</v>
       </c>
       <c r="K90" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="78"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="79"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B92" s="26"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B93" s="11"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B94" s="11"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B95" s="11"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
     </row>
     <row r="96" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -2870,45 +2870,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>497520</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>588960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 4" descr="http://lyackson.bc.ca/wp-content/uploads/2014/10/Valdes_Island_Modern-land-use-e1412621912214.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38842920" y="42183720"/>
-          <a:ext cx="450360" cy="1612440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,8 +2880,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F81" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3187,7 +3149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
         <v>60</v>
       </c>
@@ -3222,7 +3184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="134.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
         <v>77</v>
       </c>
@@ -3292,7 +3254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
         <v>84</v>
       </c>
@@ -3327,7 +3289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="205.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
         <v>92</v>
       </c>
@@ -3362,7 +3324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
         <v>100</v>
       </c>
@@ -3397,7 +3359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
         <v>109</v>
       </c>
@@ -3432,7 +3394,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="191.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
         <v>116</v>
       </c>
@@ -3468,7 +3430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
         <v>123</v>
       </c>
@@ -3500,7 +3462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
         <v>128</v>
       </c>
@@ -3536,7 +3498,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="165.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -3570,7 +3532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
         <v>141</v>
       </c>
@@ -3605,7 +3567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
         <v>150</v>
       </c>
@@ -3638,7 +3600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
         <v>157</v>
       </c>
@@ -3744,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
         <v>180</v>
       </c>
@@ -3779,7 +3741,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="174.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
         <v>189</v>
       </c>
@@ -3815,7 +3777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
         <v>196</v>
       </c>
@@ -3883,7 +3845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
         <v>211</v>
       </c>
@@ -3917,7 +3879,7 @@
       </c>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
         <v>218</v>
       </c>
@@ -3953,7 +3915,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="43" t="s">
         <v>225</v>
       </c>
@@ -3987,7 +3949,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
         <v>231</v>
       </c>
@@ -4022,7 +3984,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
         <v>239</v>
       </c>
@@ -4502,7 +4464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="286.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>328</v>
       </c>
@@ -4599,7 +4561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="183" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="57" t="s">
         <v>345</v>
       </c>
@@ -4634,7 +4596,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="60" t="s">
         <v>353</v>
       </c>
@@ -4667,7 +4629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="48" t="s">
         <v>359</v>
       </c>
@@ -4769,7 +4731,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
         <v>377</v>
       </c>
@@ -4804,7 +4766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="s">
         <v>384</v>
       </c>
@@ -4840,7 +4802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="s">
         <v>391</v>
       </c>
@@ -5157,7 +5119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
         <v>451</v>
       </c>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BC First Nations" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="image sources" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BC First Nations'!$A$2:$H$90</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BC First Nations'!$A$2:$H$88</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="705">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -1074,6 +1075,9 @@
     <t xml:space="preserve">Qayqayt First Nation (New Westminister) </t>
   </si>
   <si>
+    <t xml:space="preserve">Qayqayt_First_Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Rhonda Larrabee (1994), Councillors; Rodney Bandura (1994), Ronald Lee (1994), Roberta Bandura (1995)</t>
   </si>
   <si>
@@ -1188,24 +1192,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spread 6 (KP 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexqeltqin (Adams Lake Indian Band)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Arnouse Cliff. Next election March 8, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence Lewis - Executive Director Main # (250) 679-8841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO BOX 588, CHASE, BC
-Postal codeV0E 1M0
-Phone(250) 679-8841
-Fax(250) 679-8813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://adamslakeband.org/</t>
   </si>
   <si>
     <t xml:space="preserve">Shackan Indian Band </t>
@@ -2020,9 +2006,6 @@
     <t xml:space="preserve">Spread 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">Whispering Pines/Clinton Indian Bands  - Continued </t>
-  </si>
-  <si>
     <t xml:space="preserve">Williams Lake Indian Band</t>
   </si>
   <si>
@@ -2116,6 +2099,293 @@
   </si>
   <si>
     <t xml:space="preserve">Island communities listed under "Lower Mainland Spread I "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal Engagement Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/secwepemcdetailLarge.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC Forestry Agreement Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/ashcroft_fro_jul06.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/bostan_bar_fro_oct06.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/canim_lake_band_fcra_executed_october_1_2018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/chawathil_fcrsa_renewal_document_-_2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi:yo:m Agassiz (Cheam) First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cheam_renewal_executed_fcrsa-2_2015-12-21.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/coldwater_signed_feb08.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook's Ferry Indian Band   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cooks_ferry_fcrsa_executed_1may14.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cowichan_tribes_-_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/ditidaht_first_nation_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-esquimaltTTM.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halalt First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/halalt_first_nation_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/heiltsuk_fcrsa_signed.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huu-ay-aht First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://huuayaht.org/services/lands-permits/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/katzie_fcrsa_renewal_2-years_term_executed_sep_15_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwantlen_fcrsa_executed_june_20_2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwaw-kwaw-apilt_fcrsa_renewal_executed_2020-12-23.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwikwetlem_fcrsa_april_30_2015_executed.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/leqamel_fcrsa_renewal_1_year_term_executed_jan_13_2021.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/little_shuswap_lake_indian_band_-_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/lhedili_tenneh_direct_award_ima_26feb03.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lhtako_fcrsa_executed_april_162018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/rsa_lower_nicola_band.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lsib_signed_fcrsa_minister_signed_july_12_2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lyackson_fcrsa_april_9_2018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/malahat_nation_minister_oct_2019_signed_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/matsqui_fcrsa_renewal_2016-08-04_executed.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-musqueamTTM.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/neskonlith_ftoa_19dec12.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/nooaitch_fro_mar08.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/osoyoos_signed_03may11.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/pacheedaht_signed_february_17_2021_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-tsartlipTTM.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/pentictor_fcrsa_-_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/peters_band_fcrsa_executed_sept9_2016public.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/penelakut_tribe_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/popkum_fcrsa_renewal2020_executed_2020-03-27.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qayqayt First Nation (New Westminister)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-qayqaytTTM.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/scianew_fn_fcrsa_signed.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sqwlets_fcrsa_2021_renewal_executed_2021-03-25_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/seabird_island_band_-_fcrsa.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/secwepemcterritory.gif
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-semiahmooTTM.gif
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shackan Indian Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.gif
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/shxwwhmel_fcrsa_-_signed_may_1_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simpcw.com/our-land.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/siska_fcrsa_fn_executed_april_16_2018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skuppah Indian Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuswap Indian Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/shuswap_fcrsa_consultation_and_revenue_sharing_agreement_fn_executed_decembe_5_2018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sqewlxw_fcrsa_renewal2020_executed_sept18_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/skwah_fcrsa_2020_renewal_executed_aug312020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/snuneymuxw_first_nation_framework_agreement.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/squamish_fcrsa_renewal_2020_agreement_-_signed_july_23_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stk'emlupsemc Te Secwepemc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tkemlups_fcrsa_executed_sept_0916.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/stsailes_fcrsa_renewal_executed_jan_11_2017.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sxfn_canoe_creek_indian_band_fcrsa_executed_february_3_2021.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/bonaparte_toa_08sept10.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/stzuminus_fcrsa_-_signed_mar_31_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sumas_fcrsa_-_signed_apr_22_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toosey Indian Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-tlesqoxulkatchoTTM.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iapps/AEWebsite/Maps/F-tsawwassenTTM.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tskwaylaxw_fcrsa_executed_1may14.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tsleil-waututh_fcrsa_-_signed_apr_22_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tsou-ke_fcrsa_signed_agreement.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/ulkatcho_fcrsa_signed_april_25_2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/union_bar_february_2_2021_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/upper_nicola_ftoa_feb11.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/upper_similkameen_signed_fcrsa_september_2019_signed_by_msf.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/whispering_pine_fcrsa_executed_march_2917.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/williams_lake_ib_fcrsa_executed_jan_112017.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yale First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/yale_fcrsa_-_signed_may_1_2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xat'sull First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/xatsull_fcrsa_finalized_june_11_2019.pdf</t>
   </si>
 </sst>
 </file>
@@ -2214,16 +2484,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2432,14 +2702,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFAFABAB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAFABAB"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2471,7 +2737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2548,14 +2814,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2568,10 +2826,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2604,10 +2858,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2692,71 +2942,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2768,10 +3014,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2793,6 +3035,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2878,10 +3140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F81" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3016,13 +3278,13 @@
         <f aca="false">A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3031,7 +3293,7 @@
       <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -3058,10 +3320,10 @@
       <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -3088,13 +3350,13 @@
         <f aca="false">A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -3103,7 +3365,7 @@
       <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="0" t="n">
         <v>49.621761</v>
       </c>
@@ -3115,7 +3377,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3124,7 +3386,7 @@
       <c r="C8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3133,10 +3395,10 @@
       <c r="F8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -3150,7 +3412,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3159,7 +3421,7 @@
       <c r="C9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -3171,7 +3433,7 @@
       <c r="G9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -3180,7 +3442,7 @@
       <c r="J9" s="0" t="n">
         <v>-121.291263</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3200,7 +3462,7 @@
       <c r="E10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -3215,12 +3477,12 @@
       <c r="J10" s="0" t="n">
         <v>-121.7239</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3232,16 +3494,16 @@
       <c r="D11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>83</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -3255,7 +3517,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3267,16 +3529,16 @@
       <c r="D12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -3290,7 +3552,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3299,19 +3561,19 @@
       <c r="C13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -3325,7 +3587,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3337,7 +3599,7 @@
       <c r="D14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>104</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -3346,7 +3608,7 @@
       <c r="G14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>107</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -3360,7 +3622,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3372,7 +3634,7 @@
       <c r="D15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -3381,7 +3643,7 @@
       <c r="G15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -3395,7 +3657,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="6" t="str">
@@ -3408,7 +3670,7 @@
       <c r="D16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -3417,7 +3679,7 @@
       <c r="G16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>122</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -3431,25 +3693,25 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="6" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>127</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -3463,7 +3725,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="6" t="str">
@@ -3476,7 +3738,7 @@
       <c r="D18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>131</v>
       </c>
       <c r="F18" s="17" t="s">
@@ -3485,7 +3747,7 @@
       <c r="G18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>133</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -3506,19 +3768,19 @@
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="15" t="s">
         <v>139</v>
       </c>
       <c r="H19" s="12"/>
@@ -3533,7 +3795,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3545,7 +3807,7 @@
       <c r="D20" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>145</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -3554,7 +3816,7 @@
       <c r="G20" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>148</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -3568,19 +3830,19 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>154</v>
       </c>
       <c r="F21" s="16" t="s">
@@ -3589,7 +3851,7 @@
       <c r="G21" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="0" t="n">
         <v>49.516226</v>
       </c>
@@ -3601,20 +3863,20 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F22" s="16" t="s">
@@ -3623,7 +3885,7 @@
       <c r="G22" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>163</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -3637,7 +3899,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3649,7 +3911,7 @@
       <c r="D23" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>169</v>
       </c>
       <c r="F23" s="16" t="s">
@@ -3672,19 +3934,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="34" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>176</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -3693,7 +3955,7 @@
       <c r="G24" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="19" t="s">
         <v>179</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -3707,19 +3969,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>184</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -3742,7 +4004,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>189</v>
       </c>
       <c r="B26" s="6" t="str">
@@ -3755,7 +4017,7 @@
       <c r="D26" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>192</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -3764,7 +4026,7 @@
       <c r="G26" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="19" t="s">
         <v>195</v>
       </c>
       <c r="I26" s="0" t="n">
@@ -3778,7 +4040,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3790,7 +4052,7 @@
       <c r="D27" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>200</v>
       </c>
       <c r="F27" s="16" t="s">
@@ -3825,7 +4087,7 @@
       <c r="D28" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="36" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -3834,7 +4096,7 @@
       <c r="G28" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="0" t="n">
         <v>49.845148</v>
       </c>
@@ -3846,7 +4108,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B29" s="6" t="str">
@@ -3859,7 +4121,7 @@
       <c r="D29" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="15" t="s">
         <v>214</v>
       </c>
       <c r="F29" s="16" t="s">
@@ -3868,7 +4130,7 @@
       <c r="G29" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="19" t="s">
         <v>217</v>
       </c>
       <c r="I29" s="0" t="n">
@@ -3893,7 +4155,7 @@
       <c r="D30" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>221</v>
       </c>
       <c r="F30" s="16" t="s">
@@ -3902,7 +4164,7 @@
       <c r="G30" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="19" t="s">
         <v>223</v>
       </c>
       <c r="I30" s="0" t="n">
@@ -3911,12 +4173,12 @@
       <c r="J30" s="0" t="n">
         <v>-124.000524</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="38" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="39" t="s">
         <v>225</v>
       </c>
       <c r="B31" s="6" t="str">
@@ -3929,7 +4191,7 @@
       <c r="D31" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>228</v>
       </c>
       <c r="F31" s="16" t="s">
@@ -3938,14 +4200,14 @@
       <c r="G31" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="0" t="n">
         <v>49.290611</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>-122.361868</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="38" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3956,13 +4218,13 @@
       <c r="B32" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="40" t="s">
         <v>233</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="15" t="s">
         <v>235</v>
       </c>
       <c r="F32" s="16" t="s">
@@ -3971,7 +4233,7 @@
       <c r="G32" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="19" t="s">
         <v>238</v>
       </c>
       <c r="I32" s="0" t="n">
@@ -3980,7 +4242,7 @@
       <c r="J32" s="0" t="n">
         <v>-123.012956</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="38" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4028,13 +4290,13 @@
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="15" t="s">
         <v>248</v>
       </c>
       <c r="F34" s="16" t="s">
@@ -4043,7 +4305,7 @@
       <c r="G34" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="19" t="s">
         <v>251</v>
       </c>
       <c r="I34" s="0" t="n">
@@ -4057,7 +4319,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="42" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="6" t="str">
@@ -4070,10 +4332,10 @@
       <c r="D35" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="11" t="s">
         <v>257</v>
       </c>
@@ -4140,7 +4402,7 @@
       <c r="D37" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>268</v>
       </c>
       <c r="F37" s="16" t="s">
@@ -4149,7 +4411,7 @@
       <c r="G37" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="0" t="n">
         <v>48.724102</v>
       </c>
@@ -4174,7 +4436,7 @@
       <c r="D38" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>274</v>
       </c>
       <c r="F38" s="16" t="s">
@@ -4209,7 +4471,7 @@
       <c r="D39" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="15" t="s">
         <v>281</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -4245,7 +4507,7 @@
       <c r="D40" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="15" t="s">
         <v>288</v>
       </c>
       <c r="F40" s="16" t="s">
@@ -4275,22 +4537,22 @@
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="15" t="s">
         <v>295</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="0" t="n">
         <v>49.57071</v>
       </c>
@@ -4305,54 +4567,59 @@
       <c r="A42" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="6" t="str">
-        <f aca="false">A42</f>
-        <v>Qayqayt First Nation (New Westminister)</v>
-      </c>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="15" t="s">
         <v>300</v>
       </c>
+      <c r="E42" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="F42" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H42" s="21"/>
+        <v>302</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="0" t="n">
+        <v>49.205717</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>-122.910944</v>
+      </c>
       <c r="K42" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48" t="s">
-        <v>303</v>
+      <c r="A43" s="44" t="s">
+        <v>304</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C43" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="15" t="s">
         <v>307</v>
       </c>
+      <c r="E43" s="15" t="s">
+        <v>308</v>
+      </c>
       <c r="F43" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>48.440888</v>
@@ -4361,33 +4628,33 @@
         <v>-123.676887</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="49" t="s">
-        <v>311</v>
+      <c r="A44" s="45" t="s">
+        <v>312</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>314</v>
       </c>
+      <c r="E44" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="F44" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="H44" s="21" t="s">
         <v>317</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>49.25517</v>
@@ -4400,59 +4667,59 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48" t="s">
-        <v>318</v>
+      <c r="A45" s="44" t="s">
+        <v>319</v>
       </c>
       <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="D45" s="15" t="s">
         <v>321</v>
       </c>
+      <c r="E45" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="F45" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H45" s="21"/>
+        <v>323</v>
+      </c>
+      <c r="H45" s="19"/>
       <c r="I45" s="0" t="n">
         <v>49.262475</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>-121.724003</v>
       </c>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="46" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
-        <v>323</v>
+      <c r="A46" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="51" t="s">
+      <c r="C46" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="47" t="s">
         <v>326</v>
       </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49" t="s">
+        <v>327</v>
+      </c>
       <c r="H46" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>51.527017</v>
@@ -4460,34 +4727,34 @@
       <c r="J46" s="0" t="n">
         <v>-120.076953</v>
       </c>
-      <c r="K46" s="54" t="s">
+      <c r="K46" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
-        <v>328</v>
+      <c r="A47" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="15" t="s">
         <v>331</v>
       </c>
+      <c r="E47" s="15" t="s">
+        <v>332</v>
+      </c>
       <c r="F47" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="H47" s="21"/>
+        <v>333</v>
+      </c>
+      <c r="H47" s="19"/>
       <c r="I47" s="0" t="n">
         <v>49.012447</v>
       </c>
@@ -4495,827 +4762,832 @@
         <v>-122.767315</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="6" t="str">
-        <f aca="false">A48</f>
-        <v>Sexqeltqin (Adams Lake Indian Band)</v>
-      </c>
-      <c r="C48" s="11" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="B48" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="E48" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="48"/>
       <c r="G48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="K48" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>-121.484624</v>
+      </c>
+      <c r="K48" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="B49" s="56" t="s">
+    <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>49.339668</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>-121.60638</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>52.634393</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>-119.699777</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" s="6" t="str">
+        <f aca="false">A52</f>
+        <v>Siska Indian Band</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="0" t="n">
+        <v>50.117565</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>-120.838519</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>49.963059</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="K49" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>49.339668</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>-121.60638</v>
-      </c>
-      <c r="K50" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>49.087557</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="G52" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>52.634393</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>-119.699777</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="B53" s="6" t="str">
-        <f aca="false">A53</f>
-        <v>Siska Indian Band</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="C53" s="15" t="s">
         <v>369</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>370</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H53" s="21"/>
+        <v>372</v>
+      </c>
+      <c r="H53" s="19"/>
       <c r="I53" s="0" t="n">
-        <v>50.117565</v>
+        <v>49.963059</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>-120.838519</v>
+        <v>-121.484624</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="20" t="s">
+    <row r="54" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="B54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="D54" s="15" t="s">
         <v>375</v>
       </c>
+      <c r="E54" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="F54" s="16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="H54" s="21"/>
+        <v>378</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>379</v>
+      </c>
       <c r="I54" s="0" t="n">
-        <v>49.963059</v>
+        <v>49.087557</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>-121.829723</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E55" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="B55" s="6" t="str">
+        <f aca="false">A55</f>
+        <v>Shuswap Indian Band</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>381</v>
       </c>
+      <c r="D55" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>384</v>
+      </c>
       <c r="G55" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>49.087557</v>
+        <v>50.367907</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="s">
-        <v>384</v>
+        <v>-116.89554</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
-        <v>Shuswap Indian Band</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>385</v>
+        <v>Skawahlook First Nation</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>50.367907</v>
+        <v>49.227586</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>-116.89554</v>
+        <v>-122.174045</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="s">
-        <v>391</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="59" t="s">
+        <v>393</v>
       </c>
       <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
-        <v>Skawahlook First Nation</v>
+        <v>Skwah First Nation</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>49.227586</v>
+        <v>49.175281</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>-122.174045</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="64" t="s">
-        <v>397</v>
+        <v>-121.977269</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
+        <v>399</v>
       </c>
       <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
-        <v>Skwah First Nation</v>
+        <v>Snuneymuxw First Nation</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>49.175281</v>
+        <v>49.107871</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>-121.977269</v>
-      </c>
-      <c r="K58" s="17" t="s">
+        <v>-124.120584</v>
+      </c>
+      <c r="K58" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K59" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B59" s="6" t="str">
-        <f aca="false">A59</f>
-        <v>Snuneymuxw First Nation</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>49.107871</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>-124.120584</v>
-      </c>
-      <c r="K59" s="65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="s">
-        <v>409</v>
+    <row r="60" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="59" t="s">
+        <v>411</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>-121.484624</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>49.807197</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>-123.200082</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="I60" s="0" t="n">
+      <c r="C62" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J62" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K60" s="17" t="s">
+      <c r="K62" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>49.963059</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>49.807197</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>-123.200082</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D63" s="11" t="s">
+    <row r="63" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18" t="s">
         <v>433</v>
       </c>
+      <c r="B63" s="6" t="str">
+        <f aca="false">A63</f>
+        <v>Stk'emlupsemc Te Secwepemc</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>435</v>
+      </c>
       <c r="E63" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>49.087557</v>
+        <v>51.341443</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="K63" s="17" t="s">
+        <v>-121.166411</v>
+      </c>
+      <c r="K63" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>49.293578</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>-121.910722</v>
+      </c>
+      <c r="K64" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="B64" s="6" t="str">
-        <f aca="false">A64</f>
-        <v>Stk'emlupsemc Te Secwepemc</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>51.341443</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>-121.166411</v>
-      </c>
-      <c r="K64" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26" t="s">
-        <v>444</v>
+    <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>447</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>49.293578</v>
+        <v>51.586232</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>-121.910722</v>
+        <v>-122.204957</v>
       </c>
       <c r="K65" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23" t="s">
-        <v>451</v>
+    <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="62" t="s">
+        <v>455</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>456</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="F66" s="17"/>
       <c r="G66" s="11" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>51.586232</v>
+        <v>50.839863</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>-122.204957</v>
-      </c>
-      <c r="K66" s="17" t="s">
+        <v>-121.372183</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>48.846385</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>-123.630268</v>
+      </c>
+      <c r="K67" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B68" s="6" t="str">
+        <f aca="false">A68</f>
+        <v>Sumas First Nation</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>49.052587</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>-122.193538</v>
+      </c>
+      <c r="K68" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>50.839863</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>-121.372183</v>
-      </c>
-      <c r="K67" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>468</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>48.846385</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>-123.630268</v>
-      </c>
-      <c r="K68" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="s">
-        <v>473</v>
+      <c r="A69" s="59" t="s">
+        <v>475</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
-        <v>Sumas First Nation</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>474</v>
+        <v>Toosey Indian Band (Tl'esqox)</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>478</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H69" s="19"/>
       <c r="I69" s="0" t="n">
-        <v>49.052587</v>
+        <v>52.195501</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>-122.193538</v>
+        <v>-123.798415</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="64" t="s">
-        <v>479</v>
-      </c>
-      <c r="B70" s="6" t="str">
-        <f aca="false">A70</f>
-        <v>Toosey Indian Band (Tl'esqox)</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E70" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F70" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>481</v>
-      </c>
       <c r="G70" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="H70" s="21"/>
+        <v>484</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>485</v>
+      </c>
       <c r="I70" s="0" t="n">
-        <v>52.195501</v>
+        <v>48.724102</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>-123.798415</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="B71" s="68" t="s">
+        <v>-123.324246</v>
+      </c>
+      <c r="K70" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>486</v>
+      <c r="C71" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>48.724102</v>
@@ -5323,698 +5595,654 @@
       <c r="J71" s="0" t="n">
         <v>-123.324246</v>
       </c>
-      <c r="K71" s="50" t="s">
-        <v>291</v>
+      <c r="K71" s="46" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="66" t="s">
-        <v>490</v>
-      </c>
-      <c r="B72" s="68" t="s">
+      <c r="A72" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72" s="6" t="str">
+        <f aca="false">A72</f>
+        <v>Tsawwassen First Nation</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>49.042909</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>-123.094409</v>
+      </c>
+      <c r="K72" s="46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F73" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="C74" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>48.724102</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>-123.324246</v>
+      </c>
+      <c r="K74" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>48.724102</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>-123.324246</v>
-      </c>
-      <c r="K72" s="50" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="B73" s="6" t="str">
-        <f aca="false">A73</f>
-        <v>Tsawwassen First Nation</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>49.042909</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>-123.094409</v>
-      </c>
-      <c r="K73" s="50" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="F74" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="0" t="n">
-        <v>49.087557</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>265</v>
+    </row>
+    <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>515</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="F75" s="17"/>
       <c r="G75" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>48.724102</v>
+        <v>50.883097</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>-123.324246</v>
-      </c>
-      <c r="K75" s="50" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="64" t="s">
-        <v>518</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C76" s="19" t="s">
+        <v>-121.842308</v>
+      </c>
+      <c r="K75" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="B76" s="6" t="str">
+        <f aca="false">A76</f>
+        <v>Tsleil Waututh Nation</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>521</v>
       </c>
+      <c r="D76" s="11" t="s">
+        <v>522</v>
+      </c>
       <c r="E76" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F76" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="F76" s="17"/>
       <c r="G76" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>525</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>50.883097</v>
+        <v>49.309839</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>-121.842308</v>
-      </c>
-      <c r="K76" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>-122.980478</v>
+      </c>
+      <c r="K76" s="46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
-        <v>Tsleil Waututh Nation</v>
+        <v>T'Sou-ke Nation</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>49.309839</v>
+        <v>48.385518</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>-122.980478</v>
-      </c>
-      <c r="K77" s="50" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="s">
-        <v>531</v>
+        <v>-123.696567</v>
+      </c>
+      <c r="K77" s="46" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23" t="s">
+        <v>534</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
-        <v>T'Sou-ke Nation</v>
+        <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>538</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>48.385518</v>
+        <v>50.678844</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>-123.696567</v>
-      </c>
-      <c r="K78" s="50" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B79" s="6" t="str">
-        <f aca="false">A79</f>
-        <v>Tk'emlups te Secwepemc</v>
+        <v>-120.294529</v>
+      </c>
+      <c r="K78" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>541</v>
-      </c>
-      <c r="F79" s="71" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K79" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>22</v>
+        <v>547</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="B80" s="6" t="str">
+        <f aca="false">A80</f>
+        <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>547</v>
+        <v>549</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>550</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>49.087557</v>
+        <v>52.475488</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>552</v>
+        <v>-125.301018</v>
+      </c>
+      <c r="K80" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="s">
+        <v>555</v>
       </c>
       <c r="B81" s="6" t="str">
         <f aca="false">A81</f>
-        <v>Ulkatcho (Anahim) First Nation</v>
+        <v>Union Bar First Nations</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D81" s="72" t="s">
-        <v>554</v>
+        <v>556</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>558</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="H81" s="19"/>
       <c r="I81" s="0" t="n">
-        <v>52.475488</v>
+        <v>49.210913</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>-125.301018</v>
-      </c>
-      <c r="K81" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>559</v>
+        <v>-121.240262</v>
+      </c>
+      <c r="K81" s="46"/>
+    </row>
+    <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
-        <v>Union Bar First Nations</v>
+        <v>Upper Nicola Indian Band</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>563</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="F82" s="17"/>
       <c r="G82" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="H82" s="21"/>
+        <v>565</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>566</v>
+      </c>
       <c r="I82" s="0" t="n">
-        <v>49.210913</v>
+        <v>50.167239</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>-121.240262</v>
-      </c>
-      <c r="K82" s="50"/>
-    </row>
-    <row r="83" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26" t="s">
-        <v>565</v>
+        <v>-120.283533</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="59" t="s">
+        <v>567</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
-        <v>Upper Nicola Indian Band</v>
+        <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>569</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="F83" s="17"/>
+        <v>570</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>569</v>
+      </c>
       <c r="G83" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>50.167239</v>
+        <v>49.462883</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>-120.283533</v>
+        <v>-120.50172</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="B84" s="6" t="str">
-        <f aca="false">A84</f>
-        <v>Upper Similkameen Indian Band</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>573</v>
+        <v>576</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F84" s="73" t="s">
-        <v>573</v>
+        <v>578</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>579</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>576</v>
+        <v>580</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>581</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>49.462883</v>
+        <v>51.194286</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>-120.50172</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>-121.613314</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
+      </c>
+      <c r="B85" s="6" t="str">
+        <f aca="false">A85</f>
+        <v>Williams Lake Indian Band</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>581</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>52.10532</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>-121.9905</v>
+      </c>
+      <c r="K85" s="69"/>
+    </row>
+    <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>49.087557</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>-121.829723</v>
+      </c>
+      <c r="K86" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>51.194286</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>-121.613314</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="74" t="s">
-        <v>587</v>
-      </c>
-      <c r="B86" s="6" t="str">
-        <f aca="false">A86</f>
-        <v>Whispering Pines/Clinton Indian Bands  - Continued</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="17"/>
-      <c r="H86" s="12"/>
-      <c r="K86" s="13" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18" t="s">
-        <v>588</v>
+    </row>
+    <row r="87" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23" t="s">
+        <v>595</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
-        <v>Williams Lake Indian Band</v>
+        <v>Yale First Nation</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="D87" s="11"/>
+        <v>596</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="E87" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="F87" s="17"/>
+        <v>598</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>599</v>
+      </c>
       <c r="G87" s="11" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>52.10532</v>
+        <v>49.492718</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>-121.9905</v>
-      </c>
-      <c r="K87" s="75"/>
-    </row>
-    <row r="88" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>22</v>
+        <v>-121.423097</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B88" s="6" t="str">
+        <f aca="false">A88</f>
+        <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>596</v>
+        <v>604</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>605</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>599</v>
+        <v>607</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>608</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>49.087557</v>
+        <v>52.854978</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>-121.829723</v>
+        <v>-121.585666</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="B89" s="6" t="str">
-        <f aca="false">A89</f>
-        <v>Yale First Nation</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>49.492718</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <v>-121.423097</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B90" s="6" t="str">
-        <f aca="false">A90</f>
-        <v>Xat'sull First Nation (Soda Creek)</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="D90" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="73"/>
+    </row>
+    <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="B90" s="23"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="B91" s="11"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="B92" s="11"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+    </row>
+    <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="H90" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>52.854978</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>-121.585666</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="76"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="79"/>
-    </row>
-    <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="B92" s="26"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11" t="s">
-        <v>615</v>
-      </c>
       <c r="B93" s="11"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-    </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
-        <v>616</v>
-      </c>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+    </row>
+    <row r="94" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11"/>
       <c r="B94" s="11"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-    </row>
-    <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="B95" s="11"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-    </row>
-    <row r="96" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-    </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+    </row>
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:H90"/>
+  <autoFilter ref="A2:H88"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="cnord@alib.ca"/>
     <hyperlink ref="H3" r:id="rId2" display="https://www.adamslakeband.org"/>
@@ -6055,46 +6283,45 @@
     <hyperlink ref="D44" r:id="rId37" display="reception@sqewlets.ca  (604) 826-5813"/>
     <hyperlink ref="H44" r:id="rId38" display="https://sqewlets.ca/"/>
     <hyperlink ref="H46" r:id="rId39" display="https://shuswapnation.org/   "/>
-    <hyperlink ref="H48" r:id="rId40" display="http://adamslakeband.org/"/>
-    <hyperlink ref="D49" r:id="rId41" display="sibchief@shackan.ca"/>
-    <hyperlink ref="H49" r:id="rId42" display="https://www.shackan.ca/"/>
-    <hyperlink ref="H50" r:id="rId43" display="https://www.shxwowhamel.ca/"/>
-    <hyperlink ref="D51" r:id="rId44" display="recept@skway.com"/>
-    <hyperlink ref="H51" r:id="rId45" display="https://skway.com/"/>
-    <hyperlink ref="H52" r:id="rId46" display="https://www.simpcw.com/"/>
-    <hyperlink ref="H56" r:id="rId47" display="http://www.shuswapband.net/"/>
-    <hyperlink ref="H57" r:id="rId48" display="www.skawahlook.com"/>
-    <hyperlink ref="H59" r:id="rId49" display="https://www.snuneymuxw.ca/"/>
-    <hyperlink ref="H60" r:id="rId50" display="https://soowahlie.ca/"/>
-    <hyperlink ref="H61" r:id="rId51" display="http://www.spuzzumnation.com/"/>
-    <hyperlink ref="D62" r:id="rId52" display="Consultation_RightsandTitle@Squamish.net"/>
-    <hyperlink ref="H62" r:id="rId53" display="https://www.squamish.net/"/>
-    <hyperlink ref="H63" r:id="rId54" display="www.squiala.com"/>
-    <hyperlink ref="H64" r:id="rId55" display="https://stkemlups.ca/"/>
-    <hyperlink ref="H65" r:id="rId56" display="http://www.stsailes.com/"/>
-    <hyperlink ref="H66" r:id="rId57" display="https://sxfn.ca/"/>
-    <hyperlink ref="H67" r:id="rId58" display="http://www.bonaparteindianband.com/"/>
-    <hyperlink ref="H68" r:id="rId59" display="https://www.stzuminus.com/"/>
-    <hyperlink ref="H69" r:id="rId60" display="http://www.sumasfirstnation.com/"/>
-    <hyperlink ref="H71" r:id="rId61" display="http://tsartlip.com/"/>
-    <hyperlink ref="H72" r:id="rId62" display="https://tsawout.ca/"/>
-    <hyperlink ref="H73" r:id="rId63" display="http://tsawwassenfirstnation.com/"/>
-    <hyperlink ref="H75" r:id="rId64" display="http://www.tseycum.ca/"/>
-    <hyperlink ref="H77" r:id="rId65" display="https://twnation.ca/"/>
-    <hyperlink ref="H78" r:id="rId66" display="https://www.tsoukenation.com/"/>
-    <hyperlink ref="H79" r:id="rId67" display="https://tkemlups.ca/"/>
-    <hyperlink ref="H80" r:id="rId68" display="https://www.tzeachten.ca/"/>
-    <hyperlink ref="D81" r:id="rId69" display="chief@ulkatcho.ca"/>
-    <hyperlink ref="H81" r:id="rId70" display="https://www.ulkatcho.ca/"/>
-    <hyperlink ref="H83" r:id="rId71" display="http://uppernicola.com/"/>
-    <hyperlink ref="D84" r:id="rId72" display="referrals@usib.ca"/>
-    <hyperlink ref="F84" r:id="rId73" display="referrals@usib.ca"/>
-    <hyperlink ref="H84" r:id="rId74" display="https://usib.ca/"/>
-    <hyperlink ref="H85" r:id="rId75" display="https://www.wpcib.com/"/>
-    <hyperlink ref="H87" r:id="rId76" display="https://williamslakeband.ca/"/>
-    <hyperlink ref="H88" r:id="rId77" display="https://www.sxta.bc.ca/sxta-communities/yakweakwioose/"/>
-    <hyperlink ref="H89" r:id="rId78" display="https://www.yalefirstnation.ca/"/>
-    <hyperlink ref="H90" r:id="rId79" display="http://xatsull.com/"/>
+    <hyperlink ref="D48" r:id="rId40" display="sibchief@shackan.ca"/>
+    <hyperlink ref="H48" r:id="rId41" display="https://www.shackan.ca/"/>
+    <hyperlink ref="H49" r:id="rId42" display="https://www.shxwowhamel.ca/"/>
+    <hyperlink ref="D50" r:id="rId43" display="recept@skway.com"/>
+    <hyperlink ref="H50" r:id="rId44" display="https://skway.com/"/>
+    <hyperlink ref="H51" r:id="rId45" display="https://www.simpcw.com/"/>
+    <hyperlink ref="H55" r:id="rId46" display="http://www.shuswapband.net/"/>
+    <hyperlink ref="H56" r:id="rId47" display="www.skawahlook.com"/>
+    <hyperlink ref="H58" r:id="rId48" display="https://www.snuneymuxw.ca/"/>
+    <hyperlink ref="H59" r:id="rId49" display="https://soowahlie.ca/"/>
+    <hyperlink ref="H60" r:id="rId50" display="http://www.spuzzumnation.com/"/>
+    <hyperlink ref="D61" r:id="rId51" display="Consultation_RightsandTitle@Squamish.net"/>
+    <hyperlink ref="H61" r:id="rId52" display="https://www.squamish.net/"/>
+    <hyperlink ref="H62" r:id="rId53" display="www.squiala.com"/>
+    <hyperlink ref="H63" r:id="rId54" display="https://stkemlups.ca/"/>
+    <hyperlink ref="H64" r:id="rId55" display="http://www.stsailes.com/"/>
+    <hyperlink ref="H65" r:id="rId56" display="https://sxfn.ca/"/>
+    <hyperlink ref="H66" r:id="rId57" display="http://www.bonaparteindianband.com/"/>
+    <hyperlink ref="H67" r:id="rId58" display="https://www.stzuminus.com/"/>
+    <hyperlink ref="H68" r:id="rId59" display="http://www.sumasfirstnation.com/"/>
+    <hyperlink ref="H70" r:id="rId60" display="http://tsartlip.com/"/>
+    <hyperlink ref="H71" r:id="rId61" display="https://tsawout.ca/"/>
+    <hyperlink ref="H72" r:id="rId62" display="http://tsawwassenfirstnation.com/"/>
+    <hyperlink ref="H74" r:id="rId63" display="http://www.tseycum.ca/"/>
+    <hyperlink ref="H76" r:id="rId64" display="https://twnation.ca/"/>
+    <hyperlink ref="H77" r:id="rId65" display="https://www.tsoukenation.com/"/>
+    <hyperlink ref="H78" r:id="rId66" display="https://tkemlups.ca/"/>
+    <hyperlink ref="H79" r:id="rId67" display="https://www.tzeachten.ca/"/>
+    <hyperlink ref="D80" r:id="rId68" display="chief@ulkatcho.ca"/>
+    <hyperlink ref="H80" r:id="rId69" display="https://www.ulkatcho.ca/"/>
+    <hyperlink ref="H82" r:id="rId70" display="http://uppernicola.com/"/>
+    <hyperlink ref="D83" r:id="rId71" display="referrals@usib.ca"/>
+    <hyperlink ref="F83" r:id="rId72" display="referrals@usib.ca"/>
+    <hyperlink ref="H83" r:id="rId73" display="https://usib.ca/"/>
+    <hyperlink ref="H84" r:id="rId74" display="https://www.wpcib.com/"/>
+    <hyperlink ref="H85" r:id="rId75" display="https://williamslakeband.ca/"/>
+    <hyperlink ref="H86" r:id="rId76" display="https://www.sxta.bc.ca/sxta-communities/yakweakwioose/"/>
+    <hyperlink ref="H87" r:id="rId77" display="https://www.yalefirstnation.ca/"/>
+    <hyperlink ref="H88" r:id="rId78" display="http://xatsull.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6103,6 +6330,1432 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId80"/>
+  <drawing r:id="rId79"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="str">
+        <f aca="false">'BC First Nations'!A3</f>
+        <v>Adams Lake Indian Band</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="false">'BC First Nations'!A4</f>
+        <v>Aitchelitz Band (a-che-leetz)</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="false">'BC First Nations'!A5</f>
+        <v>Ashcroft Indian Band</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="false">'BC First Nations'!A6</f>
+        <v>Boothroyd Band</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="false">'BC First Nations'!A7</f>
+        <v>Boston Bar First Nations</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="false">'BC First Nations'!A8</f>
+        <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">'BC First Nations'!A9</f>
+        <v>Chawathil First Nation  ("Shi-Wa-Thill")</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="false">'BC First Nations'!A10</f>
+        <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="false">'BC First Nations'!A11</f>
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="false">'BC First Nations'!A12</f>
+        <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="str">
+        <f aca="false">'BC First Nations'!A13</f>
+        <v>Cowichan Tribes</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="str">
+        <f aca="false">'BC First Nations'!A14</f>
+        <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="str">
+        <f aca="false">'BC First Nations'!A15</f>
+        <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="str">
+        <f aca="false">'BC First Nations'!A16</f>
+        <v>Halalt First Nation </v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="str">
+        <f aca="false">'BC First Nations'!A17</f>
+        <v>Heiltsuk First Nation</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="str">
+        <f aca="false">'BC First Nations'!A18</f>
+        <v>Huu-ay-aht First Nation </v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="str">
+        <f aca="false">'BC First Nations'!A19</f>
+        <v>Katzie First Nation</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="str">
+        <f aca="false">'BC First Nations'!A20</f>
+        <v>Kwantlen First Nation (tireless Runner)</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="false">'BC First Nations'!A21</f>
+        <v>Kwaw -Kwaw-Aplit First Nations </v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="str">
+        <f aca="false">'BC First Nations'!A22</f>
+        <v>Kwikwetlem First Nation</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="str">
+        <f aca="false">'BC First Nations'!A23</f>
+        <v>Leq' a: mel First Nation</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="str">
+        <f aca="false">'BC First Nations'!A24</f>
+        <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="str">
+        <f aca="false">'BC First Nations'!A25</f>
+        <v>Lheidli T'enneh First Nation</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="str">
+        <f aca="false">'BC First Nations'!A26</f>
+        <v>Lhtako Dene Nation</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="str">
+        <f aca="false">'BC First Nations'!A27</f>
+        <v>Lower Nicola Indian Band -</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="str">
+        <f aca="false">'BC First Nations'!A28</f>
+        <v>Lower Similkameen #598</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="str">
+        <f aca="false">'BC First Nations'!A29</f>
+        <v>Lyackson First Nation</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="str">
+        <f aca="false">'BC First Nations'!A30</f>
+        <v>Malahat First Nation</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="str">
+        <f aca="false">'BC First Nations'!A31</f>
+        <v>Matsqui First Nation</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="str">
+        <f aca="false">'BC First Nations'!A32</f>
+        <v>Musqeam Indian Band</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="str">
+        <f aca="false">'BC First Nations'!A33</f>
+        <v>Neskonlith Indian Band</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="str">
+        <f aca="false">'BC First Nations'!A34</f>
+        <v>Nooaitch Indian Band</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="str">
+        <f aca="false">'BC First Nations'!A35</f>
+        <v>Osoyoos</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="str">
+        <f aca="false">'BC First Nations'!A36</f>
+        <v>Pacheedaht First Nation</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="str">
+        <f aca="false">'BC First Nations'!A37</f>
+        <v>Pauquachin Nation</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="str">
+        <f aca="false">'BC First Nations'!A38</f>
+        <v>Penticton Indian Band</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="str">
+        <f aca="false">'BC First Nations'!A39</f>
+        <v>Peters Band (Peters First Nation)</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="str">
+        <f aca="false">'BC First Nations'!A40</f>
+        <v>Penelakut Tribe</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="str">
+        <f aca="false">'BC First Nations'!A41</f>
+        <v>Popkum First Nation</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="str">
+        <f aca="false">'BC First Nations'!A42</f>
+        <v>Qayqayt First Nation (New Westminister) </v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="str">
+        <f aca="false">'BC First Nations'!A43</f>
+        <v>Scia'new First Nation (Beecher Bay First Nation)</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="str">
+        <f aca="false">'BC First Nations'!A44</f>
+        <v>Sq'ewlets (Scowlitz) First Nation</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="str">
+        <f aca="false">'BC First Nations'!A45</f>
+        <v>Seabird Island Band</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="str">
+        <f aca="false">'BC First Nations'!A46</f>
+        <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="str">
+        <f aca="false">'BC First Nations'!A47</f>
+        <v>Semiahmoo First Nation</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="str">
+        <f aca="false">'BC First Nations'!A48</f>
+        <v>Shackan Indian Band </v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="str">
+        <f aca="false">'BC First Nations'!A49</f>
+        <v>Shxw'owhamel First Nation pronounced "Shwoh-hamel"</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="str">
+        <f aca="false">'BC First Nations'!A50</f>
+        <v>Shxwha:y Villiage</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="str">
+        <f aca="false">'BC First Nations'!A51</f>
+        <v>Simpcw First Nation "People of the Rivers"</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="str">
+        <f aca="false">'BC First Nations'!A52</f>
+        <v>Siska Indian Band</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="str">
+        <f aca="false">'BC First Nations'!A53</f>
+        <v>Skuppah Indian Band </v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>674</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="str">
+        <f aca="false">'BC First Nations'!A54</f>
+        <v>Skowkale First Nation</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="str">
+        <f aca="false">'BC First Nations'!A55</f>
+        <v>Shuswap Indian Band </v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>675</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="str">
+        <f aca="false">'BC First Nations'!A56</f>
+        <v>Skawahlook First Nation</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="str">
+        <f aca="false">'BC First Nations'!A57</f>
+        <v>Skwah First Nation</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="str">
+        <f aca="false">'BC First Nations'!A58</f>
+        <v>Snuneymuxw First Nation</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="str">
+        <f aca="false">'BC First Nations'!A59</f>
+        <v>Soowahlie First Nation</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="str">
+        <f aca="false">'BC First Nations'!A60</f>
+        <v>Spuzzum First Nation</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="str">
+        <f aca="false">'BC First Nations'!A61</f>
+        <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="str">
+        <f aca="false">'BC First Nations'!A62</f>
+        <v>Squiala First Nation</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D61" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="str">
+        <f aca="false">'BC First Nations'!A63</f>
+        <v>Stk'emlupsemc Te Secwepemc </v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>681</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="str">
+        <f aca="false">'BC First Nations'!A64</f>
+        <v>Sts'ailes Band (Chehalls Indian Band) </v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="str">
+        <f aca="false">'BC First Nations'!A65</f>
+        <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="str">
+        <f aca="false">'BC First Nations'!A66</f>
+        <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="str">
+        <f aca="false">'BC First Nations'!A67</f>
+        <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
+      </c>
+      <c r="B66" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="C66" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="str">
+        <f aca="false">'BC First Nations'!A68</f>
+        <v>Sumas First Nation</v>
+      </c>
+      <c r="B67" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="str">
+        <f aca="false">'BC First Nations'!A69</f>
+        <v>Toosey Indian Band (Tl'esqox)</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C68" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="str">
+        <f aca="false">'BC First Nations'!A70</f>
+        <v>Tsartlip First Nation</v>
+      </c>
+      <c r="B69" s="75" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="str">
+        <f aca="false">'BC First Nations'!A71</f>
+        <v>Tsawout First Nation</v>
+      </c>
+      <c r="B70" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="str">
+        <f aca="false">'BC First Nations'!A72</f>
+        <v>Tsawwassen First Nation</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="str">
+        <f aca="false">'BC First Nations'!A73</f>
+        <v>Ts'elxweyeqw Tribe Management Limited</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="str">
+        <f aca="false">'BC First Nations'!A74</f>
+        <v>Tseycum First Nation</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="str">
+        <f aca="false">'BC First Nations'!A75</f>
+        <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="str">
+        <f aca="false">'BC First Nations'!A76</f>
+        <v>Tsleil Waututh Nation</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="str">
+        <f aca="false">'BC First Nations'!A77</f>
+        <v>T'Sou-ke Nation</v>
+      </c>
+      <c r="B76" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="str">
+        <f aca="false">'BC First Nations'!A78</f>
+        <v>Tk'emlups te Secwepemc</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="str">
+        <f aca="false">'BC First Nations'!A79</f>
+        <v>Tzeachten First Nation</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="str">
+        <f aca="false">'BC First Nations'!A80</f>
+        <v>Ulkatcho (Anahim) First Nation</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="str">
+        <f aca="false">'BC First Nations'!A81</f>
+        <v>Union Bar First Nations</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="str">
+        <f aca="false">'BC First Nations'!A82</f>
+        <v>Upper Nicola Indian Band</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="str">
+        <f aca="false">'BC First Nations'!A83</f>
+        <v>Upper Similkameen Indian Band</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="str">
+        <f aca="false">'BC First Nations'!A84</f>
+        <v>Whispering Pines/Clinton Indian Bands</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="str">
+        <f aca="false">'BC First Nations'!A85</f>
+        <v>Williams Lake Indian Band</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C84" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D84" s="75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="str">
+        <f aca="false">'BC First Nations'!A86</f>
+        <v>Yakweakwioose First Nation</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="C85" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="str">
+        <f aca="false">'BC First Nations'!A87</f>
+        <v>Yale First Nation </v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>701</v>
+      </c>
+      <c r="C86" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D86" s="75" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="str">
+        <f aca="false">'BC First Nations'!A88</f>
+        <v>Xat'sull First Nation (Soda Creek)</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>703</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>704</v>
+      </c>
+      <c r="G87" s="75"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://iapps/AEWebsite/Maps/secwepemcdetailLarge.jpg&#10;"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/ashcroft_fro_jul06.pdf"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.jpg&#10;"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/bostan_bar_fro_oct06.pdf"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/canim_lake_band_fcra_executed_october_1_2018.pdf"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/chawathil_fcrsa_renewal_document_-_2019.pdf"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cheam_renewal_executed_fcrsa-2_2015-12-21.pdf"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/coldwater_signed_feb08.pdf"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cooks_ferry_fcrsa_executed_1may14.pdf"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/cowichan_tribes_-_fcrsa.pdf"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/ditidaht_first_nation_fcrsa.pdf"/>
+    <hyperlink ref="D14" r:id="rId13" display="http://iapps/AEWebsite/Maps/F-esquimaltTTM.png&#10;"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/halalt_first_nation_fcrsa.pdf"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/heiltsuk_fcrsa_signed.pdf"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://huuayaht.org/services/lands-permits/"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/katzie_fcrsa_renewal_2-years_term_executed_sep_15_2020.pdf"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwantlen_fcrsa_executed_june_20_2019.pdf"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwaw-kwaw-apilt_fcrsa_renewal_executed_2020-12-23.pdf"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/kwikwetlem_fcrsa_april_30_2015_executed.pdf"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/leqamel_fcrsa_renewal_1_year_term_executed_jan_13_2021.pdf"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/little_shuswap_lake_indian_band_-_fcrsa.pdf"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/lhedili_tenneh_direct_award_ima_26feb03.pdf"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lhtako_fcrsa_executed_april_162018.pdf"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/rsa_lower_nicola_band.pdf"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lsib_signed_fcrsa_minister_signed_july_12_2019.pdf"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/lyackson_fcrsa_april_9_2018.pdf"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/malahat_nation_minister_oct_2019_signed_fcrsa.pdf"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/matsqui_fcrsa_renewal_2016-08-04_executed.pdf"/>
+    <hyperlink ref="D31" r:id="rId30" display="http://iapps/AEWebsite/Maps/F-musqueamTTM.jpg&#10;"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/neskonlith_ftoa_19dec12.pdf"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/nooaitch_fro_mar08.pdf"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/osoyoos_signed_03may11.pdf"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/pacheedaht_signed_february_17_2021_1.pdf"/>
+    <hyperlink ref="D36" r:id="rId35" display="http://iapps/AEWebsite/Maps/F-tsartlipTTM.jpg&#10;"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/pentictor_fcrsa_-_2014.pdf"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/peters_band_fcrsa_executed_sept9_2016public.pdf"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/penelakut_tribe_fcrsa.pdf"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/popkum_fcrsa_renewal2020_executed_2020-03-27.pdf"/>
+    <hyperlink ref="D41" r:id="rId40" display="http://iapps/AEWebsite/Maps/F-qayqaytTTM.png&#10;"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/scianew_fn_fcrsa_signed.pdf"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sqwlets_fcrsa_2021_renewal_executed_2021-03-25_1.pdf"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/seabird_island_band_-_fcrsa.pdf"/>
+    <hyperlink ref="D45" r:id="rId44" display="http://iapps/AEWebsite/Maps/secwepemcterritory.gif&#10;"/>
+    <hyperlink ref="D46" r:id="rId45" display="http://iapps/AEWebsite/Maps/F-semiahmooTTM.gif&#10;"/>
+    <hyperlink ref="D47" r:id="rId46" display="http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.gif&#10;"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/shxwwhmel_fcrsa_-_signed_may_1_2020.pdf"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.simpcw.com/our-land.htm"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/siska_fcrsa_fn_executed_april_16_2018.pdf"/>
+    <hyperlink ref="D52" r:id="rId51" display="http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.jpg&#10;"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/shuswap_fcrsa_consultation_and_revenue_sharing_agreement_fn_executed_decembe_5_2018.pdf"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sqewlxw_fcrsa_renewal2020_executed_sept18_2020.pdf"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/skwah_fcrsa_2020_renewal_executed_aug312020.pdf"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/snuneymuxw_first_nation_framework_agreement.pdf"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D59" r:id="rId58" display="http://iapps/AEWebsite/Maps/F-nlakapamuxTTM.jpg&#10;"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/squamish_fcrsa_renewal_2020_agreement_-_signed_july_23_2020.pdf"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tkemlups_fcrsa_executed_sept_0916.pdf"/>
+    <hyperlink ref="D63" r:id="rId62" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/stsailes_fcrsa_renewal_executed_jan_11_2017.pdf"/>
+    <hyperlink ref="D64" r:id="rId63" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sxfn_canoe_creek_indian_band_fcrsa_executed_february_3_2021.pdf"/>
+    <hyperlink ref="D65" r:id="rId64" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/bonaparte_toa_08sept10.pdf"/>
+    <hyperlink ref="D66" r:id="rId65" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/stzuminus_fcrsa_-_signed_mar_31_2020.pdf"/>
+    <hyperlink ref="D67" r:id="rId66" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sumas_fcrsa_-_signed_apr_22_2020.pdf"/>
+    <hyperlink ref="D68" r:id="rId67" display="http://iapps/AEWebsite/Maps/F-tlesqoxulkatchoTTM.jpg&#10;"/>
+    <hyperlink ref="D69" r:id="rId68" display="http://iapps/AEWebsite/Maps/F-tsartlipTTM.jpg&#10;"/>
+    <hyperlink ref="D70" r:id="rId69" display="http://iapps/AEWebsite/Maps/F-tsartlipTTM.jpg&#10;"/>
+    <hyperlink ref="D71" r:id="rId70" display="http://iapps/AEWebsite/Maps/F-tsawwassenTTM.jpg&#10;"/>
+    <hyperlink ref="D72" r:id="rId71" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D73" r:id="rId72" display="http://iapps/AEWebsite/Maps/F-tsartlipTTM.jpg&#10;"/>
+    <hyperlink ref="D74" r:id="rId73" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tskwaylaxw_fcrsa_executed_1may14.pdf"/>
+    <hyperlink ref="D75" r:id="rId74" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tsleil-waututh_fcrsa_-_signed_apr_22_2020.pdf"/>
+    <hyperlink ref="D76" r:id="rId75" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tsou-ke_fcrsa_signed_agreement.pdf"/>
+    <hyperlink ref="D77" r:id="rId76" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tkemlups_fcrsa_executed_sept_0916.pdf"/>
+    <hyperlink ref="D78" r:id="rId77" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D79" r:id="rId78" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/ulkatcho_fcrsa_signed_april_25_2019.pdf"/>
+    <hyperlink ref="D80" r:id="rId79" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/union_bar_february_2_2021_1.pdf"/>
+    <hyperlink ref="D81" r:id="rId80" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/forestry-agreements/upper_nicola_ftoa_feb11.pdf"/>
+    <hyperlink ref="D82" r:id="rId81" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/upper_similkameen_signed_fcrsa_september_2019_signed_by_msf.pdf"/>
+    <hyperlink ref="D83" r:id="rId82" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/whispering_pine_fcrsa_executed_march_2917.pdf"/>
+    <hyperlink ref="D84" r:id="rId83" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/williams_lake_ib_fcrsa_executed_jan_112017.pdf"/>
+    <hyperlink ref="D85" r:id="rId84" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/tselxwyeqw_tribe_fcrsa_executed_with_bcrs.pdf"/>
+    <hyperlink ref="D86" r:id="rId85" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/yale_fcrsa_-_signed_may_1_2020.pdf"/>
+    <hyperlink ref="D87" r:id="rId86" display="https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/xatsull_fcrsa_finalized_june_11_2019.pdf"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BC First Nations" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="706">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -1920,6 +1920,9 @@
     <t xml:space="preserve">Union Bar First Nations</t>
   </si>
   <si>
+    <t xml:space="preserve">Union Bar First Nation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Andrew (Andy) Alex (appointed in 1977)</t>
   </si>
   <si>
@@ -2395,7 +2398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2488,12 +2491,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2737,7 +2734,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3052,10 +3049,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3142,8 +3135,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5916,24 +5909,23 @@
       <c r="A81" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="B81" s="6" t="str">
-        <f aca="false">A81</f>
-        <v>Union Bar First Nations</v>
+      <c r="B81" s="23" t="s">
+        <v>556</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="0" t="n">
@@ -5946,27 +5938,27 @@
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>50.167239</v>
@@ -5980,29 +5972,29 @@
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E83" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F83" s="68" t="s">
         <v>570</v>
       </c>
-      <c r="F83" s="68" t="s">
-        <v>569</v>
-      </c>
       <c r="G83" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>49.462883</v>
@@ -6011,33 +6003,33 @@
         <v>-120.50172</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>51.194286</v>
@@ -6046,30 +6038,30 @@
         <v>-121.613314</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>52.10532</v>
@@ -6081,28 +6073,28 @@
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>49.087557</v>
@@ -6111,34 +6103,34 @@
         <v>-121.829723</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
         <v>Yale First Nation</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>49.492718</v>
@@ -6152,29 +6144,29 @@
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E88" s="63" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>52.854978</v>
@@ -6198,7 +6190,7 @@
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B90" s="23"/>
       <c r="E90" s="74"/>
@@ -6207,7 +6199,7 @@
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B91" s="11"/>
       <c r="E91" s="74"/>
@@ -6215,7 +6207,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B92" s="11"/>
       <c r="E92" s="74"/>
@@ -6223,7 +6215,7 @@
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B93" s="11"/>
       <c r="E93" s="74"/>
@@ -6341,11 +6333,11 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="1" sqref="B81 A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -6356,13 +6348,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,10 +6366,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,10 +6381,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,10 +6396,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,10 +6411,10 @@
         <v>38</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,10 +6426,10 @@
         <v>45</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,10 +6441,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,10 +6456,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,28 +6468,28 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
         <f aca="false">'BC First Nations'!A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,13 +6498,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,10 +6516,10 @@
         <v>92</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6539,10 +6531,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6554,25 +6546,25 @@
         <v>110</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">'BC First Nations'!A16</f>
-        <v>Halalt First Nation </v>
+        <v>Halalt First Nation</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,25 +6576,25 @@
         <v>123</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">'BC First Nations'!A18</f>
-        <v>Huu-ay-aht First Nation </v>
+        <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,10 +6606,10 @@
         <v>135</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,25 +6621,25 @@
         <v>142</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">'BC First Nations'!A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations </v>
+        <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6659,10 +6651,10 @@
         <v>157</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,10 +6666,10 @@
         <v>165</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,10 +6681,10 @@
         <v>173</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,10 +6696,10 @@
         <v>180</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,10 +6711,10 @@
         <v>189</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,10 +6726,10 @@
         <v>197</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,10 +6741,10 @@
         <v>204</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,10 +6756,10 @@
         <v>211</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6779,10 +6771,10 @@
         <v>218</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6794,10 +6786,10 @@
         <v>225</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,10 +6801,10 @@
         <v>231</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,10 +6816,10 @@
         <v>239</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,10 +6831,10 @@
         <v>245</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,10 +6846,10 @@
         <v>253</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,10 +6861,10 @@
         <v>259</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,10 +6876,10 @@
         <v>265</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,10 +6891,10 @@
         <v>271</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,10 +6906,10 @@
         <v>277</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,10 +6921,10 @@
         <v>285</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,25 +6936,25 @@
         <v>292</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">'BC First Nations'!A42</f>
-        <v>Qayqayt First Nation (New Westminister) </v>
+        <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,10 +6966,10 @@
         <v>304</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,10 +6981,10 @@
         <v>312</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,10 +6996,10 @@
         <v>319</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,10 +7011,10 @@
         <v>324</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,25 +7026,25 @@
         <v>329</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
         <f aca="false">'BC First Nations'!A48</f>
-        <v>Shackan Indian Band </v>
+        <v>Shackan Indian Band</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,10 +7056,10 @@
         <v>342</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,10 +7071,10 @@
         <v>349</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,10 +7086,10 @@
         <v>356</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,25 +7101,25 @@
         <v>362</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
         <f aca="false">'BC First Nations'!A53</f>
-        <v>Skuppah Indian Band </v>
+        <v>Skuppah Indian Band</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,25 +7131,25 @@
         <v>373</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">'BC First Nations'!A55</f>
-        <v>Shuswap Indian Band </v>
+        <v>Shuswap Indian Band</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>618</v>
-      </c>
-      <c r="D54" s="79" t="s">
-        <v>676</v>
+        <v>619</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7169,10 +7161,10 @@
         <v>387</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,10 +7176,10 @@
         <v>393</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,10 +7191,10 @@
         <v>399</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,10 +7206,10 @@
         <v>405</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,10 +7221,10 @@
         <v>411</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,10 +7236,10 @@
         <v>420</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,40 +7251,40 @@
         <v>427</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">'BC First Nations'!A63</f>
-        <v>Stk'emlupsemc Te Secwepemc </v>
+        <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">'BC First Nations'!A64</f>
-        <v>Sts'ailes Band (Chehalls Indian Band) </v>
+        <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="B63" s="75" t="s">
         <v>441</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,13 +7293,13 @@
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,10 +7311,10 @@
         <v>456</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,10 +7326,10 @@
         <v>463</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,10 +7341,10 @@
         <v>469</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,13 +7353,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,10 +7371,10 @@
         <v>480</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,10 +7386,10 @@
         <v>486</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,10 +7401,10 @@
         <v>493</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,10 +7416,10 @@
         <v>501</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,10 +7431,10 @@
         <v>507</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,10 +7446,10 @@
         <v>514</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,10 +7461,10 @@
         <v>520</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,10 +7476,10 @@
         <v>527</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,10 +7491,10 @@
         <v>534</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7514,10 +7506,10 @@
         <v>541</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7529,10 +7521,10 @@
         <v>548</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,10 +7536,10 @@
         <v>555</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,13 +7548,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,13 +7563,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,13 +7578,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,13 +7593,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,28 +7608,28 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">'BC First Nations'!A87</f>
-        <v>Yale First Nation </v>
+        <v>Yale First Nation</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,13 +7638,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -12,7 +12,7 @@
     <sheet name="image sources" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BC First Nations'!$A$2:$H$88</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BC First Nations'!$A$2:$I$88</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="758">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">mapFile</t>
   </si>
   <si>
+    <t xml:space="preserve">Pronounciation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leadership</t>
   </si>
   <si>
@@ -89,10 +92,13 @@
     <t xml:space="preserve">Spread 4 (KP 610 to 764)     </t>
   </si>
   <si>
-    <t xml:space="preserve">Aitchelitz Band (a-che-leetz)</t>
+    <t xml:space="preserve">Aitchelitz Band</t>
   </si>
   <si>
     <t xml:space="preserve">Shxwháy Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-che-leets</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Angie Bailey (June 4, 2010) Councillors; John Alphonse George (05/05/1976)  Gordon George (04/11/1994), Leona Sam (02/17/2000)</t>
@@ -208,10 +214,10 @@
     <t xml:space="preserve">Thompson Country - Spread 4 (KP 610 to 764) </t>
   </si>
   <si>
-    <t xml:space="preserve">Chawathil First Nation  ("Shi-Wa-Thill")</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chawathil First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi-wath-il</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Rhoda Peters, next election July 14, 2022</t>
@@ -275,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chiyom Agassiz (Cheam) First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chee-am</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Andrew Victor, Councillors; Bruce (BJ), Douglas, Darwin Jason Douglas, John Lincoln Douglas, Stephanie Fredette, Fredick (Rick) Quipp, election November 29, 2021</t>
@@ -411,6 +420,9 @@
     <t xml:space="preserve">Cowichan Tribes</t>
   </si>
   <si>
+    <t xml:space="preserve">Cow-ut-zun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief William "Chip" Seymour - Squtxulenuhw    (next election: December 6, 2021) Councillors; Howie George, Stuart Pagaduan, Graig George, Stephanie Atleo, Calvin Swustus, Jen Charlie, Albie Charlei, Debra Toporowski, Francine Alphonse, Calvin Sr. Swustus, Dora Wilson, Cindy Jane Daniels</t>
   </si>
   <si>
@@ -456,6 +468,9 @@
     <t xml:space="preserve">Ditidaht First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Dee-tee-dot / Dee-tee-dat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor, Brian Tate, Councillors; Anne Pettet, Paul Sieber, Kelly Sport, Darryl Tate, election July 15, 2023</t>
   </si>
   <si>
@@ -484,6 +499,9 @@
     <t xml:space="preserve">Esquimalt Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Ess-KWY-malt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrew Thomas, Hereditary Chief (appointed January 14, 2019)  Elected Chief Thomas Robert - 4 year term, next election October 1, 2023</t>
   </si>
   <si>
@@ -502,6 +520,9 @@
     <t xml:space="preserve">Halalt First Nation </t>
   </si>
   <si>
+    <t xml:space="preserve">Ha-lalt</t>
+  </si>
+  <si>
     <t xml:space="preserve">James Thomas - next election September 16, 2021</t>
   </si>
   <si>
@@ -523,6 +544,9 @@
     <t xml:space="preserve">Heiltsuk First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">HAIL-tsuk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marilyn Slett (August 9, 2022 every 4 yrs) Councillors; Denise Carpenter, Travis Hall, Jamie Harris, Jess Housty, Howard Hunt (August 9, 2022) Alya Brown, Louisa Housty Jones, Leona Humchitt, Megan Humhitt, Reginald Moody-Humchitt, Lorena White</t>
   </si>
   <si>
@@ -538,6 +562,9 @@
     <t xml:space="preserve">Huu-ay-aht First Nation </t>
   </si>
   <si>
+    <t xml:space="preserve">Hoo-EYE-at / Hoo-AY-at</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor Robert Dennis SR, next election June 17, 2023</t>
   </si>
   <si>
@@ -559,6 +586,9 @@
     <t xml:space="preserve">Katzie First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">KUT-zee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Grace George (next election March 31, 2022)</t>
   </si>
   <si>
@@ -607,6 +637,9 @@
     <t xml:space="preserve">Kwaw-Kwaw-Aplit First Nations</t>
   </si>
   <si>
+    <t xml:space="preserve">Kwa-kwa-a-pilt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Randy Leon August 24, 2022</t>
   </si>
   <si>
@@ -625,6 +658,9 @@
     <t xml:space="preserve">Kwikwetlem First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Kway-quit-lum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor Ed Hall (Next election: April 29, 2023)</t>
   </si>
   <si>
@@ -650,6 +686,9 @@
   </si>
   <si>
     <t xml:space="preserve">Leq'amel First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La-camel</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Alice Thompson (next election: March 31, 2024) </t>
@@ -700,6 +739,9 @@
     <t xml:space="preserve">Lheidli Tenneh First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Klate-lee Ten-eh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Clayton Pountney (next election April 11, 2021)</t>
   </si>
   <si>
@@ -775,6 +817,9 @@
     <t xml:space="preserve">LowerSimilkameen598</t>
   </si>
   <si>
+    <t xml:space="preserve">Si-MIL-kuh-meen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Keith Crow next election December 6, 2021, Councillor Janet Terbasket December 6, 2021, Councillors; Ira Edward, John Louie November 04, 2023</t>
   </si>
   <si>
@@ -791,6 +836,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lyackson First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lay-ik-sen</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Pahalicktun (Richard Thomas) appointed by the late Hereditary Chief Gordon Thomas 1993</t>
@@ -820,6 +868,9 @@
     <t xml:space="preserve">Malahat First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Malah-hat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief George Harry - 4 year term - next election June 12, 2023</t>
   </si>
   <si>
@@ -839,6 +890,9 @@
   </si>
   <si>
     <t xml:space="preserve">Matsqui First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat-squee</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Alice McKay (Next election June 30, 2022)</t>
@@ -864,6 +918,9 @@
     <t xml:space="preserve">Musqueam Indian Band</t>
   </si>
   <si>
+    <t xml:space="preserve">MUSS-quee-um</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Wayne Sparrow (Next election Nov 30, 2024)</t>
   </si>
   <si>
@@ -887,6 +944,9 @@
     <t xml:space="preserve">Neskonlith Indian Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Nes-con-lith</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Judy Wilson (Next election January 23, 2023)</t>
   </si>
   <si>
@@ -907,6 +967,9 @@
     <t xml:space="preserve">Nooaitch Indian Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Noo-eye-ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Marcel Shackkelly</t>
   </si>
   <si>
@@ -931,6 +994,9 @@
     <t xml:space="preserve">Osoyoos</t>
   </si>
   <si>
+    <t xml:space="preserve">O-soy-use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Clarence Louie (Next election February 21, 2023 -every 2 yrs)</t>
   </si>
   <si>
@@ -947,6 +1013,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pacheedaht First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pah-chee-da</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Jeff Jones (next election January 25, 2022)</t>
@@ -969,6 +1038,9 @@
     <t xml:space="preserve">Pauquachin Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Pak-quw-chin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Tom Allan (Next election October 23, 2022)</t>
   </si>
   <si>
@@ -1035,6 +1107,9 @@
     <t xml:space="preserve">Penelakut Tribe</t>
   </si>
   <si>
+    <t xml:space="preserve">Pen-EL-ah-kut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Joan Brown (Next election February 19, 2024)</t>
   </si>
   <si>
@@ -1078,6 +1153,9 @@
     <t xml:space="preserve">Qayqayt_First_Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Kee-kite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Rhonda Larrabee (1994), Councillors; Rodney Bandura (1994), Ronald Lee (1994), Roberta Bandura (1995)</t>
   </si>
   <si>
@@ -1124,6 +1202,9 @@
     <t xml:space="preserve">Sq'ewlets (Scowlitz) First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Scow-litz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Johnny Edward Williams (next election: June 9, 2023 every 2 yrs)</t>
   </si>
   <si>
@@ -1162,6 +1243,9 @@
     <t xml:space="preserve">Secwepmc (suh-Meh-much) of the Secwepmc Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Shi-HUEP-muh / She-KWE-pem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Shelly Loring, Councillors; Tina Donald, George Lampreau, Jules Philip, Ron Lampreau Jr., Alison Green, Martha Matthew</t>
   </si>
   <si>
@@ -1195,6 +1279,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shackan Indian Band </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah-ken</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Jordan Joe,    Councillors; Mary Angus, Joan Seymour (next election March 19, 2024 - every 3 yrs)</t>
@@ -1215,10 +1302,10 @@
     <t xml:space="preserve">https://www.shackan.ca/</t>
   </si>
   <si>
-    <t xml:space="preserve">Shxw'owhamel First Nation pronounced "Shwoh-hamel"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shxw'owhamel First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sh-wow-HA-mel</t>
   </si>
   <si>
     <t xml:space="preserve">June 18, 2010      Si:yam  Melody Andrews, Lucille Casimir, Lenora Fraser, Alfred James, Dean Jones, Lenona Kelly, Sonny Mchalsie, , Louise Mussell, Brenda Peters, Shawna Peters, Irene Smith</t>
@@ -1245,6 +1332,9 @@
     <t xml:space="preserve">Shxwha:y Villiage</t>
   </si>
   <si>
+    <t xml:space="preserve">Sh-why</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor, Robert Gladstone (next election: March 31, 2021)</t>
   </si>
   <si>
@@ -1269,6 +1359,9 @@
     <t xml:space="preserve">Simpcw First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Simp-qwuh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Shelly Ann Loring  (next election May 31, 2021)    Councillors; Edward (Eddie) Celesta, Christine (Tina) Donald, Lori Eustache, Alison Eustache (Green), George Lampreau, Ronald (Ron Jr.)  Lampreau, </t>
   </si>
   <si>
@@ -1290,6 +1383,9 @@
     <t xml:space="preserve">Siska Indian Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Sis-kah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Fred Sampson (next election January 23, 2023)</t>
   </si>
   <si>
@@ -1309,6 +1405,9 @@
   </si>
   <si>
     <t xml:space="preserve">Skuppah Indian Band </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skup-pa</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Doug McIntyre   Email: dougmc707@yahoo.com</t>
@@ -1331,6 +1430,9 @@
     <t xml:space="preserve">Skowkale First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Sko-kale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Election: March 2025, custom, every 4 yrs
 Chief Mark Point
 Councillor Willy Hall
@@ -1360,6 +1462,9 @@
     <t xml:space="preserve">Shuswap Indian Band </t>
   </si>
   <si>
+    <t xml:space="preserve">Shoe-swap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Barbara Cote (next election: November 1, 2022)</t>
   </si>
   <si>
@@ -1384,6 +1489,9 @@
     <t xml:space="preserve">Skawahlook First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Skwa-ha-look</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Maureen Chapman (Hereditary)     Governance consists of one Chief and one Councillor who are appointed using traditional matrilineal methods.</t>
   </si>
   <si>
@@ -1400,6 +1508,9 @@
   </si>
   <si>
     <t xml:space="preserve">Skwah First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squah</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Lara Mussell (Next election: November 25, 2023)</t>
@@ -1423,6 +1534,9 @@
     <t xml:space="preserve">Snuneymuxw First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Snoo-NAI-muk / Snuh-NAY-mow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Wyse Mike (Feb 1, 2022), Councillors; Chris Good, Emmy (Emily) Manson, Erralyn Thomas, Joe Jr. White, Paul Wyse-Seward, Darren Good (Feb 2, 2024), Kate Good, Regan Seward, Isaac Matthew Thomas, William (Bill) Yoachim</t>
   </si>
   <si>
@@ -1439,6 +1553,9 @@
   </si>
   <si>
     <t xml:space="preserve">Soowahlie First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soo-wall-ee</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Brenda Wallace (Next election April 25, 2021)</t>
@@ -1490,6 +1607,9 @@
     <t xml:space="preserve">Squamish First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">SKWA-mish</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Councillor,  Ian Campbell (Next election: December 11, 2021), Councillors; </t>
   </si>
   <si>
@@ -1509,6 +1629,9 @@
   </si>
   <si>
     <t xml:space="preserve">Squiala First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skwye-ala</t>
   </si>
   <si>
     <t xml:space="preserve">Chief David Jimmie (Next election: March 31, 2022) - Councillors Allen Jimmie (Next election: March 31, 2021)- Alvin Jimmie (Next election: March 31, 2023)</t>
@@ -1556,6 +1679,9 @@
     <t xml:space="preserve">Sts'ailes Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Che-HAY-lis / Sh-HAY-lis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Ralph Jr. Leon (next election: March 20, 2022)</t>
   </si>
   <si>
@@ -1573,10 +1699,13 @@
     <t xml:space="preserve">http://www.stsailes.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</t>
+    <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</t>
   </si>
   <si>
     <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St-wet-lem- hight-lem</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Hillary Adam (next election: June 7, 2024)</t>
@@ -1600,10 +1729,10 @@
     <t xml:space="preserve">https://sxfn.ca/</t>
   </si>
   <si>
-    <t xml:space="preserve">St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</t>
-  </si>
-  <si>
     <t xml:space="preserve">St'uxwtews (Bonaparte Indian Band)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone -eh-part</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Randy Porter (next election: March 5, 2021)</t>
@@ -1686,6 +1815,9 @@
     <t xml:space="preserve">Tsartlip First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Sart-lip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Don Tom - election December 7, 2021</t>
   </si>
   <si>
@@ -1706,6 +1838,9 @@
     <t xml:space="preserve">Tsawout First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Tsa-woot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Harvey Underwood- next election July 6, 2023</t>
   </si>
   <si>
@@ -1729,6 +1864,9 @@
     <t xml:space="preserve">Tsawwassen First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Tah-WASS-en</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Ken Baird (next election: April  20, 2022)</t>
   </si>
   <si>
@@ -1773,6 +1911,9 @@
     <t xml:space="preserve">Tseycum First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Tsay-kum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Tanya Jimmy - next election July 24, 2023</t>
   </si>
   <si>
@@ -1795,6 +1936,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ts'kwaylaxw(Pavillion Indian Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS-KWHY-lux</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Justin Kane - election August 14, 2023</t>
@@ -1814,6 +1958,9 @@
     <t xml:space="preserve">Tsleil Waututh Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">TSLAY-wah-tooth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Jennifer Thomas,July 1, 2021 to June 30, 2025.  Councillors; Deanna (Missy) George, Curtis Thomas, Dennis Thomas, Kevin O'Neil, Deanna George, Liana Martin, Charlene Aleck</t>
   </si>
   <si>
@@ -1833,6 +1980,9 @@
   </si>
   <si>
     <t xml:space="preserve">T'Sou-ke Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sook</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Gordan Planes - next election February 11, 2024 every 4 yrs                Councillors, Bonnie Arden, Rose Dumont</t>
@@ -1878,6 +2028,9 @@
     <t xml:space="preserve">Tzeachten First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Chak-tun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Derek Epp (next election: March 31, 2023) every 3 yrs.</t>
   </si>
   <si>
@@ -1897,6 +2050,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ulkatcho (Anahim) First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ul-gat-cho</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Lynda Price (Next election: June 22, 2023)       Councillors;  Corrine Cahoose ccahoose@ulkatcho.ca, Rhonda Cahoose, rcahoose@ulkatcho.ca -Mabelene Leon, mleon@ulkatcho.ca Anthony Sims - santhony@ulkatcho.ca - Laurie Vaughan - lvaughan@ulkatcho.ca</t>
@@ -2027,6 +2183,9 @@
     <t xml:space="preserve">Yakweakwioose First Nation</t>
   </si>
   <si>
+    <t xml:space="preserve">Yak-week-wee-oose</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief Frank Malloway (elected in 1999)</t>
   </si>
   <si>
@@ -2324,9 +2483,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/stsailes_fcrsa_renewal_executed_jan_11_2017.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www2.gov.bc.ca/assets/gov/environment/natural-resource-stewardship/consulting-with-first-nations/agreements/sxfn_canoe_creek_indian_band_fcrsa_executed_february_3_2021.pdf</t>
@@ -3133,23 +3289,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="82.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="47.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="60.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="998" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="32.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="82.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="60.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="999" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3157,6 +3313,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -3165,19 +3322,19 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3186,3134 +3343,3338 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="n">
         <v>51.527017</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>-120.076953</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>20</v>
+      <c r="L3" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>29</v>
+      <c r="L4" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="str">
         <f aca="false">A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>50.404267</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>-120.678195</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>37</v>
+      <c r="L5" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="str">
         <f aca="false">A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>49.963059</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>-121.484624</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>49.963059</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="str">
         <f aca="false">A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="0" t="n">
         <v>49.621761</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>-120.95154</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>37</v>
+      <c r="L7" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>51.770937</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>-120.993827</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>59</v>
+      <c r="L8" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>49.283272</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>-121.291263</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>68</v>
+      <c r="L9" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>49.540481</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>-121.7239</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>76</v>
+      <c r="L10" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="E11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>50.027994</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>-120.41473</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>37</v>
+      <c r="L11" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>86</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>50.032193</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>-120.617392</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>37</v>
+      <c r="L12" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="F13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>48.888822</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>-123.752153</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>99</v>
+      <c r="L13" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="E14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>48.890317</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>-124.592686</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>108</v>
+      <c r="L14" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>48.688573</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>-123.453132</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>48.688573</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>-123.453132</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B16" s="6" t="str">
         <f aca="false">A16</f>
-        <v>Halalt First Nation</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v>Halalt First Nation </v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>48.929783</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>-124.479846</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>99</v>
+      <c r="L16" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B17" s="6" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="C17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>52.337794</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>-127.826237</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>108</v>
+      <c r="L17" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" s="6" t="str">
         <f aca="false">A18</f>
-        <v>Huu-ay-aht First Nation</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>Huu-ay-aht First Nation </v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>48.833479</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>-124.929585</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>134</v>
+      <c r="L18" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B19" s="6" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>136</v>
+      <c r="C19" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="0" t="n">
         <v>49.557619</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-122.607872</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>140</v>
+      <c r="L19" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>143</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <v>49.476845</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>-122.296959</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>149</v>
+      <c r="L20" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="0" t="n">
         <v>49.516226</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-121.756432</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>149</v>
+      <c r="L21" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="0" t="n">
+      <c r="C22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>49.451741</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>-122.657791</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>164</v>
+      <c r="L22" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="11" t="n">
         <v>49.348358</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>-122.106774</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>149</v>
+      <c r="L23" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>51.287872</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>-118.990533</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>37</v>
+      <c r="L24" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>53.944696</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>-121.694171</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>188</v>
+      <c r="L25" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B26" s="6" t="str">
         <f aca="false">A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>52.953049</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>-122.449172</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>20</v>
+      <c r="L26" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>198</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>50.006984</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>-121.261538</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>37</v>
+      <c r="L27" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>206</v>
+        <v>219</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="0" t="n">
         <v>49.845148</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>-118.987733</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>37</v>
+      <c r="L28" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B29" s="6" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>212</v>
+      <c r="C29" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I29" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>48.941803</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>-123.490134</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B30" s="6" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>219</v>
+      <c r="C30" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>48.655944</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>-124.000524</v>
       </c>
-      <c r="K30" s="38" t="s">
-        <v>224</v>
+      <c r="L30" s="38" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B31" s="6" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>226</v>
+      <c r="C31" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="0" t="n">
         <v>49.290611</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>-122.361868</v>
       </c>
-      <c r="K31" s="38" t="s">
-        <v>164</v>
+      <c r="L31" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I32" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>49.353225</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>-123.012956</v>
       </c>
-      <c r="K32" s="38" t="s">
-        <v>149</v>
+      <c r="L32" s="38" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B33" s="6" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>240</v>
+      <c r="C33" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I33" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>51.21274</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>-118.846623</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>37</v>
+      <c r="L33" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B34" s="6" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" s="0" t="n">
+      <c r="C34" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>49.690318</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>-120.648292</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>252</v>
+      <c r="L34" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="42" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B35" s="6" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>254</v>
+      <c r="C35" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>49.114526</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>-118.489264</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>252</v>
+      <c r="L35" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B36" s="6" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>260</v>
+      <c r="C36" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I36" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>48.572918</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>-124.39459</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>164</v>
+      <c r="L36" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B37" s="6" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>266</v>
+      <c r="C37" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="0" t="n">
         <v>48.724102</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>-123.324246</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>224</v>
+      <c r="L37" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B38" s="6" t="str">
         <f aca="false">A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>49.732366</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>-119.25376</v>
+      </c>
+      <c r="L38" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>49.732366</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>-119.25376</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>279</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="I39" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>49.505163</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>-121.482617</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>284</v>
+      <c r="L39" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B40" s="6" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>286</v>
+      <c r="C40" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="I40" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" s="0" t="n">
         <v>48.892388</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>-123.675652</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>291</v>
+      <c r="L40" s="13" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B41" s="6" t="str">
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>293</v>
-      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="15" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="0" t="n">
         <v>49.57071</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>-121.506875</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>284</v>
+      <c r="L41" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>299</v>
+        <v>323</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="0" t="n">
         <v>49.205717</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="K42" s="0" t="n">
         <v>-122.910944</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>303</v>
+      <c r="L42" s="13" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>306</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="15" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="I43" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>48.440888</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="K43" s="0" t="n">
         <v>-123.676887</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>303</v>
+      <c r="L43" s="13" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="I44" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>49.25517</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="K44" s="0" t="n">
         <v>-121.964821</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>284</v>
+      <c r="L44" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>320</v>
-      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="15" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="0" t="n">
         <v>49.262475</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <v>-121.724003</v>
       </c>
-      <c r="K45" s="46" t="s">
-        <v>284</v>
+      <c r="L45" s="46" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="I46" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="2" t="n">
         <v>51.527017</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="K46" s="0" t="n">
         <v>-120.076953</v>
       </c>
-      <c r="K46" s="50" t="s">
-        <v>20</v>
+      <c r="L46" s="50" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="D47" s="15" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="0" t="n">
         <v>49.012447</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="K47" s="0" t="n">
         <v>-122.767315</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>334</v>
+      <c r="L47" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="I48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="48"/>
+      <c r="H48" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>49.963059</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="K48" s="0" t="n">
         <v>-121.484624</v>
       </c>
-      <c r="K48" s="46" t="s">
-        <v>20</v>
+      <c r="L48" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="52" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>344</v>
+        <v>370</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>372</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="I49" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>49.339668</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="K49" s="0" t="n">
         <v>-121.60638</v>
       </c>
-      <c r="K49" s="46" t="s">
-        <v>284</v>
+      <c r="L49" s="46" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="I50" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" s="48"/>
+      <c r="H50" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="K50" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>29</v>
+      <c r="L50" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>357</v>
+        <v>386</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="I51" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>52.634393</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="K51" s="0" t="n">
         <v>-119.699777</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>20</v>
+      <c r="L51" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B52" s="6" t="str">
         <f aca="false">A52</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>363</v>
+      <c r="C52" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="0" t="n">
         <v>50.117565</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <v>-120.838519</v>
       </c>
-      <c r="K52" s="13" t="s">
-        <v>284</v>
+      <c r="L52" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>369</v>
+        <v>40</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>401</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="0" t="n">
         <v>49.963059</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="K53" s="0" t="n">
         <v>-121.484624</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>284</v>
+      <c r="L53" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>374</v>
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="I54" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J54" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="K54" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K54" s="17" t="s">
-        <v>29</v>
+      <c r="L54" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="B55" s="6" t="str">
         <f aca="false">A55</f>
-        <v>Shuswap Indian Band</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>382</v>
+        <v>Shuswap Indian Band </v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>416</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="I55" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>50.367907</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="K55" s="0" t="n">
         <v>-116.89554</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>20</v>
+      <c r="L55" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>388</v>
+      <c r="C56" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I56" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>49.227586</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="K56" s="0" t="n">
         <v>-122.174045</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>284</v>
+      <c r="L56" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="I57" s="0" t="n">
+      <c r="C57" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>49.175281</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="K57" s="0" t="n">
         <v>-121.977269</v>
       </c>
-      <c r="K57" s="17" t="s">
-        <v>29</v>
+      <c r="L57" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>400</v>
+      <c r="C58" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="I58" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>49.107871</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="K58" s="0" t="n">
         <v>-124.120584</v>
       </c>
-      <c r="K58" s="60" t="s">
-        <v>99</v>
+      <c r="L58" s="60" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="I59" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="J59" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="K59" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K59" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L59" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="59" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>413</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="11" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="I60" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>49.963059</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="K60" s="0" t="n">
         <v>-121.484624</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>284</v>
+      <c r="L60" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="61" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I61" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>49.807197</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>-123.200082</v>
       </c>
-      <c r="K61" s="13" t="s">
-        <v>426</v>
+      <c r="L61" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="61" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>428</v>
+        <v>23</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="I62" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="K62" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K62" s="17" t="s">
-        <v>29</v>
+      <c r="L62" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="B63" s="6" t="str">
         <f aca="false">A63</f>
-        <v>Stk'emlupsemc Te Secwepemc</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="I63" s="0" t="n">
+        <v>Stk'emlupsemc Te Secwepemc </v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>51.341443</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="K63" s="0" t="n">
         <v>-121.166411</v>
       </c>
-      <c r="K63" s="46" t="s">
-        <v>20</v>
+      <c r="L63" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>442</v>
+        <v>482</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="I64" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>49.293578</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="K64" s="0" t="n">
         <v>-121.910722</v>
       </c>
-      <c r="K64" s="17" t="s">
-        <v>29</v>
+      <c r="L64" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>449</v>
+        <v>490</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="I65" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" s="0" t="n">
         <v>51.586232</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="K65" s="0" t="n">
         <v>-122.204957</v>
       </c>
-      <c r="K65" s="17" t="s">
-        <v>29</v>
+      <c r="L65" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>457</v>
+        <v>498</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="I66" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="J66" s="0" t="n">
         <v>50.839863</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="K66" s="0" t="n">
         <v>-121.372183</v>
       </c>
-      <c r="K66" s="46" t="s">
-        <v>20</v>
+      <c r="L66" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>464</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>465</v>
+        <v>506</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="63" t="s">
+        <v>507</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="I67" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" s="0" t="n">
         <v>48.846385</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="K67" s="0" t="n">
         <v>-123.630268</v>
       </c>
-      <c r="K67" s="46" t="s">
-        <v>20</v>
+      <c r="L67" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>471</v>
+      <c r="C68" s="6"/>
+      <c r="D68" s="0" t="s">
+        <v>513</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="I68" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>49.052587</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="K68" s="0" t="n">
         <v>-122.193538</v>
       </c>
-      <c r="K68" s="17" t="s">
-        <v>29</v>
+      <c r="L68" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="59" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>476</v>
-      </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="11" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="0" t="n">
         <v>52.195501</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="K69" s="0" t="n">
         <v>-123.798415</v>
       </c>
-      <c r="K69" s="17" t="s">
-        <v>20</v>
+      <c r="L69" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>481</v>
+        <v>288</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="I70" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J70" s="0" t="n">
         <v>48.724102</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="K70" s="0" t="n">
         <v>-123.324246</v>
       </c>
-      <c r="K70" s="46" t="s">
-        <v>291</v>
+      <c r="L70" s="46" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="61" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>487</v>
+        <v>288</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="I71" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J71" s="0" t="n">
         <v>48.724102</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="K71" s="0" t="n">
         <v>-123.324246</v>
       </c>
-      <c r="K71" s="46" t="s">
-        <v>492</v>
+      <c r="L71" s="46" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>494</v>
+      <c r="C72" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="I72" s="0" t="n">
+        <v>541</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" s="0" t="n">
         <v>49.042909</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="K72" s="0" t="n">
         <v>-123.094409</v>
       </c>
-      <c r="K72" s="46" t="s">
-        <v>500</v>
+      <c r="L72" s="46" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>502</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="11" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="F73" s="64" t="s">
-        <v>505</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="0" t="n">
+        <v>549</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="K73" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>29</v>
+      <c r="L73" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>508</v>
+        <v>288</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="I74" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="J74" s="0" t="n">
         <v>48.724102</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <v>-123.324246</v>
       </c>
-      <c r="K74" s="46" t="s">
-        <v>492</v>
+      <c r="L74" s="46" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="59" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>516</v>
+        <v>562</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="I75" s="0" t="n">
+        <v>565</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="J75" s="0" t="n">
         <v>50.883097</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="K75" s="0" t="n">
         <v>-121.842308</v>
       </c>
-      <c r="K75" s="46" t="s">
-        <v>20</v>
+      <c r="L75" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>521</v>
+      <c r="C76" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="I76" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J76" s="0" t="n">
         <v>49.309839</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="K76" s="0" t="n">
         <v>-122.980478</v>
       </c>
-      <c r="K76" s="46" t="s">
-        <v>526</v>
+      <c r="L76" s="46" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>528</v>
+      <c r="C77" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="I77" s="0" t="n">
+        <v>578</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="J77" s="0" t="n">
         <v>48.385518</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="K77" s="0" t="n">
         <v>-123.696567</v>
       </c>
-      <c r="K77" s="46" t="s">
-        <v>492</v>
+      <c r="L77" s="46" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>535</v>
-      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E78" s="65" t="s">
-        <v>537</v>
-      </c>
-      <c r="F78" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="I78" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>587</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="J78" s="0" t="n">
         <v>50.678844</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="K78" s="0" t="n">
         <v>-120.294529</v>
       </c>
-      <c r="K78" s="46" t="s">
-        <v>20</v>
+      <c r="L78" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>542</v>
+        <v>23</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="I79" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="J79" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="K79" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K79" s="17" t="s">
-        <v>29</v>
+      <c r="L79" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D80" s="67" t="s">
-        <v>550</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="I80" s="0" t="n">
+      <c r="C80" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E80" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="J80" s="0" t="n">
         <v>52.475488</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="K80" s="0" t="n">
         <v>-125.301018</v>
       </c>
-      <c r="K80" s="46" t="s">
-        <v>188</v>
+      <c r="L80" s="46" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>557</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C81" s="23"/>
       <c r="D81" s="11" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="0" t="n">
+        <v>610</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I81" s="19"/>
+      <c r="J81" s="0" t="n">
         <v>49.210913</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="K81" s="0" t="n">
         <v>-121.240262</v>
       </c>
-      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>563</v>
-      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="11" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="I82" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="J82" s="0" t="n">
         <v>50.167239</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="K82" s="0" t="n">
         <v>-120.283533</v>
       </c>
-      <c r="K82" s="17" t="s">
-        <v>20</v>
+      <c r="L82" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="I83" s="0" t="n">
+      <c r="C83" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="G83" s="68" t="s">
+        <v>622</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="J83" s="0" t="n">
         <v>49.462883</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="K83" s="0" t="n">
         <v>-120.50172</v>
       </c>
-      <c r="K83" s="17" t="s">
-        <v>574</v>
+      <c r="L83" s="17" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>577</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="11" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="I84" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="J84" s="0" t="n">
         <v>51.194286</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="K84" s="0" t="n">
         <v>-121.613314</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>583</v>
+      <c r="L84" s="13" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="I85" s="0" t="n">
+      <c r="C85" s="6"/>
+      <c r="D85" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="J85" s="0" t="n">
         <v>52.10532</v>
       </c>
-      <c r="J85" s="0" t="n">
+      <c r="K85" s="0" t="n">
         <v>-121.9905</v>
       </c>
-      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>590</v>
+        <v>23</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="I86" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="J86" s="0" t="n">
         <v>49.087557</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="K86" s="0" t="n">
         <v>-121.829723</v>
       </c>
-      <c r="K86" s="13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L86" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
-        <v>Yale First Nation</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>597</v>
-      </c>
+        <v>Yale First Nation </v>
+      </c>
+      <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="I87" s="0" t="n">
+        <v>651</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="J87" s="0" t="n">
         <v>49.492718</v>
       </c>
-      <c r="J87" s="0" t="n">
+      <c r="K87" s="0" t="n">
         <v>-121.423097</v>
       </c>
-      <c r="K87" s="13" t="s">
-        <v>284</v>
+      <c r="L87" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>604</v>
-      </c>
+      <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="E88" s="63" t="s">
-        <v>606</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="I88" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="J88" s="0" t="n">
         <v>52.854978</v>
       </c>
-      <c r="J88" s="0" t="n">
+      <c r="K88" s="0" t="n">
         <v>-121.585666</v>
       </c>
-      <c r="K88" s="13" t="s">
-        <v>20</v>
+      <c r="L88" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="70"/>
       <c r="B89" s="70"/>
-      <c r="C89" s="71"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="71"/>
-      <c r="E89" s="72"/>
+      <c r="E89" s="71"/>
       <c r="F89" s="72"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="73"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="73"/>
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="B90" s="23"/>
-      <c r="E90" s="74"/>
+      <c r="C90" s="23"/>
       <c r="F90" s="74"/>
-      <c r="H90" s="11"/>
+      <c r="G90" s="74"/>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="B91" s="11"/>
-      <c r="E91" s="74"/>
+      <c r="C91" s="11"/>
       <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
       <c r="B92" s="11"/>
-      <c r="E92" s="74"/>
+      <c r="C92" s="11"/>
       <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="B93" s="11"/>
-      <c r="E93" s="74"/>
+      <c r="C93" s="11"/>
       <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
     </row>
     <row r="94" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
-      <c r="E94" s="74"/>
+      <c r="C94" s="11"/>
       <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
     </row>
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:H88"/>
+  <autoFilter ref="A2:I88"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="cnord@alib.ca"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://www.adamslakeband.org"/>
-    <hyperlink ref="H4" r:id="rId3" display="https://www.stolonation.bc.ca/bands"/>
-    <hyperlink ref="H5" r:id="rId4" display="http://www.ashcroftband.ca/"/>
-    <hyperlink ref="H6" r:id="rId5" display="https://boothroydband.wixsite.com/mysite"/>
-    <hyperlink ref="D8" r:id="rId6" display="reception@canimlakeband.com"/>
-    <hyperlink ref="H8" r:id="rId7" display="http://canimlakeband.com/"/>
-    <hyperlink ref="H9" r:id="rId8" display="www.chawathil.org"/>
-    <hyperlink ref="H10" r:id="rId9" display="https://cheam.ca"/>
-    <hyperlink ref="H11" r:id="rId10" display="https://www.coldwaterband.com/"/>
-    <hyperlink ref="H12" r:id="rId11" display="http://cooksferryband.ca/"/>
-    <hyperlink ref="D13" r:id="rId12" display="contactus@cowichantribes.com"/>
-    <hyperlink ref="H13" r:id="rId13" display="https://www.cowichantribes.com/"/>
-    <hyperlink ref="H14" r:id="rId14" display="https://www.nitinaht.com/"/>
-    <hyperlink ref="H15" r:id="rId15" display="https://www.esquimaltnation.ca/"/>
-    <hyperlink ref="H16" r:id="rId16" display="https://halalt.org/"/>
-    <hyperlink ref="H17" r:id="rId17" display="http://www.heiltsuknation.ca/"/>
-    <hyperlink ref="H18" r:id="rId18" display="https://huuayaht.org/"/>
-    <hyperlink ref="H20" r:id="rId19" display="https://www.kwantlenfn.ca/"/>
-    <hyperlink ref="D21" r:id="rId20" display="manager@skowkalefn.com"/>
-    <hyperlink ref="H22" r:id="rId21" display="https://kwikwetlem.com/"/>
-    <hyperlink ref="H24" r:id="rId22" display="https://www.lslb.ca/"/>
-    <hyperlink ref="H25" r:id="rId23" display="https://www.lheidli.ca/index.html"/>
-    <hyperlink ref="H26" r:id="rId24" display="http://carrierchilcotin.org/lhtako-dene-nation/"/>
-    <hyperlink ref="H27" r:id="rId25" display="https://www.lnib.net/"/>
-    <hyperlink ref="H29" r:id="rId26" display="http://lyackson.bc.ca/"/>
-    <hyperlink ref="H30" r:id="rId27" display="https://malahatnation.com/"/>
-    <hyperlink ref="H32" r:id="rId28" display="https://www.musqueam.bc.ca/"/>
-    <hyperlink ref="H33" r:id="rId29" display="https://neskonlith.net/"/>
-    <hyperlink ref="H34" r:id="rId30" display="https://www.scwexmxtribal.com/member-bands/44-nooaitch-indian-band.html"/>
-    <hyperlink ref="H35" r:id="rId31" display="http://oib.ca/"/>
-    <hyperlink ref="H36" r:id="rId32" display="http://pacheedahtfirstnation.com/"/>
-    <hyperlink ref="H38" r:id="rId33" display="http://pib.ca/?page_id=5"/>
-    <hyperlink ref="H39" r:id="rId34" display="http://petersfn.ca/"/>
-    <hyperlink ref="H40" r:id="rId35" display="https://penelakut.ca/"/>
-    <hyperlink ref="H43" r:id="rId36" display="http://beecherbay.ca/"/>
-    <hyperlink ref="D44" r:id="rId37" display="reception@sqewlets.ca  (604) 826-5813"/>
-    <hyperlink ref="H44" r:id="rId38" display="https://sqewlets.ca/"/>
-    <hyperlink ref="H46" r:id="rId39" display="https://shuswapnation.org/   "/>
-    <hyperlink ref="D48" r:id="rId40" display="sibchief@shackan.ca"/>
-    <hyperlink ref="H48" r:id="rId41" display="https://www.shackan.ca/"/>
-    <hyperlink ref="H49" r:id="rId42" display="https://www.shxwowhamel.ca/"/>
-    <hyperlink ref="D50" r:id="rId43" display="recept@skway.com"/>
-    <hyperlink ref="H50" r:id="rId44" display="https://skway.com/"/>
-    <hyperlink ref="H51" r:id="rId45" display="https://www.simpcw.com/"/>
-    <hyperlink ref="H55" r:id="rId46" display="http://www.shuswapband.net/"/>
-    <hyperlink ref="H56" r:id="rId47" display="www.skawahlook.com"/>
-    <hyperlink ref="H58" r:id="rId48" display="https://www.snuneymuxw.ca/"/>
-    <hyperlink ref="H59" r:id="rId49" display="https://soowahlie.ca/"/>
-    <hyperlink ref="H60" r:id="rId50" display="http://www.spuzzumnation.com/"/>
-    <hyperlink ref="D61" r:id="rId51" display="Consultation_RightsandTitle@Squamish.net"/>
-    <hyperlink ref="H61" r:id="rId52" display="https://www.squamish.net/"/>
-    <hyperlink ref="H62" r:id="rId53" display="www.squiala.com"/>
-    <hyperlink ref="H63" r:id="rId54" display="https://stkemlups.ca/"/>
-    <hyperlink ref="H64" r:id="rId55" display="http://www.stsailes.com/"/>
-    <hyperlink ref="H65" r:id="rId56" display="https://sxfn.ca/"/>
-    <hyperlink ref="H66" r:id="rId57" display="http://www.bonaparteindianband.com/"/>
-    <hyperlink ref="H67" r:id="rId58" display="https://www.stzuminus.com/"/>
-    <hyperlink ref="H68" r:id="rId59" display="http://www.sumasfirstnation.com/"/>
-    <hyperlink ref="H70" r:id="rId60" display="http://tsartlip.com/"/>
-    <hyperlink ref="H71" r:id="rId61" display="https://tsawout.ca/"/>
-    <hyperlink ref="H72" r:id="rId62" display="http://tsawwassenfirstnation.com/"/>
-    <hyperlink ref="H74" r:id="rId63" display="http://www.tseycum.ca/"/>
-    <hyperlink ref="H76" r:id="rId64" display="https://twnation.ca/"/>
-    <hyperlink ref="H77" r:id="rId65" display="https://www.tsoukenation.com/"/>
-    <hyperlink ref="H78" r:id="rId66" display="https://tkemlups.ca/"/>
-    <hyperlink ref="H79" r:id="rId67" display="https://www.tzeachten.ca/"/>
-    <hyperlink ref="D80" r:id="rId68" display="chief@ulkatcho.ca"/>
-    <hyperlink ref="H80" r:id="rId69" display="https://www.ulkatcho.ca/"/>
-    <hyperlink ref="H82" r:id="rId70" display="http://uppernicola.com/"/>
-    <hyperlink ref="D83" r:id="rId71" display="referrals@usib.ca"/>
-    <hyperlink ref="F83" r:id="rId72" display="referrals@usib.ca"/>
-    <hyperlink ref="H83" r:id="rId73" display="https://usib.ca/"/>
-    <hyperlink ref="H84" r:id="rId74" display="https://www.wpcib.com/"/>
-    <hyperlink ref="H85" r:id="rId75" display="https://williamslakeband.ca/"/>
-    <hyperlink ref="H86" r:id="rId76" display="https://www.sxta.bc.ca/sxta-communities/yakweakwioose/"/>
-    <hyperlink ref="H87" r:id="rId77" display="https://www.yalefirstnation.ca/"/>
-    <hyperlink ref="H88" r:id="rId78" display="http://xatsull.com/"/>
+    <hyperlink ref="F3" r:id="rId1" display="cnord@alib.ca"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://www.adamslakeband.org"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://www.stolonation.bc.ca/bands"/>
+    <hyperlink ref="I5" r:id="rId4" display="http://www.ashcroftband.ca/"/>
+    <hyperlink ref="I6" r:id="rId5" display="https://boothroydband.wixsite.com/mysite"/>
+    <hyperlink ref="E8" r:id="rId6" display="reception@canimlakeband.com"/>
+    <hyperlink ref="I8" r:id="rId7" display="http://canimlakeband.com/"/>
+    <hyperlink ref="I9" r:id="rId8" display="www.chawathil.org"/>
+    <hyperlink ref="I10" r:id="rId9" display="https://cheam.ca"/>
+    <hyperlink ref="I11" r:id="rId10" display="https://www.coldwaterband.com/"/>
+    <hyperlink ref="I12" r:id="rId11" display="http://cooksferryband.ca/"/>
+    <hyperlink ref="E13" r:id="rId12" display="contactus@cowichantribes.com"/>
+    <hyperlink ref="I13" r:id="rId13" display="https://www.cowichantribes.com/"/>
+    <hyperlink ref="I14" r:id="rId14" display="https://www.nitinaht.com/"/>
+    <hyperlink ref="I15" r:id="rId15" display="https://www.esquimaltnation.ca/"/>
+    <hyperlink ref="I16" r:id="rId16" display="https://halalt.org/"/>
+    <hyperlink ref="I17" r:id="rId17" display="http://www.heiltsuknation.ca/"/>
+    <hyperlink ref="I18" r:id="rId18" display="https://huuayaht.org/"/>
+    <hyperlink ref="I20" r:id="rId19" display="https://www.kwantlenfn.ca/"/>
+    <hyperlink ref="E21" r:id="rId20" display="manager@skowkalefn.com"/>
+    <hyperlink ref="I22" r:id="rId21" display="https://kwikwetlem.com/"/>
+    <hyperlink ref="I24" r:id="rId22" display="https://www.lslb.ca/"/>
+    <hyperlink ref="I25" r:id="rId23" display="https://www.lheidli.ca/index.html"/>
+    <hyperlink ref="I26" r:id="rId24" display="http://carrierchilcotin.org/lhtako-dene-nation/"/>
+    <hyperlink ref="I27" r:id="rId25" display="https://www.lnib.net/"/>
+    <hyperlink ref="I29" r:id="rId26" display="http://lyackson.bc.ca/"/>
+    <hyperlink ref="I30" r:id="rId27" display="https://malahatnation.com/"/>
+    <hyperlink ref="I32" r:id="rId28" display="https://www.musqueam.bc.ca/"/>
+    <hyperlink ref="I33" r:id="rId29" display="https://neskonlith.net/"/>
+    <hyperlink ref="I34" r:id="rId30" display="https://www.scwexmxtribal.com/member-bands/44-nooaitch-indian-band.html"/>
+    <hyperlink ref="I35" r:id="rId31" display="http://oib.ca/"/>
+    <hyperlink ref="I36" r:id="rId32" display="http://pacheedahtfirstnation.com/"/>
+    <hyperlink ref="I38" r:id="rId33" display="http://pib.ca/?page_id=5"/>
+    <hyperlink ref="I39" r:id="rId34" display="http://petersfn.ca/"/>
+    <hyperlink ref="I40" r:id="rId35" display="https://penelakut.ca/"/>
+    <hyperlink ref="I43" r:id="rId36" display="http://beecherbay.ca/"/>
+    <hyperlink ref="E44" r:id="rId37" display="reception@sqewlets.ca  (604) 826-5813"/>
+    <hyperlink ref="I44" r:id="rId38" display="https://sqewlets.ca/"/>
+    <hyperlink ref="I46" r:id="rId39" display="https://shuswapnation.org/   "/>
+    <hyperlink ref="E48" r:id="rId40" display="sibchief@shackan.ca"/>
+    <hyperlink ref="I48" r:id="rId41" display="https://www.shackan.ca/"/>
+    <hyperlink ref="I49" r:id="rId42" display="https://www.shxwowhamel.ca/"/>
+    <hyperlink ref="E50" r:id="rId43" display="recept@skway.com"/>
+    <hyperlink ref="I50" r:id="rId44" display="https://skway.com/"/>
+    <hyperlink ref="I51" r:id="rId45" display="https://www.simpcw.com/"/>
+    <hyperlink ref="I55" r:id="rId46" display="http://www.shuswapband.net/"/>
+    <hyperlink ref="I56" r:id="rId47" display="www.skawahlook.com"/>
+    <hyperlink ref="I58" r:id="rId48" display="https://www.snuneymuxw.ca/"/>
+    <hyperlink ref="I59" r:id="rId49" display="https://soowahlie.ca/"/>
+    <hyperlink ref="I60" r:id="rId50" display="http://www.spuzzumnation.com/"/>
+    <hyperlink ref="E61" r:id="rId51" display="Consultation_RightsandTitle@Squamish.net"/>
+    <hyperlink ref="I61" r:id="rId52" display="https://www.squamish.net/"/>
+    <hyperlink ref="I62" r:id="rId53" display="www.squiala.com"/>
+    <hyperlink ref="I63" r:id="rId54" display="https://stkemlups.ca/"/>
+    <hyperlink ref="I64" r:id="rId55" display="http://www.stsailes.com/"/>
+    <hyperlink ref="I65" r:id="rId56" display="https://sxfn.ca/"/>
+    <hyperlink ref="I66" r:id="rId57" display="http://www.bonaparteindianband.com/"/>
+    <hyperlink ref="I67" r:id="rId58" display="https://www.stzuminus.com/"/>
+    <hyperlink ref="I68" r:id="rId59" display="http://www.sumasfirstnation.com/"/>
+    <hyperlink ref="I70" r:id="rId60" display="http://tsartlip.com/"/>
+    <hyperlink ref="I71" r:id="rId61" display="https://tsawout.ca/"/>
+    <hyperlink ref="I72" r:id="rId62" display="http://tsawwassenfirstnation.com/"/>
+    <hyperlink ref="I74" r:id="rId63" display="http://www.tseycum.ca/"/>
+    <hyperlink ref="I76" r:id="rId64" display="https://twnation.ca/"/>
+    <hyperlink ref="I77" r:id="rId65" display="https://www.tsoukenation.com/"/>
+    <hyperlink ref="I78" r:id="rId66" display="https://tkemlups.ca/"/>
+    <hyperlink ref="I79" r:id="rId67" display="https://www.tzeachten.ca/"/>
+    <hyperlink ref="E80" r:id="rId68" display="chief@ulkatcho.ca"/>
+    <hyperlink ref="I80" r:id="rId69" display="https://www.ulkatcho.ca/"/>
+    <hyperlink ref="I82" r:id="rId70" display="http://uppernicola.com/"/>
+    <hyperlink ref="E83" r:id="rId71" display="referrals@usib.ca"/>
+    <hyperlink ref="G83" r:id="rId72" display="referrals@usib.ca"/>
+    <hyperlink ref="I83" r:id="rId73" display="https://usib.ca/"/>
+    <hyperlink ref="I84" r:id="rId74" display="https://www.wpcib.com/"/>
+    <hyperlink ref="I85" r:id="rId75" display="https://williamslakeband.ca/"/>
+    <hyperlink ref="I86" r:id="rId76" display="https://www.sxta.bc.ca/sxta-communities/yakweakwioose/"/>
+    <hyperlink ref="I87" r:id="rId77" display="https://www.yalefirstnation.ca/"/>
+    <hyperlink ref="I88" r:id="rId78" display="http://xatsull.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6333,8 +6694,8 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="1" sqref="B81 A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6348,13 +6709,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,28 +6724,28 @@
         <v>Adams Lake Indian Band</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">'BC First Nations'!A4</f>
-        <v>Aitchelitz Band (a-che-leetz)</v>
+        <v>Aitchelitz Band</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,13 +6754,13 @@
         <v>Ashcroft Indian Band</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,13 +6769,13 @@
         <v>Boothroyd Band</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,13 +6784,13 @@
         <v>Boston Bar First Nations</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,28 +6799,28 @@
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="str">
         <f aca="false">'BC First Nations'!A9</f>
-        <v>Chawathil First Nation  ("Shi-Wa-Thill")</v>
+        <v>Chawathil First Nation</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,28 +6829,28 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
         <f aca="false">'BC First Nations'!A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,13 +6859,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,13 +6874,13 @@
         <v>Cowichan Tribes</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,13 +6889,13 @@
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>632</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,28 +6904,28 @@
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">'BC First Nations'!A16</f>
-        <v>Halalt First Nation</v>
+        <v>Halalt First Nation </v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,28 +6934,28 @@
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">'BC First Nations'!A18</f>
-        <v>Huu-ay-aht First Nation</v>
+        <v>Huu-ay-aht First Nation </v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,13 +6964,13 @@
         <v>Katzie First Nation</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,28 +6979,28 @@
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">'BC First Nations'!A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations</v>
+        <v>Kwaw -Kwaw-Aplit First Nations </v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,13 +7009,13 @@
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,13 +7024,13 @@
         <v>Leq' a: mel First Nation</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,13 +7039,13 @@
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,13 +7054,13 @@
         <v>Lheidli T'enneh First Nation</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,13 +7069,13 @@
         <v>Lhtako Dene Nation</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,13 +7084,13 @@
         <v>Lower Nicola Indian Band -</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,13 +7099,13 @@
         <v>Lower Similkameen #598</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,13 +7114,13 @@
         <v>Lyackson First Nation</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,13 +7129,13 @@
         <v>Malahat First Nation</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,13 +7144,13 @@
         <v>Matsqui First Nation</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,13 +7159,13 @@
         <v>Musqeam Indian Band</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,13 +7174,13 @@
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,13 +7189,13 @@
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,13 +7204,13 @@
         <v>Osoyoos</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,13 +7219,13 @@
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,13 +7234,13 @@
         <v>Pauquachin Nation</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,13 +7249,13 @@
         <v>Penticton Indian Band</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,13 +7264,13 @@
         <v>Peters Band (Peters First Nation)</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>660</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,13 +7279,13 @@
         <v>Penelakut Tribe</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,28 +7294,28 @@
         <v>Popkum First Nation</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">'BC First Nations'!A42</f>
-        <v>Qayqayt First Nation (New Westminister)</v>
+        <v>Qayqayt First Nation (New Westminister) </v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,13 +7324,13 @@
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,13 +7339,13 @@
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>666</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,13 +7354,13 @@
         <v>Seabird Island Band</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,13 +7369,13 @@
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,43 +7384,43 @@
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
         <f aca="false">'BC First Nations'!A48</f>
-        <v>Shackan Indian Band</v>
+        <v>Shackan Indian Band </v>
       </c>
       <c r="B47" s="75" t="s">
+        <v>723</v>
+      </c>
+      <c r="C47" s="75" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="75" t="s">
-        <v>617</v>
-      </c>
       <c r="D47" s="78" t="s">
-        <v>671</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="str">
         <f aca="false">'BC First Nations'!A49</f>
-        <v>Shxw'owhamel First Nation pronounced "Shwoh-hamel"</v>
+        <v>Shxw'owhamel First Nation</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>672</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,13 +7429,13 @@
         <v>Shxwha:y Villiage</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,13 +7444,13 @@
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,28 +7459,28 @@
         <v>Siska Indian Band</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
         <f aca="false">'BC First Nations'!A53</f>
-        <v>Skuppah Indian Band</v>
+        <v>Skuppah Indian Band </v>
       </c>
       <c r="B52" s="75" t="s">
+        <v>728</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>670</v>
+      </c>
+      <c r="D52" s="78" t="s">
         <v>675</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>617</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,28 +7489,28 @@
         <v>Skowkale First Nation</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">'BC First Nations'!A55</f>
-        <v>Shuswap Indian Band</v>
+        <v>Shuswap Indian Band </v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>677</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,13 +7519,13 @@
         <v>Skawahlook First Nation</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>678</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,13 +7534,13 @@
         <v>Skwah First Nation</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>679</v>
+        <v>732</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,13 +7549,13 @@
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,13 +7564,13 @@
         <v>Soowahlie First Nation</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,13 +7579,13 @@
         <v>Spuzzum First Nation</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,13 +7594,13 @@
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>681</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,73 +7609,73 @@
         <v>Squiala First Nation</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">'BC First Nations'!A63</f>
-        <v>Stk'emlupsemc Te Secwepemc</v>
+        <v>Stk'emlupsemc Te Secwepemc </v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>682</v>
+        <v>735</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>683</v>
+        <v>736</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">'BC First Nations'!A64</f>
-        <v>Sts'ailes Band (Chehalls Indian Band)</v>
+        <v>Sts'ailes Band (Chehalls Indian Band) </v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="str">
         <f aca="false">'BC First Nations'!A65</f>
-        <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek) pronounced (St-wet-lem- hight-lem)</v>
+        <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>685</v>
+        <v>489</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="str">
         <f aca="false">'BC First Nations'!A66</f>
-        <v>St'uxwtews (Bonaparte Indian Band) pronounced (Bone -eh-part)</v>
+        <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,13 +7684,13 @@
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7338,13 +7699,13 @@
         <v>Sumas First Nation</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,13 +7714,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,13 +7729,13 @@
         <v>Tsartlip First Nation</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,13 +7744,13 @@
         <v>Tsawout First Nation</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7398,13 +7759,13 @@
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,13 +7774,13 @@
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,13 +7789,13 @@
         <v>Tseycum First Nation</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,13 +7804,13 @@
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>693</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,13 +7819,13 @@
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7473,13 +7834,13 @@
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,13 +7849,13 @@
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>683</v>
+        <v>736</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,13 +7864,13 @@
         <v>Tzeachten First Nation</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,13 +7879,13 @@
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,13 +7894,13 @@
         <v>Union Bar First Nations</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,13 +7909,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,13 +7924,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,13 +7939,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,13 +7954,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>701</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,28 +7969,28 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">'BC First Nations'!A87</f>
-        <v>Yale First Nation</v>
+        <v>Yale First Nation </v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>702</v>
+        <v>754</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>703</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7638,13 +7999,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>704</v>
+        <v>756</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="759">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t xml:space="preserve">Stk'emlupsemc Te Secwepemc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stk'emlupsemc te Secwepemc</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Ronald Ignace</t>
@@ -3291,8 +3294,8 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3840,7 +3843,7 @@
       </c>
       <c r="B16" s="6" t="str">
         <f aca="false">A16</f>
-        <v>Halalt First Nation </v>
+        <v>Halalt First Nation</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>123</v>
@@ -3914,7 +3917,7 @@
       </c>
       <c r="B18" s="6" t="str">
         <f aca="false">A18</f>
-        <v>Huu-ay-aht First Nation </v>
+        <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>137</v>
@@ -5283,7 +5286,7 @@
       </c>
       <c r="B55" s="6" t="str">
         <f aca="false">A55</f>
-        <v>Shuswap Indian Band </v>
+        <v>Shuswap Indian Band</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>415</v>
@@ -5585,28 +5588,27 @@
       <c r="A63" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B63" s="6" t="str">
-        <f aca="false">A63</f>
-        <v>Stk'emlupsemc Te Secwepemc </v>
+      <c r="B63" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>51.341443</v>
@@ -5620,31 +5622,31 @@
     </row>
     <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>485</v>
-      </c>
       <c r="H64" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>49.293578</v>
@@ -5658,31 +5660,31 @@
     </row>
     <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>51.586232</v>
@@ -5696,29 +5698,29 @@
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>50.839863</v>
@@ -5732,29 +5734,29 @@
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="63" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F67" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>508</v>
-      </c>
       <c r="H67" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>48.846385</v>
@@ -5768,7 +5770,7 @@
     </row>
     <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
@@ -5776,22 +5778,22 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F68" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G68" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>514</v>
-      </c>
       <c r="H68" s="11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>49.052587</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="59" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
@@ -5813,19 +5815,19 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F69" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G69" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>520</v>
-      </c>
       <c r="H69" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="0" t="n">
@@ -5840,31 +5842,31 @@
     </row>
     <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F70" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="G70" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>526</v>
-      </c>
       <c r="H70" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>48.724102</v>
@@ -5878,31 +5880,31 @@
     </row>
     <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="61" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G71" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>533</v>
-      </c>
       <c r="H71" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>48.724102</v>
@@ -5911,37 +5913,37 @@
         <v>-123.324246</v>
       </c>
       <c r="L71" s="46" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>49.042909</v>
@@ -5950,31 +5952,31 @@
         <v>-123.094409</v>
       </c>
       <c r="L72" s="46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="0" t="n">
@@ -5989,31 +5991,31 @@
     </row>
     <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>48.724102</v>
@@ -6022,31 +6024,31 @@
         <v>-123.324246</v>
       </c>
       <c r="L74" s="46" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="59" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>50.883097</v>
@@ -6060,32 +6062,32 @@
     </row>
     <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F76" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="G76" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>571</v>
-      </c>
       <c r="H76" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>49.309839</v>
@@ -6094,37 +6096,37 @@
         <v>-122.980478</v>
       </c>
       <c r="L76" s="46" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>48.385518</v>
@@ -6133,12 +6135,12 @@
         <v>-123.696567</v>
       </c>
       <c r="L77" s="46" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
@@ -6146,22 +6148,22 @@
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>50.678844</v>
@@ -6175,31 +6177,31 @@
     </row>
     <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>49.087557</v>
@@ -6213,32 +6215,32 @@
     </row>
     <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>52.475488</v>
@@ -6252,26 +6254,26 @@
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="0" t="n">
@@ -6284,7 +6286,7 @@
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
@@ -6292,20 +6294,20 @@
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>50.167239</v>
@@ -6319,7 +6321,7 @@
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
@@ -6329,22 +6331,22 @@
         <v>220</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F83" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="G83" s="68" t="s">
         <v>623</v>
       </c>
-      <c r="G83" s="68" t="s">
-        <v>622</v>
-      </c>
       <c r="H83" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>49.462883</v>
@@ -6353,34 +6355,34 @@
         <v>-120.50172</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>51.194286</v>
@@ -6389,12 +6391,12 @@
         <v>-121.613314</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
@@ -6402,18 +6404,18 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>52.10532</v>
@@ -6425,31 +6427,31 @@
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>49.087557</v>
@@ -6458,35 +6460,35 @@
         <v>-121.829723</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
-        <v>Yale First Nation </v>
+        <v>Yale First Nation</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>49.492718</v>
@@ -6500,7 +6502,7 @@
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
@@ -6508,22 +6510,22 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F88" s="63" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>52.854978</v>
@@ -6548,7 +6550,7 @@
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -6558,7 +6560,7 @@
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6567,7 +6569,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6576,7 +6578,7 @@
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6698,7 +6700,7 @@
       <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -6709,13 +6711,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,10 +6729,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,10 +6744,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,10 +6759,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,10 +6774,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,10 +6789,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,10 +6804,10 @@
         <v>54</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,10 +6819,10 @@
         <v>62</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,28 +6831,28 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
         <f aca="false">'BC First Nations'!A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,13 +6861,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,10 +6879,10 @@
         <v>95</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6892,10 +6894,10 @@
         <v>105</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,25 +6909,25 @@
         <v>115</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">'BC First Nations'!A16</f>
-        <v>Halalt First Nation </v>
+        <v>Halalt First Nation</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,25 +6939,25 @@
         <v>130</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">'BC First Nations'!A18</f>
-        <v>Huu-ay-aht First Nation </v>
+        <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,10 +6969,10 @@
         <v>144</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,25 +6984,25 @@
         <v>152</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">'BC First Nations'!A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations </v>
+        <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>161</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7012,10 +7014,10 @@
         <v>168</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,10 +7029,10 @@
         <v>177</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7042,10 +7044,10 @@
         <v>186</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,10 +7059,10 @@
         <v>193</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,10 +7074,10 @@
         <v>203</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,10 +7089,10 @@
         <v>211</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,10 +7104,10 @@
         <v>218</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,10 +7119,10 @@
         <v>226</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,10 +7134,10 @@
         <v>234</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,10 +7149,10 @@
         <v>242</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,10 +7164,10 @@
         <v>249</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7177,10 +7179,10 @@
         <v>258</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,10 +7194,10 @@
         <v>265</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,10 +7209,10 @@
         <v>274</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,10 +7224,10 @@
         <v>281</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,10 +7239,10 @@
         <v>288</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,10 +7254,10 @@
         <v>295</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,10 +7269,10 @@
         <v>301</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,10 +7284,10 @@
         <v>309</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,25 +7299,25 @@
         <v>317</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">'BC First Nations'!A42</f>
-        <v>Qayqayt First Nation (New Westminister) </v>
+        <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,10 +7329,10 @@
         <v>330</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,10 +7344,10 @@
         <v>338</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,10 +7359,10 @@
         <v>346</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,10 +7374,10 @@
         <v>351</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,25 +7389,25 @@
         <v>357</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
         <f aca="false">'BC First Nations'!A48</f>
-        <v>Shackan Indian Band </v>
+        <v>Shackan Indian Band</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,10 +7419,10 @@
         <v>370</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,10 +7434,10 @@
         <v>378</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,10 +7449,10 @@
         <v>386</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,25 +7464,25 @@
         <v>393</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
         <f aca="false">'BC First Nations'!A53</f>
-        <v>Skuppah Indian Band </v>
+        <v>Skuppah Indian Band</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,25 +7494,25 @@
         <v>406</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">'BC First Nations'!A55</f>
-        <v>Shuswap Indian Band </v>
+        <v>Shuswap Indian Band</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7522,10 +7524,10 @@
         <v>422</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,10 +7539,10 @@
         <v>429</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,10 +7554,10 @@
         <v>436</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,10 +7569,10 @@
         <v>443</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,10 +7584,10 @@
         <v>450</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,10 +7599,10 @@
         <v>459</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,40 +7614,40 @@
         <v>467</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">'BC First Nations'!A63</f>
-        <v>Stk'emlupsemc Te Secwepemc </v>
+        <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">'BC First Nations'!A64</f>
-        <v>Sts'ailes Band (Chehalls Indian Band) </v>
+        <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,13 +7656,13 @@
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,13 +7671,13 @@
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7684,13 +7686,13 @@
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7699,13 +7701,13 @@
         <v>Sumas First Nation</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,13 +7716,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,13 +7731,13 @@
         <v>Tsartlip First Nation</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7744,13 +7746,13 @@
         <v>Tsawout First Nation</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,13 +7761,13 @@
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,13 +7776,13 @@
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,13 +7791,13 @@
         <v>Tseycum First Nation</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,13 +7806,13 @@
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,13 +7821,13 @@
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,13 +7836,13 @@
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,13 +7851,13 @@
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7864,13 +7866,13 @@
         <v>Tzeachten First Nation</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,13 +7881,13 @@
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,13 +7896,13 @@
         <v>Union Bar First Nations</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,13 +7911,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,13 +7926,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,13 +7941,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,13 +7956,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,28 +7971,28 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">'BC First Nations'!A87</f>
-        <v>Yale First Nation </v>
+        <v>Yale First Nation</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7999,13 +8001,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="763">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Project Spreads</t>
   </si>
   <si>
+    <t xml:space="preserve">Digital id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adams Lake Indian Band</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spread 4 (KP 610 to 764)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">secwepemc-secwepemcul-ewc</t>
   </si>
   <si>
     <t xml:space="preserve">Aitchelitz Band</t>
@@ -562,6 +568,9 @@
     <t xml:space="preserve">Huu-ay-aht First Nation </t>
   </si>
   <si>
+    <t xml:space="preserve">Huu-ay-aht First Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoo-EYE-at / Hoo-AY-at</t>
   </si>
   <si>
@@ -1276,6 +1285,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spread 6 (KP 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semiahmoo</t>
   </si>
   <si>
     <t xml:space="preserve">Shackan Indian Band </t>
@@ -3292,10 +3304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3355,32 +3367,35 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>51.527017</v>
@@ -3389,36 +3404,39 @@
         <v>-120.076953</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>49.087557</v>
@@ -3427,12 +3445,12 @@
         <v>-121.829723</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="str">
         <f aca="false">A5</f>
@@ -3440,22 +3458,22 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>50.404267</v>
@@ -3464,12 +3482,12 @@
         <v>-120.678195</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="str">
         <f aca="false">A6</f>
@@ -3477,22 +3495,22 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>49.963059</v>
@@ -3501,12 +3519,12 @@
         <v>-121.484624</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="str">
         <f aca="false">A7</f>
@@ -3514,19 +3532,19 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="0" t="n">
@@ -3536,34 +3554,34 @@
         <v>-120.95154</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>51.770937</v>
@@ -3572,36 +3590,36 @@
         <v>-120.993827</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>49.283272</v>
@@ -3610,36 +3628,36 @@
         <v>-121.291263</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>49.540481</v>
@@ -3648,34 +3666,34 @@
         <v>-121.7239</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>50.027994</v>
@@ -3684,34 +3702,34 @@
         <v>-120.41473</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50.032193</v>
@@ -3720,36 +3738,36 @@
         <v>-120.617392</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>48.888822</v>
@@ -3758,36 +3776,36 @@
         <v>-123.752153</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>48.890317</v>
@@ -3796,36 +3814,36 @@
         <v>-124.592686</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>48.688573</v>
@@ -3834,37 +3852,37 @@
         <v>-123.453132</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="6" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>48.929783</v>
@@ -3873,33 +3891,33 @@
         <v>-124.479846</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>52.337794</v>
@@ -3908,37 +3926,36 @@
         <v>-127.826237</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f aca="false">A18</f>
-        <v>Huu-ay-aht First Nation</v>
+        <v>138</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>48.833479</v>
@@ -3947,34 +3964,34 @@
         <v>-124.929585</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="0" t="n">
@@ -3984,34 +4001,34 @@
         <v>-122.607872</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>49.476845</v>
@@ -4020,33 +4037,33 @@
         <v>-122.296959</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="0" t="n">
@@ -4056,37 +4073,37 @@
         <v>-121.756432</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>49.451741</v>
@@ -4095,36 +4112,36 @@
         <v>-122.657791</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J23" s="11" t="n">
         <v>49.348358</v>
@@ -4133,34 +4150,34 @@
         <v>-122.106774</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>51.287872</v>
@@ -4169,36 +4186,36 @@
         <v>-118.990533</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>53.944696</v>
@@ -4207,12 +4224,12 @@
         <v>-121.694171</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B26" s="6" t="str">
         <f aca="false">A26</f>
@@ -4220,22 +4237,22 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>52.953049</v>
@@ -4244,34 +4261,34 @@
         <v>-122.449172</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>50.006984</v>
@@ -4280,33 +4297,33 @@
         <v>-121.261538</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="0" t="n">
@@ -4316,37 +4333,37 @@
         <v>-118.987733</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B29" s="6" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>48.941803</v>
@@ -4358,32 +4375,32 @@
     </row>
     <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B30" s="6" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>48.655944</v>
@@ -4392,34 +4409,34 @@
         <v>-124.000524</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B31" s="6" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="0" t="n">
@@ -4429,36 +4446,36 @@
         <v>-122.361868</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>49.353225</v>
@@ -4467,37 +4484,37 @@
         <v>-123.012956</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B33" s="6" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>51.21274</v>
@@ -4506,37 +4523,37 @@
         <v>-118.846623</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B34" s="6" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>49.690318</v>
@@ -4545,35 +4562,35 @@
         <v>-120.648292</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="42" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B35" s="6" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>49.114526</v>
@@ -4582,37 +4599,37 @@
         <v>-118.489264</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B36" s="6" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>48.572918</v>
@@ -4621,34 +4638,34 @@
         <v>-124.39459</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B37" s="6" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="0" t="n">
@@ -4658,12 +4675,12 @@
         <v>-123.324246</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B38" s="6" t="str">
         <f aca="false">A38</f>
@@ -4671,22 +4688,22 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>49.732366</v>
@@ -4695,34 +4712,34 @@
         <v>-119.25376</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>49.505163</v>
@@ -4731,37 +4748,37 @@
         <v>-121.482617</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B40" s="6" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>48.892388</v>
@@ -4770,12 +4787,12 @@
         <v>-123.675652</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B41" s="6" t="str">
         <f aca="false">A41</f>
@@ -4783,19 +4800,19 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="0" t="n">
@@ -4805,33 +4822,33 @@
         <v>-121.506875</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="0" t="n">
@@ -4841,34 +4858,34 @@
         <v>-122.910944</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>48.440888</v>
@@ -4877,36 +4894,36 @@
         <v>-123.676887</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>49.25517</v>
@@ -4915,12 +4932,12 @@
         <v>-121.964821</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
@@ -4928,19 +4945,19 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="0" t="n">
@@ -4950,32 +4967,32 @@
         <v>-121.724003</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="47" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G46" s="48"/>
       <c r="H46" s="49" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J46" s="2" t="n">
         <v>51.527017</v>
@@ -4984,31 +5001,34 @@
         <v>-120.076953</v>
       </c>
       <c r="L46" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="0" t="n">
@@ -5018,34 +5038,37 @@
         <v>-122.767315</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G48" s="48"/>
       <c r="H48" s="11" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>49.963059</v>
@@ -5054,36 +5077,36 @@
         <v>-121.484624</v>
       </c>
       <c r="L48" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="52" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>49.339668</v>
@@ -5092,34 +5115,34 @@
         <v>-121.60638</v>
       </c>
       <c r="L49" s="46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="57" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>49.087557</v>
@@ -5128,36 +5151,36 @@
         <v>-121.829723</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H51" s="58" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>52.634393</v>
@@ -5166,34 +5189,34 @@
         <v>-119.699777</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B52" s="6" t="str">
         <f aca="false">A52</f>
         <v>Siska Indian Band</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="0" t="n">
@@ -5203,33 +5226,33 @@
         <v>-120.838519</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="0" t="n">
@@ -5239,36 +5262,36 @@
         <v>-121.484624</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>49.087557</v>
@@ -5277,37 +5300,37 @@
         <v>-121.829723</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B55" s="6" t="str">
         <f aca="false">A55</f>
         <v>Shuswap Indian Band</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>50.367907</v>
@@ -5316,37 +5339,37 @@
         <v>-116.89554</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
         <v>Skawahlook First Nation</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>49.227586</v>
@@ -5355,37 +5378,37 @@
         <v>-122.174045</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
         <v>Skwah First Nation</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>49.175281</v>
@@ -5394,37 +5417,37 @@
         <v>-121.977269</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>49.107871</v>
@@ -5433,36 +5456,36 @@
         <v>-124.120584</v>
       </c>
       <c r="L58" s="60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>49.087557</v>
@@ -5471,34 +5494,34 @@
         <v>-121.829723</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="59" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>49.963059</v>
@@ -5507,34 +5530,34 @@
         <v>-121.484624</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="61" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>49.807197</v>
@@ -5543,36 +5566,36 @@
         <v>-123.200082</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="61" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>49.087557</v>
@@ -5581,34 +5604,34 @@
         <v>-121.829723</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="36" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>51.341443</v>
@@ -5617,36 +5640,36 @@
         <v>-121.166411</v>
       </c>
       <c r="L63" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>49.293578</v>
@@ -5655,36 +5678,36 @@
         <v>-121.910722</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>51.586232</v>
@@ -5693,34 +5716,34 @@
         <v>-122.204957</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>50.839863</v>
@@ -5729,34 +5752,34 @@
         <v>-121.372183</v>
       </c>
       <c r="L66" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="63" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>48.846385</v>
@@ -5765,12 +5788,12 @@
         <v>-123.630268</v>
       </c>
       <c r="L67" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
@@ -5778,22 +5801,22 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>49.052587</v>
@@ -5802,12 +5825,12 @@
         <v>-122.193538</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="59" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
@@ -5815,19 +5838,19 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="0" t="n">
@@ -5837,36 +5860,36 @@
         <v>-123.798415</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>48.724102</v>
@@ -5875,36 +5898,36 @@
         <v>-123.324246</v>
       </c>
       <c r="L70" s="46" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="61" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>48.724102</v>
@@ -5913,37 +5936,37 @@
         <v>-123.324246</v>
       </c>
       <c r="L71" s="46" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>49.042909</v>
@@ -5952,31 +5975,31 @@
         <v>-123.094409</v>
       </c>
       <c r="L72" s="46" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="0" t="n">
@@ -5986,36 +6009,36 @@
         <v>-121.829723</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>48.724102</v>
@@ -6024,31 +6047,31 @@
         <v>-123.324246</v>
       </c>
       <c r="L74" s="46" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="59" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>50.883097</v>
@@ -6057,37 +6080,37 @@
         <v>-121.842308</v>
       </c>
       <c r="L75" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>49.309839</v>
@@ -6096,37 +6119,37 @@
         <v>-122.980478</v>
       </c>
       <c r="L76" s="46" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>48.385518</v>
@@ -6135,12 +6158,12 @@
         <v>-123.696567</v>
       </c>
       <c r="L77" s="46" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
@@ -6148,22 +6171,22 @@
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>50.678844</v>
@@ -6172,36 +6195,36 @@
         <v>-120.294529</v>
       </c>
       <c r="L78" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>49.087557</v>
@@ -6210,37 +6233,37 @@
         <v>-121.829723</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>52.475488</v>
@@ -6249,31 +6272,31 @@
         <v>-125.301018</v>
       </c>
       <c r="L80" s="46" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="11" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="0" t="n">
@@ -6286,7 +6309,7 @@
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
@@ -6294,20 +6317,20 @@
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="11" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>50.167239</v>
@@ -6316,37 +6339,37 @@
         <v>-120.283533</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G83" s="68" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>49.462883</v>
@@ -6355,34 +6378,34 @@
         <v>-120.50172</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="11" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>51.194286</v>
@@ -6391,12 +6414,12 @@
         <v>-121.613314</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
@@ -6404,18 +6427,18 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="11" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>52.10532</v>
@@ -6427,31 +6450,31 @@
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>49.087557</v>
@@ -6460,12 +6483,12 @@
         <v>-121.829723</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
@@ -6473,22 +6496,22 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>49.492718</v>
@@ -6497,12 +6520,12 @@
         <v>-121.423097</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
@@ -6510,22 +6533,22 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F88" s="63" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>52.854978</v>
@@ -6534,7 +6557,7 @@
         <v>-121.585666</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6550,7 +6573,7 @@
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -6560,7 +6583,7 @@
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6569,7 +6592,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6578,7 +6601,7 @@
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6711,13 +6734,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6726,13 +6749,13 @@
         <v>Adams Lake Indian Band</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,13 +6764,13 @@
         <v>Aitchelitz Band</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,13 +6779,13 @@
         <v>Ashcroft Indian Band</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,13 +6794,13 @@
         <v>Boothroyd Band</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,13 +6809,13 @@
         <v>Boston Bar First Nations</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,13 +6824,13 @@
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,13 +6839,13 @@
         <v>Chawathil First Nation</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,13 +6854,13 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6846,13 +6869,13 @@
         <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,13 +6884,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6876,13 +6899,13 @@
         <v>Cowichan Tribes</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6891,13 +6914,13 @@
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,13 +6929,13 @@
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,13 +6944,13 @@
         <v>Halalt First Nation</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,13 +6959,13 @@
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,13 +6974,13 @@
         <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,13 +6989,13 @@
         <v>Katzie First Nation</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6981,13 +7004,13 @@
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,13 +7019,13 @@
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,13 +7034,13 @@
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7026,13 +7049,13 @@
         <v>Leq' a: mel First Nation</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,13 +7064,13 @@
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,13 +7079,13 @@
         <v>Lheidli T'enneh First Nation</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,13 +7094,13 @@
         <v>Lhtako Dene Nation</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,13 +7109,13 @@
         <v>Lower Nicola Indian Band -</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,13 +7124,13 @@
         <v>Lower Similkameen #598</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,13 +7139,13 @@
         <v>Lyackson First Nation</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,13 +7154,13 @@
         <v>Malahat First Nation</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,13 +7169,13 @@
         <v>Matsqui First Nation</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,13 +7184,13 @@
         <v>Musqeam Indian Band</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7176,13 +7199,13 @@
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,13 +7214,13 @@
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,13 +7229,13 @@
         <v>Osoyoos</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,13 +7244,13 @@
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,13 +7259,13 @@
         <v>Pauquachin Nation</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,13 +7274,13 @@
         <v>Penticton Indian Band</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,13 +7289,13 @@
         <v>Peters Band (Peters First Nation)</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,13 +7304,13 @@
         <v>Penelakut Tribe</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,13 +7319,13 @@
         <v>Popkum First Nation</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,13 +7334,13 @@
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,13 +7349,13 @@
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,13 +7364,13 @@
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,13 +7379,13 @@
         <v>Seabird Island Band</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,13 +7394,13 @@
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,13 +7409,13 @@
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,13 +7424,13 @@
         <v>Shackan Indian Band</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,13 +7439,13 @@
         <v>Shxw'owhamel First Nation</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,13 +7454,13 @@
         <v>Shxwha:y Villiage</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7446,13 +7469,13 @@
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,13 +7484,13 @@
         <v>Siska Indian Band</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,13 +7499,13 @@
         <v>Skuppah Indian Band</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,13 +7514,13 @@
         <v>Skowkale First Nation</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,13 +7529,13 @@
         <v>Shuswap Indian Band</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,13 +7544,13 @@
         <v>Skawahlook First Nation</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,13 +7559,13 @@
         <v>Skwah First Nation</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,13 +7574,13 @@
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,13 +7589,13 @@
         <v>Soowahlie First Nation</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,13 +7604,13 @@
         <v>Spuzzum First Nation</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7596,13 +7619,13 @@
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,13 +7634,13 @@
         <v>Squiala First Nation</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7626,13 +7649,13 @@
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,13 +7664,13 @@
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,13 +7679,13 @@
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,13 +7694,13 @@
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,13 +7709,13 @@
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,13 +7724,13 @@
         <v>Sumas First Nation</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,13 +7739,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,13 +7754,13 @@
         <v>Tsartlip First Nation</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,13 +7769,13 @@
         <v>Tsawout First Nation</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7761,13 +7784,13 @@
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7776,13 +7799,13 @@
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,13 +7814,13 @@
         <v>Tseycum First Nation</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,13 +7829,13 @@
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,13 +7844,13 @@
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,13 +7859,13 @@
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,13 +7874,13 @@
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,13 +7889,13 @@
         <v>Tzeachten First Nation</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7881,13 +7904,13 @@
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,13 +7919,13 @@
         <v>Union Bar First Nations</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7911,13 +7934,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7926,13 +7949,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7941,13 +7964,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,13 +7979,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7971,13 +7994,13 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7986,13 +8009,13 @@
         <v>Yale First Nation</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8001,13 +8024,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="771">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -499,6 +499,9 @@
     <t xml:space="preserve">Vancouver Island</t>
   </si>
   <si>
+    <t xml:space="preserve">ditidaht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esquimalt Nation (Xwsepsum or Kosapsum)</t>
   </si>
   <si>
@@ -565,6 +568,9 @@
     <t xml:space="preserve">http://www.heiltsuknation.ca/</t>
   </si>
   <si>
+    <t xml:space="preserve">heiltsuk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Huu-ay-aht First Nation </t>
   </si>
   <si>
@@ -613,6 +619,9 @@
     <t xml:space="preserve">Spread 6 (KP 1075.1 to 1144.480)</t>
   </si>
   <si>
+    <t xml:space="preserve">katzie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kwantlen First Nation (tireless Runner)</t>
   </si>
   <si>
@@ -689,6 +698,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lower Mainland - Spread 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwikwetlem</t>
   </si>
   <si>
     <t xml:space="preserve">Leq' a: mel First Nation</t>
@@ -1044,6 +1056,9 @@
     <t xml:space="preserve">http://pacheedahtfirstnation.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">pacheedaht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pauquachin Nation</t>
   </si>
   <si>
@@ -1180,6 +1195,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lower Mainland Spread 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qayqayt</t>
   </si>
   <si>
     <t xml:space="preserve">Scia'new First Nation (Beecher Bay First Nation)</t>
@@ -1905,6 +1923,9 @@
     <t xml:space="preserve">Lower Mainland</t>
   </si>
   <si>
+    <t xml:space="preserve">tsawwassen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ts'elxweyeqw Tribe Management Limited</t>
   </si>
   <si>
@@ -1992,6 +2013,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spread 7 Lower Mainland (KP 1180.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsleil-waututh-səl̓ilwətaɂɬ</t>
   </si>
   <si>
     <t xml:space="preserve">T'Sou-ke Nation</t>
@@ -3306,8 +3330,8 @@
   </sheetPr>
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H70" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N77" activeCellId="0" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3816,34 +3840,37 @@
       <c r="L14" s="17" t="s">
         <v>115</v>
       </c>
+      <c r="M14" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>48.688573</v>
@@ -3857,32 +3884,32 @@
     </row>
     <row r="16" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>48.929783</v>
@@ -3896,28 +3923,28 @@
     </row>
     <row r="17" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="6" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>52.337794</v>
@@ -3928,34 +3955,37 @@
       <c r="L17" s="17" t="s">
         <v>115</v>
       </c>
+      <c r="M17" s="0" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>48.833479</v>
@@ -3964,34 +3994,34 @@
         <v>-124.929585</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B19" s="6" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="0" t="n">
@@ -4001,34 +4031,37 @@
         <v>-122.607872</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>49.476845</v>
@@ -4037,33 +4070,33 @@
         <v>-122.296959</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="0" t="n">
@@ -4073,37 +4106,37 @@
         <v>-121.756432</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>49.451741</v>
@@ -4112,36 +4145,39 @@
         <v>-122.657791</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J23" s="11" t="n">
         <v>49.348358</v>
@@ -4150,34 +4186,34 @@
         <v>-122.106774</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>51.287872</v>
@@ -4191,31 +4227,31 @@
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>53.944696</v>
@@ -4224,12 +4260,12 @@
         <v>-121.694171</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B26" s="6" t="str">
         <f aca="false">A26</f>
@@ -4237,22 +4273,22 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>52.953049</v>
@@ -4266,29 +4302,29 @@
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>50.006984</v>
@@ -4302,28 +4338,28 @@
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="0" t="n">
@@ -4338,32 +4374,32 @@
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B29" s="6" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>48.941803</v>
@@ -4375,32 +4411,32 @@
     </row>
     <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B30" s="6" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>48.655944</v>
@@ -4409,34 +4445,34 @@
         <v>-124.000524</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B31" s="6" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="0" t="n">
@@ -4446,36 +4482,36 @@
         <v>-122.361868</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>49.353225</v>
@@ -4484,37 +4520,37 @@
         <v>-123.012956</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B33" s="6" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>51.21274</v>
@@ -4528,32 +4564,32 @@
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B34" s="6" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>49.690318</v>
@@ -4562,35 +4598,35 @@
         <v>-120.648292</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="42" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B35" s="6" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>49.114526</v>
@@ -4599,37 +4635,37 @@
         <v>-118.489264</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B36" s="6" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>48.572918</v>
@@ -4638,34 +4674,37 @@
         <v>-124.39459</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B37" s="6" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="0" t="n">
@@ -4675,12 +4714,12 @@
         <v>-123.324246</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B38" s="6" t="str">
         <f aca="false">A38</f>
@@ -4688,22 +4727,22 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="11" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>49.732366</v>
@@ -4712,34 +4751,34 @@
         <v>-119.25376</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>49.505163</v>
@@ -4748,37 +4787,37 @@
         <v>-121.482617</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B40" s="6" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>48.892388</v>
@@ -4787,12 +4826,12 @@
         <v>-123.675652</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B41" s="6" t="str">
         <f aca="false">A41</f>
@@ -4800,19 +4839,19 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="15" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="0" t="n">
@@ -4822,33 +4861,33 @@
         <v>-121.506875</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="0" t="n">
@@ -4858,34 +4897,37 @@
         <v>-122.910944</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="15" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>48.440888</v>
@@ -4894,36 +4936,36 @@
         <v>-123.676887</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>49.25517</v>
@@ -4932,12 +4974,12 @@
         <v>-121.964821</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
@@ -4945,19 +4987,19 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="0" t="n">
@@ -4967,32 +5009,32 @@
         <v>-121.724003</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="47" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G46" s="48"/>
       <c r="H46" s="49" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="J46" s="2" t="n">
         <v>51.527017</v>
@@ -5009,26 +5051,26 @@
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="0" t="n">
@@ -5038,37 +5080,37 @@
         <v>-122.767315</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B48" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G48" s="48"/>
       <c r="H48" s="11" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>49.963059</v>
@@ -5082,31 +5124,31 @@
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="52" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>49.339668</v>
@@ -5115,34 +5157,34 @@
         <v>-121.60638</v>
       </c>
       <c r="L49" s="46" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="57" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>49.087557</v>
@@ -5156,31 +5198,31 @@
     </row>
     <row r="51" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H51" s="58" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>52.634393</v>
@@ -5194,29 +5236,29 @@
     </row>
     <row r="52" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B52" s="6" t="str">
         <f aca="false">A52</f>
         <v>Siska Indian Band</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="0" t="n">
@@ -5226,33 +5268,33 @@
         <v>-120.838519</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B53" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="0" t="n">
@@ -5262,36 +5304,36 @@
         <v>-121.484624</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>49.087557</v>
@@ -5305,32 +5347,32 @@
     </row>
     <row r="55" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B55" s="6" t="str">
         <f aca="false">A55</f>
         <v>Shuswap Indian Band</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>50.367907</v>
@@ -5344,32 +5386,32 @@
     </row>
     <row r="56" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
         <v>Skawahlook First Nation</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>49.227586</v>
@@ -5378,37 +5420,37 @@
         <v>-122.174045</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
         <v>Skwah First Nation</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>49.175281</v>
@@ -5422,32 +5464,32 @@
     </row>
     <row r="58" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>49.107871</v>
@@ -5461,31 +5503,31 @@
     </row>
     <row r="59" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>49.087557</v>
@@ -5499,29 +5541,29 @@
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="59" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>49.963059</v>
@@ -5530,34 +5572,34 @@
         <v>-121.484624</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="61" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="11" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>49.807197</v>
@@ -5566,36 +5608,36 @@
         <v>-123.200082</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="61" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>49.087557</v>
@@ -5609,29 +5651,29 @@
     </row>
     <row r="63" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="36" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>51.341443</v>
@@ -5645,31 +5687,31 @@
     </row>
     <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>49.293578</v>
@@ -5683,31 +5725,31 @@
     </row>
     <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>51.586232</v>
@@ -5721,29 +5763,29 @@
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="11" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>50.839863</v>
@@ -5757,29 +5799,29 @@
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="63" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>48.846385</v>
@@ -5793,7 +5835,7 @@
     </row>
     <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
@@ -5801,22 +5843,22 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>49.052587</v>
@@ -5830,7 +5872,7 @@
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="59" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
@@ -5838,19 +5880,19 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="0" t="n">
@@ -5865,31 +5907,31 @@
     </row>
     <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>48.724102</v>
@@ -5898,36 +5940,36 @@
         <v>-123.324246</v>
       </c>
       <c r="L70" s="46" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="61" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>48.724102</v>
@@ -5936,37 +5978,37 @@
         <v>-123.324246</v>
       </c>
       <c r="L71" s="46" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>49.042909</v>
@@ -5975,31 +6017,34 @@
         <v>-123.094409</v>
       </c>
       <c r="L72" s="46" t="s">
-        <v>551</v>
+        <v>557</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="0" t="n">
@@ -6014,31 +6059,31 @@
     </row>
     <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>48.724102</v>
@@ -6047,31 +6092,31 @@
         <v>-123.324246</v>
       </c>
       <c r="L74" s="46" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="59" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="11" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>50.883097</v>
@@ -6085,32 +6130,32 @@
     </row>
     <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>49.309839</v>
@@ -6119,37 +6164,40 @@
         <v>-122.980478</v>
       </c>
       <c r="L76" s="46" t="s">
-        <v>580</v>
+        <v>587</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>48.385518</v>
@@ -6158,12 +6206,12 @@
         <v>-123.696567</v>
       </c>
       <c r="L77" s="46" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
@@ -6171,22 +6219,22 @@
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>50.678844</v>
@@ -6200,31 +6248,31 @@
     </row>
     <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>49.087557</v>
@@ -6238,32 +6286,32 @@
     </row>
     <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>52.475488</v>
@@ -6272,31 +6320,31 @@
         <v>-125.301018</v>
       </c>
       <c r="L80" s="46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="11" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="0" t="n">
@@ -6309,7 +6357,7 @@
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
@@ -6317,20 +6365,20 @@
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="11" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>50.167239</v>
@@ -6344,32 +6392,32 @@
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G83" s="68" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>49.462883</v>
@@ -6378,34 +6426,34 @@
         <v>-120.50172</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="11" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>51.194286</v>
@@ -6414,12 +6462,12 @@
         <v>-121.613314</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
@@ -6427,18 +6475,18 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="11" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>52.10532</v>
@@ -6450,31 +6498,31 @@
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>49.087557</v>
@@ -6483,12 +6531,12 @@
         <v>-121.829723</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
@@ -6496,22 +6544,22 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>49.492718</v>
@@ -6520,12 +6568,12 @@
         <v>-121.423097</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
@@ -6533,22 +6581,22 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="F88" s="63" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>52.854978</v>
@@ -6573,7 +6621,7 @@
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -6583,7 +6631,7 @@
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6592,7 +6640,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6601,7 +6649,7 @@
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6734,13 +6782,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,10 +6800,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,10 +6815,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,10 +6830,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,10 +6845,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6812,10 +6860,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,10 +6875,10 @@
         <v>56</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6842,10 +6890,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,13 +6902,13 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,10 +6920,10 @@
         <v>83</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,13 +6932,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,10 +6950,10 @@
         <v>97</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,10 +6965,10 @@
         <v>107</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,13 +6977,13 @@
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,13 +6992,13 @@
         <v>Halalt First Nation</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6959,13 +7007,13 @@
         <v>Heiltsuk First Nation</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,13 +7022,13 @@
         <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,13 +7037,13 @@
         <v>Katzie First Nation</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,13 +7052,13 @@
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,13 +7067,13 @@
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,13 +7082,13 @@
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,13 +7097,13 @@
         <v>Leq' a: mel First Nation</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,13 +7112,13 @@
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,13 +7127,13 @@
         <v>Lheidli T'enneh First Nation</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,13 +7142,13 @@
         <v>Lhtako Dene Nation</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,13 +7157,13 @@
         <v>Lower Nicola Indian Band -</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,13 +7172,13 @@
         <v>Lower Similkameen #598</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,13 +7187,13 @@
         <v>Lyackson First Nation</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7154,13 +7202,13 @@
         <v>Malahat First Nation</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7169,13 +7217,13 @@
         <v>Matsqui First Nation</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,13 +7232,13 @@
         <v>Musqeam Indian Band</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,13 +7247,13 @@
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,13 +7262,13 @@
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,13 +7277,13 @@
         <v>Osoyoos</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,13 +7292,13 @@
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,13 +7307,13 @@
         <v>Pauquachin Nation</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,13 +7322,13 @@
         <v>Penticton Indian Band</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,13 +7337,13 @@
         <v>Peters Band (Peters First Nation)</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,13 +7352,13 @@
         <v>Penelakut Tribe</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,13 +7367,13 @@
         <v>Popkum First Nation</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,13 +7382,13 @@
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,13 +7397,13 @@
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,13 +7412,13 @@
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,13 +7427,13 @@
         <v>Seabird Island Band</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,13 +7442,13 @@
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,13 +7457,13 @@
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,13 +7472,13 @@
         <v>Shackan Indian Band</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,13 +7487,13 @@
         <v>Shxw'owhamel First Nation</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,13 +7502,13 @@
         <v>Shxwha:y Villiage</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,13 +7517,13 @@
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,13 +7532,13 @@
         <v>Siska Indian Band</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,13 +7547,13 @@
         <v>Skuppah Indian Band</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7514,13 +7562,13 @@
         <v>Skowkale First Nation</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7529,13 +7577,13 @@
         <v>Shuswap Indian Band</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,13 +7592,13 @@
         <v>Skawahlook First Nation</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,13 +7607,13 @@
         <v>Skwah First Nation</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7574,13 +7622,13 @@
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,13 +7637,13 @@
         <v>Soowahlie First Nation</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7604,13 +7652,13 @@
         <v>Spuzzum First Nation</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7619,13 +7667,13 @@
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,13 +7682,13 @@
         <v>Squiala First Nation</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7649,13 +7697,13 @@
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,13 +7712,13 @@
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,13 +7727,13 @@
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7694,13 +7742,13 @@
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,13 +7757,13 @@
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,13 +7772,13 @@
         <v>Sumas First Nation</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,13 +7787,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,13 +7802,13 @@
         <v>Tsartlip First Nation</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,13 +7817,13 @@
         <v>Tsawout First Nation</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,13 +7832,13 @@
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7799,13 +7847,13 @@
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,13 +7862,13 @@
         <v>Tseycum First Nation</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,13 +7877,13 @@
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7844,13 +7892,13 @@
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,13 +7907,13 @@
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,13 +7922,13 @@
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,13 +7937,13 @@
         <v>Tzeachten First Nation</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,13 +7952,13 @@
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,13 +7967,13 @@
         <v>Union Bar First Nations</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,13 +7982,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,13 +7997,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,13 +8012,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,13 +8027,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,13 +8042,13 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,13 +8057,13 @@
         <v>Yale First Nation</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,13 +8072,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="772">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lower Mainland - Spread 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwantlen</t>
   </si>
   <si>
     <t xml:space="preserve">Kwaw -Kwaw-Aplit First Nations </t>
@@ -3330,8 +3333,8 @@
   </sheetPr>
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H70" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N77" activeCellId="0" sqref="N77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4072,31 +4075,34 @@
       <c r="L20" s="17" t="s">
         <v>165</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="0" t="n">
@@ -4111,32 +4117,32 @@
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" s="6" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>49.451741</v>
@@ -4145,39 +4151,39 @@
         <v>-122.657791</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>188</v>
-      </c>
       <c r="H23" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J23" s="11" t="n">
         <v>49.348358</v>
@@ -4191,29 +4197,29 @@
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>51.287872</v>
@@ -4227,31 +4233,31 @@
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>53.944696</v>
@@ -4260,12 +4266,12 @@
         <v>-121.694171</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B26" s="6" t="str">
         <f aca="false">A26</f>
@@ -4273,22 +4279,22 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>52.953049</v>
@@ -4302,29 +4308,29 @@
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>50.006984</v>
@@ -4338,28 +4344,28 @@
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="0" t="n">
@@ -4374,32 +4380,32 @@
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="6" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>48.941803</v>
@@ -4411,32 +4417,32 @@
     </row>
     <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" s="6" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>244</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>48.655944</v>
@@ -4445,34 +4451,34 @@
         <v>-124.000524</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" s="6" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="0" t="n">
@@ -4482,36 +4488,36 @@
         <v>-122.361868</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>49.353225</v>
@@ -4525,32 +4531,32 @@
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="6" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>268</v>
-      </c>
       <c r="H33" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>51.21274</v>
@@ -4564,32 +4570,32 @@
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="6" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>49.690318</v>
@@ -4598,35 +4604,35 @@
         <v>-120.648292</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="6" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>49.114526</v>
@@ -4635,37 +4641,37 @@
         <v>-118.489264</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" s="6" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>291</v>
-      </c>
       <c r="H36" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>48.572918</v>
@@ -4674,37 +4680,37 @@
         <v>-124.39459</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B37" s="6" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="0" t="n">
@@ -4714,12 +4720,12 @@
         <v>-123.324246</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" s="6" t="str">
         <f aca="false">A38</f>
@@ -4727,22 +4733,22 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>305</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>49.732366</v>
@@ -4751,34 +4757,34 @@
         <v>-119.25376</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F39" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>312</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>49.505163</v>
@@ -4787,37 +4793,37 @@
         <v>-121.482617</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="6" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F40" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>320</v>
-      </c>
       <c r="H40" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>48.892388</v>
@@ -4826,12 +4832,12 @@
         <v>-123.675652</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="6" t="str">
         <f aca="false">A41</f>
@@ -4839,19 +4845,19 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F41" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>327</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="0" t="n">
@@ -4861,33 +4867,33 @@
         <v>-121.506875</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F42" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>334</v>
-      </c>
       <c r="H42" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="0" t="n">
@@ -4897,37 +4903,37 @@
         <v>-122.910944</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>48.440888</v>
@@ -4936,36 +4942,36 @@
         <v>-123.676887</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>49.25517</v>
@@ -4974,12 +4980,12 @@
         <v>-121.964821</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" s="6" t="str">
         <f aca="false">A45</f>
@@ -4987,19 +4993,19 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F45" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>357</v>
-      </c>
       <c r="H45" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="0" t="n">
@@ -5009,32 +5015,32 @@
         <v>-121.724003</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="47" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G46" s="48"/>
       <c r="H46" s="49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J46" s="2" t="n">
         <v>51.527017</v>
@@ -5051,26 +5057,26 @@
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" s="6" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F47" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>368</v>
-      </c>
       <c r="H47" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="0" t="n">
@@ -5080,37 +5086,37 @@
         <v>-122.767315</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G48" s="48"/>
       <c r="H48" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>49.963059</v>
@@ -5124,31 +5130,31 @@
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="52" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>49.339668</v>
@@ -5157,34 +5163,34 @@
         <v>-121.60638</v>
       </c>
       <c r="L49" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>49.087557</v>
@@ -5198,31 +5204,31 @@
     </row>
     <row r="51" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="G51" s="50" t="s">
-        <v>399</v>
-      </c>
       <c r="H51" s="58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>52.634393</v>
@@ -5236,29 +5242,29 @@
     </row>
     <row r="52" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="6" t="str">
         <f aca="false">A52</f>
         <v>Siska Indian Band</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="0" t="n">
@@ -5268,33 +5274,33 @@
         <v>-120.838519</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F53" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="G53" s="16" t="s">
-        <v>413</v>
-      </c>
       <c r="H53" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="0" t="n">
@@ -5304,36 +5310,36 @@
         <v>-121.484624</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>49.087557</v>
@@ -5347,32 +5353,32 @@
     </row>
     <row r="55" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B55" s="6" t="str">
         <f aca="false">A55</f>
         <v>Shuswap Indian Band</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>50.367907</v>
@@ -5386,32 +5392,32 @@
     </row>
     <row r="56" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B56" s="6" t="str">
         <f aca="false">A56</f>
         <v>Skawahlook First Nation</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F56" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="G56" s="17" t="s">
-        <v>435</v>
-      </c>
       <c r="H56" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>49.227586</v>
@@ -5420,37 +5426,37 @@
         <v>-122.174045</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" s="6" t="str">
         <f aca="false">A57</f>
         <v>Skwah First Nation</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F57" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>442</v>
-      </c>
       <c r="H57" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>49.175281</v>
@@ -5464,32 +5470,32 @@
     </row>
     <row r="58" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B58" s="6" t="str">
         <f aca="false">A58</f>
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F58" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>449</v>
-      </c>
       <c r="H58" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>49.107871</v>
@@ -5503,31 +5509,31 @@
     </row>
     <row r="59" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F59" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="G59" s="27" t="s">
-        <v>456</v>
-      </c>
       <c r="H59" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>49.087557</v>
@@ -5541,29 +5547,29 @@
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="59" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>49.963059</v>
@@ -5572,34 +5578,34 @@
         <v>-121.484624</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>49.807197</v>
@@ -5608,36 +5614,36 @@
         <v>-123.200082</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="61" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F62" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="G62" s="17" t="s">
-        <v>480</v>
-      </c>
       <c r="H62" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>49.087557</v>
@@ -5651,29 +5657,29 @@
     </row>
     <row r="63" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>51.341443</v>
@@ -5687,31 +5693,31 @@
     </row>
     <row r="64" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>496</v>
-      </c>
       <c r="H64" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>49.293578</v>
@@ -5725,31 +5731,31 @@
     </row>
     <row r="65" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>51.586232</v>
@@ -5763,29 +5769,29 @@
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>50.839863</v>
@@ -5799,29 +5805,29 @@
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="63" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F67" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G67" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>519</v>
-      </c>
       <c r="H67" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>48.846385</v>
@@ -5835,7 +5841,7 @@
     </row>
     <row r="68" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B68" s="6" t="str">
         <f aca="false">A68</f>
@@ -5843,22 +5849,22 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F68" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G68" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>525</v>
-      </c>
       <c r="H68" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>49.052587</v>
@@ -5872,7 +5878,7 @@
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="59" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B69" s="6" t="str">
         <f aca="false">A69</f>
@@ -5880,19 +5886,19 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F69" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="G69" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>531</v>
-      </c>
       <c r="H69" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="0" t="n">
@@ -5907,31 +5913,31 @@
     </row>
     <row r="70" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F70" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="G70" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>537</v>
-      </c>
       <c r="H70" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>48.724102</v>
@@ -5940,36 +5946,36 @@
         <v>-123.324246</v>
       </c>
       <c r="L70" s="46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="61" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>544</v>
-      </c>
       <c r="H71" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>48.724102</v>
@@ -5978,37 +5984,37 @@
         <v>-123.324246</v>
       </c>
       <c r="L71" s="46" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B72" s="6" t="str">
         <f aca="false">A72</f>
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>49.042909</v>
@@ -6017,34 +6023,34 @@
         <v>-123.094409</v>
       </c>
       <c r="L72" s="46" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="0" t="n">
@@ -6059,31 +6065,31 @@
     </row>
     <row r="74" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>48.724102</v>
@@ -6092,31 +6098,31 @@
         <v>-123.324246</v>
       </c>
       <c r="L74" s="46" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="59" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>50.883097</v>
@@ -6130,32 +6136,32 @@
     </row>
     <row r="76" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B76" s="6" t="str">
         <f aca="false">A76</f>
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F76" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G76" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>583</v>
-      </c>
       <c r="H76" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>49.309839</v>
@@ -6164,40 +6170,40 @@
         <v>-122.980478</v>
       </c>
       <c r="L76" s="46" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B77" s="6" t="str">
         <f aca="false">A77</f>
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>48.385518</v>
@@ -6206,12 +6212,12 @@
         <v>-123.696567</v>
       </c>
       <c r="L77" s="46" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B78" s="6" t="str">
         <f aca="false">A78</f>
@@ -6219,22 +6225,22 @@
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>50.678844</v>
@@ -6248,31 +6254,31 @@
     </row>
     <row r="79" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>49.087557</v>
@@ -6286,32 +6292,32 @@
     </row>
     <row r="80" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B80" s="6" t="str">
         <f aca="false">A80</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>52.475488</v>
@@ -6320,31 +6326,31 @@
         <v>-125.301018</v>
       </c>
       <c r="L80" s="46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="0" t="n">
@@ -6357,7 +6363,7 @@
     </row>
     <row r="82" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B82" s="6" t="str">
         <f aca="false">A82</f>
@@ -6365,20 +6371,20 @@
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="11" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>50.167239</v>
@@ -6392,32 +6398,32 @@
     </row>
     <row r="83" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="59" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B83" s="6" t="str">
         <f aca="false">A83</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F83" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="G83" s="68" t="s">
         <v>636</v>
       </c>
-      <c r="G83" s="68" t="s">
-        <v>635</v>
-      </c>
       <c r="H83" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>49.462883</v>
@@ -6426,34 +6432,34 @@
         <v>-120.50172</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>51.194286</v>
@@ -6462,12 +6468,12 @@
         <v>-121.613314</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B85" s="6" t="str">
         <f aca="false">A85</f>
@@ -6475,18 +6481,18 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>52.10532</v>
@@ -6498,31 +6504,31 @@
     </row>
     <row r="86" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>49.087557</v>
@@ -6531,12 +6537,12 @@
         <v>-121.829723</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B87" s="6" t="str">
         <f aca="false">A87</f>
@@ -6544,22 +6550,22 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>49.492718</v>
@@ -6568,12 +6574,12 @@
         <v>-121.423097</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B88" s="6" t="str">
         <f aca="false">A88</f>
@@ -6581,22 +6587,22 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F88" s="63" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>52.854978</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -6631,7 +6637,7 @@
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6640,7 +6646,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -6782,13 +6788,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,10 +6806,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,10 +6821,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,10 +6836,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,10 +6851,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,10 +6866,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,10 +6881,10 @@
         <v>56</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,10 +6896,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,13 +6908,13 @@
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,10 +6926,10 @@
         <v>83</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6932,13 +6938,13 @@
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,10 +6956,10 @@
         <v>97</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6965,10 +6971,10 @@
         <v>107</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,10 +6986,10 @@
         <v>118</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,13 +6998,13 @@
         <v>Halalt First Nation</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,10 +7016,10 @@
         <v>133</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,13 +7028,13 @@
         <v>Huu-ay-aht First Nation</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,10 +7046,10 @@
         <v>149</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,10 +7061,10 @@
         <v>158</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7067,13 +7073,13 @@
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,13 +7088,13 @@
         <v>Kwikwetlem First Nation</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,13 +7103,13 @@
         <v>Leq' a: mel First Nation</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,13 +7118,13 @@
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,13 +7133,13 @@
         <v>Lheidli T'enneh First Nation</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,13 +7148,13 @@
         <v>Lhtako Dene Nation</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,13 +7163,13 @@
         <v>Lower Nicola Indian Band -</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,13 +7178,13 @@
         <v>Lower Similkameen #598</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7187,13 +7193,13 @@
         <v>Lyackson First Nation</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,13 +7208,13 @@
         <v>Malahat First Nation</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,13 +7223,13 @@
         <v>Matsqui First Nation</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,13 +7238,13 @@
         <v>Musqeam Indian Band</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,13 +7253,13 @@
         <v>Neskonlith Indian Band</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,13 +7268,13 @@
         <v>Nooaitch Indian Band</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,13 +7283,13 @@
         <v>Osoyoos</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,13 +7298,13 @@
         <v>Pacheedaht First Nation</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7307,13 +7313,13 @@
         <v>Pauquachin Nation</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,13 +7328,13 @@
         <v>Penticton Indian Band</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7337,13 +7343,13 @@
         <v>Peters Band (Peters First Nation)</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7352,13 +7358,13 @@
         <v>Penelakut Tribe</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,13 +7373,13 @@
         <v>Popkum First Nation</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,13 +7388,13 @@
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,13 +7403,13 @@
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,13 +7418,13 @@
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,13 +7433,13 @@
         <v>Seabird Island Band</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,13 +7448,13 @@
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,13 +7463,13 @@
         <v>Semiahmoo First Nation</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,13 +7478,13 @@
         <v>Shackan Indian Band</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,13 +7493,13 @@
         <v>Shxw'owhamel First Nation</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,13 +7508,13 @@
         <v>Shxwha:y Villiage</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,13 +7523,13 @@
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,13 +7538,13 @@
         <v>Siska Indian Band</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7547,13 +7553,13 @@
         <v>Skuppah Indian Band</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,13 +7568,13 @@
         <v>Skowkale First Nation</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7577,13 +7583,13 @@
         <v>Shuswap Indian Band</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,13 +7598,13 @@
         <v>Skawahlook First Nation</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,13 +7613,13 @@
         <v>Skwah First Nation</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7622,13 +7628,13 @@
         <v>Snuneymuxw First Nation</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7637,13 +7643,13 @@
         <v>Soowahlie First Nation</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,13 +7658,13 @@
         <v>Spuzzum First Nation</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,13 +7673,13 @@
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7682,13 +7688,13 @@
         <v>Squiala First Nation</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,13 +7703,13 @@
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,13 +7718,13 @@
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,13 +7733,13 @@
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,13 +7748,13 @@
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,13 +7763,13 @@
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,13 +7778,13 @@
         <v>Sumas First Nation</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,13 +7793,13 @@
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D68" s="78" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,13 +7808,13 @@
         <v>Tsartlip First Nation</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D69" s="78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,13 +7823,13 @@
         <v>Tsawout First Nation</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D70" s="78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7832,13 +7838,13 @@
         <v>Tsawwassen First Nation</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7847,13 +7853,13 @@
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,13 +7868,13 @@
         <v>Tseycum First Nation</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D73" s="78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,13 +7883,13 @@
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,13 +7898,13 @@
         <v>Tsleil Waututh Nation</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,13 +7913,13 @@
         <v>T'Sou-ke Nation</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,13 +7928,13 @@
         <v>Tk'emlups te Secwepemc</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,13 +7943,13 @@
         <v>Tzeachten First Nation</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7952,13 +7958,13 @@
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7967,13 +7973,13 @@
         <v>Union Bar First Nations</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,13 +7988,13 @@
         <v>Upper Nicola Indian Band</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,13 +8003,13 @@
         <v>Upper Similkameen Indian Band</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,13 +8018,13 @@
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,13 +8033,13 @@
         <v>Williams Lake Indian Band</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,13 +8048,13 @@
         <v>Yakweakwioose First Nation</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8057,13 +8063,13 @@
         <v>Yale First Nation</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,13 +8078,13 @@
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G87" s="75"/>
     </row>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BC First Nations" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="image sources" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Spreads" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BC First Nations'!$A$2:$Q$90</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="984">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -3691,6 +3692,27 @@
   </si>
   <si>
     <t xml:space="preserve">Xat'sull First Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -4588,8 +4610,8 @@
   </sheetPr>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G79" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V90" activeCellId="0" sqref="V90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4600,7 +4622,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="8" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="0" width="9.14"/>
@@ -5485,7 +5509,7 @@
       </c>
       <c r="V16" s="8" t="str">
         <f aca="false">A16</f>
-        <v>Halalt First Nation</v>
+        <v>Halalt First Nation </v>
       </c>
       <c r="W16" s="8" t="s">
         <v>191</v>
@@ -9947,7 +9971,7 @@
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
         <f aca="false">'BC First Nations'!A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
       </c>
       <c r="B10" s="92" t="s">
         <v>131</v>
@@ -10022,7 +10046,7 @@
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">'BC First Nations'!A16</f>
-        <v>Halalt First Nation</v>
+        <v>Halalt First Nation </v>
       </c>
       <c r="B15" s="92" t="s">
         <v>946</v>
@@ -10052,7 +10076,7 @@
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">'BC First Nations'!A18</f>
-        <v>Huu-ay-aht First Nation</v>
+        <v>Huu-ay-aht First Nation </v>
       </c>
       <c r="B17" s="92" t="s">
         <v>948</v>
@@ -10097,7 +10121,7 @@
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">'BC First Nations'!A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations</v>
+        <v>Kwaw -Kwaw-Aplit First Nations </v>
       </c>
       <c r="B20" s="92" t="s">
         <v>246</v>
@@ -10412,7 +10436,7 @@
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">'BC First Nations'!A42</f>
-        <v>Qayqayt First Nation (New Westminister)</v>
+        <v>Qayqayt First Nation (New Westminister) </v>
       </c>
       <c r="B41" s="92" t="s">
         <v>956</v>
@@ -10502,7 +10526,7 @@
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
         <f aca="false">'BC First Nations'!A49</f>
-        <v>Shackan Indian Band</v>
+        <v>Shackan Indian Band </v>
       </c>
       <c r="B47" s="92" t="s">
         <v>961</v>
@@ -10577,7 +10601,7 @@
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
         <f aca="false">'BC First Nations'!A54</f>
-        <v>Skuppah Indian Band</v>
+        <v>Skuppah Indian Band </v>
       </c>
       <c r="B52" s="92" t="s">
         <v>964</v>
@@ -10607,7 +10631,7 @@
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">'BC First Nations'!A56</f>
-        <v>Shuswap Indian Band</v>
+        <v>Shuswap Indian Band </v>
       </c>
       <c r="B54" s="92" t="s">
         <v>965</v>
@@ -10727,7 +10751,7 @@
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">'BC First Nations'!A64</f>
-        <v>Stk'emlupsemc Te Secwepemc</v>
+        <v>Stk'emlupsemc Te Secwepemc </v>
       </c>
       <c r="B62" s="92" t="s">
         <v>970</v>
@@ -10742,7 +10766,7 @@
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">'BC First Nations'!A65</f>
-        <v>Sts'ailes Band (Chehalls Indian Band)</v>
+        <v>Sts'ailes Band (Chehalls Indian Band) </v>
       </c>
       <c r="B63" s="92" t="s">
         <v>695</v>
@@ -11087,7 +11111,7 @@
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">'BC First Nations'!A89</f>
-        <v>Yale First Nation</v>
+        <v>Yale First Nation </v>
       </c>
       <c r="B86" s="92" t="s">
         <v>975</v>
@@ -11217,4 +11241,215 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>49.114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>49.114</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>147.767</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>147.767</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>246.043</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>246.043</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>337.966</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>489.16</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>502.443</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>502.443</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>525.579</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>525.579</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>610.675</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>610.675</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>690.485</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>690.485</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>764.569</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>806.471</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>990.273</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>990.273</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1075.731</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1075.122</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1144.48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1144.908</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1180.149</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BC First Nations" sheetId="1" state="visible" r:id="rId2"/>
@@ -3719,8 +3719,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -4141,7 +4142,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4282,7 +4283,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4291,6 +4324,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4378,8 +4415,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4483,10 +4544,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4610,8 +4667,8 @@
   </sheetPr>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4623,7 +4680,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.37"/>
@@ -4757,10 +4814,10 @@
         <v>37</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>51.527017</v>
+        <v>50.8291154794399</v>
       </c>
       <c r="S3" s="14" t="n">
-        <v>-120.076953</v>
+        <v>-119.7016527</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>38</v>
@@ -4821,10 +4878,10 @@
         <v>51</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1505413634721</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.987290916937</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>52</v>
@@ -4876,10 +4933,10 @@
         <v>63</v>
       </c>
       <c r="R5" s="14" t="n">
-        <v>50.404267</v>
+        <v>50.7203687204045</v>
       </c>
       <c r="S5" s="14" t="n">
-        <v>-120.678195</v>
+        <v>-121.319688819</v>
       </c>
       <c r="V5" s="8" t="str">
         <f aca="false">A5</f>
@@ -4926,10 +4983,10 @@
         <v>70</v>
       </c>
       <c r="R6" s="14" t="n">
-        <v>49.963059</v>
+        <v>49.9634982583732</v>
       </c>
       <c r="S6" s="14" t="n">
-        <v>-121.484624</v>
+        <v>-121.48397324949</v>
       </c>
       <c r="V6" s="8" t="str">
         <f aca="false">A6</f>
@@ -4976,10 +5033,10 @@
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="14" t="n">
-        <v>49.621761</v>
+        <v>49.8613568484276</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>-120.95154</v>
+        <v>-121.440876627917</v>
       </c>
       <c r="V7" s="8" t="str">
         <f aca="false">A7</f>
@@ -5034,10 +5091,10 @@
         <v>91</v>
       </c>
       <c r="R8" s="14" t="n">
-        <v>51.770937</v>
+        <v>51.7718379529271</v>
       </c>
       <c r="S8" s="14" t="n">
-        <v>-120.993827</v>
+        <v>-120.993991830686</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>92</v>
@@ -5093,10 +5150,10 @@
         <v>105</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>49.283272</v>
+        <v>49.3702501965451</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>-121.291263</v>
+        <v>-121.552140153971</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>93</v>
@@ -5154,10 +5211,10 @@
         <v>118</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>49.540481</v>
+        <v>49.1897365395324</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>-121.7239</v>
+        <v>-121.784199584657</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>119</v>
@@ -5266,10 +5323,10 @@
         <v>140</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>50.032193</v>
+        <v>50.4227460817348</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>-120.617392</v>
+        <v>-121.345103566763</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>141</v>
@@ -5325,10 +5382,10 @@
         <v>153</v>
       </c>
       <c r="R13" s="14" t="n">
-        <v>48.888822</v>
+        <v>48.7759494968352</v>
       </c>
       <c r="S13" s="14" t="n">
-        <v>-123.752153</v>
+        <v>-123.70948550892</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>142</v>
@@ -5386,10 +5443,10 @@
         <v>168</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>48.890317</v>
+        <v>48.8068671468874</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>-124.592686</v>
+        <v>-124.667070239226</v>
       </c>
       <c r="T14" s="14" t="s">
         <v>169</v>
@@ -5450,10 +5507,10 @@
         <v>180</v>
       </c>
       <c r="R15" s="14" t="n">
-        <v>48.688573</v>
+        <v>48.4448905662452</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>-123.453132</v>
+        <v>-123.430239771178</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>181</v>
@@ -5502,14 +5559,14 @@
         <v>190</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>48.929783</v>
+        <v>48.8744822422848</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>-124.479846</v>
+        <v>-123.696290570467</v>
       </c>
       <c r="V16" s="8" t="str">
         <f aca="false">A16</f>
-        <v>Halalt First Nation </v>
+        <v>Halalt First Nation</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>191</v>
@@ -5560,10 +5617,10 @@
         <v>199</v>
       </c>
       <c r="R17" s="14" t="n">
-        <v>52.337794</v>
+        <v>52.1625291742136</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>-127.826237</v>
+        <v>-128.144738642665</v>
       </c>
       <c r="T17" s="14" t="s">
         <v>200</v>
@@ -5617,10 +5674,10 @@
         <v>209</v>
       </c>
       <c r="R18" s="14" t="n">
-        <v>48.833479</v>
+        <v>48.8026460695892</v>
       </c>
       <c r="S18" s="14" t="n">
-        <v>-124.929585</v>
+        <v>-125.127619190205</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>210</v>
@@ -5630,59 +5687,60 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="13" t="s">
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13" t="s">
+      <c r="N19" s="39"/>
+      <c r="O19" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="14" t="n">
-        <v>49.557619</v>
-      </c>
-      <c r="S19" s="14" t="n">
-        <v>-122.607872</v>
-      </c>
-      <c r="T19" s="14" t="s">
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41" t="n">
+        <v>49.1861077501639</v>
+      </c>
+      <c r="S19" s="41" t="n">
+        <v>-122.695486242878</v>
+      </c>
+      <c r="T19" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="8" t="str">
+      <c r="U19" s="42"/>
+      <c r="V19" s="43" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="43" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5735,10 +5793,10 @@
         <v>235</v>
       </c>
       <c r="R20" s="14" t="n">
-        <v>49.476845</v>
+        <v>49.171628990299</v>
       </c>
       <c r="S20" s="14" t="n">
-        <v>-122.296959</v>
+        <v>-122.565426566965</v>
       </c>
       <c r="T20" s="14" t="s">
         <v>236</v>
@@ -5749,10 +5807,10 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="45" t="s">
         <v>239</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -5768,10 +5826,10 @@
       <c r="G21" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="38" t="s">
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="13" t="s">
@@ -5799,13 +5857,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="50" t="s">
         <v>250</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -5818,10 +5876,10 @@
       <c r="G22" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="40" t="s">
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="49" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="16" t="s">
@@ -5838,10 +5896,10 @@
         <v>257</v>
       </c>
       <c r="R22" s="14" t="n">
-        <v>49.451741</v>
+        <v>49.230208712611</v>
       </c>
       <c r="S22" s="14" t="n">
-        <v>-122.657791</v>
+        <v>-122.806119423045</v>
       </c>
       <c r="T22" s="14" t="s">
         <v>258</v>
@@ -5855,7 +5913,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="52" t="s">
         <v>260</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -5880,8 +5938,8 @@
       <c r="I23" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="13" t="s">
         <v>267</v>
       </c>
@@ -5899,10 +5957,10 @@
         <v>270</v>
       </c>
       <c r="R23" s="13" t="n">
-        <v>49.348358</v>
+        <v>49.2064434730953</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>-122.106774</v>
+        <v>-122.027744007433</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>271</v>
@@ -5912,10 +5970,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="54" t="s">
         <v>274</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5960,10 +6018,10 @@
         <v>283</v>
       </c>
       <c r="R24" s="14" t="n">
-        <v>51.287872</v>
+        <v>50.8708388662502</v>
       </c>
       <c r="S24" s="14" t="n">
-        <v>-118.990533</v>
+        <v>-119.599497552904</v>
       </c>
       <c r="V24" s="8" t="s">
         <v>284</v>
@@ -5971,10 +6029,10 @@
       <c r="W24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="49" t="s">
         <v>286</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -6017,10 +6075,10 @@
         <v>297</v>
       </c>
       <c r="R25" s="14" t="n">
-        <v>53.944696</v>
+        <v>54.0088875710237</v>
       </c>
       <c r="S25" s="14" t="n">
-        <v>-121.694171</v>
+        <v>-122.614309870554</v>
       </c>
       <c r="V25" s="8" t="s">
         <v>298</v>
@@ -6074,10 +6132,10 @@
         <v>310</v>
       </c>
       <c r="R26" s="14" t="n">
-        <v>52.953049</v>
+        <v>52.9551054413743</v>
       </c>
       <c r="S26" s="14" t="n">
-        <v>-122.449172</v>
+        <v>-122.450977710068</v>
       </c>
       <c r="V26" s="8" t="str">
         <f aca="false">A26</f>
@@ -6108,11 +6166,11 @@
       <c r="H27" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="13" t="s">
         <v>149</v>
       </c>
@@ -6130,10 +6188,10 @@
         <v>321</v>
       </c>
       <c r="R27" s="14" t="n">
-        <v>50.006984</v>
+        <v>50.1390924737866</v>
       </c>
       <c r="S27" s="14" t="n">
-        <v>-121.261538</v>
+        <v>-120.862534877965</v>
       </c>
       <c r="V27" s="8" t="s">
         <v>322</v>
@@ -6141,7 +6199,7 @@
       <c r="W27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="56" t="s">
         <v>323</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -6150,10 +6208,10 @@
       <c r="C28" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="21" t="s">
         <v>327</v>
       </c>
@@ -6163,7 +6221,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="47" t="s">
         <v>32</v>
       </c>
       <c r="M28" s="16" t="s">
@@ -6178,10 +6236,10 @@
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="14" t="n">
-        <v>49.845148</v>
+        <v>49.1149186382442</v>
       </c>
       <c r="S28" s="14" t="n">
-        <v>-118.987733</v>
+        <v>-119.724028514332</v>
       </c>
       <c r="V28" s="8" t="s">
         <v>331</v>
@@ -6191,7 +6249,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="58" t="s">
         <v>333</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -6219,10 +6277,10 @@
       <c r="J29" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="60" t="s">
         <v>32</v>
       </c>
       <c r="M29" s="13" t="s">
@@ -6239,10 +6297,10 @@
         <v>343</v>
       </c>
       <c r="R29" s="14" t="n">
-        <v>48.941803</v>
+        <v>49.1149186382442</v>
       </c>
       <c r="S29" s="14" t="n">
-        <v>-123.490134</v>
+        <v>-119.724028514332</v>
       </c>
       <c r="V29" s="8" t="str">
         <f aca="false">A29</f>
@@ -6284,14 +6342,14 @@
       <c r="K30" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="61" t="s">
         <v>149</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>351</v>
       </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="50" t="s">
         <v>352</v>
       </c>
       <c r="P30" s="13" t="s">
@@ -6301,10 +6359,10 @@
         <v>354</v>
       </c>
       <c r="R30" s="14" t="n">
-        <v>48.655944</v>
+        <v>48.6145785901937</v>
       </c>
       <c r="S30" s="14" t="n">
-        <v>-124.000524</v>
+        <v>-123.520458277224</v>
       </c>
       <c r="V30" s="8" t="str">
         <f aca="false">A30</f>
@@ -6315,7 +6373,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="62" t="s">
         <v>356</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -6335,9 +6393,9 @@
         <v>361</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="13" t="s">
         <v>267</v>
       </c>
@@ -6345,7 +6403,7 @@
         <v>362</v>
       </c>
       <c r="N31" s="16"/>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="50" t="s">
         <v>255</v>
       </c>
       <c r="P31" s="13" t="s">
@@ -6353,10 +6411,10 @@
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="14" t="n">
-        <v>49.290611</v>
+        <v>49.1061587257785</v>
       </c>
       <c r="S31" s="14" t="n">
-        <v>-122.361868</v>
+        <v>-122.3423931218</v>
       </c>
       <c r="V31" s="8" t="str">
         <f aca="false">A31</f>
@@ -6370,7 +6428,7 @@
       <c r="A32" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="63" t="s">
         <v>366</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -6383,7 +6441,7 @@
       <c r="F32" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="23" t="s">
@@ -6405,7 +6463,7 @@
         <v>178</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="50" t="s">
         <v>233</v>
       </c>
       <c r="P32" s="13" t="s">
@@ -6415,10 +6473,10 @@
         <v>375</v>
       </c>
       <c r="R32" s="14" t="n">
-        <v>49.353225</v>
+        <v>49.2249998356386</v>
       </c>
       <c r="S32" s="14" t="n">
-        <v>-123.012956</v>
+        <v>-123.199062838371</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>376</v>
@@ -6444,7 +6502,7 @@
       <c r="F33" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="23" t="s">
@@ -6476,10 +6534,10 @@
         <v>386</v>
       </c>
       <c r="R33" s="14" t="n">
-        <v>51.21274</v>
+        <v>50.7743341531046</v>
       </c>
       <c r="S33" s="14" t="n">
-        <v>-118.846623</v>
+        <v>-119.717236920099</v>
       </c>
       <c r="V33" s="8" t="str">
         <f aca="false">A33</f>
@@ -6493,7 +6551,7 @@
       <c r="A34" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="64" t="s">
         <v>389</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -6538,10 +6596,10 @@
         <v>399</v>
       </c>
       <c r="R34" s="14" t="n">
-        <v>49.690318</v>
+        <v>50.1540952465102</v>
       </c>
       <c r="S34" s="14" t="n">
-        <v>-120.648292</v>
+        <v>-121.037387988603</v>
       </c>
       <c r="V34" s="8" t="str">
         <f aca="false">A34</f>
@@ -6552,7 +6610,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="65" t="s">
         <v>401</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -6561,11 +6619,11 @@
       <c r="C35" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="20" t="s">
         <v>405</v>
       </c>
@@ -6590,10 +6648,10 @@
         <v>408</v>
       </c>
       <c r="R35" s="14" t="n">
-        <v>49.114526</v>
+        <v>49.1838485514573</v>
       </c>
       <c r="S35" s="14" t="n">
-        <v>-118.489264</v>
+        <v>-119.53315191045</v>
       </c>
       <c r="V35" s="8" t="str">
         <f aca="false">A35</f>
@@ -6620,7 +6678,7 @@
       <c r="F36" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="57" t="s">
         <v>405</v>
       </c>
       <c r="H36" s="13" t="s">
@@ -6652,10 +6710,10 @@
         <v>418</v>
       </c>
       <c r="R36" s="14" t="n">
-        <v>48.572918</v>
+        <v>48.5776249603665</v>
       </c>
       <c r="S36" s="14" t="n">
-        <v>-124.39459</v>
+        <v>-124.408374183131</v>
       </c>
       <c r="T36" s="14" t="s">
         <v>419</v>
@@ -6685,19 +6743,19 @@
       <c r="F37" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="57" t="s">
         <v>405</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="57" t="s">
         <v>177</v>
       </c>
       <c r="L37" s="25" t="s">
@@ -6715,10 +6773,10 @@
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="14" t="n">
-        <v>48.724102</v>
+        <v>48.6274805537984</v>
       </c>
       <c r="S37" s="14" t="n">
-        <v>-123.324246</v>
+        <v>-123.458324726602</v>
       </c>
       <c r="V37" s="8" t="str">
         <f aca="false">A37</f>
@@ -6748,9 +6806,9 @@
       <c r="G38" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="25" t="s">
         <v>32</v>
       </c>
@@ -6768,10 +6826,10 @@
         <v>436</v>
       </c>
       <c r="R38" s="14" t="n">
-        <v>49.732366</v>
+        <v>49.4919586000844</v>
       </c>
       <c r="S38" s="14" t="n">
-        <v>-119.25376</v>
+        <v>-119.64469346526</v>
       </c>
       <c r="V38" s="8" t="str">
         <f aca="false">A38</f>
@@ -6799,9 +6857,9 @@
       <c r="G39" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
       <c r="L39" s="25" t="s">
         <v>32</v>
       </c>
@@ -6819,10 +6877,10 @@
         <v>445</v>
       </c>
       <c r="R39" s="14" t="n">
-        <v>49.505163</v>
+        <v>49.301445389115</v>
       </c>
       <c r="S39" s="14" t="n">
-        <v>-121.482617</v>
+        <v>-121.65894728452</v>
       </c>
       <c r="V39" s="19" t="s">
         <v>446</v>
@@ -6849,9 +6907,9 @@
       <c r="G40" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="25" t="s">
         <v>32</v>
       </c>
@@ -6869,10 +6927,10 @@
         <v>454</v>
       </c>
       <c r="R40" s="14" t="n">
-        <v>48.892388</v>
+        <v>48.9713063265927</v>
       </c>
       <c r="S40" s="14" t="n">
-        <v>-123.675652</v>
+        <v>-123.660015052681</v>
       </c>
       <c r="V40" s="8" t="str">
         <f aca="false">A40</f>
@@ -6908,8 +6966,8 @@
       <c r="I41" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="25" t="s">
         <v>32</v>
       </c>
@@ -6925,10 +6983,10 @@
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="14" t="n">
-        <v>49.57071</v>
+        <v>49.2117251903373</v>
       </c>
       <c r="S41" s="14" t="n">
-        <v>-121.506875</v>
+        <v>-121.724435730428</v>
       </c>
       <c r="V41" s="8" t="str">
         <f aca="false">A41</f>
@@ -6956,9 +7014,9 @@
       <c r="G42" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="25" t="s">
         <v>32</v>
       </c>
@@ -6973,10 +7031,10 @@
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="14" t="n">
-        <v>49.205717</v>
+        <v>49.2361523125496</v>
       </c>
       <c r="S42" s="14" t="n">
-        <v>-122.910944</v>
+        <v>-123.024138032549</v>
       </c>
       <c r="T42" s="14" t="s">
         <v>472</v>
@@ -6989,7 +7047,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="67" t="s">
         <v>475</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -7011,13 +7069,13 @@
       <c r="H43" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="57" t="s">
         <v>177</v>
       </c>
       <c r="L43" s="25" t="s">
@@ -7037,10 +7095,10 @@
         <v>483</v>
       </c>
       <c r="R43" s="14" t="n">
-        <v>48.440888</v>
+        <v>48.3384365237503</v>
       </c>
       <c r="S43" s="14" t="n">
-        <v>-123.676887</v>
+        <v>-123.606675180898</v>
       </c>
       <c r="V43" s="8" t="s">
         <v>484</v>
@@ -7048,64 +7106,66 @@
       <c r="W43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="70" t="s">
         <v>490</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="48" t="s">
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="14" t="s">
+      <c r="N44" s="21"/>
+      <c r="O44" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="P44" s="13" t="s">
+      <c r="P44" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="Q44" s="16" t="s">
+      <c r="Q44" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="R44" s="14" t="n">
-        <v>49.25517</v>
-      </c>
-      <c r="S44" s="14" t="n">
-        <v>-121.964821</v>
-      </c>
-      <c r="V44" s="8" t="s">
+      <c r="R44" s="72" t="n">
+        <v>49.2360660445914</v>
+      </c>
+      <c r="S44" s="72" t="n">
+        <v>-122.002526922047</v>
+      </c>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="74" t="s">
         <v>485</v>
       </c>
-      <c r="W44" s="8" t="s">
+      <c r="W44" s="74" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="67" t="s">
         <v>496</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -7143,7 +7203,7 @@
         <v>505</v>
       </c>
       <c r="N45" s="16"/>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="75" t="s">
         <v>443</v>
       </c>
       <c r="P45" s="13" t="s">
@@ -7170,12 +7230,12 @@
         <v>508</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="48" t="s">
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="23" t="s">
@@ -7197,10 +7257,10 @@
         <v>178</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="O46" s="63" t="s">
+      <c r="O46" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="P46" s="64" t="s">
+      <c r="P46" s="79" t="s">
         <v>513</v>
       </c>
       <c r="Q46" s="17" t="s">
@@ -7248,9 +7308,9 @@
       <c r="I47" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="48" t="s">
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M47" s="0" t="s">
@@ -7279,7 +7339,7 @@
       <c r="W47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="80" t="s">
         <v>526</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -7295,7 +7355,7 @@
       <c r="F48" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="20" t="s">
@@ -7310,7 +7370,7 @@
       <c r="K48" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="L48" s="38" t="s">
+      <c r="L48" s="47" t="s">
         <v>32</v>
       </c>
       <c r="M48" s="16" t="s">
@@ -7336,7 +7396,7 @@
       <c r="W48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="67" t="s">
         <v>534</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -7349,8 +7409,8 @@
         <v>537</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="48" t="s">
+      <c r="F49" s="77"/>
+      <c r="G49" s="57" t="s">
         <v>538</v>
       </c>
       <c r="H49" s="23" t="s">
@@ -7362,17 +7422,17 @@
       <c r="J49" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="K49" s="66" t="s">
+      <c r="K49" s="81" t="s">
         <v>542</v>
       </c>
-      <c r="L49" s="67" t="s">
+      <c r="L49" s="82" t="s">
         <v>32</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>178</v>
       </c>
       <c r="N49" s="13"/>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P49" s="13" t="s">
@@ -7387,7 +7447,7 @@
       <c r="S49" s="14" t="n">
         <v>-121.484624</v>
       </c>
-      <c r="V49" s="68" t="s">
+      <c r="V49" s="83" t="s">
         <v>64</v>
       </c>
       <c r="W49" s="8" t="s">
@@ -7395,10 +7455,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="84" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="85" t="s">
         <v>547</v>
       </c>
       <c r="C50" s="20" t="s">
@@ -7426,17 +7486,17 @@
       <c r="K50" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="L50" s="71" t="s">
+      <c r="L50" s="86" t="s">
         <v>267</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>555</v>
       </c>
       <c r="N50" s="16"/>
-      <c r="O50" s="60" t="s">
+      <c r="O50" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="P50" s="72" t="s">
+      <c r="P50" s="87" t="s">
         <v>556</v>
       </c>
       <c r="Q50" s="17" t="s">
@@ -7456,10 +7516,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="88" t="s">
         <v>559</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="89" t="s">
         <v>560</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -7469,7 +7529,7 @@
         <v>562</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="62"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="20" t="s">
         <v>563</v>
       </c>
@@ -7487,7 +7547,7 @@
       <c r="O51" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="75" t="s">
+      <c r="P51" s="90" t="s">
         <v>564</v>
       </c>
       <c r="Q51" s="17" t="s">
@@ -7507,7 +7567,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="67" t="s">
         <v>567</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -7520,7 +7580,7 @@
         <v>570</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="91" t="s">
         <v>569</v>
       </c>
       <c r="G52" s="22" t="s">
@@ -7532,8 +7592,8 @@
       <c r="I52" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
       <c r="L52" s="25" t="s">
         <v>574</v>
       </c>
@@ -7544,7 +7604,7 @@
       <c r="O52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="63" t="s">
+      <c r="P52" s="78" t="s">
         <v>576</v>
       </c>
       <c r="Q52" s="17" t="s">
@@ -7580,13 +7640,13 @@
       <c r="F53" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="48" t="s">
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M53" s="16" t="s">
@@ -7631,19 +7691,19 @@
       <c r="F54" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="48" t="s">
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M54" s="48" t="s">
+      <c r="M54" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="N54" s="48"/>
+      <c r="N54" s="57"/>
       <c r="O54" s="14" t="s">
         <v>443</v>
       </c>
@@ -7657,10 +7717,10 @@
       <c r="S54" s="14" t="n">
         <v>-121.484624</v>
       </c>
-      <c r="V54" s="68" t="s">
+      <c r="V54" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="W54" s="68" t="s">
+      <c r="W54" s="83" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7684,10 +7744,10 @@
       <c r="G55" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="48" t="s">
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M55" s="16" t="s">
@@ -7733,12 +7793,12 @@
       <c r="F56" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
       <c r="L56" s="0" t="s">
         <v>32</v>
       </c>
@@ -7763,7 +7823,7 @@
       </c>
       <c r="V56" s="8" t="str">
         <f aca="false">A56</f>
-        <v>Shuswap Indian Band </v>
+        <v>Shuswap Indian Band</v>
       </c>
       <c r="W56" s="8" t="s">
         <v>611</v>
@@ -7786,10 +7846,10 @@
       <c r="F57" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="48" t="s">
+      <c r="L57" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M57" s="13" t="s">
@@ -7820,7 +7880,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="92" t="s">
         <v>620</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -7839,7 +7899,7 @@
       <c r="G58" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="L58" s="48" t="s">
+      <c r="L58" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M58" s="16" t="s">
@@ -7886,7 +7946,7 @@
       <c r="F59" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="G59" s="48" t="s">
+      <c r="G59" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="23" t="s">
@@ -7908,7 +7968,7 @@
         <v>636</v>
       </c>
       <c r="N59" s="13"/>
-      <c r="O59" s="78" t="s">
+      <c r="O59" s="93" t="s">
         <v>151</v>
       </c>
       <c r="P59" s="13" t="s">
@@ -7938,7 +7998,7 @@
       <c r="B60" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="64" t="s">
         <v>642</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -7951,10 +8011,10 @@
       <c r="G60" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="48" t="s">
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="57" t="s">
         <v>32</v>
       </c>
       <c r="M60" s="16" t="s">
@@ -7984,7 +8044,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="92" t="s">
         <v>648</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -8000,19 +8060,19 @@
       <c r="F61" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="G61" s="48" t="s">
+      <c r="G61" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="48" t="s">
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="55" t="s">
+      <c r="M61" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="N61" s="55"/>
+      <c r="N61" s="64"/>
       <c r="O61" s="14" t="s">
         <v>443</v>
       </c>
@@ -8034,7 +8094,7 @@
       <c r="W61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="94" t="s">
         <v>656</v>
       </c>
       <c r="B62" s="13" t="s">
@@ -8093,7 +8153,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="94" t="s">
         <v>669</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -8112,10 +8172,10 @@
       <c r="G63" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="H63" s="80"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="25" t="s">
         <v>32</v>
       </c>
@@ -8149,7 +8209,7 @@
       <c r="A64" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="57" t="s">
         <v>678</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -8162,7 +8222,7 @@
       <c r="F64" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="G64" s="48" t="s">
+      <c r="G64" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="13" t="s">
@@ -8177,14 +8237,14 @@
       <c r="K64" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="L64" s="66" t="s">
+      <c r="L64" s="81" t="s">
         <v>32</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>684</v>
       </c>
       <c r="N64" s="16"/>
-      <c r="O64" s="60" t="s">
+      <c r="O64" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P64" s="13" t="s">
@@ -8221,12 +8281,12 @@
       <c r="F65" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="G65" s="48" t="s">
+      <c r="G65" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
       <c r="L65" s="0" t="s">
         <v>32</v>
       </c>
@@ -8273,12 +8333,12 @@
       <c r="F66" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="G66" s="48" t="s">
+      <c r="G66" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
       <c r="L66" s="0" t="s">
         <v>32</v>
       </c>
@@ -8309,7 +8369,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="80" t="s">
         <v>707</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -8323,12 +8383,12 @@
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="48" t="s">
+      <c r="G67" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
       <c r="L67" s="0" t="s">
         <v>32</v>
       </c>
@@ -8336,7 +8396,7 @@
         <v>711</v>
       </c>
       <c r="N67" s="16"/>
-      <c r="O67" s="60" t="s">
+      <c r="O67" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P67" s="13" t="s">
@@ -8359,7 +8419,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="67" t="s">
         <v>715</v>
       </c>
       <c r="B68" s="23" t="s">
@@ -8375,7 +8435,7 @@
       <c r="F68" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="G68" s="48" t="s">
+      <c r="G68" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -8397,7 +8457,7 @@
         <v>721</v>
       </c>
       <c r="N68" s="16"/>
-      <c r="O68" s="60" t="s">
+      <c r="O68" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P68" s="20" t="s">
@@ -8437,10 +8497,10 @@
       <c r="G69" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
       <c r="L69" s="0" t="s">
         <v>32</v>
       </c>
@@ -8470,7 +8530,7 @@
       <c r="W69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="92" t="s">
         <v>733</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -8486,13 +8546,13 @@
       <c r="F70" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="G70" s="48" t="s">
+      <c r="G70" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
       <c r="L70" s="0" t="s">
         <v>32</v>
       </c>
@@ -8535,7 +8595,7 @@
       <c r="F71" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H71" s="23" t="s">
@@ -8557,7 +8617,7 @@
         <v>178</v>
       </c>
       <c r="N71" s="20"/>
-      <c r="O71" s="60" t="s">
+      <c r="O71" s="75" t="s">
         <v>452</v>
       </c>
       <c r="P71" s="13" t="s">
@@ -8580,7 +8640,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="94" t="s">
         <v>747</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -8596,7 +8656,7 @@
       <c r="F72" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="G72" s="48" t="s">
+      <c r="G72" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H72" s="23" t="s">
@@ -8611,12 +8671,12 @@
       <c r="K72" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="L72" s="81"/>
-      <c r="M72" s="60" t="s">
+      <c r="L72" s="96"/>
+      <c r="M72" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60" t="s">
+      <c r="N72" s="75"/>
+      <c r="O72" s="75" t="s">
         <v>753</v>
       </c>
       <c r="P72" s="13" t="s">
@@ -8655,7 +8715,7 @@
       <c r="F73" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G73" s="85" t="s">
         <v>762</v>
       </c>
       <c r="H73" s="13" t="s">
@@ -8675,7 +8735,7 @@
         <v>178</v>
       </c>
       <c r="N73" s="13"/>
-      <c r="O73" s="60" t="s">
+      <c r="O73" s="75" t="s">
         <v>766</v>
       </c>
       <c r="P73" s="13" t="s">
@@ -8702,7 +8762,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="58" t="s">
+      <c r="A74" s="67" t="s">
         <v>771</v>
       </c>
       <c r="B74" s="13" t="s">
@@ -8715,10 +8775,10 @@
         <v>774</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="97" t="s">
         <v>775</v>
       </c>
-      <c r="G74" s="74" t="s">
+      <c r="G74" s="89" t="s">
         <v>776</v>
       </c>
       <c r="H74" s="23" t="s">
@@ -8727,8 +8787,8 @@
       <c r="I74" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
       <c r="L74" s="25"/>
       <c r="M74" s="23" t="s">
         <v>779</v>
@@ -8772,15 +8832,15 @@
       <c r="G75" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13" t="s">
         <v>178</v>
       </c>
       <c r="N75" s="13"/>
-      <c r="O75" s="60" t="s">
+      <c r="O75" s="75" t="s">
         <v>753</v>
       </c>
       <c r="P75" s="13" t="s">
@@ -8803,7 +8863,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="77" t="s">
+      <c r="A76" s="92" t="s">
         <v>789</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -8820,15 +8880,15 @@
       <c r="G76" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
       <c r="M76" s="16" t="s">
         <v>793</v>
       </c>
       <c r="N76" s="16"/>
-      <c r="O76" s="60" t="s">
+      <c r="O76" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P76" s="13" t="s">
@@ -8887,7 +8947,7 @@
         <v>804</v>
       </c>
       <c r="N77" s="13"/>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="75" t="s">
         <v>805</v>
       </c>
       <c r="P77" s="13" t="s">
@@ -8930,7 +8990,7 @@
       <c r="F78" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="G78" s="48" t="s">
+      <c r="G78" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="23" t="s">
@@ -8950,7 +9010,7 @@
         <v>818</v>
       </c>
       <c r="N78" s="16"/>
-      <c r="O78" s="60" t="s">
+      <c r="O78" s="75" t="s">
         <v>753</v>
       </c>
       <c r="P78" s="13" t="s">
@@ -8983,14 +9043,14 @@
       <c r="C79" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="D79" s="83" t="s">
+      <c r="D79" s="98" t="s">
         <v>825</v>
       </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="84" t="s">
+      <c r="E79" s="98"/>
+      <c r="F79" s="99" t="s">
         <v>826</v>
       </c>
-      <c r="G79" s="48" t="s">
+      <c r="G79" s="57" t="s">
         <v>827</v>
       </c>
       <c r="H79" s="20" t="s">
@@ -8999,8 +9059,8 @@
       <c r="I79" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
       <c r="L79" s="13" t="s">
         <v>830</v>
       </c>
@@ -9008,7 +9068,7 @@
         <v>684</v>
       </c>
       <c r="N79" s="16"/>
-      <c r="O79" s="60" t="s">
+      <c r="O79" s="75" t="s">
         <v>35</v>
       </c>
       <c r="P79" s="13" t="s">
@@ -9049,9 +9109,9 @@
       <c r="G80" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
       <c r="M80" s="16" t="s">
         <v>48</v>
       </c>
@@ -9085,7 +9145,7 @@
       <c r="B81" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="100" t="s">
         <v>844</v>
       </c>
       <c r="D81" s="13" t="s">
@@ -9095,7 +9155,7 @@
       <c r="F81" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="G81" s="57" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="13" t="s">
@@ -9108,7 +9168,7 @@
         <v>848</v>
       </c>
       <c r="N81" s="16"/>
-      <c r="O81" s="60" t="s">
+      <c r="O81" s="75" t="s">
         <v>295</v>
       </c>
       <c r="P81" s="13" t="s">
@@ -9151,14 +9211,14 @@
       <c r="G82" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
       <c r="M82" s="16" t="s">
         <v>858</v>
       </c>
       <c r="N82" s="16"/>
-      <c r="O82" s="60"/>
+      <c r="O82" s="75"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="14" t="n">
@@ -9187,15 +9247,15 @@
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="48" t="s">
+      <c r="G83" s="57" t="s">
         <v>864</v>
       </c>
       <c r="H83" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
       <c r="L83" s="13"/>
       <c r="M83" s="16" t="s">
         <v>866</v>
@@ -9223,7 +9283,7 @@
       <c r="W83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="92" t="s">
         <v>869</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -9236,15 +9296,15 @@
         <v>872</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="86" t="s">
+      <c r="F84" s="69" t="s">
         <v>871</v>
       </c>
-      <c r="G84" s="48" t="s">
+      <c r="G84" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
       <c r="L84" s="13"/>
       <c r="M84" s="16" t="s">
         <v>873</v>
@@ -9299,8 +9359,8 @@
       <c r="I85" s="27" t="s">
         <v>884</v>
       </c>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
       <c r="L85" s="25"/>
       <c r="M85" s="16" t="s">
         <v>885</v>
@@ -9344,8 +9404,8 @@
       <c r="I86" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
       <c r="L86" s="25"/>
       <c r="M86" s="16" t="s">
         <v>885</v>
@@ -9379,15 +9439,15 @@
       <c r="G87" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
       <c r="L87" s="25"/>
       <c r="M87" s="16" t="s">
         <v>896</v>
       </c>
       <c r="N87" s="16"/>
-      <c r="O87" s="87"/>
+      <c r="O87" s="101"/>
       <c r="P87" s="13" t="s">
         <v>897</v>
       </c>
@@ -9426,9 +9486,9 @@
       <c r="G88" s="20" t="s">
         <v>904</v>
       </c>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
       <c r="M88" s="16" t="s">
         <v>48</v>
       </c>
@@ -9481,8 +9541,8 @@
       <c r="I89" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
       <c r="L89" s="0" t="s">
         <v>149</v>
       </c>
@@ -9507,7 +9567,7 @@
       </c>
       <c r="V89" s="8" t="str">
         <f aca="false">A89</f>
-        <v>Yale First Nation </v>
+        <v>Yale First Nation</v>
       </c>
       <c r="W89" s="8"/>
     </row>
@@ -9528,12 +9588,12 @@
       <c r="F90" s="28" t="s">
         <v>923</v>
       </c>
-      <c r="G90" s="48" t="s">
+      <c r="G90" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
       <c r="L90" s="0" t="s">
         <v>32</v>
       </c>
@@ -9563,23 +9623,23 @@
       <c r="W90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="88"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="90"/>
-      <c r="L91" s="90"/>
-      <c r="M91" s="90"/>
-      <c r="N91" s="90"/>
-      <c r="O91" s="90"/>
-      <c r="P91" s="89"/>
-      <c r="Q91" s="91"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="104"/>
+      <c r="H91" s="104"/>
+      <c r="I91" s="104"/>
+      <c r="J91" s="104"/>
+      <c r="K91" s="104"/>
+      <c r="L91" s="104"/>
+      <c r="M91" s="104"/>
+      <c r="N91" s="104"/>
+      <c r="O91" s="104"/>
+      <c r="P91" s="103"/>
+      <c r="Q91" s="105"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
@@ -9838,13 +9898,13 @@
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="106" t="s">
         <v>931</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="106" t="s">
         <v>932</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="107" t="s">
         <v>933</v>
       </c>
     </row>
@@ -9853,13 +9913,13 @@
         <f aca="false">'BC First Nations'!A3</f>
         <v>Adams Lake Indian Band (belongs to the Secwepemc Nation, member of the Shuswap Nation Triabal Council)</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="106" t="s">
         <v>934</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="108" t="s">
         <v>936</v>
       </c>
     </row>
@@ -9868,13 +9928,13 @@
         <f aca="false">'BC First Nations'!A4</f>
         <v>Aitchelitz Band</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="106" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9883,13 +9943,13 @@
         <f aca="false">'BC First Nations'!A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="106" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9898,13 +9958,13 @@
         <f aca="false">'BC First Nations'!A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="109" t="s">
         <v>938</v>
       </c>
     </row>
@@ -9913,13 +9973,13 @@
         <f aca="false">'BC First Nations'!A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="106" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9928,13 +9988,13 @@
         <f aca="false">'BC First Nations'!A8</f>
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="107" t="s">
         <v>937</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="106" t="s">
         <v>939</v>
       </c>
     </row>
@@ -9943,13 +10003,13 @@
         <f aca="false">'BC First Nations'!A9</f>
         <v>Chawathil First Nation</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="106" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9958,28 +10018,28 @@
         <f aca="false">'BC First Nations'!A10</f>
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="106" t="s">
         <v>940</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
         <f aca="false">'BC First Nations'!A11</f>
-        <v>Coldwater First Nation (Nc/etko - the people of the creeks)      </v>
-      </c>
-      <c r="B10" s="92" t="s">
+        <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
+      </c>
+      <c r="B10" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="106" t="s">
         <v>941</v>
       </c>
     </row>
@@ -9988,13 +10048,13 @@
         <f aca="false">'BC First Nations'!A12</f>
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="106" t="s">
         <v>942</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="106" t="s">
         <v>943</v>
       </c>
     </row>
@@ -10003,13 +10063,13 @@
         <f aca="false">'BC First Nations'!A13</f>
         <v>Cowichan Tribes</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="106" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10018,13 +10078,13 @@
         <f aca="false">'BC First Nations'!A14</f>
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="106" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10033,28 +10093,28 @@
         <f aca="false">'BC First Nations'!A15</f>
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="109" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">'BC First Nations'!A16</f>
-        <v>Halalt First Nation </v>
-      </c>
-      <c r="B15" s="92" t="s">
+        <v>Halalt First Nation</v>
+      </c>
+      <c r="B15" s="106" t="s">
         <v>946</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="106" t="s">
         <v>947</v>
       </c>
     </row>
@@ -10063,28 +10123,28 @@
         <f aca="false">'BC First Nations'!A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="106" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">'BC First Nations'!A18</f>
-        <v>Huu-ay-aht First Nation </v>
-      </c>
-      <c r="B17" s="92" t="s">
+        <v>Huu-ay-aht First Nation</v>
+      </c>
+      <c r="B17" s="106" t="s">
         <v>948</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="106" t="s">
         <v>949</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="106" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10093,13 +10153,13 @@
         <f aca="false">'BC First Nations'!A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="106" t="s">
         <v>951</v>
       </c>
     </row>
@@ -10108,28 +10168,28 @@
         <f aca="false">'BC First Nations'!A20</f>
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="106" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">'BC First Nations'!A21</f>
-        <v>Kwaw -Kwaw-Aplit First Nations </v>
-      </c>
-      <c r="B20" s="92" t="s">
+        <v>Kwaw -Kwaw-Aplit First Nations</v>
+      </c>
+      <c r="B20" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="106" t="s">
         <v>953</v>
       </c>
     </row>
@@ -10138,13 +10198,13 @@
         <f aca="false">'BC First Nations'!A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="106" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10153,13 +10213,13 @@
         <f aca="false">'BC First Nations'!A23</f>
         <v>Leq' a: mel First Nation</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="106" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="106" t="s">
         <v>268</v>
       </c>
     </row>
@@ -10168,13 +10228,13 @@
         <f aca="false">'BC First Nations'!A24</f>
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="106" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10183,13 +10243,13 @@
         <f aca="false">'BC First Nations'!A25</f>
         <v>Lheidli T'enneh First Nation</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="106" t="s">
         <v>294</v>
       </c>
     </row>
@@ -10198,13 +10258,13 @@
         <f aca="false">'BC First Nations'!A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="106" t="s">
         <v>308</v>
       </c>
     </row>
@@ -10213,13 +10273,13 @@
         <f aca="false">'BC First Nations'!A27</f>
         <v>Lower Nicola Indian Band -</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="106" t="s">
         <v>319</v>
       </c>
     </row>
@@ -10228,13 +10288,13 @@
         <f aca="false">'BC First Nations'!A28</f>
         <v>Lower Similkameen #598</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="106" t="s">
         <v>323</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="106" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10243,13 +10303,13 @@
         <f aca="false">'BC First Nations'!A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="106" t="s">
         <v>341</v>
       </c>
     </row>
@@ -10258,13 +10318,13 @@
         <f aca="false">'BC First Nations'!A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="106" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10273,13 +10333,13 @@
         <f aca="false">'BC First Nations'!A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="106" t="s">
         <v>362</v>
       </c>
     </row>
@@ -10288,13 +10348,13 @@
         <f aca="false">'BC First Nations'!A32</f>
         <v>Musqeam Indian Band</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="109" t="s">
         <v>954</v>
       </c>
     </row>
@@ -10303,13 +10363,13 @@
         <f aca="false">'BC First Nations'!A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="106" t="s">
         <v>384</v>
       </c>
     </row>
@@ -10318,13 +10378,13 @@
         <f aca="false">'BC First Nations'!A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="106" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10333,13 +10393,13 @@
         <f aca="false">'BC First Nations'!A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="106" t="s">
         <v>401</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="106" t="s">
         <v>406</v>
       </c>
     </row>
@@ -10348,13 +10408,13 @@
         <f aca="false">'BC First Nations'!A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="106" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10363,13 +10423,13 @@
         <f aca="false">'BC First Nations'!A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="106" t="s">
         <v>421</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="109" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10378,13 +10438,13 @@
         <f aca="false">'BC First Nations'!A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="106" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10393,13 +10453,13 @@
         <f aca="false">'BC First Nations'!A39</f>
         <v>Peters Band (Peters First Nation)</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="106" t="s">
         <v>437</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="106" t="s">
         <v>442</v>
       </c>
     </row>
@@ -10408,13 +10468,13 @@
         <f aca="false">'BC First Nations'!A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="106" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="106" t="s">
         <v>451</v>
       </c>
     </row>
@@ -10423,28 +10483,28 @@
         <f aca="false">'BC First Nations'!A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="106" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="106" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">'BC First Nations'!A42</f>
-        <v>Qayqayt First Nation (New Westminister) </v>
-      </c>
-      <c r="B41" s="92" t="s">
+        <v>Qayqayt First Nation (New Westminister)</v>
+      </c>
+      <c r="B41" s="106" t="s">
         <v>956</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="109" t="s">
         <v>957</v>
       </c>
     </row>
@@ -10453,13 +10513,13 @@
         <f aca="false">'BC First Nations'!A43</f>
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="106" t="s">
         <v>475</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="106" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10468,13 +10528,13 @@
         <f aca="false">'BC First Nations'!A44</f>
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="106" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="106" t="s">
         <v>958</v>
       </c>
     </row>
@@ -10483,13 +10543,13 @@
         <f aca="false">'BC First Nations'!A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="106" t="s">
         <v>496</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="106" t="s">
         <v>505</v>
       </c>
     </row>
@@ -10498,13 +10558,13 @@
         <f aca="false">'BC First Nations'!A46</f>
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="106" t="s">
         <v>507</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="109" t="s">
         <v>959</v>
       </c>
     </row>
@@ -10513,28 +10573,28 @@
         <f aca="false">'BC First Nations'!A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="106" t="s">
         <v>516</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="109" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="str">
         <f aca="false">'BC First Nations'!A49</f>
-        <v>Shackan Indian Band </v>
-      </c>
-      <c r="B47" s="92" t="s">
+        <v>Shackan Indian Band</v>
+      </c>
+      <c r="B47" s="106" t="s">
         <v>961</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D47" s="95" t="s">
+      <c r="D47" s="109" t="s">
         <v>962</v>
       </c>
     </row>
@@ -10543,13 +10603,13 @@
         <f aca="false">'BC First Nations'!A50</f>
         <v>Shxw'owhamel First Nation</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="106" t="s">
         <v>546</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="106" t="s">
         <v>555</v>
       </c>
     </row>
@@ -10558,13 +10618,13 @@
         <f aca="false">'BC First Nations'!A51</f>
         <v>Shxwha:y Villiage</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="106" t="s">
         <v>559</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="106" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10573,13 +10633,13 @@
         <f aca="false">'BC First Nations'!A52</f>
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="106" t="s">
         <v>578</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="106" t="s">
         <v>949</v>
       </c>
-      <c r="D50" s="92" t="s">
+      <c r="D50" s="106" t="s">
         <v>963</v>
       </c>
     </row>
@@ -10588,28 +10648,28 @@
         <f aca="false">'BC First Nations'!A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="106" t="s">
         <v>580</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="106" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="str">
         <f aca="false">'BC First Nations'!A54</f>
-        <v>Skuppah Indian Band </v>
-      </c>
-      <c r="B52" s="92" t="s">
+        <v>Skuppah Indian Band</v>
+      </c>
+      <c r="B52" s="106" t="s">
         <v>964</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="D52" s="109" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10618,28 +10678,28 @@
         <f aca="false">'BC First Nations'!A55</f>
         <v>Skowkale First Nation</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="C53" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D53" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">'BC First Nations'!A56</f>
-        <v>Shuswap Indian Band </v>
-      </c>
-      <c r="B54" s="92" t="s">
+        <v>Shuswap Indian Band</v>
+      </c>
+      <c r="B54" s="106" t="s">
         <v>965</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="106" t="s">
         <v>966</v>
       </c>
     </row>
@@ -10648,13 +10708,13 @@
         <f aca="false">'BC First Nations'!A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="106" t="s">
         <v>612</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D55" s="92" t="s">
+      <c r="D55" s="106" t="s">
         <v>967</v>
       </c>
     </row>
@@ -10663,13 +10723,13 @@
         <f aca="false">'BC First Nations'!A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="106" t="s">
         <v>620</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C56" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D56" s="106" t="s">
         <v>625</v>
       </c>
     </row>
@@ -10678,13 +10738,13 @@
         <f aca="false">'BC First Nations'!A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="106" t="s">
         <v>629</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="106" t="s">
         <v>968</v>
       </c>
     </row>
@@ -10693,13 +10753,13 @@
         <f aca="false">'BC First Nations'!A60</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="106" t="s">
         <v>640</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="106" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10708,13 +10768,13 @@
         <f aca="false">'BC First Nations'!A61</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="106" t="s">
         <v>648</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="109" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10723,13 +10783,13 @@
         <f aca="false">'BC First Nations'!A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="106" t="s">
         <v>667</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D60" s="92" t="s">
+      <c r="D60" s="106" t="s">
         <v>969</v>
       </c>
     </row>
@@ -10738,43 +10798,43 @@
         <f aca="false">'BC First Nations'!A63</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="106" t="s">
         <v>669</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="C61" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="str">
         <f aca="false">'BC First Nations'!A64</f>
-        <v>Stk'emlupsemc Te Secwepemc </v>
-      </c>
-      <c r="B62" s="92" t="s">
+        <v>Stk'emlupsemc Te Secwepemc</v>
+      </c>
+      <c r="B62" s="106" t="s">
         <v>970</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D62" s="92" t="s">
+      <c r="D62" s="106" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="str">
         <f aca="false">'BC First Nations'!A65</f>
-        <v>Sts'ailes Band (Chehalls Indian Band) </v>
-      </c>
-      <c r="B63" s="92" t="s">
+        <v>Sts'ailes Band (Chehalls Indian Band)</v>
+      </c>
+      <c r="B63" s="106" t="s">
         <v>695</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="C63" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D63" s="92" t="s">
+      <c r="D63" s="106" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10783,13 +10843,13 @@
         <f aca="false">'BC First Nations'!A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="106" t="s">
         <v>697</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D64" s="92" t="s">
+      <c r="D64" s="106" t="s">
         <v>702</v>
       </c>
     </row>
@@ -10798,13 +10858,13 @@
         <f aca="false">'BC First Nations'!A67</f>
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="106" t="s">
         <v>707</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="106" t="s">
         <v>711</v>
       </c>
     </row>
@@ -10813,13 +10873,13 @@
         <f aca="false">'BC First Nations'!A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="106" t="s">
         <v>724</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D66" s="92" t="s">
+      <c r="D66" s="106" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10828,13 +10888,13 @@
         <f aca="false">'BC First Nations'!A69</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="106" t="s">
         <v>725</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D67" s="92" t="s">
+      <c r="D67" s="106" t="s">
         <v>730</v>
       </c>
     </row>
@@ -10843,13 +10903,13 @@
         <f aca="false">'BC First Nations'!A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="106" t="s">
         <v>971</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D68" s="95" t="s">
+      <c r="D68" s="109" t="s">
         <v>972</v>
       </c>
     </row>
@@ -10858,13 +10918,13 @@
         <f aca="false">'BC First Nations'!A71</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="106" t="s">
         <v>738</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D69" s="95" t="s">
+      <c r="D69" s="109" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10873,13 +10933,13 @@
         <f aca="false">'BC First Nations'!A72</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="106" t="s">
         <v>747</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="C70" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D70" s="95" t="s">
+      <c r="D70" s="109" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10888,13 +10948,13 @@
         <f aca="false">'BC First Nations'!A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="106" t="s">
         <v>757</v>
       </c>
-      <c r="C71" s="92" t="s">
+      <c r="C71" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D71" s="95" t="s">
+      <c r="D71" s="109" t="s">
         <v>973</v>
       </c>
     </row>
@@ -10903,13 +10963,13 @@
         <f aca="false">'BC First Nations'!A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="106" t="s">
         <v>771</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D72" s="92" t="s">
+      <c r="D72" s="106" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10918,13 +10978,13 @@
         <f aca="false">'BC First Nations'!A75</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="106" t="s">
         <v>781</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D73" s="95" t="s">
+      <c r="D73" s="109" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10933,13 +10993,13 @@
         <f aca="false">'BC First Nations'!A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="106" t="s">
         <v>789</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D74" s="92" t="s">
+      <c r="D74" s="106" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10948,13 +11008,13 @@
         <f aca="false">'BC First Nations'!A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="106" t="s">
         <v>797</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D75" s="92" t="s">
+      <c r="D75" s="106" t="s">
         <v>974</v>
       </c>
     </row>
@@ -10963,13 +11023,13 @@
         <f aca="false">'BC First Nations'!A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="106" t="s">
         <v>810</v>
       </c>
-      <c r="C76" s="92" t="s">
+      <c r="C76" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D76" s="92" t="s">
+      <c r="D76" s="106" t="s">
         <v>818</v>
       </c>
     </row>
@@ -10978,13 +11038,13 @@
         <f aca="false">'BC First Nations'!A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="B77" s="92" t="s">
+      <c r="B77" s="106" t="s">
         <v>822</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D77" s="92" t="s">
+      <c r="D77" s="106" t="s">
         <v>684</v>
       </c>
     </row>
@@ -10993,13 +11053,13 @@
         <f aca="false">'BC First Nations'!A80</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="106" t="s">
         <v>833</v>
       </c>
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D78" s="92" t="s">
+      <c r="D78" s="106" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11008,13 +11068,13 @@
         <f aca="false">'BC First Nations'!A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="106" t="s">
         <v>842</v>
       </c>
-      <c r="C79" s="92" t="s">
+      <c r="C79" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D79" s="92" t="s">
+      <c r="D79" s="106" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11023,13 +11083,13 @@
         <f aca="false">'BC First Nations'!A82</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="106" t="s">
         <v>852</v>
       </c>
-      <c r="C80" s="92" t="s">
+      <c r="C80" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D80" s="92" t="s">
+      <c r="D80" s="106" t="s">
         <v>858</v>
       </c>
     </row>
@@ -11038,13 +11098,13 @@
         <f aca="false">'BC First Nations'!A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="106" t="s">
         <v>860</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D81" s="92" t="s">
+      <c r="D81" s="106" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11053,13 +11113,13 @@
         <f aca="false">'BC First Nations'!A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="B82" s="92" t="s">
+      <c r="B82" s="106" t="s">
         <v>869</v>
       </c>
-      <c r="C82" s="92" t="s">
+      <c r="C82" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D82" s="92" t="s">
+      <c r="D82" s="106" t="s">
         <v>873</v>
       </c>
     </row>
@@ -11068,13 +11128,13 @@
         <f aca="false">'BC First Nations'!A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="B83" s="92" t="s">
+      <c r="B83" s="106" t="s">
         <v>877</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D83" s="92" t="s">
+      <c r="D83" s="106" t="s">
         <v>885</v>
       </c>
     </row>
@@ -11083,13 +11143,13 @@
         <f aca="false">'BC First Nations'!A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="B84" s="106" t="s">
         <v>893</v>
       </c>
-      <c r="C84" s="92" t="s">
+      <c r="C84" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D84" s="92" t="s">
+      <c r="D84" s="106" t="s">
         <v>896</v>
       </c>
     </row>
@@ -11098,28 +11158,28 @@
         <f aca="false">'BC First Nations'!A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="106" t="s">
         <v>899</v>
       </c>
-      <c r="C85" s="92" t="s">
+      <c r="C85" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D85" s="92" t="s">
+      <c r="D85" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="str">
         <f aca="false">'BC First Nations'!A89</f>
-        <v>Yale First Nation </v>
-      </c>
-      <c r="B86" s="92" t="s">
+        <v>Yale First Nation</v>
+      </c>
+      <c r="B86" s="106" t="s">
         <v>975</v>
       </c>
-      <c r="C86" s="92" t="s">
+      <c r="C86" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D86" s="92" t="s">
+      <c r="D86" s="106" t="s">
         <v>916</v>
       </c>
     </row>
@@ -11128,21 +11188,21 @@
         <f aca="false">'BC First Nations'!A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="106" t="s">
         <v>976</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D87" s="92" t="s">
+      <c r="D87" s="106" t="s">
         <v>924</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="106"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11250,11 +11310,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -4142,7 +4142,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4415,108 +4415,132 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4667,8 +4691,8 @@
   </sheetPr>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K62" activeCellId="0" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7109,58 +7133,58 @@
       <c r="A44" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="36" t="s">
         <v>486</v>
       </c>
       <c r="C44" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="71" t="s">
         <v>490</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="26" t="s">
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="72" t="s">
+      <c r="N44" s="36"/>
+      <c r="O44" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="P44" s="28" t="s">
+      <c r="P44" s="39" t="s">
         <v>493</v>
       </c>
       <c r="Q44" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="R44" s="72" t="n">
+      <c r="R44" s="41" t="n">
         <v>49.2360660445914</v>
       </c>
-      <c r="S44" s="72" t="n">
+      <c r="S44" s="41" t="n">
         <v>-122.002526922047</v>
       </c>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="74" t="s">
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="W44" s="74" t="s">
+      <c r="W44" s="43" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7203,7 +7227,7 @@
         <v>505</v>
       </c>
       <c r="N45" s="16"/>
-      <c r="O45" s="75" t="s">
+      <c r="O45" s="72" t="s">
         <v>443</v>
       </c>
       <c r="P45" s="13" t="s">
@@ -7211,10 +7235,10 @@
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="14" t="n">
-        <v>49.262475</v>
+        <v>49.2554268901582</v>
       </c>
       <c r="S45" s="14" t="n">
-        <v>-121.724003</v>
+        <v>-121.73032797257</v>
       </c>
       <c r="V45" s="8" t="str">
         <f aca="false">A45</f>
@@ -7230,11 +7254,11 @@
         <v>508</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="57" t="s">
         <v>29</v>
       </c>
@@ -7257,10 +7281,10 @@
         <v>178</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="O46" s="78" t="s">
+      <c r="O46" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="P46" s="79" t="s">
+      <c r="P46" s="76" t="s">
         <v>513</v>
       </c>
       <c r="Q46" s="17" t="s">
@@ -7324,10 +7348,10 @@
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="14" t="n">
-        <v>49.012447</v>
+        <v>49.014781370754</v>
       </c>
       <c r="S47" s="14" t="n">
-        <v>-122.767315</v>
+        <v>-122.777801460853</v>
       </c>
       <c r="T47" s="14" t="s">
         <v>525</v>
@@ -7339,7 +7363,7 @@
       <c r="W47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="77" t="s">
         <v>526</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -7409,7 +7433,7 @@
         <v>537</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="77"/>
+      <c r="F49" s="74"/>
       <c r="G49" s="57" t="s">
         <v>538</v>
       </c>
@@ -7422,17 +7446,17 @@
       <c r="J49" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="K49" s="81" t="s">
+      <c r="K49" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="L49" s="82" t="s">
+      <c r="L49" s="79" t="s">
         <v>32</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>178</v>
       </c>
       <c r="N49" s="13"/>
-      <c r="O49" s="75" t="s">
+      <c r="O49" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P49" s="13" t="s">
@@ -7442,12 +7466,12 @@
         <v>544</v>
       </c>
       <c r="R49" s="14" t="n">
-        <v>49.963059</v>
+        <v>50.1106713966103</v>
       </c>
       <c r="S49" s="14" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="V49" s="83" t="s">
+        <v>-120.786988056089</v>
+      </c>
+      <c r="V49" s="80" t="s">
         <v>64</v>
       </c>
       <c r="W49" s="8" t="s">
@@ -7455,10 +7479,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="82" t="s">
         <v>547</v>
       </c>
       <c r="C50" s="20" t="s">
@@ -7486,27 +7510,27 @@
       <c r="K50" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="L50" s="86" t="s">
+      <c r="L50" s="83" t="s">
         <v>267</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>555</v>
       </c>
       <c r="N50" s="16"/>
-      <c r="O50" s="75" t="s">
+      <c r="O50" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="P50" s="87" t="s">
+      <c r="P50" s="84" t="s">
         <v>556</v>
       </c>
       <c r="Q50" s="17" t="s">
         <v>557</v>
       </c>
       <c r="R50" s="14" t="n">
-        <v>49.339668</v>
+        <v>49.3432137386584</v>
       </c>
       <c r="S50" s="14" t="n">
-        <v>-121.60638</v>
+        <v>-121.606714685116</v>
       </c>
       <c r="V50" s="8" t="s">
         <v>546</v>
@@ -7516,10 +7540,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="85" t="s">
         <v>559</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="86" t="s">
         <v>560</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -7529,7 +7553,7 @@
         <v>562</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="77"/>
+      <c r="F51" s="74"/>
       <c r="G51" s="20" t="s">
         <v>563</v>
       </c>
@@ -7547,17 +7571,17 @@
       <c r="O51" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="90" t="s">
+      <c r="P51" s="87" t="s">
         <v>564</v>
       </c>
       <c r="Q51" s="17" t="s">
         <v>565</v>
       </c>
       <c r="R51" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.168967426647</v>
       </c>
       <c r="S51" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.988777295383</v>
       </c>
       <c r="V51" s="8" t="s">
         <v>52</v>
@@ -7580,7 +7604,7 @@
         <v>570</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="91" t="s">
+      <c r="F52" s="88" t="s">
         <v>569</v>
       </c>
       <c r="G52" s="22" t="s">
@@ -7604,17 +7628,17 @@
       <c r="O52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="78" t="s">
+      <c r="P52" s="75" t="s">
         <v>576</v>
       </c>
       <c r="Q52" s="17" t="s">
         <v>577</v>
       </c>
       <c r="R52" s="14" t="n">
-        <v>52.634393</v>
+        <v>51.3173471888435</v>
       </c>
       <c r="S52" s="14" t="n">
-        <v>-119.699777</v>
+        <v>-120.149109431274</v>
       </c>
       <c r="V52" s="8" t="s">
         <v>578</v>
@@ -7661,10 +7685,10 @@
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="14" t="n">
-        <v>50.117565</v>
+        <v>50.1359622911795</v>
       </c>
       <c r="S53" s="14" t="n">
-        <v>-120.838519</v>
+        <v>-121.571694176221</v>
       </c>
       <c r="V53" s="8" t="str">
         <f aca="false">A53</f>
@@ -7712,15 +7736,15 @@
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="14" t="n">
-        <v>49.963059</v>
+        <v>50.1895586233887</v>
       </c>
       <c r="S54" s="14" t="n">
-        <v>-121.484624</v>
-      </c>
-      <c r="V54" s="83" t="s">
+        <v>-121.574218038587</v>
+      </c>
+      <c r="V54" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="W54" s="83" t="s">
+      <c r="W54" s="80" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7764,10 +7788,10 @@
         <v>601</v>
       </c>
       <c r="R55" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1345789702994</v>
       </c>
       <c r="S55" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.961353111655</v>
       </c>
       <c r="V55" s="8" t="s">
         <v>52</v>
@@ -7816,10 +7840,10 @@
         <v>610</v>
       </c>
       <c r="R56" s="14" t="n">
-        <v>50.367907</v>
+        <v>50.5179466722097</v>
       </c>
       <c r="S56" s="14" t="n">
-        <v>-116.89554</v>
+        <v>-116.010111899312</v>
       </c>
       <c r="V56" s="8" t="str">
         <f aca="false">A56</f>
@@ -7866,10 +7890,10 @@
         <v>618</v>
       </c>
       <c r="R57" s="14" t="n">
-        <v>49.227586</v>
+        <v>49.3569869309884</v>
       </c>
       <c r="S57" s="14" t="n">
-        <v>-122.174045</v>
+        <v>-121.606004780696</v>
       </c>
       <c r="V57" s="8" t="str">
         <f aca="false">A57</f>
@@ -7880,7 +7904,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="89" t="s">
         <v>620</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -7916,10 +7940,10 @@
         <v>627</v>
       </c>
       <c r="R58" s="14" t="n">
-        <v>49.175281</v>
+        <v>49.1774272241009</v>
       </c>
       <c r="S58" s="14" t="n">
-        <v>-121.977269</v>
+        <v>-121.972181975181</v>
       </c>
       <c r="V58" s="8" t="str">
         <f aca="false">A58</f>
@@ -7968,7 +7992,7 @@
         <v>636</v>
       </c>
       <c r="N59" s="13"/>
-      <c r="O59" s="93" t="s">
+      <c r="O59" s="90" t="s">
         <v>151</v>
       </c>
       <c r="P59" s="13" t="s">
@@ -7978,10 +8002,10 @@
         <v>638</v>
       </c>
       <c r="R59" s="14" t="n">
-        <v>49.107871</v>
+        <v>49.1518045385059</v>
       </c>
       <c r="S59" s="14" t="n">
-        <v>-124.120584</v>
+        <v>-123.930347230429</v>
       </c>
       <c r="V59" s="8" t="str">
         <f aca="false">A59</f>
@@ -8031,10 +8055,10 @@
         <v>646</v>
       </c>
       <c r="R60" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.0816878510316</v>
       </c>
       <c r="S60" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.969208835976</v>
       </c>
       <c r="V60" s="8" t="s">
         <v>52</v>
@@ -8044,7 +8068,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="89" t="s">
         <v>648</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -8083,10 +8107,10 @@
         <v>654</v>
       </c>
       <c r="R61" s="14" t="n">
-        <v>49.963059</v>
+        <v>49.6610890128954</v>
       </c>
       <c r="S61" s="14" t="n">
-        <v>-121.484624</v>
+        <v>-121.411724761085</v>
       </c>
       <c r="V61" s="8" t="s">
         <v>655</v>
@@ -8094,66 +8118,68 @@
       <c r="W61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="91" t="s">
         <v>656</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="92" t="s">
         <v>658</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="E62" s="13"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="93" t="s">
         <v>660</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="94" t="s">
         <v>661</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="93" t="s">
         <v>662</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="93" t="s">
         <v>662</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="93" t="s">
         <v>662</v>
       </c>
-      <c r="L62" s="25" t="s">
+      <c r="L62" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="N62" s="13"/>
-      <c r="O62" s="14" t="s">
+      <c r="N62" s="28"/>
+      <c r="O62" s="96" t="s">
         <v>664</v>
       </c>
-      <c r="P62" s="23" t="s">
+      <c r="P62" s="94" t="s">
         <v>665</v>
       </c>
-      <c r="Q62" s="17" t="s">
+      <c r="Q62" s="97" t="s">
         <v>666</v>
       </c>
-      <c r="R62" s="14" t="n">
-        <v>49.807197</v>
-      </c>
-      <c r="S62" s="14" t="n">
-        <v>-123.200082</v>
-      </c>
-      <c r="V62" s="8" t="s">
+      <c r="R62" s="96" t="n">
+        <v>49.6914766507096</v>
+      </c>
+      <c r="S62" s="96" t="n">
+        <v>-123.1477388186</v>
+      </c>
+      <c r="T62" s="98"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="99" t="s">
         <v>667</v>
       </c>
-      <c r="W62" s="8" t="s">
+      <c r="W62" s="99" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="94" t="s">
+      <c r="A63" s="100" t="s">
         <v>669</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -8172,7 +8198,7 @@
       <c r="G63" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="H63" s="95"/>
+      <c r="H63" s="101"/>
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -8237,14 +8263,14 @@
       <c r="K64" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="L64" s="81" t="s">
+      <c r="L64" s="78" t="s">
         <v>32</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>684</v>
       </c>
       <c r="N64" s="16"/>
-      <c r="O64" s="75" t="s">
+      <c r="O64" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P64" s="13" t="s">
@@ -8369,7 +8395,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="77" t="s">
         <v>707</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -8396,7 +8422,7 @@
         <v>711</v>
       </c>
       <c r="N67" s="16"/>
-      <c r="O67" s="75" t="s">
+      <c r="O67" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P67" s="13" t="s">
@@ -8457,7 +8483,7 @@
         <v>721</v>
       </c>
       <c r="N68" s="16"/>
-      <c r="O68" s="75" t="s">
+      <c r="O68" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P68" s="20" t="s">
@@ -8530,7 +8556,7 @@
       <c r="W69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="89" t="s">
         <v>733</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -8617,7 +8643,7 @@
         <v>178</v>
       </c>
       <c r="N71" s="20"/>
-      <c r="O71" s="75" t="s">
+      <c r="O71" s="72" t="s">
         <v>452</v>
       </c>
       <c r="P71" s="13" t="s">
@@ -8640,7 +8666,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="94" t="s">
+      <c r="A72" s="100" t="s">
         <v>747</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -8671,12 +8697,12 @@
       <c r="K72" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="L72" s="96"/>
-      <c r="M72" s="75" t="s">
+      <c r="L72" s="102"/>
+      <c r="M72" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75" t="s">
+      <c r="N72" s="72"/>
+      <c r="O72" s="72" t="s">
         <v>753</v>
       </c>
       <c r="P72" s="13" t="s">
@@ -8715,7 +8741,7 @@
       <c r="F73" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="G73" s="85" t="s">
+      <c r="G73" s="82" t="s">
         <v>762</v>
       </c>
       <c r="H73" s="13" t="s">
@@ -8735,7 +8761,7 @@
         <v>178</v>
       </c>
       <c r="N73" s="13"/>
-      <c r="O73" s="75" t="s">
+      <c r="O73" s="72" t="s">
         <v>766</v>
       </c>
       <c r="P73" s="13" t="s">
@@ -8775,10 +8801,10 @@
         <v>774</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="97" t="s">
+      <c r="F74" s="103" t="s">
         <v>775</v>
       </c>
-      <c r="G74" s="89" t="s">
+      <c r="G74" s="86" t="s">
         <v>776</v>
       </c>
       <c r="H74" s="23" t="s">
@@ -8840,7 +8866,7 @@
         <v>178</v>
       </c>
       <c r="N75" s="13"/>
-      <c r="O75" s="75" t="s">
+      <c r="O75" s="72" t="s">
         <v>753</v>
       </c>
       <c r="P75" s="13" t="s">
@@ -8863,7 +8889,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="89" t="s">
         <v>789</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -8888,7 +8914,7 @@
         <v>793</v>
       </c>
       <c r="N76" s="16"/>
-      <c r="O76" s="75" t="s">
+      <c r="O76" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P76" s="13" t="s">
@@ -8947,7 +8973,7 @@
         <v>804</v>
       </c>
       <c r="N77" s="13"/>
-      <c r="O77" s="75" t="s">
+      <c r="O77" s="72" t="s">
         <v>805</v>
       </c>
       <c r="P77" s="13" t="s">
@@ -9010,7 +9036,7 @@
         <v>818</v>
       </c>
       <c r="N78" s="16"/>
-      <c r="O78" s="75" t="s">
+      <c r="O78" s="72" t="s">
         <v>753</v>
       </c>
       <c r="P78" s="13" t="s">
@@ -9043,11 +9069,11 @@
       <c r="C79" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="104" t="s">
         <v>825</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="99" t="s">
+      <c r="E79" s="104"/>
+      <c r="F79" s="105" t="s">
         <v>826</v>
       </c>
       <c r="G79" s="57" t="s">
@@ -9068,7 +9094,7 @@
         <v>684</v>
       </c>
       <c r="N79" s="16"/>
-      <c r="O79" s="75" t="s">
+      <c r="O79" s="72" t="s">
         <v>35</v>
       </c>
       <c r="P79" s="13" t="s">
@@ -9145,7 +9171,7 @@
       <c r="B81" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="C81" s="106" t="s">
         <v>844</v>
       </c>
       <c r="D81" s="13" t="s">
@@ -9168,7 +9194,7 @@
         <v>848</v>
       </c>
       <c r="N81" s="16"/>
-      <c r="O81" s="75" t="s">
+      <c r="O81" s="72" t="s">
         <v>295</v>
       </c>
       <c r="P81" s="13" t="s">
@@ -9218,7 +9244,7 @@
         <v>858</v>
       </c>
       <c r="N82" s="16"/>
-      <c r="O82" s="75"/>
+      <c r="O82" s="72"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="14" t="n">
@@ -9283,7 +9309,7 @@
       <c r="W83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="89" t="s">
         <v>869</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -9296,7 +9322,7 @@
         <v>872</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="69" t="s">
+      <c r="F84" s="92" t="s">
         <v>871</v>
       </c>
       <c r="G84" s="57" t="s">
@@ -9447,7 +9473,7 @@
         <v>896</v>
       </c>
       <c r="N87" s="16"/>
-      <c r="O87" s="101"/>
+      <c r="O87" s="107"/>
       <c r="P87" s="13" t="s">
         <v>897</v>
       </c>
@@ -9623,23 +9649,23 @@
       <c r="W90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="102"/>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="104"/>
-      <c r="I91" s="104"/>
-      <c r="J91" s="104"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="104"/>
-      <c r="M91" s="104"/>
-      <c r="N91" s="104"/>
-      <c r="O91" s="104"/>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="105"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
+      <c r="I91" s="110"/>
+      <c r="J91" s="110"/>
+      <c r="K91" s="110"/>
+      <c r="L91" s="110"/>
+      <c r="M91" s="110"/>
+      <c r="N91" s="110"/>
+      <c r="O91" s="110"/>
+      <c r="P91" s="109"/>
+      <c r="Q91" s="111"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
@@ -9898,13 +9924,13 @@
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="112" t="s">
         <v>931</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="112" t="s">
         <v>932</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="113" t="s">
         <v>933</v>
       </c>
     </row>
@@ -9913,13 +9939,13 @@
         <f aca="false">'BC First Nations'!A3</f>
         <v>Adams Lake Indian Band (belongs to the Secwepemc Nation, member of the Shuswap Nation Triabal Council)</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="112" t="s">
         <v>934</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="114" t="s">
         <v>936</v>
       </c>
     </row>
@@ -9928,13 +9954,13 @@
         <f aca="false">'BC First Nations'!A4</f>
         <v>Aitchelitz Band</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9943,13 +9969,13 @@
         <f aca="false">'BC First Nations'!A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="112" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9958,13 +9984,13 @@
         <f aca="false">'BC First Nations'!A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="115" t="s">
         <v>938</v>
       </c>
     </row>
@@ -9973,13 +9999,13 @@
         <f aca="false">'BC First Nations'!A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="112" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9988,13 +10014,13 @@
         <f aca="false">'BC First Nations'!A8</f>
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="113" t="s">
         <v>937</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="112" t="s">
         <v>939</v>
       </c>
     </row>
@@ -10003,13 +10029,13 @@
         <f aca="false">'BC First Nations'!A9</f>
         <v>Chawathil First Nation</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="112" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10018,13 +10044,13 @@
         <f aca="false">'BC First Nations'!A10</f>
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="112" t="s">
         <v>940</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="112" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10033,13 +10059,13 @@
         <f aca="false">'BC First Nations'!A11</f>
         <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="112" t="s">
         <v>941</v>
       </c>
     </row>
@@ -10048,13 +10074,13 @@
         <f aca="false">'BC First Nations'!A12</f>
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="112" t="s">
         <v>942</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="112" t="s">
         <v>943</v>
       </c>
     </row>
@@ -10063,13 +10089,13 @@
         <f aca="false">'BC First Nations'!A13</f>
         <v>Cowichan Tribes</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="112" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10078,13 +10104,13 @@
         <f aca="false">'BC First Nations'!A14</f>
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="112" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10093,13 +10119,13 @@
         <f aca="false">'BC First Nations'!A15</f>
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="115" t="s">
         <v>945</v>
       </c>
     </row>
@@ -10108,13 +10134,13 @@
         <f aca="false">'BC First Nations'!A16</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="112" t="s">
         <v>946</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="112" t="s">
         <v>947</v>
       </c>
     </row>
@@ -10123,13 +10149,13 @@
         <f aca="false">'BC First Nations'!A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="112" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10138,13 +10164,13 @@
         <f aca="false">'BC First Nations'!A18</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="112" t="s">
         <v>948</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="112" t="s">
         <v>949</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="112" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10153,13 +10179,13 @@
         <f aca="false">'BC First Nations'!A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="112" t="s">
         <v>951</v>
       </c>
     </row>
@@ -10168,13 +10194,13 @@
         <f aca="false">'BC First Nations'!A20</f>
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="112" t="s">
         <v>952</v>
       </c>
     </row>
@@ -10183,13 +10209,13 @@
         <f aca="false">'BC First Nations'!A21</f>
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="112" t="s">
         <v>953</v>
       </c>
     </row>
@@ -10198,13 +10224,13 @@
         <f aca="false">'BC First Nations'!A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="112" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10213,13 +10239,13 @@
         <f aca="false">'BC First Nations'!A23</f>
         <v>Leq' a: mel First Nation</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="112" t="s">
         <v>268</v>
       </c>
     </row>
@@ -10228,13 +10254,13 @@
         <f aca="false">'BC First Nations'!A24</f>
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="112" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="112" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10243,13 +10269,13 @@
         <f aca="false">'BC First Nations'!A25</f>
         <v>Lheidli T'enneh First Nation</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="112" t="s">
         <v>294</v>
       </c>
     </row>
@@ -10258,13 +10284,13 @@
         <f aca="false">'BC First Nations'!A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="112" t="s">
         <v>308</v>
       </c>
     </row>
@@ -10273,13 +10299,13 @@
         <f aca="false">'BC First Nations'!A27</f>
         <v>Lower Nicola Indian Band -</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="112" t="s">
         <v>319</v>
       </c>
     </row>
@@ -10288,13 +10314,13 @@
         <f aca="false">'BC First Nations'!A28</f>
         <v>Lower Similkameen #598</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="112" t="s">
         <v>323</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="112" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10303,13 +10329,13 @@
         <f aca="false">'BC First Nations'!A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="112" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="112" t="s">
         <v>341</v>
       </c>
     </row>
@@ -10318,13 +10344,13 @@
         <f aca="false">'BC First Nations'!A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="112" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10333,13 +10359,13 @@
         <f aca="false">'BC First Nations'!A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="112" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="112" t="s">
         <v>362</v>
       </c>
     </row>
@@ -10348,13 +10374,13 @@
         <f aca="false">'BC First Nations'!A32</f>
         <v>Musqeam Indian Band</v>
       </c>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="112" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="115" t="s">
         <v>954</v>
       </c>
     </row>
@@ -10363,13 +10389,13 @@
         <f aca="false">'BC First Nations'!A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="112" t="s">
         <v>384</v>
       </c>
     </row>
@@ -10378,13 +10404,13 @@
         <f aca="false">'BC First Nations'!A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="B33" s="106" t="s">
+      <c r="B33" s="112" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="106" t="s">
+      <c r="C33" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="112" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10393,13 +10419,13 @@
         <f aca="false">'BC First Nations'!A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C34" s="106" t="s">
+      <c r="C34" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D34" s="106" t="s">
+      <c r="D34" s="112" t="s">
         <v>406</v>
       </c>
     </row>
@@ -10408,13 +10434,13 @@
         <f aca="false">'BC First Nations'!A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D35" s="112" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10423,13 +10449,13 @@
         <f aca="false">'BC First Nations'!A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="112" t="s">
         <v>421</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="115" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10438,13 +10464,13 @@
         <f aca="false">'BC First Nations'!A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="112" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10453,13 +10479,13 @@
         <f aca="false">'BC First Nations'!A39</f>
         <v>Peters Band (Peters First Nation)</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="D38" s="112" t="s">
         <v>442</v>
       </c>
     </row>
@@ -10468,13 +10494,13 @@
         <f aca="false">'BC First Nations'!A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="112" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D39" s="106" t="s">
+      <c r="D39" s="112" t="s">
         <v>451</v>
       </c>
     </row>
@@ -10483,13 +10509,13 @@
         <f aca="false">'BC First Nations'!A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="112" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C40" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D40" s="106" t="s">
+      <c r="D40" s="112" t="s">
         <v>463</v>
       </c>
     </row>
@@ -10498,13 +10524,13 @@
         <f aca="false">'BC First Nations'!A42</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="112" t="s">
         <v>956</v>
       </c>
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="115" t="s">
         <v>957</v>
       </c>
     </row>
@@ -10513,13 +10539,13 @@
         <f aca="false">'BC First Nations'!A43</f>
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="112" t="s">
         <v>475</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D42" s="106" t="s">
+      <c r="D42" s="112" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10528,13 +10554,13 @@
         <f aca="false">'BC First Nations'!A44</f>
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="112" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="112" t="s">
         <v>958</v>
       </c>
     </row>
@@ -10543,13 +10569,13 @@
         <f aca="false">'BC First Nations'!A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="112" t="s">
         <v>496</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D44" s="106" t="s">
+      <c r="D44" s="112" t="s">
         <v>505</v>
       </c>
     </row>
@@ -10558,13 +10584,13 @@
         <f aca="false">'BC First Nations'!A46</f>
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="115" t="s">
         <v>959</v>
       </c>
     </row>
@@ -10573,13 +10599,13 @@
         <f aca="false">'BC First Nations'!A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="B46" s="106" t="s">
+      <c r="B46" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C46" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D46" s="109" t="s">
+      <c r="D46" s="115" t="s">
         <v>960</v>
       </c>
     </row>
@@ -10588,13 +10614,13 @@
         <f aca="false">'BC First Nations'!A49</f>
         <v>Shackan Indian Band</v>
       </c>
-      <c r="B47" s="106" t="s">
+      <c r="B47" s="112" t="s">
         <v>961</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="115" t="s">
         <v>962</v>
       </c>
     </row>
@@ -10603,13 +10629,13 @@
         <f aca="false">'BC First Nations'!A50</f>
         <v>Shxw'owhamel First Nation</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="C48" s="106" t="s">
+      <c r="C48" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D48" s="112" t="s">
         <v>555</v>
       </c>
     </row>
@@ -10618,13 +10644,13 @@
         <f aca="false">'BC First Nations'!A51</f>
         <v>Shxwha:y Villiage</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="112" t="s">
         <v>559</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="D49" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10633,13 +10659,13 @@
         <f aca="false">'BC First Nations'!A52</f>
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="C50" s="106" t="s">
+      <c r="C50" s="112" t="s">
         <v>949</v>
       </c>
-      <c r="D50" s="106" t="s">
+      <c r="D50" s="112" t="s">
         <v>963</v>
       </c>
     </row>
@@ -10648,13 +10674,13 @@
         <f aca="false">'BC First Nations'!A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="112" t="s">
         <v>580</v>
       </c>
-      <c r="C51" s="106" t="s">
+      <c r="C51" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="D51" s="112" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10663,13 +10689,13 @@
         <f aca="false">'BC First Nations'!A54</f>
         <v>Skuppah Indian Band</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="112" t="s">
         <v>964</v>
       </c>
-      <c r="C52" s="106" t="s">
+      <c r="C52" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D52" s="109" t="s">
+      <c r="D52" s="115" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10678,13 +10704,13 @@
         <f aca="false">'BC First Nations'!A55</f>
         <v>Skowkale First Nation</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D53" s="106" t="s">
+      <c r="D53" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10693,13 +10719,13 @@
         <f aca="false">'BC First Nations'!A56</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="B54" s="106" t="s">
+      <c r="B54" s="112" t="s">
         <v>965</v>
       </c>
-      <c r="C54" s="106" t="s">
+      <c r="C54" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D54" s="106" t="s">
+      <c r="D54" s="112" t="s">
         <v>966</v>
       </c>
     </row>
@@ -10708,13 +10734,13 @@
         <f aca="false">'BC First Nations'!A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="112" t="s">
         <v>612</v>
       </c>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D55" s="106" t="s">
+      <c r="D55" s="112" t="s">
         <v>967</v>
       </c>
     </row>
@@ -10723,13 +10749,13 @@
         <f aca="false">'BC First Nations'!A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="112" t="s">
         <v>620</v>
       </c>
-      <c r="C56" s="106" t="s">
+      <c r="C56" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D56" s="106" t="s">
+      <c r="D56" s="112" t="s">
         <v>625</v>
       </c>
     </row>
@@ -10738,13 +10764,13 @@
         <f aca="false">'BC First Nations'!A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="112" t="s">
         <v>629</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D57" s="106" t="s">
+      <c r="D57" s="112" t="s">
         <v>968</v>
       </c>
     </row>
@@ -10753,13 +10779,13 @@
         <f aca="false">'BC First Nations'!A60</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="C58" s="106" t="s">
+      <c r="C58" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D58" s="106" t="s">
+      <c r="D58" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10768,13 +10794,13 @@
         <f aca="false">'BC First Nations'!A61</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="112" t="s">
         <v>648</v>
       </c>
-      <c r="C59" s="106" t="s">
+      <c r="C59" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="115" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10783,13 +10809,13 @@
         <f aca="false">'BC First Nations'!A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="B60" s="106" t="s">
+      <c r="B60" s="112" t="s">
         <v>667</v>
       </c>
-      <c r="C60" s="106" t="s">
+      <c r="C60" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D60" s="106" t="s">
+      <c r="D60" s="112" t="s">
         <v>969</v>
       </c>
     </row>
@@ -10798,13 +10824,13 @@
         <f aca="false">'BC First Nations'!A63</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="C61" s="106" t="s">
+      <c r="C61" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D61" s="106" t="s">
+      <c r="D61" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10813,13 +10839,13 @@
         <f aca="false">'BC First Nations'!A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="112" t="s">
         <v>970</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D62" s="106" t="s">
+      <c r="D62" s="112" t="s">
         <v>684</v>
       </c>
     </row>
@@ -10828,13 +10854,13 @@
         <f aca="false">'BC First Nations'!A65</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="112" t="s">
         <v>695</v>
       </c>
-      <c r="C63" s="106" t="s">
+      <c r="C63" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D63" s="106" t="s">
+      <c r="D63" s="112" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10843,13 +10869,13 @@
         <f aca="false">'BC First Nations'!A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D64" s="106" t="s">
+      <c r="D64" s="112" t="s">
         <v>702</v>
       </c>
     </row>
@@ -10858,13 +10884,13 @@
         <f aca="false">'BC First Nations'!A67</f>
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
-      <c r="B65" s="106" t="s">
+      <c r="B65" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D65" s="106" t="s">
+      <c r="D65" s="112" t="s">
         <v>711</v>
       </c>
     </row>
@@ -10873,13 +10899,13 @@
         <f aca="false">'BC First Nations'!A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="112" t="s">
         <v>724</v>
       </c>
-      <c r="C66" s="106" t="s">
+      <c r="C66" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D66" s="106" t="s">
+      <c r="D66" s="112" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10888,13 +10914,13 @@
         <f aca="false">'BC First Nations'!A69</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="112" t="s">
         <v>725</v>
       </c>
-      <c r="C67" s="106" t="s">
+      <c r="C67" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D67" s="106" t="s">
+      <c r="D67" s="112" t="s">
         <v>730</v>
       </c>
     </row>
@@ -10903,13 +10929,13 @@
         <f aca="false">'BC First Nations'!A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="B68" s="106" t="s">
+      <c r="B68" s="112" t="s">
         <v>971</v>
       </c>
-      <c r="C68" s="106" t="s">
+      <c r="C68" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D68" s="109" t="s">
+      <c r="D68" s="115" t="s">
         <v>972</v>
       </c>
     </row>
@@ -10918,13 +10944,13 @@
         <f aca="false">'BC First Nations'!A71</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="B69" s="106" t="s">
+      <c r="B69" s="112" t="s">
         <v>738</v>
       </c>
-      <c r="C69" s="106" t="s">
+      <c r="C69" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D69" s="109" t="s">
+      <c r="D69" s="115" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10933,13 +10959,13 @@
         <f aca="false">'BC First Nations'!A72</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="B70" s="106" t="s">
+      <c r="B70" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="C70" s="106" t="s">
+      <c r="C70" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D70" s="109" t="s">
+      <c r="D70" s="115" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10948,13 +10974,13 @@
         <f aca="false">'BC First Nations'!A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="B71" s="106" t="s">
+      <c r="B71" s="112" t="s">
         <v>757</v>
       </c>
-      <c r="C71" s="106" t="s">
+      <c r="C71" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D71" s="109" t="s">
+      <c r="D71" s="115" t="s">
         <v>973</v>
       </c>
     </row>
@@ -10963,13 +10989,13 @@
         <f aca="false">'BC First Nations'!A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="112" t="s">
         <v>771</v>
       </c>
-      <c r="C72" s="106" t="s">
+      <c r="C72" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D72" s="106" t="s">
+      <c r="D72" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10978,13 +11004,13 @@
         <f aca="false">'BC First Nations'!A75</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="112" t="s">
         <v>781</v>
       </c>
-      <c r="C73" s="106" t="s">
+      <c r="C73" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="D73" s="109" t="s">
+      <c r="D73" s="115" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10993,13 +11019,13 @@
         <f aca="false">'BC First Nations'!A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="B74" s="106" t="s">
+      <c r="B74" s="112" t="s">
         <v>789</v>
       </c>
-      <c r="C74" s="106" t="s">
+      <c r="C74" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D74" s="106" t="s">
+      <c r="D74" s="112" t="s">
         <v>793</v>
       </c>
     </row>
@@ -11008,13 +11034,13 @@
         <f aca="false">'BC First Nations'!A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="112" t="s">
         <v>797</v>
       </c>
-      <c r="C75" s="106" t="s">
+      <c r="C75" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D75" s="106" t="s">
+      <c r="D75" s="112" t="s">
         <v>974</v>
       </c>
     </row>
@@ -11023,13 +11049,13 @@
         <f aca="false">'BC First Nations'!A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="B76" s="106" t="s">
+      <c r="B76" s="112" t="s">
         <v>810</v>
       </c>
-      <c r="C76" s="106" t="s">
+      <c r="C76" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D76" s="106" t="s">
+      <c r="D76" s="112" t="s">
         <v>818</v>
       </c>
     </row>
@@ -11038,13 +11064,13 @@
         <f aca="false">'BC First Nations'!A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="B77" s="106" t="s">
+      <c r="B77" s="112" t="s">
         <v>822</v>
       </c>
-      <c r="C77" s="106" t="s">
+      <c r="C77" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D77" s="106" t="s">
+      <c r="D77" s="112" t="s">
         <v>684</v>
       </c>
     </row>
@@ -11053,13 +11079,13 @@
         <f aca="false">'BC First Nations'!A80</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="112" t="s">
         <v>833</v>
       </c>
-      <c r="C78" s="106" t="s">
+      <c r="C78" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D78" s="106" t="s">
+      <c r="D78" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11068,13 +11094,13 @@
         <f aca="false">'BC First Nations'!A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="B79" s="106" t="s">
+      <c r="B79" s="112" t="s">
         <v>842</v>
       </c>
-      <c r="C79" s="106" t="s">
+      <c r="C79" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D79" s="106" t="s">
+      <c r="D79" s="112" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11083,13 +11109,13 @@
         <f aca="false">'BC First Nations'!A82</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="B80" s="106" t="s">
+      <c r="B80" s="112" t="s">
         <v>852</v>
       </c>
-      <c r="C80" s="106" t="s">
+      <c r="C80" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D80" s="106" t="s">
+      <c r="D80" s="112" t="s">
         <v>858</v>
       </c>
     </row>
@@ -11098,13 +11124,13 @@
         <f aca="false">'BC First Nations'!A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="112" t="s">
         <v>860</v>
       </c>
-      <c r="C81" s="106" t="s">
+      <c r="C81" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D81" s="106" t="s">
+      <c r="D81" s="112" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11113,13 +11139,13 @@
         <f aca="false">'BC First Nations'!A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="B82" s="106" t="s">
+      <c r="B82" s="112" t="s">
         <v>869</v>
       </c>
-      <c r="C82" s="106" t="s">
+      <c r="C82" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D82" s="106" t="s">
+      <c r="D82" s="112" t="s">
         <v>873</v>
       </c>
     </row>
@@ -11128,13 +11154,13 @@
         <f aca="false">'BC First Nations'!A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="B83" s="106" t="s">
+      <c r="B83" s="112" t="s">
         <v>877</v>
       </c>
-      <c r="C83" s="106" t="s">
+      <c r="C83" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D83" s="106" t="s">
+      <c r="D83" s="112" t="s">
         <v>885</v>
       </c>
     </row>
@@ -11143,13 +11169,13 @@
         <f aca="false">'BC First Nations'!A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="112" t="s">
         <v>893</v>
       </c>
-      <c r="C84" s="106" t="s">
+      <c r="C84" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D84" s="106" t="s">
+      <c r="D84" s="112" t="s">
         <v>896</v>
       </c>
     </row>
@@ -11158,13 +11184,13 @@
         <f aca="false">'BC First Nations'!A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="B85" s="106" t="s">
+      <c r="B85" s="112" t="s">
         <v>899</v>
       </c>
-      <c r="C85" s="106" t="s">
+      <c r="C85" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D85" s="106" t="s">
+      <c r="D85" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11173,13 +11199,13 @@
         <f aca="false">'BC First Nations'!A89</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="B86" s="106" t="s">
+      <c r="B86" s="112" t="s">
         <v>975</v>
       </c>
-      <c r="C86" s="106" t="s">
+      <c r="C86" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D86" s="106" t="s">
+      <c r="D86" s="112" t="s">
         <v>916</v>
       </c>
     </row>
@@ -11188,21 +11214,21 @@
         <f aca="false">'BC First Nations'!A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="B87" s="106" t="s">
+      <c r="B87" s="112" t="s">
         <v>976</v>
       </c>
-      <c r="C87" s="106" t="s">
+      <c r="C87" s="112" t="s">
         <v>937</v>
       </c>
-      <c r="D87" s="106" t="s">
+      <c r="D87" s="112" t="s">
         <v>924</v>
       </c>
-      <c r="G87" s="106"/>
+      <c r="G87" s="112"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="106"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="972">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital id</t>
   </si>
   <si>
     <t xml:space="preserve">Show</t>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.adamslakeband.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secwepemc-secwepemcul-ewc</t>
   </si>
   <si>
     <t xml:space="preserve">Secwepmc of the Secwepmc Nation</t>
@@ -716,9 +710,6 @@
     <t xml:space="preserve">https://www.nitinaht.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">ditidaht</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ditidaht First Nation</t>
   </si>
   <si>
@@ -818,9 +809,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.heiltsuknation.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heiltsuk</t>
   </si>
   <si>
     <t xml:space="preserve">HAIL-tsuk</t>
@@ -913,9 +901,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">katzie</t>
-  </si>
-  <si>
     <t xml:space="preserve">KUT-zee</t>
   </si>
   <si>
@@ -956,9 +941,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.kwantlenfn.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwantlen</t>
   </si>
   <si>
     <t xml:space="preserve">Kwantlen First Nation</t>
@@ -1029,9 +1011,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://kwikwetlem.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwikwetlem</t>
   </si>
   <si>
     <t xml:space="preserve">Kway-quit-lum</t>
@@ -1627,9 +1606,6 @@
     <t xml:space="preserve">http://pacheedahtfirstnation.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">pacheedaht</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pah-chee-da</t>
   </si>
   <si>
@@ -1842,9 +1818,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">qayqayt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qayqayt_First_Nation</t>
   </si>
   <si>
@@ -2046,9 +2019,6 @@
 The Semiahmoo remain one of the smallest First Nations in the region with about 74 band members, of whom 40 live on Reserve. In fact, Semiahmoo has more non-Aboriginals living on its reserve than band members. As of 2003, the median age of the Semiahmoo population was 42.5 years: higher than the average for all people living on Indian Reserves in Greater Vancouver (which was 39.2 years).  Semiahmoo is the band government of the Semiahmoo people, a Coast Salish subgroup. The band's main community and offices are located on the 312 acres (1.3 km2) Semiahmoo Indian Reserve which is sandwiched between the boundary of White Rock, British Columbia and the Canada–United States boundary and Peace Arch Provincial Park.</t>
   </si>
   <si>
-    <t xml:space="preserve">semiahmoo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sexqeltqin (Adams Lake Indian Band)</t>
   </si>
   <si>
@@ -2895,9 +2865,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://tsawwassenfirstnation.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsawwassen</t>
   </si>
   <si>
     <t xml:space="preserve">Tah-WASS-en</t>
@@ -3099,9 +3066,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://twnation.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsleil-waututh-səl̓ilwətaɂɬ</t>
   </si>
   <si>
     <t xml:space="preserve">TSLAY-wah-tooth</t>
@@ -4142,7 +4106,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4283,35 +4247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4324,10 +4260,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4419,18 +4351,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4507,39 +4427,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4568,6 +4492,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4689,10 +4617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K62" activeCellId="0" sqref="K62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I81" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S90" activeCellId="0" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4708,7 +4636,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1005" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4777,65 +4705,62 @@
       <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="R3" s="18" t="n">
         <v>50.8291154794399</v>
@@ -4843,63 +4768,60 @@
       <c r="S3" s="14" t="n">
         <v>-119.7016527</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="I4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="N4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="23" t="s">
+      <c r="O4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="14" t="n">
         <v>49.1505413634721</v>
@@ -4907,54 +4829,54 @@
       <c r="S4" s="14" t="n">
         <v>-121.987290916937</v>
       </c>
+      <c r="U4" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="V4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="R5" s="14" t="n">
         <v>50.7203687204045</v>
@@ -4962,49 +4884,49 @@
       <c r="S5" s="14" t="n">
         <v>-121.319688819</v>
       </c>
-      <c r="V5" s="8" t="str">
+      <c r="U5" s="8" t="str">
         <f aca="false">A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="W5" s="8"/>
+      <c r="V5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R6" s="14" t="n">
         <v>49.9634982583732</v>
@@ -5012,48 +4934,48 @@
       <c r="S6" s="14" t="n">
         <v>-121.48397324949</v>
       </c>
-      <c r="V6" s="8" t="str">
+      <c r="U6" s="8" t="str">
         <f aca="false">A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="V6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="14" t="n">
@@ -5062,57 +4984,57 @@
       <c r="S7" s="14" t="n">
         <v>-121.440876627917</v>
       </c>
-      <c r="V7" s="8" t="str">
+      <c r="U7" s="8" t="str">
         <f aca="false">A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="V7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="P8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="Q8" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="R8" s="14" t="n">
         <v>51.7718379529271</v>
@@ -5120,58 +5042,58 @@
       <c r="S8" s="14" t="n">
         <v>-120.993991830686</v>
       </c>
-      <c r="V8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="W8" s="8"/>
+      <c r="U8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="I9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="K9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="R9" s="14" t="n">
         <v>49.3702501965451</v>
@@ -5179,60 +5101,60 @@
       <c r="S9" s="14" t="n">
         <v>-121.552140153971</v>
       </c>
+      <c r="U9" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="V9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="K10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="R10" s="14" t="n">
         <v>49.1897365395324</v>
@@ -5240,60 +5162,60 @@
       <c r="S10" s="14" t="n">
         <v>-121.784199584657</v>
       </c>
+      <c r="U10" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="V10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="D11" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="J11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R11" s="14" t="n">
         <v>50.027994</v>
@@ -5301,50 +5223,50 @@
       <c r="S11" s="14" t="n">
         <v>-120.41473</v>
       </c>
-      <c r="V11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="W11" s="8"/>
+      <c r="U11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="D12" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R12" s="14" t="n">
         <v>50.4227460817348</v>
@@ -5352,58 +5274,58 @@
       <c r="S12" s="14" t="n">
         <v>-121.345103566763</v>
       </c>
-      <c r="V12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="W12" s="8"/>
+      <c r="U12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="V12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="D13" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="J13" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="M13" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="R13" s="14" t="n">
         <v>48.7759494968352</v>
@@ -5411,60 +5333,60 @@
       <c r="S13" s="14" t="n">
         <v>-123.70948550892</v>
       </c>
+      <c r="U13" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="V13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="I14" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="K14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="L14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="R14" s="14" t="n">
         <v>48.8068671468874</v>
@@ -5472,63 +5394,60 @@
       <c r="S14" s="14" t="n">
         <v>-124.667070239226</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>169</v>
+      <c r="U14" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>177</v>
-      </c>
       <c r="J15" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R15" s="14" t="n">
         <v>48.4448905662452</v>
@@ -5536,51 +5455,51 @@
       <c r="S15" s="14" t="n">
         <v>-123.430239771178</v>
       </c>
+      <c r="U15" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="V15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R16" s="14" t="n">
         <v>48.8744822422848</v>
@@ -5588,57 +5507,57 @@
       <c r="S16" s="14" t="n">
         <v>-123.696290570467</v>
       </c>
-      <c r="V16" s="8" t="str">
+      <c r="U16" s="8" t="str">
         <f aca="false">A16</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="W16" s="8" t="s">
-        <v>191</v>
+      <c r="V16" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="34"/>
       <c r="G17" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N17" s="16"/>
       <c r="O17" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R17" s="14" t="n">
         <v>52.1625291742136</v>
@@ -5646,56 +5565,53 @@
       <c r="S17" s="14" t="n">
         <v>-128.144738642665</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="V17" s="8" t="str">
+      <c r="U17" s="8" t="str">
         <f aca="false">A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="W17" s="8" t="s">
-        <v>201</v>
+      <c r="V17" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R18" s="14" t="n">
         <v>48.8026460695892</v>
@@ -5703,118 +5619,114 @@
       <c r="S18" s="14" t="n">
         <v>-125.127619190205</v>
       </c>
+      <c r="U18" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="V18" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="D19" s="20" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="H19" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="37" t="s">
+      <c r="P19" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41" t="n">
+      <c r="Q19" s="17"/>
+      <c r="R19" s="14" t="n">
         <v>49.1861077501639</v>
       </c>
-      <c r="S19" s="41" t="n">
+      <c r="S19" s="14" t="n">
         <v>-122.695486242878</v>
       </c>
-      <c r="T19" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43" t="str">
+      <c r="U19" s="36" t="str">
         <f aca="false">A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="W19" s="43" t="s">
-        <v>222</v>
+      <c r="V19" s="36" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>232</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R20" s="14" t="n">
         <v>49.171628990299</v>
@@ -5822,49 +5734,46 @@
       <c r="S20" s="14" t="n">
         <v>-122.565426566965</v>
       </c>
-      <c r="T20" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="W20" s="8"/>
+      <c r="U20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>239</v>
+      <c r="A21" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47" t="s">
-        <v>32</v>
+        <v>237</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="14" t="n">
@@ -5873,51 +5782,51 @@
       <c r="S21" s="14" t="n">
         <v>-121.756432</v>
       </c>
+      <c r="U21" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="V21" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>250</v>
+      <c r="A22" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>244</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="49" t="s">
-        <v>32</v>
+        <v>247</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R22" s="14" t="n">
         <v>49.230208712611</v>
@@ -5925,60 +5834,57 @@
       <c r="S22" s="14" t="n">
         <v>-122.806119423045</v>
       </c>
-      <c r="T22" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="V22" s="8" t="str">
+      <c r="U22" s="8" t="str">
         <f aca="false">A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="W22" s="8" t="s">
-        <v>259</v>
+      <c r="V22" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
-        <v>260</v>
+      <c r="A23" s="44" t="s">
+        <v>253</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="21" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+        <v>259</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="R23" s="13" t="n">
         <v>49.2064434730953</v>
@@ -5986,60 +5892,60 @@
       <c r="S23" s="14" t="n">
         <v>-122.027744007433</v>
       </c>
+      <c r="U23" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="V23" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>274</v>
+      <c r="A24" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>267</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="R24" s="14" t="n">
         <v>50.8708388662502</v>
@@ -6047,56 +5953,56 @@
       <c r="S24" s="14" t="n">
         <v>-119.599497552904</v>
       </c>
-      <c r="V24" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="W24" s="8"/>
+      <c r="U24" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>286</v>
+      <c r="A25" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R25" s="14" t="n">
         <v>54.0088875710237</v>
@@ -6104,56 +6010,56 @@
       <c r="S25" s="14" t="n">
         <v>-122.614309870554</v>
       </c>
+      <c r="U25" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="V25" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="R26" s="14" t="n">
         <v>52.9551054413743</v>
@@ -6161,55 +6067,55 @@
       <c r="S26" s="14" t="n">
         <v>-122.450977710068</v>
       </c>
-      <c r="V26" s="8" t="str">
+      <c r="U26" s="8" t="str">
         <f aca="false">A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="W26" s="8"/>
+      <c r="V26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
+        <v>310</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R27" s="14" t="n">
         <v>50.1390924737866</v>
@@ -6217,46 +6123,46 @@
       <c r="S27" s="14" t="n">
         <v>-120.862534877965</v>
       </c>
-      <c r="V27" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="W27" s="8"/>
+      <c r="U27" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56" t="s">
-        <v>323</v>
+      <c r="A28" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="57"/>
+        <v>318</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="49"/>
       <c r="F28" s="21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
-      <c r="L28" s="47" t="s">
-        <v>32</v>
+      <c r="L28" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="14" t="n">
@@ -6265,60 +6171,60 @@
       <c r="S28" s="14" t="n">
         <v>-119.724028514332</v>
       </c>
+      <c r="U28" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="V28" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="W28" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58" t="s">
-        <v>333</v>
+      <c r="A29" s="50" t="s">
+        <v>326</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>32</v>
+        <v>332</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>31</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="R29" s="14" t="n">
         <v>49.1149186382442</v>
@@ -6326,61 +6232,61 @@
       <c r="S29" s="14" t="n">
         <v>-119.724028514332</v>
       </c>
-      <c r="V29" s="8" t="str">
+      <c r="U29" s="8" t="str">
         <f aca="false">A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="W29" s="8" t="s">
-        <v>344</v>
+      <c r="V29" s="8" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="49.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q30" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="R30" s="14" t="n">
         <v>48.6145785901937</v>
@@ -6388,50 +6294,50 @@
       <c r="S30" s="14" t="n">
         <v>-123.520458277224</v>
       </c>
-      <c r="V30" s="8" t="str">
+      <c r="U30" s="8" t="str">
         <f aca="false">A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="W30" s="8" t="s">
-        <v>355</v>
+      <c r="V30" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62" t="s">
-        <v>356</v>
+      <c r="A31" s="54" t="s">
+        <v>349</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="N31" s="16"/>
-      <c r="O31" s="50" t="s">
-        <v>255</v>
+      <c r="O31" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="14" t="n">
@@ -6440,61 +6346,61 @@
       <c r="S31" s="14" t="n">
         <v>-122.3423931218</v>
       </c>
-      <c r="V31" s="8" t="str">
+      <c r="U31" s="8" t="str">
         <f aca="false">A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="W31" s="8" t="s">
-        <v>364</v>
+      <c r="V31" s="8" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>366</v>
+        <v>358</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>359</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>29</v>
+        <v>362</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="O32" s="50" t="s">
-        <v>233</v>
+      <c r="O32" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="R32" s="14" t="n">
         <v>49.2249998356386</v>
@@ -6502,60 +6408,60 @@
       <c r="S32" s="14" t="n">
         <v>-123.199062838371</v>
       </c>
+      <c r="U32" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="V32" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>29</v>
+        <v>373</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="R33" s="14" t="n">
         <v>50.7743341531046</v>
@@ -6563,61 +6469,61 @@
       <c r="S33" s="14" t="n">
         <v>-119.717236920099</v>
       </c>
-      <c r="V33" s="8" t="str">
+      <c r="U33" s="8" t="str">
         <f aca="false">A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="W33" s="8" t="s">
-        <v>387</v>
+      <c r="V33" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>382</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="21" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="R34" s="14" t="n">
         <v>50.1540952465102</v>
@@ -6625,51 +6531,51 @@
       <c r="S34" s="14" t="n">
         <v>-121.037387988603</v>
       </c>
-      <c r="V34" s="8" t="str">
+      <c r="U34" s="8" t="str">
         <f aca="false">A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="W34" s="8" t="s">
-        <v>400</v>
+      <c r="V34" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="65" t="s">
-        <v>401</v>
+      <c r="A35" s="57" t="s">
+        <v>394</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="66"/>
+        <v>396</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N35" s="16"/>
       <c r="O35" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="R35" s="14" t="n">
         <v>49.1838485514573</v>
@@ -6677,61 +6583,61 @@
       <c r="S35" s="14" t="n">
         <v>-119.53315191045</v>
       </c>
-      <c r="V35" s="8" t="str">
+      <c r="U35" s="8" t="str">
         <f aca="false">A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="W35" s="8" t="s">
-        <v>409</v>
+      <c r="V35" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="G36" s="57" t="s">
         <v>405</v>
       </c>
+      <c r="G36" s="49" t="s">
+        <v>398</v>
+      </c>
       <c r="H36" s="13" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="N36" s="16"/>
       <c r="O36" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="R36" s="14" t="n">
         <v>48.5776249603665</v>
@@ -6739,61 +6645,58 @@
       <c r="S36" s="14" t="n">
         <v>-124.408374183131</v>
       </c>
-      <c r="T36" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="V36" s="8" t="str">
+      <c r="U36" s="8" t="str">
         <f aca="false">A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="W36" s="8" t="s">
-        <v>420</v>
+      <c r="V36" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>405</v>
+        <v>417</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>398</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="K37" s="57" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>174</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="14" t="n">
@@ -6802,52 +6705,52 @@
       <c r="S37" s="14" t="n">
         <v>-123.458324726602</v>
       </c>
-      <c r="V37" s="8" t="str">
+      <c r="U37" s="8" t="str">
         <f aca="false">A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="W37" s="8" t="s">
-        <v>428</v>
+      <c r="V37" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
+        <v>425</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
       <c r="L38" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="R38" s="14" t="n">
         <v>49.4919586000844</v>
@@ -6855,50 +6758,50 @@
       <c r="S38" s="14" t="n">
         <v>-119.64469346526</v>
       </c>
-      <c r="V38" s="8" t="str">
+      <c r="U38" s="8" t="str">
         <f aca="false">A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="W38" s="8"/>
+      <c r="V38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
+        <v>433</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
       <c r="L39" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N39" s="16"/>
       <c r="O39" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="R39" s="14" t="n">
         <v>49.301445389115</v>
@@ -6906,49 +6809,49 @@
       <c r="S39" s="14" t="n">
         <v>-121.65894728452</v>
       </c>
-      <c r="V39" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="W39" s="19"/>
+      <c r="U39" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="V39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="21" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
       <c r="L40" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N40" s="16"/>
       <c r="O40" s="14" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="R40" s="14" t="n">
         <v>48.9713063265927</v>
@@ -6956,54 +6859,54 @@
       <c r="S40" s="14" t="n">
         <v>-123.660015052681</v>
       </c>
-      <c r="V40" s="8" t="str">
+      <c r="U40" s="8" t="str">
         <f aca="false">A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="W40" s="8" t="s">
-        <v>455</v>
+      <c r="V40" s="8" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="21" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+        <v>454</v>
+      </c>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="N41" s="16"/>
       <c r="O41" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="14" t="n">
@@ -7012,46 +6915,46 @@
       <c r="S41" s="14" t="n">
         <v>-121.724435730428</v>
       </c>
-      <c r="V41" s="8" t="str">
+      <c r="U41" s="8" t="str">
         <f aca="false">A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="W41" s="8"/>
+      <c r="V41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="21" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
+        <v>461</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
       <c r="L42" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="14" t="n">
@@ -7060,63 +6963,60 @@
       <c r="S42" s="14" t="n">
         <v>-123.024138032549</v>
       </c>
-      <c r="T42" s="14" t="s">
-        <v>472</v>
+      <c r="U42" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="W42" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="67" t="s">
-        <v>475</v>
+      <c r="A43" s="59" t="s">
+        <v>466</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="21" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="K43" s="57" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>174</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="N43" s="16"/>
       <c r="O43" s="14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="R43" s="14" t="n">
         <v>48.3384365237503</v>
@@ -7124,114 +7024,112 @@
       <c r="S43" s="14" t="n">
         <v>-123.606675180898</v>
       </c>
-      <c r="V43" s="8" t="s">
+      <c r="U43" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="N44" s="20"/>
+      <c r="O44" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="P44" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="W43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="68" t="s">
+      <c r="Q44" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="R44" s="14" t="n">
+        <v>49.2360660445914</v>
+      </c>
+      <c r="S44" s="14" t="n">
+        <v>-122.002526922047</v>
+      </c>
+      <c r="U44" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="V44" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="C44" s="69" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="B45" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36" t="s">
+      <c r="C45" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="G44" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="71" t="s">
+      <c r="D45" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="P44" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q44" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="R44" s="41" t="n">
-        <v>49.2360660445914</v>
-      </c>
-      <c r="S44" s="41" t="n">
-        <v>-122.002526922047</v>
-      </c>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="W44" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>499</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="21" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N45" s="16"/>
-      <c r="O45" s="72" t="s">
-        <v>443</v>
+      <c r="O45" s="61" t="s">
+        <v>435</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="14" t="n">
@@ -7240,55 +7138,55 @@
       <c r="S45" s="14" t="n">
         <v>-121.73032797257</v>
       </c>
-      <c r="V45" s="8" t="str">
+      <c r="U45" s="8" t="str">
         <f aca="false">A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="W45" s="8"/>
+      <c r="V45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="66.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="73" t="s">
-        <v>509</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="57" t="s">
-        <v>29</v>
+      <c r="D46" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="O46" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="P46" s="76" t="s">
-        <v>513</v>
+      <c r="O46" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="65" t="s">
+        <v>504</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="R46" s="18" t="n">
         <v>51.527017</v>
@@ -7296,55 +7194,52 @@
       <c r="S46" s="14" t="n">
         <v>-120.076953</v>
       </c>
-      <c r="T46" s="14" t="s">
-        <v>38</v>
+      <c r="U46" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="21" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="57" t="s">
-        <v>32</v>
+        <v>513</v>
+      </c>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="14" t="n">
@@ -7353,117 +7248,113 @@
       <c r="S47" s="14" t="n">
         <v>-122.777801460853</v>
       </c>
-      <c r="T47" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="V47" s="8" t="str">
+      <c r="U47" s="8" t="str">
         <f aca="false">A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="W47" s="14"/>
+      <c r="V47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="77" t="s">
-        <v>526</v>
+      <c r="A48" s="66" t="s">
+        <v>516</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="H48" s="20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="L48" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="N48" s="16"/>
       <c r="O48" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="0" t="s">
+      <c r="T48" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="U48" s="8"/>
+      <c r="V48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="K49" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L49" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="V48" s="8"/>
-      <c r="W48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="67" t="s">
+      <c r="Q49" s="17" t="s">
         <v>534</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="K49" s="78" t="s">
-        <v>542</v>
-      </c>
-      <c r="L49" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="R49" s="14" t="n">
         <v>50.1106713966103</v>
@@ -7471,60 +7362,60 @@
       <c r="S49" s="14" t="n">
         <v>-120.786988056089</v>
       </c>
-      <c r="V49" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="W49" s="8" t="s">
-        <v>545</v>
+      <c r="U49" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="81" t="s">
-        <v>546</v>
-      </c>
-      <c r="B50" s="82" t="s">
-        <v>547</v>
+      <c r="A50" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>537</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="21" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="L50" s="83" t="s">
-        <v>267</v>
+        <v>544</v>
+      </c>
+      <c r="L50" s="72" t="s">
+        <v>260</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N50" s="16"/>
-      <c r="O50" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="P50" s="84" t="s">
-        <v>556</v>
+      <c r="O50" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="P50" s="73" t="s">
+        <v>546</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="R50" s="14" t="n">
         <v>49.3432137386584</v>
@@ -7532,50 +7423,50 @@
       <c r="S50" s="14" t="n">
         <v>-121.606714685116</v>
       </c>
+      <c r="U50" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="V50" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="W50" s="8" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="85" t="s">
-        <v>559</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>560</v>
+      <c r="A51" s="74" t="s">
+        <v>549</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>550</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="74"/>
+      <c r="F51" s="63"/>
       <c r="G51" s="20" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="25" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N51" s="16"/>
       <c r="O51" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P51" s="87" t="s">
-        <v>564</v>
+        <v>47</v>
+      </c>
+      <c r="P51" s="76" t="s">
+        <v>554</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="R51" s="14" t="n">
         <v>49.168967426647</v>
@@ -7583,56 +7474,56 @@
       <c r="S51" s="14" t="n">
         <v>-121.988777295383</v>
       </c>
+      <c r="U51" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="V51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W51" s="8" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="67" t="s">
-        <v>567</v>
+      <c r="A52" s="59" t="s">
+        <v>557</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="88" t="s">
-        <v>569</v>
+      <c r="F52" s="77" t="s">
+        <v>559</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
+        <v>563</v>
+      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
       <c r="L52" s="25" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="75" t="s">
-        <v>576</v>
+        <v>34</v>
+      </c>
+      <c r="P52" s="64" t="s">
+        <v>566</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="R52" s="14" t="n">
         <v>51.3173471888435</v>
@@ -7640,48 +7531,48 @@
       <c r="S52" s="14" t="n">
         <v>-120.149109431274</v>
       </c>
+      <c r="U52" s="8" t="s">
+        <v>568</v>
+      </c>
       <c r="V52" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="W52" s="8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="27" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="G53" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="57" t="s">
-        <v>32</v>
+        <v>574</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="N53" s="16"/>
       <c r="O53" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="14" t="n">
@@ -7690,49 +7581,49 @@
       <c r="S53" s="14" t="n">
         <v>-121.571694176221</v>
       </c>
-      <c r="V53" s="8" t="str">
+      <c r="U53" s="8" t="str">
         <f aca="false">A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="W53" s="8" t="s">
-        <v>587</v>
+      <c r="V53" s="8" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="27" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="G54" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="N54" s="57"/>
+        <v>580</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N54" s="49"/>
       <c r="O54" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="14" t="n">
@@ -7741,51 +7632,51 @@
       <c r="S54" s="14" t="n">
         <v>-121.574218038587</v>
       </c>
-      <c r="V54" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="W54" s="80" t="s">
-        <v>593</v>
+      <c r="U54" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="V54" s="69" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="27" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="21" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="57" t="s">
-        <v>32</v>
+        <v>589</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="R55" s="14" t="n">
         <v>49.1345789702994</v>
@@ -7793,51 +7684,51 @@
       <c r="S55" s="14" t="n">
         <v>-121.961353111655</v>
       </c>
+      <c r="U55" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="V55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W55" s="8" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="G56" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
+        <v>597</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="N56" s="13"/>
       <c r="O56" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="R56" s="14" t="n">
         <v>50.5179466722097</v>
@@ -7845,49 +7736,49 @@
       <c r="S56" s="14" t="n">
         <v>-116.010111899312</v>
       </c>
-      <c r="V56" s="8" t="str">
+      <c r="U56" s="8" t="str">
         <f aca="false">A56</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="W56" s="8" t="s">
-        <v>611</v>
+      <c r="V56" s="8" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="G57" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="57" t="s">
-        <v>32</v>
+        <v>604</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="N57" s="13"/>
       <c r="O57" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="Q57" s="17" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="R57" s="14" t="n">
         <v>49.3569869309884</v>
@@ -7895,49 +7786,49 @@
       <c r="S57" s="14" t="n">
         <v>-121.606004780696</v>
       </c>
-      <c r="V57" s="8" t="str">
+      <c r="U57" s="8" t="str">
         <f aca="false">A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="W57" s="8" t="s">
-        <v>619</v>
+      <c r="V57" s="8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="89" t="s">
-        <v>620</v>
+      <c r="A58" s="78" t="s">
+        <v>610</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="28" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="L58" s="57" t="s">
-        <v>32</v>
+        <v>614</v>
+      </c>
+      <c r="L58" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="N58" s="16"/>
       <c r="O58" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="R58" s="14" t="n">
         <v>49.1774272241009</v>
@@ -7945,61 +7836,61 @@
       <c r="S58" s="14" t="n">
         <v>-121.972181975181</v>
       </c>
-      <c r="V58" s="8" t="str">
+      <c r="U58" s="8" t="str">
         <f aca="false">A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="W58" s="8" t="s">
-        <v>628</v>
+      <c r="V58" s="8" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="51.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="G59" s="57" t="s">
-        <v>29</v>
+        <v>621</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="N59" s="13"/>
-      <c r="O59" s="90" t="s">
-        <v>151</v>
+      <c r="O59" s="79" t="s">
+        <v>149</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="R59" s="14" t="n">
         <v>49.1518045385059</v>
@@ -8007,52 +7898,52 @@
       <c r="S59" s="14" t="n">
         <v>-123.930347230429</v>
       </c>
-      <c r="V59" s="8" t="str">
+      <c r="U59" s="8" t="str">
         <f aca="false">A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="W59" s="8" t="s">
-        <v>639</v>
+      <c r="V59" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>642</v>
+        <v>631</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>632</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="34" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="57" t="s">
-        <v>32</v>
+        <v>634</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N60" s="16"/>
       <c r="O60" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="R60" s="14" t="n">
         <v>49.0816878510316</v>
@@ -8060,51 +7951,51 @@
       <c r="S60" s="14" t="n">
         <v>-121.969208835976</v>
       </c>
+      <c r="U60" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="V60" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W60" s="8" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="89" t="s">
-        <v>648</v>
+      <c r="A61" s="78" t="s">
+        <v>638</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="G61" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="N61" s="64"/>
+        <v>642</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="N61" s="56"/>
       <c r="O61" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="R61" s="14" t="n">
         <v>49.6610890128954</v>
@@ -8112,1309 +8003,1302 @@
       <c r="S61" s="14" t="n">
         <v>-121.411724761085</v>
       </c>
-      <c r="V61" s="8" t="s">
+      <c r="U61" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="V61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>647</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>648</v>
+      </c>
+      <c r="D62" s="81" t="s">
+        <v>649</v>
+      </c>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="83" t="s">
+        <v>650</v>
+      </c>
+      <c r="H62" s="84" t="s">
+        <v>651</v>
+      </c>
+      <c r="I62" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="J62" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="K62" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L62" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="81" t="s">
+        <v>653</v>
+      </c>
+      <c r="N62" s="81"/>
+      <c r="O62" s="86" t="s">
+        <v>654</v>
+      </c>
+      <c r="P62" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="W61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="91" t="s">
+      <c r="Q62" s="87" t="s">
         <v>656</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="R62" s="86" t="n">
+        <v>49.6914766507096</v>
+      </c>
+      <c r="S62" s="86" t="n">
+        <v>-123.1477388186</v>
+      </c>
+      <c r="T62" s="88"/>
+      <c r="U62" s="89" t="s">
         <v>657</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="V62" s="89" t="s">
         <v>658</v>
       </c>
-      <c r="D62" s="28" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="90" t="s">
         <v>659</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="93" t="s">
+      <c r="B63" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="H62" s="94" t="s">
+      <c r="C63" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="I62" s="93" t="s">
+      <c r="D63" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="J62" s="93" t="s">
-        <v>662</v>
-      </c>
-      <c r="K62" s="93" t="s">
-        <v>662</v>
-      </c>
-      <c r="L62" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>663</v>
-      </c>
-      <c r="N62" s="28"/>
-      <c r="O62" s="96" t="s">
-        <v>664</v>
-      </c>
-      <c r="P62" s="94" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q62" s="97" t="s">
-        <v>666</v>
-      </c>
-      <c r="R62" s="96" t="n">
-        <v>49.6914766507096</v>
-      </c>
-      <c r="S62" s="96" t="n">
-        <v>-123.1477388186</v>
-      </c>
-      <c r="T62" s="98"/>
-      <c r="U62" s="98"/>
-      <c r="V62" s="99" t="s">
-        <v>667</v>
-      </c>
-      <c r="W62" s="99" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="100" t="s">
-        <v>669</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>672</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="28" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H63" s="101"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
+        <v>663</v>
+      </c>
+      <c r="H63" s="91"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
       <c r="L63" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N63" s="16"/>
       <c r="O63" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="R63" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1579770858803</v>
       </c>
       <c r="S63" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.979314018021</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W63" s="8" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>678</v>
+        <v>667</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>668</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="G64" s="57" t="s">
-        <v>29</v>
+        <v>671</v>
+      </c>
+      <c r="G64" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="L64" s="78" t="s">
-        <v>32</v>
+        <v>673</v>
+      </c>
+      <c r="L64" s="67" t="s">
+        <v>31</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="N64" s="16"/>
-      <c r="O64" s="72" t="s">
-        <v>35</v>
+      <c r="O64" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="Q64" s="17" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="R64" s="14" t="n">
-        <v>51.341443</v>
+        <v>50.6787168617533</v>
       </c>
       <c r="S64" s="14" t="n">
-        <v>-121.166411</v>
-      </c>
-      <c r="V64" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="W64" s="8"/>
+        <v>-120.293936272672</v>
+      </c>
+      <c r="U64" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="V64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="G65" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
+        <v>680</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
       <c r="L65" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M65" s="16" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="N65" s="16"/>
       <c r="O65" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q65" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="R65" s="14" t="n">
-        <v>49.293578</v>
+        <v>49.2987744576525</v>
       </c>
       <c r="S65" s="14" t="n">
-        <v>-121.910722</v>
+        <v>-121.914310445736</v>
+      </c>
+      <c r="U65" s="8" t="s">
+        <v>685</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="W65" s="8" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="27" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="G66" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="G66" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="L66" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M66" s="16" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="N66" s="16"/>
       <c r="O66" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="Q66" s="17" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="R66" s="14" t="n">
-        <v>51.586232</v>
+        <v>51.5887998908904</v>
       </c>
       <c r="S66" s="14" t="n">
-        <v>-122.204957</v>
+        <v>-122.211838980564</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="W66" s="8" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="77" t="s">
-        <v>707</v>
+      <c r="A67" s="66" t="s">
+        <v>697</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
+      <c r="G67" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
       <c r="L67" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="N67" s="16"/>
-      <c r="O67" s="72" t="s">
-        <v>35</v>
+      <c r="O67" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="R67" s="14" t="n">
-        <v>50.839863</v>
+        <v>50.839925472231</v>
       </c>
       <c r="S67" s="14" t="n">
-        <v>-121.372183</v>
+        <v>-121.383061638833</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>697</v>
       </c>
       <c r="V67" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="W67" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>716</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>717</v>
-      </c>
       <c r="D68" s="13" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>29</v>
+        <v>707</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="L68" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M68" s="16" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="N68" s="16"/>
-      <c r="O68" s="72" t="s">
-        <v>35</v>
+      <c r="O68" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="P68" s="20" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="R68" s="14" t="n">
-        <v>48.846385</v>
+        <v>49.0180825744824</v>
       </c>
       <c r="S68" s="14" t="n">
-        <v>-123.630268</v>
-      </c>
-      <c r="V68" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="W68" s="8"/>
+        <v>-123.848222425164</v>
+      </c>
+      <c r="U68" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="V68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="28" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
+        <v>719</v>
+      </c>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
       <c r="L69" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M69" s="16" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N69" s="16"/>
       <c r="O69" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="R69" s="14" t="n">
-        <v>49.052587</v>
+        <v>49.0592379078578</v>
       </c>
       <c r="S69" s="14" t="n">
-        <v>-122.193538</v>
-      </c>
-      <c r="V69" s="8" t="str">
+        <v>-122.197096026466</v>
+      </c>
+      <c r="U69" s="8" t="str">
         <f aca="false">A69</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="W69" s="8"/>
+      <c r="V69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="89" t="s">
-        <v>733</v>
+      <c r="A70" s="78" t="s">
+        <v>723</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="28" t="s">
-        <v>735</v>
-      </c>
-      <c r="G70" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
+        <v>725</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
       <c r="L70" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="14" t="n">
-        <v>52.195501</v>
+        <v>51.9307829381749</v>
       </c>
       <c r="S70" s="14" t="n">
-        <v>-123.798415</v>
-      </c>
-      <c r="V70" s="8" t="str">
+        <v>-122.50170874741</v>
+      </c>
+      <c r="U70" s="8" t="str">
         <f aca="false">A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="W70" s="8"/>
+      <c r="V70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="58.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N71" s="20"/>
+      <c r="O71" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q71" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="R71" s="14" t="n">
+        <v>48.5812380431493</v>
+      </c>
+      <c r="S71" s="14" t="n">
+        <v>-123.467329943895</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="90" t="s">
+        <v>737</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="G71" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>742</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="L71" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="N71" s="20"/>
-      <c r="O71" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q71" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="R71" s="14" t="n">
-        <v>48.724102</v>
-      </c>
-      <c r="S71" s="14" t="n">
-        <v>-123.324246</v>
-      </c>
-      <c r="V71" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W71" s="8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="100" t="s">
-        <v>747</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>750</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="28" t="s">
-        <v>749</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>29</v>
+        <v>739</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="L72" s="102"/>
-      <c r="M72" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72" t="s">
-        <v>753</v>
+        <v>742</v>
+      </c>
+      <c r="L72" s="92"/>
+      <c r="M72" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61" t="s">
+        <v>743</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="R72" s="14" t="n">
-        <v>48.724102</v>
+        <v>48.5926496098211</v>
       </c>
       <c r="S72" s="14" t="n">
-        <v>-123.324246</v>
+        <v>-123.39101237273</v>
+      </c>
+      <c r="U72" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W72" s="8" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="19" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G73" s="82" t="s">
-        <v>762</v>
+        <v>751</v>
+      </c>
+      <c r="G73" s="71" t="s">
+        <v>752</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N73" s="13"/>
-      <c r="O73" s="72" t="s">
-        <v>766</v>
+      <c r="O73" s="61" t="s">
+        <v>756</v>
       </c>
       <c r="P73" s="13" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="R73" s="14" t="n">
-        <v>49.042909</v>
+        <v>49.041892363689</v>
       </c>
       <c r="S73" s="14" t="n">
-        <v>-123.094409</v>
-      </c>
-      <c r="T73" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="V73" s="8" t="str">
+        <v>-123.100423857341</v>
+      </c>
+      <c r="U73" s="8" t="str">
         <f aca="false">A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="W73" s="8" t="s">
-        <v>770</v>
+      <c r="V73" s="8" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="67" t="s">
-        <v>771</v>
+      <c r="A74" s="59" t="s">
+        <v>760</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="103" t="s">
-        <v>775</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>776</v>
+      <c r="F74" s="93" t="s">
+        <v>764</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>765</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>778</v>
-      </c>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
+        <v>767</v>
+      </c>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
       <c r="L74" s="25"/>
       <c r="M74" s="23" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="N74" s="23"/>
       <c r="O74" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="Q74" s="17"/>
       <c r="R74" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1343701943321</v>
       </c>
       <c r="S74" s="14" t="n">
-        <v>-121.829723</v>
-      </c>
-      <c r="V74" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W74" s="8"/>
+        <v>-121.961396621635</v>
+      </c>
+      <c r="U74" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="30" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="28" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N75" s="13"/>
-      <c r="O75" s="72" t="s">
-        <v>753</v>
+      <c r="O75" s="61" t="s">
+        <v>743</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="Q75" s="17" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="R75" s="14" t="n">
-        <v>48.724102</v>
+        <v>48.6658641030369</v>
       </c>
       <c r="S75" s="14" t="n">
-        <v>-123.324246</v>
+        <v>-123.452087527585</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W75" s="8" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="89" t="s">
-        <v>789</v>
+      <c r="A76" s="78" t="s">
+        <v>778</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="28"/>
       <c r="G76" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
       <c r="M76" s="16" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="N76" s="16"/>
-      <c r="O76" s="72" t="s">
-        <v>35</v>
+      <c r="O76" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="P76" s="13" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="Q76" s="14"/>
       <c r="R76" s="14" t="n">
-        <v>50.883097</v>
+        <v>50.8867083286859</v>
       </c>
       <c r="S76" s="14" t="n">
-        <v>-121.842308</v>
+        <v>-121.819084681575</v>
+      </c>
+      <c r="U76" s="8" t="s">
+        <v>784</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="W76" s="8" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="19" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="28" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="N77" s="13"/>
-      <c r="O77" s="72" t="s">
-        <v>805</v>
+      <c r="O77" s="61" t="s">
+        <v>794</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="Q77" s="17" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="R77" s="14" t="n">
-        <v>49.309839</v>
+        <v>49.3106882562567</v>
       </c>
       <c r="S77" s="14" t="n">
-        <v>-122.980478</v>
-      </c>
-      <c r="T77" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="V77" s="8" t="str">
+        <v>-122.98782352142</v>
+      </c>
+      <c r="U77" s="8" t="str">
         <f aca="false">A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="W77" s="8" t="s">
-        <v>809</v>
+      <c r="V77" s="8" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="64.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="21" t="s">
-        <v>814</v>
-      </c>
-      <c r="G78" s="57" t="s">
-        <v>29</v>
+        <v>802</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="16" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="N78" s="16"/>
-      <c r="O78" s="72" t="s">
-        <v>753</v>
+      <c r="O78" s="61" t="s">
+        <v>743</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="Q78" s="17" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="R78" s="14" t="n">
-        <v>48.385518</v>
+        <v>48.3848134379789</v>
       </c>
       <c r="S78" s="14" t="n">
-        <v>-123.696567</v>
-      </c>
-      <c r="V78" s="8" t="str">
+        <v>-123.697626207473</v>
+      </c>
+      <c r="U78" s="8" t="str">
         <f aca="false">A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="W78" s="8" t="s">
-        <v>821</v>
+      <c r="V78" s="8" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="D79" s="104" t="s">
-        <v>825</v>
-      </c>
-      <c r="E79" s="104"/>
-      <c r="F79" s="105" t="s">
-        <v>826</v>
-      </c>
-      <c r="G79" s="57" t="s">
-        <v>827</v>
+        <v>812</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>813</v>
+      </c>
+      <c r="E79" s="94"/>
+      <c r="F79" s="95" t="s">
+        <v>814</v>
+      </c>
+      <c r="G79" s="49" t="s">
+        <v>815</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
+        <v>817</v>
+      </c>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
       <c r="L79" s="13" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="M79" s="16" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="N79" s="16"/>
-      <c r="O79" s="72" t="s">
-        <v>35</v>
+      <c r="O79" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="P79" s="13" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="R79" s="14" t="n">
-        <v>50.678844</v>
+        <v>50.6792473485263</v>
       </c>
       <c r="S79" s="14" t="n">
-        <v>-120.294529</v>
-      </c>
-      <c r="V79" s="8" t="str">
+        <v>-120.294621272672</v>
+      </c>
+      <c r="U79" s="8" t="str">
         <f aca="false">A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="W79" s="8"/>
+      <c r="V79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="30" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="28" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
+        <v>826</v>
+      </c>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
       <c r="M80" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N80" s="16"/>
       <c r="O80" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P80" s="13" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="R80" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1120532179506</v>
       </c>
       <c r="S80" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.954268771589</v>
+      </c>
+      <c r="U80" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="V80" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W80" s="8" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>843</v>
-      </c>
-      <c r="C81" s="106" t="s">
-        <v>844</v>
+        <v>831</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>832</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="G81" s="57" t="s">
-        <v>29</v>
+        <v>834</v>
+      </c>
+      <c r="G81" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="M81" s="16" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="N81" s="16"/>
-      <c r="O81" s="72" t="s">
-        <v>295</v>
+      <c r="O81" s="61" t="s">
+        <v>288</v>
       </c>
       <c r="P81" s="13" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="R81" s="14" t="n">
-        <v>52.475488</v>
+        <v>52.4671800310513</v>
       </c>
       <c r="S81" s="14" t="n">
-        <v>-125.301018</v>
-      </c>
-      <c r="V81" s="8" t="str">
+        <v>-125.30742428114</v>
+      </c>
+      <c r="U81" s="8" t="str">
         <f aca="false">A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="W81" s="8" t="s">
-        <v>851</v>
+      <c r="V81" s="8" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="30" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="28" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
+        <v>845</v>
+      </c>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
       <c r="M82" s="16" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="N82" s="16"/>
-      <c r="O82" s="72"/>
+      <c r="O82" s="61"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="14" t="n">
-        <v>49.210913</v>
+        <v>49.4425424994321</v>
       </c>
       <c r="S82" s="14" t="n">
-        <v>-121.240262</v>
-      </c>
-      <c r="V82" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="W82" s="30"/>
+        <v>-121.434395357366</v>
+      </c>
+      <c r="U82" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="V82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="30" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="57" t="s">
-        <v>864</v>
+      <c r="G83" s="49" t="s">
+        <v>852</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
+        <v>853</v>
+      </c>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
       <c r="L83" s="13"/>
       <c r="M83" s="16" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="N83" s="16"/>
       <c r="O83" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P83" s="13" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="Q83" s="17" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="R83" s="14" t="n">
-        <v>50.167239</v>
+        <v>50.1423444929001</v>
       </c>
       <c r="S83" s="14" t="n">
-        <v>-120.283533</v>
-      </c>
-      <c r="V83" s="8" t="str">
+        <v>-120.282543145319</v>
+      </c>
+      <c r="U83" s="8" t="str">
         <f aca="false">A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="W83" s="8"/>
+      <c r="V83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="89" t="s">
-        <v>869</v>
+      <c r="A84" s="78" t="s">
+        <v>857</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="92" t="s">
-        <v>871</v>
-      </c>
-      <c r="G84" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
+      <c r="F84" s="97" t="s">
+        <v>859</v>
+      </c>
+      <c r="G84" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="13"/>
       <c r="M84" s="16" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="N84" s="16"/>
       <c r="O84" s="13" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="P84" s="13" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="R84" s="14" t="n">
-        <v>49.462883</v>
+        <v>49.4627433054704</v>
       </c>
       <c r="S84" s="14" t="n">
-        <v>-120.50172</v>
-      </c>
-      <c r="V84" s="8" t="str">
+        <v>-120.501028984415</v>
+      </c>
+      <c r="U84" s="8" t="str">
         <f aca="false">A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="W84" s="8" t="s">
-        <v>332</v>
+      <c r="V84" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="28" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>884</v>
-      </c>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
+        <v>872</v>
+      </c>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
       <c r="L85" s="25"/>
       <c r="M85" s="16" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="N85" s="16"/>
       <c r="O85" s="14" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="Q85" s="17" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="R85" s="14" t="n">
-        <v>51.194286</v>
+        <v>50.9878321927206</v>
       </c>
       <c r="S85" s="14" t="n">
-        <v>-121.613314</v>
-      </c>
-      <c r="V85" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="W85" s="8"/>
+        <v>-120.240614762968</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="V85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="54.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -9422,254 +9306,254 @@
       <c r="E86" s="13"/>
       <c r="F86" s="28"/>
       <c r="G86" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>892</v>
-      </c>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
+        <v>880</v>
+      </c>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
       <c r="L86" s="25"/>
       <c r="M86" s="16" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="N86" s="16"/>
       <c r="O86" s="14" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="Q86" s="17"/>
       <c r="R86" s="14"/>
       <c r="S86" s="14"/>
-      <c r="U86" s="0" t="s">
-        <v>533</v>
-      </c>
+      <c r="T86" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="U86" s="8"/>
       <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="19" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="28"/>
       <c r="G87" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
       <c r="L87" s="25"/>
       <c r="M87" s="16" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="N87" s="16"/>
-      <c r="O87" s="107"/>
+      <c r="O87" s="98"/>
       <c r="P87" s="13" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="Q87" s="17" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="R87" s="14" t="n">
-        <v>52.10532</v>
+        <v>52.1182174677631</v>
       </c>
       <c r="S87" s="14" t="n">
-        <v>-121.9905</v>
-      </c>
-      <c r="V87" s="8" t="str">
+        <v>-122.017871502251</v>
+      </c>
+      <c r="U87" s="8" t="str">
         <f aca="false">A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="W87" s="8"/>
+      <c r="V87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="30" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="28" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
+        <v>892</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
       <c r="M88" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N88" s="16"/>
       <c r="O88" s="14" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="R88" s="14" t="n">
-        <v>49.087557</v>
+        <v>49.1325101806424</v>
       </c>
       <c r="S88" s="14" t="n">
-        <v>-121.829723</v>
+        <v>-121.939260303743</v>
+      </c>
+      <c r="U88" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="V88" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W88" s="8" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="30" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="28" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
+        <v>903</v>
+      </c>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
       <c r="L89" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M89" s="16" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="N89" s="16"/>
       <c r="O89" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P89" s="13" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="R89" s="14" t="n">
-        <v>49.492718</v>
+        <v>49.5620043702777</v>
       </c>
       <c r="S89" s="14" t="n">
-        <v>-121.423097</v>
-      </c>
-      <c r="V89" s="8" t="str">
+        <v>-121.422485616192</v>
+      </c>
+      <c r="U89" s="8" t="str">
         <f aca="false">A89</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="W89" s="8"/>
+      <c r="V89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="30" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="28" t="s">
-        <v>923</v>
-      </c>
-      <c r="G90" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
+        <v>911</v>
+      </c>
+      <c r="G90" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
       <c r="L90" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M90" s="16" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="N90" s="16"/>
       <c r="O90" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P90" s="13" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="Q90" s="17" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="R90" s="14" t="n">
-        <v>52.854978</v>
+        <v>52.2807719311305</v>
       </c>
       <c r="S90" s="14" t="n">
-        <v>-121.585666</v>
-      </c>
-      <c r="V90" s="8" t="str">
+        <v>-122.144686005946</v>
+      </c>
+      <c r="U90" s="8" t="str">
         <f aca="false">A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="W90" s="8"/>
+      <c r="V90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="108"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="110"/>
-      <c r="I91" s="110"/>
-      <c r="J91" s="110"/>
-      <c r="K91" s="110"/>
-      <c r="L91" s="110"/>
-      <c r="M91" s="110"/>
-      <c r="N91" s="110"/>
-      <c r="O91" s="110"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="111"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
+      <c r="P91" s="100"/>
+      <c r="Q91" s="102"/>
     </row>
     <row r="92" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
@@ -9687,7 +9571,7 @@
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -9704,7 +9588,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -9721,7 +9605,7 @@
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -9924,14 +9808,14 @@
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>931</v>
-      </c>
-      <c r="C1" s="112" t="s">
-        <v>932</v>
-      </c>
-      <c r="D1" s="113" t="s">
-        <v>933</v>
+      <c r="B1" s="103" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9939,14 +9823,14 @@
         <f aca="false">'BC First Nations'!A3</f>
         <v>Adams Lake Indian Band (belongs to the Secwepemc Nation, member of the Shuswap Nation Triabal Council)</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>934</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>936</v>
+      <c r="B2" s="103" t="s">
+        <v>922</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9954,14 +9838,14 @@
         <f aca="false">'BC First Nations'!A4</f>
         <v>Aitchelitz Band</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>48</v>
+      <c r="B3" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9969,14 +9853,14 @@
         <f aca="false">'BC First Nations'!A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>60</v>
+      <c r="B4" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9984,14 +9868,14 @@
         <f aca="false">'BC First Nations'!A6</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D5" s="115" t="s">
-        <v>938</v>
+      <c r="B5" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9999,14 +9883,14 @@
         <f aca="false">'BC First Nations'!A7</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="B6" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D6" s="112" t="s">
-        <v>77</v>
+      <c r="B6" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10014,14 +9898,14 @@
         <f aca="false">'BC First Nations'!A8</f>
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
-      <c r="B7" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>937</v>
-      </c>
-      <c r="D7" s="112" t="s">
-        <v>939</v>
+      <c r="B7" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>925</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,14 +9913,14 @@
         <f aca="false">'BC First Nations'!A9</f>
         <v>Chawathil First Nation</v>
       </c>
-      <c r="B8" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>102</v>
+      <c r="B8" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10044,14 +9928,14 @@
         <f aca="false">'BC First Nations'!A10</f>
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
-      <c r="B9" s="112" t="s">
-        <v>940</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D9" s="112" t="s">
-        <v>115</v>
+      <c r="B9" s="103" t="s">
+        <v>928</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10059,14 +9943,14 @@
         <f aca="false">'BC First Nations'!A11</f>
         <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
-      <c r="B10" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>941</v>
+      <c r="B10" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10074,14 +9958,14 @@
         <f aca="false">'BC First Nations'!A12</f>
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
-      <c r="B11" s="112" t="s">
-        <v>942</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>943</v>
+      <c r="B11" s="103" t="s">
+        <v>930</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,14 +9973,14 @@
         <f aca="false">'BC First Nations'!A13</f>
         <v>Cowichan Tribes</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>150</v>
+      <c r="B12" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,14 +9988,14 @@
         <f aca="false">'BC First Nations'!A14</f>
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>944</v>
+      <c r="B13" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10119,14 +10003,14 @@
         <f aca="false">'BC First Nations'!A15</f>
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
-      <c r="B14" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D14" s="115" t="s">
-        <v>945</v>
+      <c r="B14" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,14 +10018,14 @@
         <f aca="false">'BC First Nations'!A16</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="B15" s="112" t="s">
-        <v>946</v>
-      </c>
-      <c r="C15" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>947</v>
+      <c r="B15" s="103" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,14 +10033,14 @@
         <f aca="false">'BC First Nations'!A17</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="B16" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>197</v>
+      <c r="B16" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10164,14 +10048,14 @@
         <f aca="false">'BC First Nations'!A18</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
-      <c r="B17" s="112" t="s">
-        <v>948</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>949</v>
-      </c>
-      <c r="D17" s="112" t="s">
-        <v>950</v>
+      <c r="B17" s="103" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>937</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,14 +10063,14 @@
         <f aca="false">'BC First Nations'!A19</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="B18" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D18" s="112" t="s">
-        <v>951</v>
+      <c r="B18" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10194,14 +10078,14 @@
         <f aca="false">'BC First Nations'!A20</f>
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>952</v>
+      <c r="B19" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,14 +10093,14 @@
         <f aca="false">'BC First Nations'!A21</f>
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
-      <c r="B20" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>953</v>
+      <c r="B20" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10224,14 +10108,14 @@
         <f aca="false">'BC First Nations'!A22</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>248</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D21" s="112" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10239,14 +10123,14 @@
         <f aca="false">'BC First Nations'!A23</f>
         <v>Leq' a: mel First Nation</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>268</v>
+      <c r="B22" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10254,14 +10138,14 @@
         <f aca="false">'BC First Nations'!A24</f>
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
-      <c r="B23" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>281</v>
+      <c r="B23" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,14 +10153,14 @@
         <f aca="false">'BC First Nations'!A25</f>
         <v>Lheidli T'enneh First Nation</v>
       </c>
-      <c r="B24" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D24" s="112" t="s">
-        <v>294</v>
+      <c r="B24" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,14 +10168,14 @@
         <f aca="false">'BC First Nations'!A26</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="B25" s="112" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>308</v>
+      <c r="B25" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10299,14 +10183,14 @@
         <f aca="false">'BC First Nations'!A27</f>
         <v>Lower Nicola Indian Band -</v>
       </c>
-      <c r="B26" s="112" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>319</v>
+      <c r="B26" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,14 +10198,14 @@
         <f aca="false">'BC First Nations'!A28</f>
         <v>Lower Similkameen #598</v>
       </c>
-      <c r="B27" s="112" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D27" s="112" t="s">
-        <v>329</v>
+      <c r="B27" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,14 +10213,14 @@
         <f aca="false">'BC First Nations'!A29</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="B28" s="112" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D28" s="112" t="s">
-        <v>341</v>
+      <c r="B28" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10344,14 +10228,14 @@
         <f aca="false">'BC First Nations'!A30</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="B29" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D29" s="112" t="s">
-        <v>351</v>
+      <c r="B29" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10359,14 +10243,14 @@
         <f aca="false">'BC First Nations'!A31</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="B30" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="C30" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>362</v>
+      <c r="B30" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10374,14 +10258,14 @@
         <f aca="false">'BC First Nations'!A32</f>
         <v>Musqeam Indian Band</v>
       </c>
-      <c r="B31" s="112" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>954</v>
+      <c r="B31" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,14 +10273,14 @@
         <f aca="false">'BC First Nations'!A33</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="B32" s="112" t="s">
-        <v>378</v>
-      </c>
-      <c r="C32" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>384</v>
+      <c r="B32" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10404,14 +10288,14 @@
         <f aca="false">'BC First Nations'!A34</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="B33" s="112" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>396</v>
+      <c r="B33" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,14 +10303,14 @@
         <f aca="false">'BC First Nations'!A35</f>
         <v>Osoyoos</v>
       </c>
-      <c r="B34" s="112" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>406</v>
+      <c r="B34" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D34" s="103" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10434,14 +10318,14 @@
         <f aca="false">'BC First Nations'!A36</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="B35" s="112" t="s">
-        <v>410</v>
-      </c>
-      <c r="C35" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>416</v>
+      <c r="B35" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,14 +10333,14 @@
         <f aca="false">'BC First Nations'!A37</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="B36" s="112" t="s">
-        <v>421</v>
-      </c>
-      <c r="C36" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D36" s="115" t="s">
-        <v>955</v>
+      <c r="B36" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10464,14 +10348,14 @@
         <f aca="false">'BC First Nations'!A38</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="B37" s="112" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D37" s="112" t="s">
-        <v>434</v>
+      <c r="B37" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10479,14 +10363,14 @@
         <f aca="false">'BC First Nations'!A39</f>
         <v>Peters Band (Peters First Nation)</v>
       </c>
-      <c r="B38" s="112" t="s">
-        <v>437</v>
-      </c>
-      <c r="C38" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>442</v>
+      <c r="B38" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,14 +10378,14 @@
         <f aca="false">'BC First Nations'!A40</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="B39" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="C39" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>451</v>
+      <c r="B39" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D39" s="103" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10509,14 +10393,14 @@
         <f aca="false">'BC First Nations'!A41</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="B40" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="C40" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>463</v>
+      <c r="B40" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D40" s="103" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10524,14 +10408,14 @@
         <f aca="false">'BC First Nations'!A42</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
-      <c r="B41" s="112" t="s">
-        <v>956</v>
-      </c>
-      <c r="C41" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D41" s="115" t="s">
-        <v>957</v>
+      <c r="B41" s="103" t="s">
+        <v>944</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D41" s="106" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10539,14 +10423,14 @@
         <f aca="false">'BC First Nations'!A43</f>
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
-      <c r="B42" s="112" t="s">
-        <v>475</v>
-      </c>
-      <c r="C42" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D42" s="112" t="s">
-        <v>481</v>
+      <c r="B42" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,14 +10438,14 @@
         <f aca="false">'BC First Nations'!A44</f>
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
-      <c r="B43" s="112" t="s">
-        <v>485</v>
-      </c>
-      <c r="C43" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D43" s="112" t="s">
-        <v>958</v>
+      <c r="B43" s="103" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D43" s="103" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10569,14 +10453,14 @@
         <f aca="false">'BC First Nations'!A45</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="103" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D44" s="103" t="s">
         <v>496</v>
-      </c>
-      <c r="C44" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10584,14 +10468,14 @@
         <f aca="false">'BC First Nations'!A46</f>
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
-      <c r="B45" s="112" t="s">
-        <v>507</v>
-      </c>
-      <c r="C45" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D45" s="115" t="s">
-        <v>959</v>
+      <c r="B45" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D45" s="106" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10599,14 +10483,14 @@
         <f aca="false">'BC First Nations'!A47</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="B46" s="112" t="s">
-        <v>516</v>
-      </c>
-      <c r="C46" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D46" s="115" t="s">
-        <v>960</v>
+      <c r="B46" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10614,14 +10498,14 @@
         <f aca="false">'BC First Nations'!A49</f>
         <v>Shackan Indian Band</v>
       </c>
-      <c r="B47" s="112" t="s">
-        <v>961</v>
-      </c>
-      <c r="C47" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D47" s="115" t="s">
-        <v>962</v>
+      <c r="B47" s="103" t="s">
+        <v>949</v>
+      </c>
+      <c r="C47" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D47" s="106" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10629,14 +10513,14 @@
         <f aca="false">'BC First Nations'!A50</f>
         <v>Shxw'owhamel First Nation</v>
       </c>
-      <c r="B48" s="112" t="s">
-        <v>546</v>
-      </c>
-      <c r="C48" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D48" s="112" t="s">
-        <v>555</v>
+      <c r="B48" s="103" t="s">
+        <v>536</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10644,14 +10528,14 @@
         <f aca="false">'BC First Nations'!A51</f>
         <v>Shxwha:y Villiage</v>
       </c>
-      <c r="B49" s="112" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D49" s="112" t="s">
-        <v>48</v>
+      <c r="B49" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D49" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,14 +10543,14 @@
         <f aca="false">'BC First Nations'!A52</f>
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
-      <c r="B50" s="112" t="s">
-        <v>578</v>
-      </c>
-      <c r="C50" s="112" t="s">
-        <v>949</v>
-      </c>
-      <c r="D50" s="112" t="s">
-        <v>963</v>
+      <c r="B50" s="103" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>937</v>
+      </c>
+      <c r="D50" s="103" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,14 +10558,14 @@
         <f aca="false">'BC First Nations'!A53</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="B51" s="112" t="s">
-        <v>580</v>
-      </c>
-      <c r="C51" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D51" s="112" t="s">
-        <v>585</v>
+      <c r="B51" s="103" t="s">
+        <v>570</v>
+      </c>
+      <c r="C51" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D51" s="103" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10689,14 +10573,14 @@
         <f aca="false">'BC First Nations'!A54</f>
         <v>Skuppah Indian Band</v>
       </c>
-      <c r="B52" s="112" t="s">
-        <v>964</v>
-      </c>
-      <c r="C52" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D52" s="115" t="s">
-        <v>938</v>
+      <c r="B52" s="103" t="s">
+        <v>952</v>
+      </c>
+      <c r="C52" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D52" s="106" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10704,14 +10588,14 @@
         <f aca="false">'BC First Nations'!A55</f>
         <v>Skowkale First Nation</v>
       </c>
-      <c r="B53" s="112" t="s">
-        <v>594</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D53" s="112" t="s">
-        <v>48</v>
+      <c r="B53" s="103" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10719,14 +10603,14 @@
         <f aca="false">'BC First Nations'!A56</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="B54" s="112" t="s">
-        <v>965</v>
-      </c>
-      <c r="C54" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D54" s="112" t="s">
-        <v>966</v>
+      <c r="B54" s="103" t="s">
+        <v>953</v>
+      </c>
+      <c r="C54" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D54" s="103" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10734,14 +10618,14 @@
         <f aca="false">'BC First Nations'!A57</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="B55" s="112" t="s">
-        <v>612</v>
-      </c>
-      <c r="C55" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D55" s="112" t="s">
-        <v>967</v>
+      <c r="B55" s="103" t="s">
+        <v>602</v>
+      </c>
+      <c r="C55" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D55" s="103" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,14 +10633,14 @@
         <f aca="false">'BC First Nations'!A58</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="B56" s="112" t="s">
-        <v>620</v>
-      </c>
-      <c r="C56" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D56" s="112" t="s">
-        <v>625</v>
+      <c r="B56" s="103" t="s">
+        <v>610</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,14 +10648,14 @@
         <f aca="false">'BC First Nations'!A59</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="B57" s="112" t="s">
-        <v>629</v>
-      </c>
-      <c r="C57" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D57" s="112" t="s">
-        <v>968</v>
+      <c r="B57" s="103" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,14 +10663,14 @@
         <f aca="false">'BC First Nations'!A60</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="B58" s="112" t="s">
-        <v>640</v>
-      </c>
-      <c r="C58" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D58" s="112" t="s">
-        <v>48</v>
+      <c r="B58" s="103" t="s">
+        <v>630</v>
+      </c>
+      <c r="C58" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D58" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10794,14 +10678,14 @@
         <f aca="false">'BC First Nations'!A61</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="B59" s="112" t="s">
-        <v>648</v>
-      </c>
-      <c r="C59" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D59" s="115" t="s">
-        <v>938</v>
+      <c r="B59" s="103" t="s">
+        <v>638</v>
+      </c>
+      <c r="C59" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D59" s="106" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10809,14 +10693,14 @@
         <f aca="false">'BC First Nations'!A62</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="B60" s="112" t="s">
-        <v>667</v>
-      </c>
-      <c r="C60" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D60" s="112" t="s">
-        <v>969</v>
+      <c r="B60" s="103" t="s">
+        <v>657</v>
+      </c>
+      <c r="C60" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10824,14 +10708,14 @@
         <f aca="false">'BC First Nations'!A63</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="B61" s="112" t="s">
-        <v>669</v>
-      </c>
-      <c r="C61" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D61" s="112" t="s">
-        <v>48</v>
+      <c r="B61" s="103" t="s">
+        <v>659</v>
+      </c>
+      <c r="C61" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D61" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10839,14 +10723,14 @@
         <f aca="false">'BC First Nations'!A64</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
-      <c r="B62" s="112" t="s">
-        <v>970</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D62" s="112" t="s">
-        <v>684</v>
+      <c r="B62" s="103" t="s">
+        <v>958</v>
+      </c>
+      <c r="C62" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D62" s="103" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10854,14 +10738,14 @@
         <f aca="false">'BC First Nations'!A65</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
-      <c r="B63" s="112" t="s">
-        <v>695</v>
-      </c>
-      <c r="C63" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D63" s="112" t="s">
-        <v>692</v>
+      <c r="B63" s="103" t="s">
+        <v>685</v>
+      </c>
+      <c r="C63" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D63" s="103" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10869,14 +10753,14 @@
         <f aca="false">'BC First Nations'!A66</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
-      <c r="B64" s="112" t="s">
-        <v>697</v>
-      </c>
-      <c r="C64" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D64" s="112" t="s">
-        <v>702</v>
+      <c r="B64" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="C64" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D64" s="103" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10884,14 +10768,14 @@
         <f aca="false">'BC First Nations'!A67</f>
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
-      <c r="B65" s="112" t="s">
-        <v>707</v>
-      </c>
-      <c r="C65" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D65" s="112" t="s">
-        <v>711</v>
+      <c r="B65" s="103" t="s">
+        <v>697</v>
+      </c>
+      <c r="C65" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D65" s="103" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,14 +10783,14 @@
         <f aca="false">'BC First Nations'!A68</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="B66" s="112" t="s">
-        <v>724</v>
-      </c>
-      <c r="C66" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D66" s="112" t="s">
-        <v>721</v>
+      <c r="B66" s="103" t="s">
+        <v>714</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D66" s="103" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10914,14 +10798,14 @@
         <f aca="false">'BC First Nations'!A69</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="B67" s="112" t="s">
-        <v>725</v>
-      </c>
-      <c r="C67" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D67" s="112" t="s">
-        <v>730</v>
+      <c r="B67" s="103" t="s">
+        <v>715</v>
+      </c>
+      <c r="C67" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D67" s="103" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10929,14 +10813,14 @@
         <f aca="false">'BC First Nations'!A70</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="B68" s="112" t="s">
-        <v>971</v>
-      </c>
-      <c r="C68" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D68" s="115" t="s">
-        <v>972</v>
+      <c r="B68" s="103" t="s">
+        <v>959</v>
+      </c>
+      <c r="C68" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D68" s="106" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10944,14 +10828,14 @@
         <f aca="false">'BC First Nations'!A71</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="B69" s="112" t="s">
-        <v>738</v>
-      </c>
-      <c r="C69" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D69" s="115" t="s">
-        <v>955</v>
+      <c r="B69" s="103" t="s">
+        <v>728</v>
+      </c>
+      <c r="C69" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D69" s="106" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,14 +10843,14 @@
         <f aca="false">'BC First Nations'!A72</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="B70" s="112" t="s">
-        <v>747</v>
-      </c>
-      <c r="C70" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D70" s="115" t="s">
-        <v>955</v>
+      <c r="B70" s="103" t="s">
+        <v>737</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D70" s="106" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10974,14 +10858,14 @@
         <f aca="false">'BC First Nations'!A73</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="B71" s="112" t="s">
-        <v>757</v>
-      </c>
-      <c r="C71" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D71" s="115" t="s">
-        <v>973</v>
+      <c r="B71" s="103" t="s">
+        <v>747</v>
+      </c>
+      <c r="C71" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D71" s="106" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,14 +10873,14 @@
         <f aca="false">'BC First Nations'!A74</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="B72" s="112" t="s">
-        <v>771</v>
-      </c>
-      <c r="C72" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D72" s="112" t="s">
-        <v>48</v>
+      <c r="B72" s="103" t="s">
+        <v>760</v>
+      </c>
+      <c r="C72" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D72" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11004,14 +10888,14 @@
         <f aca="false">'BC First Nations'!A75</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="B73" s="112" t="s">
-        <v>781</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>935</v>
-      </c>
-      <c r="D73" s="115" t="s">
-        <v>955</v>
+      <c r="B73" s="103" t="s">
+        <v>770</v>
+      </c>
+      <c r="C73" s="103" t="s">
+        <v>923</v>
+      </c>
+      <c r="D73" s="106" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11019,14 +10903,14 @@
         <f aca="false">'BC First Nations'!A76</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="B74" s="112" t="s">
-        <v>789</v>
-      </c>
-      <c r="C74" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D74" s="112" t="s">
-        <v>793</v>
+      <c r="B74" s="103" t="s">
+        <v>778</v>
+      </c>
+      <c r="C74" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D74" s="103" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,14 +10918,14 @@
         <f aca="false">'BC First Nations'!A77</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="B75" s="112" t="s">
-        <v>797</v>
-      </c>
-      <c r="C75" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D75" s="112" t="s">
-        <v>974</v>
+      <c r="B75" s="103" t="s">
+        <v>786</v>
+      </c>
+      <c r="C75" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D75" s="103" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,14 +10933,14 @@
         <f aca="false">'BC First Nations'!A78</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="B76" s="112" t="s">
-        <v>810</v>
-      </c>
-      <c r="C76" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D76" s="112" t="s">
-        <v>818</v>
+      <c r="B76" s="103" t="s">
+        <v>798</v>
+      </c>
+      <c r="C76" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D76" s="103" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11064,14 +10948,14 @@
         <f aca="false">'BC First Nations'!A79</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="B77" s="112" t="s">
-        <v>822</v>
-      </c>
-      <c r="C77" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D77" s="112" t="s">
-        <v>684</v>
+      <c r="B77" s="103" t="s">
+        <v>810</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D77" s="103" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11079,14 +10963,14 @@
         <f aca="false">'BC First Nations'!A80</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="B78" s="112" t="s">
-        <v>833</v>
-      </c>
-      <c r="C78" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D78" s="112" t="s">
-        <v>48</v>
+      <c r="B78" s="103" t="s">
+        <v>821</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D78" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11094,14 +10978,14 @@
         <f aca="false">'BC First Nations'!A81</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="B79" s="112" t="s">
-        <v>842</v>
-      </c>
-      <c r="C79" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D79" s="112" t="s">
-        <v>848</v>
+      <c r="B79" s="103" t="s">
+        <v>830</v>
+      </c>
+      <c r="C79" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D79" s="103" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,14 +10993,14 @@
         <f aca="false">'BC First Nations'!A82</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="B80" s="112" t="s">
-        <v>852</v>
-      </c>
-      <c r="C80" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D80" s="112" t="s">
-        <v>858</v>
+      <c r="B80" s="103" t="s">
+        <v>840</v>
+      </c>
+      <c r="C80" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D80" s="103" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11124,14 +11008,14 @@
         <f aca="false">'BC First Nations'!A83</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="B81" s="112" t="s">
-        <v>860</v>
-      </c>
-      <c r="C81" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D81" s="112" t="s">
-        <v>866</v>
+      <c r="B81" s="103" t="s">
+        <v>848</v>
+      </c>
+      <c r="C81" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D81" s="103" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11139,14 +11023,14 @@
         <f aca="false">'BC First Nations'!A84</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="B82" s="112" t="s">
-        <v>869</v>
-      </c>
-      <c r="C82" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D82" s="112" t="s">
-        <v>873</v>
+      <c r="B82" s="103" t="s">
+        <v>857</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D82" s="103" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,14 +11038,14 @@
         <f aca="false">'BC First Nations'!A85</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="B83" s="112" t="s">
-        <v>877</v>
-      </c>
-      <c r="C83" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D83" s="112" t="s">
-        <v>885</v>
+      <c r="B83" s="103" t="s">
+        <v>865</v>
+      </c>
+      <c r="C83" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D83" s="103" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11169,14 +11053,14 @@
         <f aca="false">'BC First Nations'!A87</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="B84" s="112" t="s">
-        <v>893</v>
-      </c>
-      <c r="C84" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D84" s="112" t="s">
-        <v>896</v>
+      <c r="B84" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="C84" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D84" s="103" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,14 +11068,14 @@
         <f aca="false">'BC First Nations'!A88</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="B85" s="112" t="s">
-        <v>899</v>
-      </c>
-      <c r="C85" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D85" s="112" t="s">
-        <v>48</v>
+      <c r="B85" s="103" t="s">
+        <v>887</v>
+      </c>
+      <c r="C85" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D85" s="103" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11199,14 +11083,14 @@
         <f aca="false">'BC First Nations'!A89</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="B86" s="112" t="s">
-        <v>975</v>
-      </c>
-      <c r="C86" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D86" s="112" t="s">
-        <v>916</v>
+      <c r="B86" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="C86" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D86" s="103" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11214,21 +11098,21 @@
         <f aca="false">'BC First Nations'!A90</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="B87" s="112" t="s">
-        <v>976</v>
-      </c>
-      <c r="C87" s="112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D87" s="112" t="s">
-        <v>924</v>
-      </c>
-      <c r="G87" s="112"/>
+      <c r="B87" s="103" t="s">
+        <v>964</v>
+      </c>
+      <c r="C87" s="103" t="s">
+        <v>925</v>
+      </c>
+      <c r="D87" s="103" t="s">
+        <v>912</v>
+      </c>
+      <c r="G87" s="103"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="103"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11340,20 +11224,20 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>49.114</v>
@@ -11386,7 +11270,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>147.767</v>
@@ -11400,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>246.043</v>
@@ -11414,7 +11298,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>489.16</v>
@@ -11428,7 +11312,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>502.443</v>
@@ -11442,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>525.579</v>
@@ -11456,7 +11340,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>610.675</v>
@@ -11470,7 +11354,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>690.485</v>
@@ -11484,7 +11368,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>806.471</v>
@@ -11498,7 +11382,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>990.273</v>

--- a/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
+++ b/src/data_management/raw_data/traditional_territory/TMX_IAMC_Indigenous_Community_Profiles.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1110">
   <si>
     <t xml:space="preserve">TRANSMOUNTAIN EXPANSION PROJECT - INDIGENOUS COMMUNITIES _IMC </t>
   </si>
@@ -3822,18 +3822,6 @@
     <t xml:space="preserve">http://xatsull.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes by Jan:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial names for community and organization list obtained from CER site (Indigenous Monitoring).  Names added from the Intervenors listed in the NEB - TMX Reconsideration Report.  Communities added from TMX Volume 5D_ESA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secwépemc communities pronunciations see tru.ca/indigenous/indigenous-education-team/pronunciations.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island communities listed under "Lower Mainland Spread I "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Community Short</t>
   </si>
   <si>
@@ -4012,7 +4000,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4072,12 +4060,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3B3B3B"/>
       <name val="Calibri"/>
@@ -4091,20 +4073,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4141,7 +4109,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4170,12 +4138,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -4566,7 +4528,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4668,10 +4630,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4683,19 +4641,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4711,14 +4661,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4731,7 +4673,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4751,10 +4693,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4771,10 +4709,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4788,10 +4722,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4823,10 +4753,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4847,10 +4773,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4863,15 +4785,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4887,19 +4805,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4943,12 +4857,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -4975,11 +4885,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4988,22 +4894,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5050,7 +4940,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -5105,10 +4995,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W106"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3:R96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5283,38 +5173,38 @@
       <c r="E4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="26" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
@@ -5337,32 +5227,32 @@
       <c r="A5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="18" t="s">
@@ -5375,7 +5265,7 @@
       <c r="Q5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="18" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="16" t="n">
@@ -5391,36 +5281,36 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="32" t="s">
         <v>67</v>
       </c>
       <c r="S6" s="16" t="n">
@@ -5433,34 +5323,34 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="18" t="s">
         <v>77</v>
       </c>
       <c r="S7" s="16" t="n">
@@ -5476,7 +5366,7 @@
       <c r="A8" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -5485,20 +5375,20 @@
       <c r="D8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15" t="s">
         <v>33</v>
       </c>
@@ -5529,7 +5419,7 @@
       <c r="A9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -5538,14 +5428,14 @@
       <c r="D9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I9" s="15"/>
@@ -5565,7 +5455,7 @@
       <c r="Q9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S9" s="16" t="n">
@@ -5581,36 +5471,36 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="35" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15" t="s">
         <v>33</v>
       </c>
@@ -5623,10 +5513,10 @@
       <c r="P10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="Q10" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="18" t="s">
         <v>108</v>
       </c>
       <c r="S10" s="16" t="n">
@@ -5641,16 +5531,16 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -5660,19 +5550,19 @@
       <c r="G11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="25" t="s">
         <v>119</v>
       </c>
       <c r="M11" s="15" t="s">
@@ -5682,13 +5572,13 @@
         <v>120</v>
       </c>
       <c r="O11" s="18"/>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="38" t="s">
         <v>121</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="18" t="s">
         <v>123</v>
       </c>
       <c r="S11" s="16" t="n">
@@ -5708,7 +5598,7 @@
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -5724,19 +5614,19 @@
       <c r="G12" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>134</v>
       </c>
       <c r="M12" s="15" t="s">
@@ -5746,10 +5636,10 @@
         <v>135</v>
       </c>
       <c r="O12" s="18"/>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="26" t="s">
         <v>137</v>
       </c>
       <c r="R12" s="19" t="s">
@@ -5769,10 +5659,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -5781,26 +5671,26 @@
       <c r="D13" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>149</v>
       </c>
       <c r="M13" s="15" t="s">
@@ -5813,10 +5703,10 @@
       <c r="P13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="18" t="s">
         <v>152</v>
       </c>
       <c r="S13" s="16" t="n">
@@ -5831,7 +5721,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -5843,20 +5733,20 @@
       <c r="D14" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="39" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15" t="s">
         <v>33</v>
       </c>
@@ -5870,7 +5760,7 @@
       <c r="Q14" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="18" t="s">
         <v>163</v>
       </c>
       <c r="S14" s="16" t="n">
@@ -5885,38 +5775,38 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="25" t="s">
         <v>172</v>
       </c>
       <c r="M15" s="15" t="s">
@@ -5929,10 +5819,10 @@
       <c r="P15" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="18" t="s">
         <v>177</v>
       </c>
       <c r="S15" s="16" t="n">
@@ -5949,7 +5839,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="35" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5961,26 +5851,26 @@
       <c r="D16" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>189</v>
       </c>
       <c r="M16" s="15" t="s">
@@ -5993,10 +5883,10 @@
       <c r="P16" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="18" t="s">
         <v>193</v>
       </c>
       <c r="S16" s="16" t="n">
@@ -6013,10 +5903,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -6025,26 +5915,26 @@
       <c r="D17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>185</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>203</v>
       </c>
       <c r="M17" s="15" t="s">
@@ -6060,7 +5950,7 @@
       <c r="Q17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="18" t="s">
         <v>206</v>
       </c>
       <c r="S17" s="16" t="n">
@@ -6077,10 +5967,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="41" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -6089,19 +5979,19 @@
       <c r="D18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15" t="s">
         <v>33</v>
       </c>
@@ -6115,7 +6005,7 @@
       <c r="Q18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="18" t="s">
         <v>217</v>
       </c>
       <c r="S18" s="16" t="n">
@@ -6133,38 +6023,38 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="29" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="25" t="s">
         <v>225</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -6180,7 +6070,7 @@
       <c r="Q19" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="R19" s="18" t="s">
         <v>228</v>
       </c>
       <c r="S19" s="16" t="n">
@@ -6198,7 +6088,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="37" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -6210,34 +6100,34 @@
       <c r="D20" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="O20" s="27"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="15" t="s">
         <v>237</v>
       </c>
       <c r="Q20" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="18" t="s">
         <v>239</v>
       </c>
       <c r="S20" s="16" t="n">
@@ -6257,31 +6147,31 @@
       <c r="A21" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="15" t="s">
         <v>33</v>
       </c>
@@ -6292,10 +6182,10 @@
       <c r="P21" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="R21" s="49" t="s">
+      <c r="R21" s="43" t="s">
         <v>52</v>
       </c>
       <c r="S21" s="16" t="n">
@@ -6304,16 +6194,16 @@
       <c r="T21" s="16" t="n">
         <v>-122.695486242878</v>
       </c>
-      <c r="V21" s="50" t="str">
+      <c r="V21" s="44" t="str">
         <f aca="false">A21</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="W21" s="50" t="s">
+      <c r="W21" s="44" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="20" t="s">
         <v>253</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -6325,23 +6215,23 @@
       <c r="D22" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="19" t="s">
         <v>259</v>
       </c>
@@ -6351,39 +6241,39 @@
       <c r="T22" s="16" t="n">
         <v>-120.036378390376</v>
       </c>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="25"/>
+      <c r="Q23" s="24"/>
       <c r="R23" s="19" t="s">
         <v>264</v>
       </c>
@@ -6393,40 +6283,40 @@
       <c r="T23" s="16" t="n">
         <v>-120.07615854366</v>
       </c>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="49" t="s">
+      <c r="Q24" s="24"/>
+      <c r="R24" s="43" t="s">
         <v>52</v>
       </c>
       <c r="S24" s="16" t="n">
@@ -6435,11 +6325,11 @@
       <c r="T24" s="16" t="n">
         <v>-120.036378390376</v>
       </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="37" t="s">
         <v>268</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -6451,42 +6341,42 @@
       <c r="D25" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="25" t="s">
         <v>277</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="O25" s="27"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="15" t="s">
         <v>279</v>
       </c>
       <c r="Q25" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="R25" s="32" t="s">
+      <c r="R25" s="18" t="s">
         <v>281</v>
       </c>
       <c r="S25" s="16" t="n">
@@ -6501,32 +6391,32 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="53" t="s">
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="46" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="15" t="s">
@@ -6539,7 +6429,7 @@
       <c r="Q26" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="R26" s="36" t="s">
+      <c r="R26" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S26" s="16" t="n">
@@ -6556,32 +6446,32 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="55" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="48" t="s">
         <v>33</v>
       </c>
       <c r="N27" s="18" t="s">
@@ -6594,7 +6484,7 @@
       <c r="Q27" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="18" t="s">
         <v>304</v>
       </c>
       <c r="S27" s="16" t="n">
@@ -6612,10 +6502,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="51" t="s">
         <v>307</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -6624,24 +6514,24 @@
       <c r="D28" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="15" t="s">
         <v>314</v>
       </c>
@@ -6672,10 +6562,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="53" t="s">
         <v>321</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -6684,29 +6574,29 @@
       <c r="D29" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="18" t="s">
@@ -6719,7 +6609,7 @@
       <c r="Q29" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="18" t="s">
         <v>331</v>
       </c>
       <c r="S29" s="16" t="n">
@@ -6734,10 +6624,10 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="48" t="s">
         <v>334</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -6746,37 +6636,37 @@
       <c r="D30" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="26" t="s">
         <v>343</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="26" t="s">
         <v>345</v>
       </c>
       <c r="R30" s="19" t="s">
@@ -6796,7 +6686,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="37" t="s">
         <v>349</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -6808,24 +6698,24 @@
       <c r="D31" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="15" t="s">
         <v>33</v>
       </c>
@@ -6839,7 +6729,7 @@
       <c r="Q31" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="R31" s="32" t="s">
+      <c r="R31" s="18" t="s">
         <v>360</v>
       </c>
       <c r="S31" s="16" t="n">
@@ -6855,7 +6745,7 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="37" t="s">
         <v>361</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6867,24 +6757,24 @@
       <c r="D32" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="15" t="s">
         <v>173</v>
       </c>
@@ -6913,7 +6803,7 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="55" t="s">
         <v>374</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -6925,20 +6815,20 @@
       <c r="D33" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="53" t="s">
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="46" t="s">
         <v>33</v>
       </c>
       <c r="N33" s="18" t="s">
@@ -6951,7 +6841,7 @@
       <c r="Q33" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="R33" s="32" t="s">
+      <c r="R33" s="18" t="s">
         <v>383</v>
       </c>
       <c r="S33" s="16" t="n">
@@ -6968,7 +6858,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="56" t="s">
         <v>386</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -6980,29 +6870,29 @@
       <c r="D34" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" s="58" t="s">
         <v>33</v>
       </c>
       <c r="N34" s="15" t="s">
@@ -7015,7 +6905,7 @@
       <c r="Q34" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="18" t="s">
         <v>397</v>
       </c>
       <c r="S34" s="16" t="n">
@@ -7045,29 +6935,29 @@
       <c r="D35" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="M35" s="68" t="s">
+      <c r="M35" s="59" t="s">
         <v>173</v>
       </c>
       <c r="N35" s="18" t="s">
@@ -7080,7 +6970,7 @@
       <c r="Q35" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="18" t="s">
         <v>410</v>
       </c>
       <c r="S35" s="16" t="n">
@@ -7098,7 +6988,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="60" t="s">
         <v>412</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -7110,20 +7000,20 @@
       <c r="D36" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="24" t="s">
         <v>418</v>
       </c>
       <c r="I36" s="16"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="15" t="s">
         <v>314</v>
       </c>
@@ -7137,7 +7027,7 @@
       <c r="Q36" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="R36" s="36" t="s">
+      <c r="R36" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S36" s="16" t="n">
@@ -7155,7 +7045,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="60" t="s">
         <v>422</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -7167,24 +7057,24 @@
       <c r="D37" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="H37" s="25"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="15"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="32" t="s">
+      <c r="R37" s="18" t="s">
         <v>427</v>
       </c>
       <c r="S37" s="16" t="n">
@@ -7200,7 +7090,7 @@
       <c r="A38" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="61" t="s">
         <v>429</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -7209,29 +7099,29 @@
       <c r="D38" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="29" t="s">
         <v>437</v>
       </c>
       <c r="N38" s="15" t="s">
@@ -7244,7 +7134,7 @@
       <c r="Q38" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="R38" s="32" t="s">
+      <c r="R38" s="18" t="s">
         <v>439</v>
       </c>
       <c r="S38" s="16" t="n">
@@ -7277,25 +7167,25 @@
         <v>446</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N39" s="18" t="s">
@@ -7329,7 +7219,7 @@
       <c r="A40" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="62" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -7338,29 +7228,29 @@
       <c r="D40" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>460</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="M40" s="31" t="s">
+      <c r="M40" s="29" t="s">
         <v>173</v>
       </c>
       <c r="N40" s="18" t="s">
@@ -7373,7 +7263,7 @@
       <c r="Q40" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="R40" s="36" t="s">
+      <c r="R40" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S40" s="16" t="n">
@@ -7391,10 +7281,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="23" t="s">
         <v>468</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -7403,26 +7293,26 @@
       <c r="D41" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="74" t="s">
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="18" t="s">
         <v>471</v>
       </c>
       <c r="O41" s="18"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="32" t="s">
+      <c r="R41" s="18" t="s">
         <v>471</v>
       </c>
       <c r="S41" s="16" t="n">
@@ -7435,7 +7325,7 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="64" t="s">
         <v>472</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -7447,21 +7337,21 @@
       <c r="D42" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="76" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="24" t="s">
         <v>477</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="31" t="s">
+      <c r="M42" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N42" s="18" t="s">
@@ -7511,22 +7401,22 @@
       <c r="G43" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="34" t="s">
         <v>477</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N43" s="18" t="s">
@@ -7569,29 +7459,29 @@
       <c r="D44" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="H44" s="64" t="s">
+      <c r="H44" s="34" t="s">
         <v>477</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="K44" s="64" t="s">
+      <c r="K44" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="L44" s="64" t="s">
+      <c r="L44" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N44" s="15" t="s">
@@ -7604,7 +7494,7 @@
       <c r="Q44" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="R44" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S44" s="16" t="n">
@@ -7634,20 +7524,20 @@
       <c r="D45" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="31" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="18" t="s">
@@ -7688,20 +7578,20 @@
       <c r="D46" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="31" t="s">
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N46" s="18" t="s">
@@ -7741,20 +7631,20 @@
       <c r="D47" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="31" t="s">
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N47" s="18" t="s">
@@ -7788,34 +7678,34 @@
       <c r="A48" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="24" t="s">
         <v>541</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J48" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="31" t="s">
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="18" t="s">
@@ -7825,10 +7715,10 @@
       <c r="P48" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="Q48" s="26" t="s">
+      <c r="Q48" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="R48" s="36" t="s">
+      <c r="R48" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S48" s="16" t="n">
@@ -7847,29 +7737,29 @@
       <c r="A49" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="31" t="s">
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="0" t="s">
@@ -7881,7 +7771,7 @@
       <c r="Q49" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="R49" s="36" t="s">
+      <c r="R49" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S49" s="16" t="n">
@@ -7898,41 +7788,41 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>562</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="K50" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="L50" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="18" t="s">
@@ -7960,50 +7850,50 @@
       <c r="W50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="H51" s="64" t="s">
+      <c r="H51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J51" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="64" t="s">
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N51" s="25" t="s">
+      <c r="N51" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="16" t="s">
         <v>520</v>
       </c>
       <c r="Q51" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="R51" s="36" t="s">
+      <c r="R51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S51" s="16" t="n">
@@ -8012,62 +7902,62 @@
       <c r="T51" s="16" t="n">
         <v>-122.002526922047</v>
       </c>
-      <c r="V51" s="50" t="s">
+      <c r="V51" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="W51" s="50" t="s">
+      <c r="W51" s="44" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="24" t="s">
         <v>584</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="K52" s="26" t="s">
+      <c r="K52" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L52" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M52" s="29" t="s">
         <v>588</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>589</v>
       </c>
       <c r="O52" s="18"/>
-      <c r="P52" s="79" t="s">
+      <c r="P52" s="68" t="s">
         <v>520</v>
       </c>
       <c r="Q52" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="R52" s="32" t="s">
+      <c r="R52" s="18" t="s">
         <v>591</v>
       </c>
       <c r="S52" s="16" t="n">
@@ -8083,38 +7973,38 @@
       <c r="W52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="66.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="E53" s="80" t="s">
+      <c r="E53" s="69" t="s">
         <v>596</v>
       </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81" t="s">
+      <c r="F53" s="69"/>
+      <c r="G53" s="69" t="s">
         <v>594</v>
       </c>
-      <c r="H53" s="64" t="s">
+      <c r="H53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="L53" s="25" t="s">
+      <c r="L53" s="24" t="s">
         <v>599</v>
       </c>
       <c r="M53" s="15" t="s">
@@ -8124,10 +8014,10 @@
         <v>204</v>
       </c>
       <c r="O53" s="15"/>
-      <c r="P53" s="82" t="s">
+      <c r="P53" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q53" s="83" t="s">
+      <c r="Q53" s="71" t="s">
         <v>600</v>
       </c>
       <c r="R53" s="19" t="s">
@@ -8147,37 +8037,37 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="35" t="s">
         <v>603</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="24" t="s">
         <v>608</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="J54" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="64" t="s">
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="0" t="s">
@@ -8189,7 +8079,7 @@
       <c r="Q54" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="R54" s="36" t="s">
+      <c r="R54" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S54" s="16" t="n">
@@ -8205,7 +8095,7 @@
       <c r="W54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="72" t="s">
         <v>613</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -8221,38 +8111,38 @@
         <v>617</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="H55" s="64" t="s">
+      <c r="H55" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="I55" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="K55" s="26" t="s">
+      <c r="K55" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="L55" s="26" t="s">
+      <c r="L55" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="M55" s="53" t="s">
+      <c r="M55" s="46" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="18" t="s">
         <v>34</v>
       </c>
       <c r="O55" s="18"/>
-      <c r="P55" s="25" t="s">
+      <c r="P55" s="24" t="s">
         <v>36</v>
       </c>
       <c r="Q55" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="R55" s="32" t="s">
+      <c r="R55" s="18" t="s">
         <v>622</v>
       </c>
       <c r="S55" s="16"/>
@@ -8264,48 +8154,48 @@
       <c r="W55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="66" t="s">
         <v>624</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="81" t="s">
+      <c r="F56" s="24"/>
+      <c r="G56" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="H56" s="64" t="s">
+      <c r="H56" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="J56" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="K56" s="25" t="s">
+      <c r="K56" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="L56" s="85" t="s">
+      <c r="L56" s="73" t="s">
         <v>633</v>
       </c>
-      <c r="M56" s="86" t="s">
+      <c r="M56" s="74" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>204</v>
       </c>
       <c r="O56" s="15"/>
-      <c r="P56" s="79" t="s">
+      <c r="P56" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q56" s="15" t="s">
@@ -8320,7 +8210,7 @@
       <c r="T56" s="16" t="n">
         <v>-120.786988056089</v>
       </c>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="75" t="s">
         <v>78</v>
       </c>
       <c r="W56" s="9" t="s">
@@ -8328,51 +8218,51 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="76" t="s">
         <v>637</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="77" t="s">
         <v>638</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I57" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="K57" s="25" t="s">
+      <c r="K57" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="L57" s="25" t="s">
+      <c r="L57" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="M57" s="90" t="s">
+      <c r="M57" s="78" t="s">
         <v>314</v>
       </c>
       <c r="N57" s="18" t="s">
         <v>647</v>
       </c>
       <c r="O57" s="18"/>
-      <c r="P57" s="79" t="s">
+      <c r="P57" s="68" t="s">
         <v>520</v>
       </c>
-      <c r="Q57" s="91" t="s">
+      <c r="Q57" s="79" t="s">
         <v>648</v>
       </c>
       <c r="R57" s="19" t="s">
@@ -8392,33 +8282,33 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="81" t="s">
         <v>652</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="81" t="s">
+      <c r="F58" s="24"/>
+      <c r="G58" s="69" t="s">
         <v>653</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="24" t="s">
         <v>656</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="31" t="s">
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="29" t="s">
         <v>314</v>
       </c>
       <c r="N58" s="18" t="s">
@@ -8428,7 +8318,7 @@
       <c r="P58" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q58" s="94" t="s">
+      <c r="Q58" s="82" t="s">
         <v>657</v>
       </c>
       <c r="R58" s="19" t="s">
@@ -8448,37 +8338,37 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="66" t="s">
         <v>660</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="95" t="s">
+      <c r="F59" s="24"/>
+      <c r="G59" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="25" t="s">
         <v>666</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I59" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="31" t="s">
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="29" t="s">
         <v>669</v>
       </c>
       <c r="N59" s="15" t="s">
@@ -8488,7 +8378,7 @@
       <c r="P59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q59" s="82" t="s">
+      <c r="Q59" s="70" t="s">
         <v>671</v>
       </c>
       <c r="R59" s="19" t="s">
@@ -8508,32 +8398,32 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="24"/>
       <c r="G60" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="64" t="s">
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="18" t="s">
@@ -8546,7 +8436,7 @@
       <c r="Q60" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="R60" s="36" t="s">
+      <c r="R60" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S60" s="16" t="n">
@@ -8564,45 +8454,45 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="H61" s="64" t="s">
+      <c r="H61" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="64" t="s">
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N61" s="64" t="s">
+      <c r="N61" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="O61" s="64"/>
+      <c r="O61" s="34"/>
       <c r="P61" s="16" t="s">
         <v>520</v>
       </c>
       <c r="Q61" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="R61" s="36" t="s">
+      <c r="R61" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S61" s="16" t="n">
@@ -8611,40 +8501,40 @@
       <c r="T61" s="16" t="n">
         <v>-121.574218038587</v>
       </c>
-      <c r="V61" s="87" t="s">
+      <c r="V61" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="W61" s="87" t="s">
+      <c r="W61" s="75" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="64" t="s">
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="18" t="s">
@@ -8657,7 +8547,7 @@
       <c r="Q62" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="R62" s="32" t="s">
+      <c r="R62" s="18" t="s">
         <v>698</v>
       </c>
       <c r="S62" s="16" t="n">
@@ -8674,10 +8564,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>701</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -8690,15 +8580,15 @@
         <v>704</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="H63" s="64" t="s">
+      <c r="H63" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
       <c r="M63" s="0" t="s">
         <v>33</v>
       </c>
@@ -8730,7 +8620,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="37" t="s">
         <v>710</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -8746,13 +8636,13 @@
         <v>714</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="H64" s="64" t="s">
+      <c r="H64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="64" t="s">
+      <c r="M64" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="15" t="s">
@@ -8783,29 +8673,29 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="40.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="83" t="s">
         <v>719</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="24" t="s">
         <v>722</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>723</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="M65" s="64" t="s">
+      <c r="M65" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="18" t="s">
@@ -8815,7 +8705,7 @@
       <c r="P65" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q65" s="27" t="s">
+      <c r="Q65" s="26" t="s">
         <v>726</v>
       </c>
       <c r="R65" s="19" t="s">
@@ -8852,32 +8742,32 @@
         <v>733</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="H66" s="64" t="s">
+      <c r="H66" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="27" t="s">
+      <c r="I66" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="K66" s="26" t="s">
+      <c r="K66" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>737</v>
       </c>
       <c r="O66" s="15"/>
-      <c r="P66" s="97" t="s">
+      <c r="P66" s="84" t="s">
         <v>175</v>
       </c>
       <c r="Q66" s="15" t="s">
@@ -8901,7 +8791,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="37" t="s">
         <v>741</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -8917,16 +8807,16 @@
         <v>745</v>
       </c>
       <c r="F67" s="15"/>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="64" t="s">
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="34" t="s">
         <v>33</v>
       </c>
       <c r="N67" s="18" t="s">
@@ -8956,7 +8846,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="96" t="s">
+      <c r="A68" s="83" t="s">
         <v>750</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -8972,22 +8862,22 @@
         <v>754</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="64" t="s">
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N68" s="72" t="s">
+      <c r="N68" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="O68" s="72"/>
+      <c r="O68" s="62"/>
       <c r="P68" s="16" t="s">
         <v>520</v>
       </c>
@@ -9009,41 +8899,41 @@
       <c r="W68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="85" t="s">
         <v>759</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="32" t="s">
         <v>761</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="32" t="s">
         <v>762</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>763</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="I69" s="27" t="s">
+      <c r="I69" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="J69" s="26" t="s">
+      <c r="J69" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="K69" s="26" t="s">
+      <c r="K69" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="M69" s="31" t="s">
+      <c r="M69" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N69" s="15" t="s">
@@ -9053,7 +8943,7 @@
       <c r="P69" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="Q69" s="27" t="s">
+      <c r="Q69" s="26" t="s">
         <v>769</v>
       </c>
       <c r="R69" s="19" t="s">
@@ -9073,7 +8963,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="98" t="s">
+      <c r="A70" s="85" t="s">
         <v>773</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -9089,17 +8979,17 @@
         <v>777</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="31" t="s">
+      <c r="I70" s="86"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N70" s="18" t="s">
@@ -9109,7 +8999,7 @@
       <c r="P70" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q70" s="27" t="s">
+      <c r="Q70" s="26" t="s">
         <v>780</v>
       </c>
       <c r="R70" s="19" t="s">
@@ -9132,45 +9022,45 @@
       <c r="A71" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="34" t="s">
         <v>784</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>785</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="24" t="s">
         <v>786</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>787</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="H71" s="64" t="s">
+      <c r="H71" s="34" t="s">
         <v>30</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="J71" s="26" t="s">
+      <c r="J71" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="K71" s="25" t="s">
+      <c r="K71" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="M71" s="85" t="s">
+      <c r="M71" s="73" t="s">
         <v>33</v>
       </c>
       <c r="N71" s="18" t="s">
         <v>791</v>
       </c>
       <c r="O71" s="18"/>
-      <c r="P71" s="79" t="s">
+      <c r="P71" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q71" s="15" t="s">
@@ -9191,7 +9081,7 @@
       <c r="W71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="37" t="s">
         <v>795</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -9207,15 +9097,15 @@
         <v>799</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="H72" s="64" t="s">
+      <c r="H72" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
       <c r="M72" s="0" t="s">
         <v>33</v>
       </c>
@@ -9246,7 +9136,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="35" t="s">
         <v>805</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -9262,15 +9152,15 @@
         <v>809</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="H73" s="64" t="s">
+      <c r="H73" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="0" t="s">
         <v>33</v>
       </c>
@@ -9301,7 +9191,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="72" t="s">
         <v>816</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -9317,15 +9207,15 @@
         <v>820</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="H74" s="64" t="s">
+      <c r="H74" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
       <c r="M74" s="0" t="s">
         <v>33</v>
       </c>
@@ -9333,7 +9223,7 @@
         <v>821</v>
       </c>
       <c r="O74" s="18"/>
-      <c r="P74" s="79" t="s">
+      <c r="P74" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q74" s="15" t="s">
@@ -9356,7 +9246,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="66" t="s">
         <v>825</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -9372,35 +9262,35 @@
         <v>829</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="H75" s="64" t="s">
+      <c r="H75" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I75" s="27" t="s">
+      <c r="I75" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="J75" s="25" t="s">
+      <c r="J75" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="K75" s="25" t="s">
+      <c r="K75" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="L75" s="25" t="s">
+      <c r="L75" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="M75" s="31" t="s">
+      <c r="M75" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N75" s="18" t="s">
         <v>833</v>
       </c>
       <c r="O75" s="18"/>
-      <c r="P75" s="79" t="s">
+      <c r="P75" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="Q75" s="25" t="s">
+      <c r="Q75" s="24" t="s">
         <v>834</v>
       </c>
       <c r="R75" s="19" t="s">
@@ -9418,7 +9308,7 @@
       <c r="W75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="37" t="s">
         <v>837</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -9434,16 +9324,16 @@
         <v>841</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="15" t="s">
         <v>839</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
       <c r="M76" s="0" t="s">
         <v>33</v>
       </c>
@@ -9473,7 +9363,7 @@
       <c r="W76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="83" t="s">
         <v>846</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -9489,16 +9379,16 @@
         <v>850</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="29" t="s">
+      <c r="G77" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="H77" s="64" t="s">
+      <c r="H77" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
       <c r="M77" s="0" t="s">
         <v>33</v>
       </c>
@@ -9511,7 +9401,7 @@
       <c r="Q77" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="R77" s="36" t="s">
+      <c r="R77" s="32" t="s">
         <v>52</v>
       </c>
       <c r="S77" s="16" t="n">
@@ -9530,45 +9420,45 @@
       <c r="A78" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="15" t="s">
         <v>855</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>856</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="H78" s="64" t="s">
+      <c r="H78" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I78" s="27" t="s">
+      <c r="I78" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="J78" s="26" t="s">
+      <c r="J78" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="M78" s="25" t="s">
+      <c r="M78" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N78" s="25" t="s">
+      <c r="N78" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="O78" s="25"/>
-      <c r="P78" s="79" t="s">
+      <c r="O78" s="24"/>
+      <c r="P78" s="68" t="s">
         <v>531</v>
       </c>
       <c r="Q78" s="15" t="s">
@@ -9591,7 +9481,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="98" t="s">
+      <c r="A79" s="85" t="s">
         <v>862</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -9607,30 +9497,30 @@
         <v>866</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="H79" s="64" t="s">
+      <c r="H79" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I79" s="27" t="s">
+      <c r="I79" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="M79" s="100"/>
-      <c r="N79" s="79" t="s">
+      <c r="M79" s="87"/>
+      <c r="N79" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79" t="s">
+      <c r="O79" s="68"/>
+      <c r="P79" s="68" t="s">
         <v>869</v>
       </c>
       <c r="Q79" s="15" t="s">
@@ -9669,30 +9559,30 @@
         <v>877</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="H80" s="89" t="s">
+      <c r="H80" s="77" t="s">
         <v>879</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="J80" s="26" t="s">
+      <c r="J80" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="K80" s="26" t="s">
+      <c r="K80" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="M80" s="31"/>
+      <c r="M80" s="29"/>
       <c r="N80" s="15" t="s">
         <v>204</v>
       </c>
       <c r="O80" s="15"/>
-      <c r="P80" s="79" t="s">
+      <c r="P80" s="68" t="s">
         <v>883</v>
       </c>
       <c r="Q80" s="15" t="s">
@@ -9716,7 +9606,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="66" t="s">
         <v>887</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -9728,36 +9618,36 @@
       <c r="D81" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="32" t="s">
         <v>891</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="101" t="s">
+      <c r="G81" s="88" t="s">
         <v>889</v>
       </c>
-      <c r="H81" s="93" t="s">
+      <c r="H81" s="81" t="s">
         <v>892</v>
       </c>
-      <c r="I81" s="27" t="s">
+      <c r="I81" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="J81" s="26" t="s">
+      <c r="J81" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="27" t="s">
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="O81" s="27"/>
+      <c r="O81" s="26"/>
       <c r="P81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q81" s="27" t="s">
+      <c r="Q81" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="R81" s="49" t="s">
+      <c r="R81" s="43" t="s">
         <v>52</v>
       </c>
       <c r="S81" s="16" t="n">
@@ -9772,7 +9662,7 @@
       <c r="W81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="37" t="s">
         <v>897</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -9788,21 +9678,21 @@
         <v>901</v>
       </c>
       <c r="F82" s="15"/>
-      <c r="G82" s="29" t="s">
+      <c r="G82" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15" t="s">
         <v>204</v>
       </c>
       <c r="O82" s="15"/>
-      <c r="P82" s="79" t="s">
+      <c r="P82" s="68" t="s">
         <v>869</v>
       </c>
       <c r="Q82" s="15" t="s">
@@ -9825,37 +9715,37 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="83" t="s">
         <v>906</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="15" t="s">
         <v>909</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>910</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
       <c r="N83" s="18" t="s">
         <v>911</v>
       </c>
       <c r="O83" s="18"/>
-      <c r="P83" s="79" t="s">
+      <c r="P83" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q83" s="15" t="s">
@@ -9894,32 +9784,32 @@
         <v>920</v>
       </c>
       <c r="F84" s="15"/>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="24" t="s">
         <v>921</v>
       </c>
-      <c r="I84" s="27" t="s">
+      <c r="I84" s="26" t="s">
         <v>922</v>
       </c>
-      <c r="J84" s="26" t="s">
+      <c r="J84" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="K84" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="L84" s="26" t="s">
+      <c r="L84" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="M84" s="31" t="s">
+      <c r="M84" s="29" t="s">
         <v>173</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>924</v>
       </c>
       <c r="O84" s="15"/>
-      <c r="P84" s="79" t="s">
+      <c r="P84" s="68" t="s">
         <v>925</v>
       </c>
       <c r="Q84" s="15" t="s">
@@ -9955,34 +9845,34 @@
       <c r="D85" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="E85" s="25" t="s">
+      <c r="E85" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="F85" s="25"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="24" t="s">
         <v>934</v>
       </c>
-      <c r="H85" s="64" t="s">
+      <c r="H85" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I85" s="27" t="s">
+      <c r="I85" s="26" t="s">
         <v>935</v>
       </c>
-      <c r="J85" s="26" t="s">
+      <c r="J85" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="L85" s="26" t="s">
+      <c r="L85" s="25" t="s">
         <v>937</v>
       </c>
-      <c r="M85" s="31"/>
+      <c r="M85" s="29"/>
       <c r="N85" s="18" t="s">
         <v>938</v>
       </c>
       <c r="O85" s="18"/>
-      <c r="P85" s="79" t="s">
+      <c r="P85" s="68" t="s">
         <v>869</v>
       </c>
       <c r="Q85" s="15" t="s">
@@ -10006,7 +9896,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="37" t="s">
         <v>942</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -10018,24 +9908,24 @@
       <c r="D86" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="E86" s="102" t="s">
+      <c r="E86" s="89" t="s">
         <v>946</v>
       </c>
-      <c r="F86" s="102"/>
-      <c r="G86" s="103" t="s">
+      <c r="F86" s="89"/>
+      <c r="G86" s="89" t="s">
         <v>947</v>
       </c>
-      <c r="H86" s="64" t="s">
+      <c r="H86" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="I86" s="25" t="s">
+      <c r="I86" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="J86" s="25" t="s">
+      <c r="J86" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
       <c r="M86" s="15" t="s">
         <v>951</v>
       </c>
@@ -10043,7 +9933,7 @@
         <v>791</v>
       </c>
       <c r="O86" s="18"/>
-      <c r="P86" s="79" t="s">
+      <c r="P86" s="68" t="s">
         <v>36</v>
       </c>
       <c r="Q86" s="15" t="s">
@@ -10065,7 +9955,7 @@
       <c r="W86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="37" t="s">
         <v>954</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -10081,15 +9971,15 @@
         <v>958</v>
       </c>
       <c r="F87" s="15"/>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
       <c r="N87" s="18" t="s">
         <v>49</v>
       </c>
@@ -10117,26 +10007,26 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="37" t="s">
         <v>964</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="90" t="s">
         <v>966</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="32" t="s">
         <v>967</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>968</v>
       </c>
       <c r="F88" s="15"/>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="H88" s="64" t="s">
+      <c r="H88" s="34" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="15" t="s">
@@ -10149,7 +10039,7 @@
         <v>971</v>
       </c>
       <c r="O88" s="18"/>
-      <c r="P88" s="79" t="s">
+      <c r="P88" s="68" t="s">
         <v>344</v>
       </c>
       <c r="Q88" s="15" t="s">
@@ -10173,7 +10063,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="37" t="s">
         <v>975</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -10189,22 +10079,22 @@
         <v>979</v>
       </c>
       <c r="F89" s="15"/>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
       <c r="N89" s="18" t="s">
         <v>982</v>
       </c>
       <c r="O89" s="18"/>
-      <c r="P89" s="79"/>
+      <c r="P89" s="68"/>
       <c r="Q89" s="15"/>
-      <c r="R89" s="36" t="s">
+      <c r="R89" s="32" t="s">
         <v>913</v>
       </c>
       <c r="S89" s="16" t="n">
@@ -10213,13 +10103,13 @@
       <c r="T89" s="16" t="n">
         <v>-121.434395357366</v>
       </c>
-      <c r="V89" s="42" t="s">
+      <c r="V89" s="37" t="s">
         <v>983</v>
       </c>
-      <c r="W89" s="42"/>
+      <c r="W89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="37" t="s">
         <v>984</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -10235,18 +10125,18 @@
         <v>988</v>
       </c>
       <c r="F90" s="15"/>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="H90" s="64" t="s">
+      <c r="H90" s="34" t="s">
         <v>989</v>
       </c>
-      <c r="I90" s="27" t="s">
+      <c r="I90" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
       <c r="M90" s="15"/>
       <c r="N90" s="18" t="s">
         <v>991</v>
@@ -10274,31 +10164,31 @@
       <c r="W90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="96" t="s">
+      <c r="A91" s="83" t="s">
         <v>994</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>995</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="32" t="s">
         <v>996</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="32" t="s">
         <v>997</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>998</v>
       </c>
       <c r="F91" s="15"/>
-      <c r="G91" s="36" t="s">
+      <c r="G91" s="32" t="s">
         <v>999</v>
       </c>
-      <c r="H91" s="64" t="s">
+      <c r="H91" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
       <c r="M91" s="15"/>
       <c r="N91" s="18" t="s">
         <v>1000</v>
@@ -10310,7 +10200,7 @@
       <c r="Q91" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="R91" s="32" t="s">
+      <c r="R91" s="18" t="s">
         <v>1003</v>
       </c>
       <c r="S91" s="16" t="n">
@@ -10344,21 +10234,21 @@
         <v>1008</v>
       </c>
       <c r="F92" s="15"/>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="I92" s="27" t="s">
+      <c r="I92" s="26" t="s">
         <v>1011</v>
       </c>
-      <c r="J92" s="40" t="s">
+      <c r="J92" s="35" t="s">
         <v>1012</v>
       </c>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="31"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="29"/>
       <c r="N92" s="18" t="s">
         <v>1013</v>
       </c>
@@ -10400,21 +10290,21 @@
         <v>1022</v>
       </c>
       <c r="F93" s="15"/>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="31"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="29"/>
       <c r="N93" s="18" t="s">
         <v>1024</v>
       </c>
       <c r="O93" s="18"/>
-      <c r="P93" s="105"/>
+      <c r="P93" s="91"/>
       <c r="Q93" s="15" t="s">
         <v>1025</v>
       </c>
@@ -10434,7 +10324,7 @@
       <c r="W93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="37" t="s">
         <v>1027</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -10450,15 +10340,15 @@
         <v>1031</v>
       </c>
       <c r="F94" s="15"/>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="15" t="s">
         <v>1029</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="24" t="s">
         <v>1032</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
       <c r="N94" s="18" t="s">
         <v>49</v>
       </c>
@@ -10486,7 +10376,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="37" t="s">
         <v>1036</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -10502,20 +10392,20 @@
         <v>1040</v>
       </c>
       <c r="F95" s="15"/>
-      <c r="G95" s="29" t="s">
+      <c r="G95" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="24" t="s">
         <v>1042</v>
       </c>
       <c r="I95" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="J95" s="25" t="s">
+      <c r="J95" s="24" t="s">
         <v>1044</v>
       </c>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
       <c r="M95" s="0" t="s">
         <v>173</v>
       </c>
@@ -10545,7 +10435,7 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="37" t="s">
         <v>1048</v>
       </c>
       <c r="B96" s="15" t="s">
@@ -10560,16 +10450,16 @@
       <c r="E96" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="29" t="s">
+      <c r="F96" s="26"/>
+      <c r="G96" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="H96" s="64" t="s">
+      <c r="H96" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
       <c r="M96" s="0" t="s">
         <v>33</v>
       </c>
@@ -10598,114 +10488,57 @@
       </c>
       <c r="W96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="106"/>
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="108"/>
-      <c r="H97" s="108"/>
-      <c r="I97" s="108"/>
-      <c r="J97" s="108"/>
-      <c r="K97" s="108"/>
-      <c r="L97" s="108"/>
-      <c r="M97" s="108"/>
-      <c r="N97" s="108"/>
-      <c r="O97" s="108"/>
-      <c r="P97" s="108"/>
-      <c r="Q97" s="107"/>
-      <c r="R97" s="109"/>
-    </row>
-    <row r="98" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="42" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="R98" s="15"/>
-    </row>
-    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-    </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-    </row>
-    <row r="101" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-    </row>
-    <row r="102" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-    </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A2:R96"/>
   <hyperlinks>
@@ -10854,7 +10687,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="1" sqref="R3:R96 A65"/>
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10867,14 +10700,14 @@
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C1" s="110" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D1" s="111" t="s">
-        <v>1063</v>
+      <c r="B1" s="92" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10882,14 +10715,14 @@
         <f aca="false">'BC First Nations'!A3</f>
         <v>Adams Lake Indian Band (belongs to the Secwepemc Nation, member of the Shuswap Nation Triabal Council)</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>1066</v>
+      <c r="B2" s="92" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10897,13 +10730,13 @@
         <f aca="false">'BC First Nations'!A4</f>
         <v>Aitchelitz Band</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D3" s="110" t="s">
+      <c r="C3" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D3" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10912,13 +10745,13 @@
         <f aca="false">'BC First Nations'!A5</f>
         <v>Ashcroft Indian Band</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D4" s="92" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10927,14 +10760,14 @@
         <f aca="false">'BC First Nations'!A8</f>
         <v>Boothroyd Band</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>1068</v>
+      <c r="C5" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,13 +10775,13 @@
         <f aca="false">'BC First Nations'!A9</f>
         <v>Boston Bar First Nations</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D6" s="92" t="s">
         <v>93</v>
       </c>
     </row>
@@ -10957,14 +10790,14 @@
         <f aca="false">'BC First Nations'!A10</f>
         <v>Canim Lake Band (The People of Broken Rock "The Tsq'escenemc")</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="111" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>1069</v>
+      <c r="C7" s="93" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10972,13 +10805,13 @@
         <f aca="false">'BC First Nations'!A11</f>
         <v>Chawathil First Nation</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D8" s="110" t="s">
+      <c r="C8" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10987,13 +10820,13 @@
         <f aca="false">'BC First Nations'!A12</f>
         <v>Chi:yo:m Agassiz (Cheam) First Nation - meaning "Wild Strawberry Place"</v>
       </c>
-      <c r="B9" s="110" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="92" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11002,14 +10835,14 @@
         <f aca="false">'BC First Nations'!A13</f>
         <v>Coldwater First Nation (Nc/etko - the people of the creeks)</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>1067</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,14 +10850,14 @@
         <f aca="false">'BC First Nations'!A14</f>
         <v>Cook's Ferry Indian Band Kumcheen (Variation Nkumcheen); Includes Pokheistk (Variation Pakeist, Pokheistsk), Pemynoos (Variation Piminos), Spatsum (Variation Spaptsin), Spence'S Bridge</v>
       </c>
-      <c r="B11" s="110" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>1073</v>
+      <c r="B11" s="92" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11032,13 +10865,13 @@
         <f aca="false">'BC First Nations'!A15</f>
         <v>Cowichan Tribes</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D12" s="110" t="s">
+      <c r="C12" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11047,14 +10880,14 @@
         <f aca="false">'BC First Nations'!A16</f>
         <v>Ditidaht First Nation Formerly Nitinaht (Pre-1984) (Variation Nitinat)</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>1074</v>
+      <c r="C13" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11062,14 +10895,14 @@
         <f aca="false">'BC First Nations'!A17</f>
         <v>Esquimalt Nation (Xwsepsum or Kosapsum)</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>1075</v>
+      <c r="C14" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,14 +10910,14 @@
         <f aca="false">'BC First Nations'!A18</f>
         <v>Halalt First Nation</v>
       </c>
-      <c r="B15" s="110" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>1077</v>
+      <c r="B15" s="92" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11092,13 +10925,13 @@
         <f aca="false">'BC First Nations'!A19</f>
         <v>Heiltsuk First Nation</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D16" s="110" t="s">
+      <c r="C16" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D16" s="92" t="s">
         <v>226</v>
       </c>
     </row>
@@ -11107,14 +10940,14 @@
         <f aca="false">'BC First Nations'!A20</f>
         <v>Huu-ay-aht First Nation</v>
       </c>
-      <c r="B17" s="110" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>1080</v>
+      <c r="B17" s="92" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11122,14 +10955,14 @@
         <f aca="false">'BC First Nations'!A21</f>
         <v>Katzie First Nation</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>1081</v>
+      <c r="C18" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,14 +10970,14 @@
         <f aca="false">'BC First Nations'!A25</f>
         <v>Kwantlen First Nation (tireless Runner)</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>1082</v>
+      <c r="C19" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11152,14 +10985,14 @@
         <f aca="false">'BC First Nations'!A26</f>
         <v>Kwaw -Kwaw-Aplit First Nations</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>1083</v>
+      <c r="C20" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,13 +11000,13 @@
         <f aca="false">'BC First Nations'!A27</f>
         <v>Kwikwetlem First Nation</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D21" s="110" t="s">
+      <c r="C21" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>301</v>
       </c>
     </row>
@@ -11182,13 +11015,13 @@
         <f aca="false">'BC First Nations'!A28</f>
         <v>Leq' a: mel First Nation</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="C22" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D22" s="110" t="s">
+      <c r="C22" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D22" s="92" t="s">
         <v>315</v>
       </c>
     </row>
@@ -11197,13 +11030,13 @@
         <f aca="false">'BC First Nations'!A29</f>
         <v>Little Shuswap Lake Indian Band (Skwlax meaning "Black Bear")</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D23" s="110" t="s">
+      <c r="C23" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D23" s="92" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11212,13 +11045,13 @@
         <f aca="false">'BC First Nations'!A30</f>
         <v>Lheidli T'enneh First Nation</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="C24" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D24" s="110" t="s">
+      <c r="C24" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D24" s="92" t="s">
         <v>343</v>
       </c>
     </row>
@@ -11227,13 +11060,13 @@
         <f aca="false">'BC First Nations'!A31</f>
         <v>Lhtako Dene Nation</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D25" s="110" t="s">
+      <c r="C25" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D25" s="92" t="s">
         <v>358</v>
       </c>
     </row>
@@ -11242,13 +11075,13 @@
         <f aca="false">'BC First Nations'!A32</f>
         <v>Lower Nicola Indian Band -</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D26" s="110" t="s">
+      <c r="C26" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D26" s="92" t="s">
         <v>370</v>
       </c>
     </row>
@@ -11257,13 +11090,13 @@
         <f aca="false">'BC First Nations'!A33</f>
         <v>Lower Similkameen #598</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D27" s="110" t="s">
+      <c r="C27" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>381</v>
       </c>
     </row>
@@ -11272,13 +11105,13 @@
         <f aca="false">'BC First Nations'!A34</f>
         <v>Lyackson First Nation</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="C28" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D28" s="110" t="s">
+      <c r="C28" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D28" s="92" t="s">
         <v>395</v>
       </c>
     </row>
@@ -11287,13 +11120,13 @@
         <f aca="false">'BC First Nations'!A35</f>
         <v>Malahat First Nation</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="C29" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D29" s="110" t="s">
+      <c r="C29" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D29" s="92" t="s">
         <v>407</v>
       </c>
     </row>
@@ -11302,13 +11135,13 @@
         <f aca="false">'BC First Nations'!A36</f>
         <v>Matsqui First Nation</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="C30" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D30" s="110" t="s">
+      <c r="C30" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D30" s="92" t="s">
         <v>419</v>
       </c>
     </row>
@@ -11317,14 +11150,14 @@
         <f aca="false">'BC First Nations'!A38</f>
         <v>Musqeam Indian Band</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="92" t="s">
         <v>428</v>
       </c>
-      <c r="C31" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>1084</v>
+      <c r="C31" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11332,13 +11165,13 @@
         <f aca="false">'BC First Nations'!A39</f>
         <v>Neskonlith Indian Band</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="92" t="s">
         <v>442</v>
       </c>
-      <c r="C32" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D32" s="110" t="s">
+      <c r="C32" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D32" s="92" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11347,13 +11180,13 @@
         <f aca="false">'BC First Nations'!A40</f>
         <v>Nooaitch Indian Band</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="92" t="s">
         <v>454</v>
       </c>
-      <c r="C33" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D33" s="110" t="s">
+      <c r="C33" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D33" s="92" t="s">
         <v>463</v>
       </c>
     </row>
@@ -11362,13 +11195,13 @@
         <f aca="false">'BC First Nations'!A42</f>
         <v>Osoyoos</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="92" t="s">
         <v>472</v>
       </c>
-      <c r="C34" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D34" s="110" t="s">
+      <c r="C34" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D34" s="92" t="s">
         <v>478</v>
       </c>
     </row>
@@ -11377,13 +11210,13 @@
         <f aca="false">'BC First Nations'!A43</f>
         <v>Pacheedaht First Nation</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="92" t="s">
         <v>482</v>
       </c>
-      <c r="C35" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>490</v>
       </c>
     </row>
@@ -11392,14 +11225,14 @@
         <f aca="false">'BC First Nations'!A44</f>
         <v>Pauquachin Nation</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="92" t="s">
         <v>494</v>
       </c>
-      <c r="C36" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>1085</v>
+      <c r="C36" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11407,13 +11240,13 @@
         <f aca="false">'BC First Nations'!A45</f>
         <v>Penticton Indian Band</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="C37" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D37" s="92" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11422,13 +11255,13 @@
         <f aca="false">'BC First Nations'!A46</f>
         <v>Peters Band (Peters First Nation)</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="C38" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D38" s="110" t="s">
+      <c r="C38" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11437,13 +11270,13 @@
         <f aca="false">'BC First Nations'!A47</f>
         <v>Penelakut Tribe</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="C39" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D39" s="110" t="s">
+      <c r="C39" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D39" s="92" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11452,13 +11285,13 @@
         <f aca="false">'BC First Nations'!A48</f>
         <v>Popkum First Nation</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="C40" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D40" s="110" t="s">
+      <c r="C40" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D40" s="92" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11467,14 +11300,14 @@
         <f aca="false">'BC First Nations'!A49</f>
         <v>Qayqayt First Nation (New Westminister)</v>
       </c>
-      <c r="B41" s="110" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C41" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>1087</v>
+      <c r="B41" s="92" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11482,13 +11315,13 @@
         <f aca="false">'BC First Nations'!A50</f>
         <v>Scia'new First Nation (Beecher Bay First Nation)</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="92" t="s">
         <v>556</v>
       </c>
-      <c r="C42" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D42" s="110" t="s">
+      <c r="C42" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D42" s="92" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11497,14 +11330,14 @@
         <f aca="false">'BC First Nations'!A51</f>
         <v>Sq'ewlets (Scowlitz) First Nation</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="C43" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D43" s="110" t="s">
-        <v>1088</v>
+      <c r="C43" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11512,13 +11345,13 @@
         <f aca="false">'BC First Nations'!A52</f>
         <v>Seabird Island Band</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="92" t="s">
         <v>578</v>
       </c>
-      <c r="C44" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D44" s="110" t="s">
+      <c r="C44" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D44" s="92" t="s">
         <v>589</v>
       </c>
     </row>
@@ -11527,14 +11360,14 @@
         <f aca="false">'BC First Nations'!A53</f>
         <v>Secwepmc (suh-Meh-much) of the Secwepmc Nation</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="92" t="s">
         <v>592</v>
       </c>
-      <c r="C45" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D45" s="113" t="s">
-        <v>1089</v>
+      <c r="C45" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D45" s="95" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11542,14 +11375,14 @@
         <f aca="false">'BC First Nations'!A54</f>
         <v>Semiahmoo First Nation</v>
       </c>
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="92" t="s">
         <v>603</v>
       </c>
-      <c r="C46" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D46" s="113" t="s">
-        <v>1090</v>
+      <c r="C46" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,14 +11390,14 @@
         <f aca="false">'BC First Nations'!A56</f>
         <v>Shackan Indian Band</v>
       </c>
-      <c r="B47" s="110" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C47" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D47" s="113" t="s">
-        <v>1092</v>
+      <c r="B47" s="92" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11572,13 +11405,13 @@
         <f aca="false">'BC First Nations'!A57</f>
         <v>Shxw'owhamel First Nation</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="92" t="s">
         <v>637</v>
       </c>
-      <c r="C48" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D48" s="110" t="s">
+      <c r="C48" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D48" s="92" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11587,13 +11420,13 @@
         <f aca="false">'BC First Nations'!A58</f>
         <v>Shxwha:y Villiage</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="C49" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D49" s="110" t="s">
+      <c r="C49" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D49" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11602,14 +11435,14 @@
         <f aca="false">'BC First Nations'!A59</f>
         <v>Simpcw First Nation "People of the Rivers"</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="92" t="s">
         <v>673</v>
       </c>
-      <c r="C50" s="110" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D50" s="110" t="s">
-        <v>1093</v>
+      <c r="C50" s="92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D50" s="92" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11617,13 +11450,13 @@
         <f aca="false">'BC First Nations'!A60</f>
         <v>Siska Indian Band</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="92" t="s">
         <v>675</v>
       </c>
-      <c r="C51" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D51" s="110" t="s">
+      <c r="C51" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D51" s="92" t="s">
         <v>681</v>
       </c>
     </row>
@@ -11632,14 +11465,14 @@
         <f aca="false">'BC First Nations'!A61</f>
         <v>Skuppah Indian Band</v>
       </c>
-      <c r="B52" s="110" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C52" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D52" s="113" t="s">
-        <v>1068</v>
+      <c r="B52" s="92" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11647,13 +11480,13 @@
         <f aca="false">'BC First Nations'!A62</f>
         <v>Skowkale First Nation</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="C53" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D53" s="110" t="s">
+      <c r="C53" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D53" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11662,14 +11495,14 @@
         <f aca="false">'BC First Nations'!A63</f>
         <v>Shuswap Indian Band</v>
       </c>
-      <c r="B54" s="110" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C54" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D54" s="110" t="s">
-        <v>1096</v>
+      <c r="B54" s="92" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D54" s="92" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11677,14 +11510,14 @@
         <f aca="false">'BC First Nations'!A64</f>
         <v>Skawahlook First Nation</v>
       </c>
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="92" t="s">
         <v>710</v>
       </c>
-      <c r="C55" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D55" s="110" t="s">
-        <v>1097</v>
+      <c r="C55" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D55" s="92" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,13 +11525,13 @@
         <f aca="false">'BC First Nations'!A65</f>
         <v>Skwah First Nation</v>
       </c>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="92" t="s">
         <v>719</v>
       </c>
-      <c r="C56" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D56" s="110" t="s">
+      <c r="C56" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D56" s="92" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11707,14 +11540,14 @@
         <f aca="false">'BC First Nations'!A66</f>
         <v>Snuneymuxw First Nation</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="92" t="s">
         <v>729</v>
       </c>
-      <c r="C57" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D57" s="110" t="s">
-        <v>1098</v>
+      <c r="C57" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D57" s="92" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11722,13 +11555,13 @@
         <f aca="false">'BC First Nations'!A67</f>
         <v>Soowahlie First Nation</v>
       </c>
-      <c r="B58" s="110" t="s">
+      <c r="B58" s="92" t="s">
         <v>741</v>
       </c>
-      <c r="C58" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D58" s="110" t="s">
+      <c r="C58" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D58" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11737,14 +11570,14 @@
         <f aca="false">'BC First Nations'!A68</f>
         <v>Spuzzum First Nation</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="92" t="s">
         <v>750</v>
       </c>
-      <c r="C59" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D59" s="113" t="s">
-        <v>1068</v>
+      <c r="C59" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11752,14 +11585,14 @@
         <f aca="false">'BC First Nations'!A69</f>
         <v>Squamish First Nation (Squ-Ho-0-meesh)</v>
       </c>
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="92" t="s">
         <v>771</v>
       </c>
-      <c r="C60" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D60" s="110" t="s">
-        <v>1099</v>
+      <c r="C60" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D60" s="92" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11767,13 +11600,13 @@
         <f aca="false">'BC First Nations'!A70</f>
         <v>Squiala First Nation</v>
       </c>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="92" t="s">
         <v>773</v>
       </c>
-      <c r="C61" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D61" s="110" t="s">
+      <c r="C61" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D61" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11782,13 +11615,13 @@
         <f aca="false">'BC First Nations'!A71</f>
         <v>Stk'emlupsemc Te Secwepemc</v>
       </c>
-      <c r="B62" s="110" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C62" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D62" s="110" t="s">
+      <c r="B62" s="92" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D62" s="92" t="s">
         <v>791</v>
       </c>
     </row>
@@ -11797,13 +11630,13 @@
         <f aca="false">'BC First Nations'!A72</f>
         <v>Sts'ailes Band (Chehalls Indian Band)</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="92" t="s">
         <v>803</v>
       </c>
-      <c r="C63" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D63" s="110" t="s">
+      <c r="C63" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D63" s="92" t="s">
         <v>800</v>
       </c>
     </row>
@@ -11812,13 +11645,13 @@
         <f aca="false">'BC First Nations'!A73</f>
         <v>Sts'wecem'cXgat'tem (Canoe Creek/Dog Creek)</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B64" s="92" t="s">
         <v>805</v>
       </c>
-      <c r="C64" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D64" s="110" t="s">
+      <c r="C64" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D64" s="92" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11827,13 +11660,13 @@
         <f aca="false">'BC First Nations'!A74</f>
         <v>St'uxwtews (Bonaparte Indian Band)</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="92" t="s">
         <v>816</v>
       </c>
-      <c r="C65" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D65" s="110" t="s">
+      <c r="C65" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D65" s="92" t="s">
         <v>821</v>
       </c>
     </row>
@@ -11842,13 +11675,13 @@
         <f aca="false">'BC First Nations'!A75</f>
         <v>Stz'uminus First Nation (ltst uw' hw-nuts'-ul-wun) Chemainus</v>
       </c>
-      <c r="B66" s="110" t="s">
+      <c r="B66" s="92" t="s">
         <v>836</v>
       </c>
-      <c r="C66" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D66" s="110" t="s">
+      <c r="C66" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D66" s="92" t="s">
         <v>833</v>
       </c>
     </row>
@@ -11857,13 +11690,13 @@
         <f aca="false">'BC First Nations'!A76</f>
         <v>Sumas First Nation</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="92" t="s">
         <v>837</v>
       </c>
-      <c r="C67" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D67" s="110" t="s">
+      <c r="C67" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D67" s="92" t="s">
         <v>843</v>
       </c>
     </row>
@@ -11872,14 +11705,14 @@
         <f aca="false">'BC First Nations'!A77</f>
         <v>Toosey Indian Band (Tl'esqox)</v>
       </c>
-      <c r="B68" s="110" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C68" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D68" s="113" t="s">
-        <v>1102</v>
+      <c r="B68" s="92" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11887,14 +11720,14 @@
         <f aca="false">'BC First Nations'!A78</f>
         <v>Tsartlip First Nation</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="92" t="s">
         <v>852</v>
       </c>
-      <c r="C69" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D69" s="113" t="s">
-        <v>1085</v>
+      <c r="C69" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,14 +11735,14 @@
         <f aca="false">'BC First Nations'!A79</f>
         <v>Tsawout First Nation</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="92" t="s">
         <v>862</v>
       </c>
-      <c r="C70" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>1085</v>
+      <c r="C70" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,14 +11750,14 @@
         <f aca="false">'BC First Nations'!A80</f>
         <v>Tsawwassen First Nation</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="92" t="s">
         <v>873</v>
       </c>
-      <c r="C71" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D71" s="113" t="s">
-        <v>1103</v>
+      <c r="C71" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11932,13 +11765,13 @@
         <f aca="false">'BC First Nations'!A81</f>
         <v>Ts'elxweyeqw Tribe Management Limited</v>
       </c>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="92" t="s">
         <v>887</v>
       </c>
-      <c r="C72" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D72" s="110" t="s">
+      <c r="C72" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D72" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11947,14 +11780,14 @@
         <f aca="false">'BC First Nations'!A82</f>
         <v>Tseycum First Nation</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="92" t="s">
         <v>897</v>
       </c>
-      <c r="C73" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D73" s="113" t="s">
-        <v>1085</v>
+      <c r="C73" s="92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11962,13 +11795,13 @@
         <f aca="false">'BC First Nations'!A83</f>
         <v>Ts'kwaylaxw (Pavillion Indian Band)</v>
       </c>
-      <c r="B74" s="110" t="s">
+      <c r="B74" s="92" t="s">
         <v>906</v>
       </c>
-      <c r="C74" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D74" s="110" t="s">
+      <c r="C74" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D74" s="92" t="s">
         <v>911</v>
       </c>
     </row>
@@ -11977,14 +11810,14 @@
         <f aca="false">'BC First Nations'!A84</f>
         <v>Tsleil Waututh Nation</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="92" t="s">
         <v>916</v>
       </c>
-      <c r="C75" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D75" s="110" t="s">
-        <v>1104</v>
+      <c r="C75" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,13 +11825,13 @@
         <f aca="false">'BC First Nations'!A85</f>
         <v>T'Sou-ke Nation</v>
       </c>
-      <c r="B76" s="110" t="s">
+      <c r="B76" s="92" t="s">
         <v>929</v>
       </c>
-      <c r="C76" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D76" s="110" t="s">
+      <c r="C76" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D76" s="92" t="s">
         <v>938</v>
       </c>
     </row>
@@ -12007,13 +11840,13 @@
         <f aca="false">'BC First Nations'!A86</f>
         <v>Tk'emlups te Secwepemc</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="92" t="s">
         <v>942</v>
       </c>
-      <c r="C77" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D77" s="110" t="s">
+      <c r="C77" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D77" s="92" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12022,13 +11855,13 @@
         <f aca="false">'BC First Nations'!A87</f>
         <v>Tzeachten First Nation</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="92" t="s">
         <v>954</v>
       </c>
-      <c r="C78" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D78" s="110" t="s">
+      <c r="C78" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D78" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12037,13 +11870,13 @@
         <f aca="false">'BC First Nations'!A88</f>
         <v>Ulkatcho (Anahim) First Nation</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="92" t="s">
         <v>964</v>
       </c>
-      <c r="C79" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D79" s="110" t="s">
+      <c r="C79" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D79" s="92" t="s">
         <v>971</v>
       </c>
     </row>
@@ -12052,13 +11885,13 @@
         <f aca="false">'BC First Nations'!A89</f>
         <v>Union Bar First Nations</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="92" t="s">
         <v>975</v>
       </c>
-      <c r="C80" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D80" s="110" t="s">
+      <c r="C80" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D80" s="92" t="s">
         <v>982</v>
       </c>
     </row>
@@ -12067,13 +11900,13 @@
         <f aca="false">'BC First Nations'!A90</f>
         <v>Upper Nicola Indian Band</v>
       </c>
-      <c r="B81" s="110" t="s">
+      <c r="B81" s="92" t="s">
         <v>984</v>
       </c>
-      <c r="C81" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D81" s="110" t="s">
+      <c r="C81" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D81" s="92" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12082,13 +11915,13 @@
         <f aca="false">'BC First Nations'!A91</f>
         <v>Upper Similkameen Indian Band</v>
       </c>
-      <c r="B82" s="110" t="s">
+      <c r="B82" s="92" t="s">
         <v>994</v>
       </c>
-      <c r="C82" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D82" s="110" t="s">
+      <c r="C82" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D82" s="92" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -12097,13 +11930,13 @@
         <f aca="false">'BC First Nations'!A92</f>
         <v>Whispering Pines/Clinton Indian Bands</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="92" t="s">
         <v>1004</v>
       </c>
-      <c r="C83" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D83" s="110" t="s">
+      <c r="C83" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D83" s="92" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -12112,13 +11945,13 @@
         <f aca="false">'BC First Nations'!A93</f>
         <v>Williams Lake Indian Band</v>
       </c>
-      <c r="B84" s="110" t="s">
+      <c r="B84" s="92" t="s">
         <v>1018</v>
       </c>
-      <c r="C84" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D84" s="110" t="s">
+      <c r="C84" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D84" s="92" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -12127,13 +11960,13 @@
         <f aca="false">'BC First Nations'!A94</f>
         <v>Yakweakwioose First Nation</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="92" t="s">
         <v>1027</v>
       </c>
-      <c r="C85" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D85" s="110" t="s">
+      <c r="C85" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D85" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12142,13 +11975,13 @@
         <f aca="false">'BC First Nations'!A95</f>
         <v>Yale First Nation</v>
       </c>
-      <c r="B86" s="110" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C86" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D86" s="110" t="s">
+      <c r="B86" s="92" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C86" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D86" s="92" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -12157,21 +11990,21 @@
         <f aca="false">'BC First Nations'!A96</f>
         <v>Xat'sull First Nation (Soda Creek)</v>
       </c>
-      <c r="B87" s="110" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C87" s="110" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D87" s="110" t="s">
+      <c r="B87" s="92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C87" s="92" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D87" s="92" t="s">
         <v>1054</v>
       </c>
-      <c r="G87" s="110"/>
+      <c r="G87" s="92"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="110"/>
-      <c r="D88" s="110"/>
-      <c r="E88" s="110"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12280,23 +12113,23 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="R3:R96 A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12315,7 +12148,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>49.114</v>
@@ -12329,7 +12162,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>147.767</v>
@@ -12343,7 +12176,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>246.043</v>
@@ -12357,7 +12190,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>489.16</v>
@@ -12371,7 +12204,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>502.443</v>
@@ -12385,7 +12218,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>525.579</v>
@@ -12399,7 +12232,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>610.675</v>
@@ -12413,7 +12246,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>690.485</v>
@@ -12427,7 +12260,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>806.471</v>
@@ -12441,7 +12274,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>990.273</v>
